--- a/src/test/java/com/born/xls/ProductDetailsPage.xlsx
+++ b/src/test/java/com/born/xls/ProductDetailsPage.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="6590" windowHeight="2660" tabRatio="937"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="6590" windowHeight="2660" tabRatio="937" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="158">
   <si>
     <t>TCID</t>
   </si>
@@ -576,15 +576,6 @@
   </si>
   <si>
     <t>3</t>
-  </si>
-  <si>
-    <t>Result2</t>
-  </si>
-  <si>
-    <t>PASS</t>
-  </si>
-  <si>
-    <t>Result1</t>
   </si>
   <si>
     <r>
@@ -677,7 +668,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -712,16 +703,6 @@
       <patternFill patternType="solid">
         <fgColor theme="1"/>
         <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="55"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="55"/>
       </patternFill>
     </fill>
   </fills>
@@ -789,7 +770,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -865,8 +846,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1179,7 +1158,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="105" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="105" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -1207,7 +1186,7 @@
         <v>38</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>62</v>
@@ -1311,10 +1290,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:I637"/>
+  <dimension ref="A1:J637"/>
   <sheetViews>
-    <sheetView topLeftCell="A102" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A121" sqref="A121"/>
+    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1326,11 +1305,12 @@
     <col min="5" max="5" width="34.1796875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="29.7265625" style="1" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="17" style="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="9" width="7.54296875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="16384" width="9.1796875" style="1" collapsed="1"/>
+    <col min="8" max="8" width="9.1796875" style="1" collapsed="1"/>
+    <col min="9" max="10" width="9.1796875" style="1"/>
+    <col min="11" max="16384" width="9.1796875" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1352,14 +1332,8 @@
       <c r="G1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="33" t="s">
-        <v>157</v>
-      </c>
-      <c r="I1" s="34" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>38</v>
       </c>
@@ -1377,11 +1351,8 @@
         <v>8</v>
       </c>
       <c r="G2" s="24"/>
-      <c r="H2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>38</v>
       </c>
@@ -1399,11 +1370,8 @@
         <v>10</v>
       </c>
       <c r="G3" s="24"/>
-      <c r="H3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>38</v>
       </c>
@@ -1421,11 +1389,8 @@
       </c>
       <c r="F4" s="24"/>
       <c r="G4" s="24"/>
-      <c r="H4" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>38</v>
       </c>
@@ -1443,11 +1408,8 @@
       </c>
       <c r="F5" s="24"/>
       <c r="G5" s="24"/>
-      <c r="H5" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
         <v>38</v>
       </c>
@@ -1465,11 +1427,8 @@
       </c>
       <c r="F6" s="24"/>
       <c r="G6" s="24"/>
-      <c r="H6" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>38</v>
       </c>
@@ -1487,11 +1446,8 @@
       </c>
       <c r="F7" s="24"/>
       <c r="G7" s="24"/>
-      <c r="H7" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>38</v>
       </c>
@@ -1509,11 +1465,8 @@
       </c>
       <c r="F8" s="24"/>
       <c r="G8" s="24"/>
-      <c r="H8" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
         <v>38</v>
       </c>
@@ -1529,11 +1482,8 @@
       <c r="E9" s="24"/>
       <c r="F9" s="24"/>
       <c r="G9" s="24"/>
-      <c r="H9" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="25"/>
       <c r="B10" s="25"/>
       <c r="C10" s="25"/>
@@ -1542,7 +1492,7 @@
       <c r="F10" s="25"/>
       <c r="G10" s="25"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
         <v>49</v>
       </c>
@@ -1560,11 +1510,8 @@
         <v>8</v>
       </c>
       <c r="G11" s="24"/>
-      <c r="H11" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
         <v>49</v>
       </c>
@@ -1582,11 +1529,8 @@
         <v>10</v>
       </c>
       <c r="G12" s="24"/>
-      <c r="H12" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
         <v>49</v>
       </c>
@@ -1604,11 +1548,8 @@
       </c>
       <c r="F13" s="24"/>
       <c r="G13" s="24"/>
-      <c r="H13" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
         <v>49</v>
       </c>
@@ -1626,11 +1567,8 @@
       </c>
       <c r="F14" s="24"/>
       <c r="G14" s="24"/>
-      <c r="H14" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
         <v>49</v>
       </c>
@@ -1648,11 +1586,8 @@
       </c>
       <c r="F15" s="24"/>
       <c r="G15" s="24"/>
-      <c r="H15" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="6" t="s">
         <v>49</v>
       </c>
@@ -1670,11 +1605,8 @@
       </c>
       <c r="F16" s="24"/>
       <c r="G16" s="24"/>
-      <c r="H16" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="6" t="s">
         <v>49</v>
       </c>
@@ -1692,11 +1624,8 @@
       </c>
       <c r="F17" s="24"/>
       <c r="G17" s="24"/>
-      <c r="H17" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="6" t="s">
         <v>49</v>
       </c>
@@ -1714,11 +1643,8 @@
       </c>
       <c r="F18" s="24"/>
       <c r="G18" s="24"/>
-      <c r="H18" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="6" t="s">
         <v>49</v>
       </c>
@@ -1736,11 +1662,8 @@
       </c>
       <c r="F19" s="24"/>
       <c r="G19" s="24"/>
-      <c r="H19" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="6" t="s">
         <v>49</v>
       </c>
@@ -1758,11 +1681,8 @@
       </c>
       <c r="F20" s="24"/>
       <c r="G20" s="24"/>
-      <c r="H20" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="6" t="s">
         <v>49</v>
       </c>
@@ -1778,11 +1698,8 @@
       <c r="E21" s="24"/>
       <c r="F21" s="24"/>
       <c r="G21" s="24"/>
-      <c r="H21" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="25"/>
       <c r="B22" s="25"/>
       <c r="C22" s="25"/>
@@ -1791,7 +1708,7 @@
       <c r="F22" s="25"/>
       <c r="G22" s="25"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="6" t="s">
         <v>56</v>
       </c>
@@ -1809,11 +1726,8 @@
         <v>8</v>
       </c>
       <c r="G23" s="24"/>
-      <c r="I23" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="6" t="s">
         <v>56</v>
       </c>
@@ -1831,11 +1745,8 @@
         <v>10</v>
       </c>
       <c r="G24" s="24"/>
-      <c r="I24" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="6" t="s">
         <v>56</v>
       </c>
@@ -1855,11 +1766,8 @@
         <v>60</v>
       </c>
       <c r="G25" s="24"/>
-      <c r="I25" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="6" t="s">
         <v>56</v>
       </c>
@@ -1877,11 +1785,8 @@
       </c>
       <c r="F26" s="24"/>
       <c r="G26" s="24"/>
-      <c r="I26" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="6" t="s">
         <v>56</v>
       </c>
@@ -1897,11 +1802,8 @@
       <c r="E27" s="24"/>
       <c r="F27" s="24"/>
       <c r="G27" s="24"/>
-      <c r="I27" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="6" t="s">
         <v>56</v>
       </c>
@@ -1919,11 +1821,8 @@
       </c>
       <c r="F28" s="24"/>
       <c r="G28" s="24"/>
-      <c r="I28" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="6" t="s">
         <v>56</v>
       </c>
@@ -1941,11 +1840,8 @@
       </c>
       <c r="F29" s="24"/>
       <c r="G29" s="24"/>
-      <c r="I29" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="6" t="s">
         <v>56</v>
       </c>
@@ -1963,11 +1859,8 @@
       </c>
       <c r="F30" s="24"/>
       <c r="G30" s="24"/>
-      <c r="I30" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="6" t="s">
         <v>56</v>
       </c>
@@ -1985,11 +1878,8 @@
       </c>
       <c r="F31" s="24"/>
       <c r="G31" s="24"/>
-      <c r="I31" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="6" t="s">
         <v>56</v>
       </c>
@@ -2007,11 +1897,8 @@
       </c>
       <c r="F32" s="8"/>
       <c r="G32" s="24"/>
-      <c r="I32" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" s="6" t="s">
         <v>56</v>
       </c>
@@ -2029,11 +1916,8 @@
       </c>
       <c r="F33" s="24"/>
       <c r="G33" s="24"/>
-      <c r="I33" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" s="6" t="s">
         <v>56</v>
       </c>
@@ -2053,11 +1937,8 @@
         <v>85</v>
       </c>
       <c r="G34" s="24"/>
-      <c r="I34" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" s="6" t="s">
         <v>56</v>
       </c>
@@ -2075,11 +1956,8 @@
       </c>
       <c r="F35" s="24"/>
       <c r="G35" s="24"/>
-      <c r="I35" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" s="6" t="s">
         <v>56</v>
       </c>
@@ -2095,11 +1973,8 @@
       <c r="E36" s="24"/>
       <c r="F36" s="24"/>
       <c r="G36" s="24"/>
-      <c r="I36" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" s="6" t="s">
         <v>56</v>
       </c>
@@ -2117,11 +1992,8 @@
       </c>
       <c r="F37" s="24"/>
       <c r="G37" s="24"/>
-      <c r="I37" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" s="6" t="s">
         <v>56</v>
       </c>
@@ -2139,11 +2011,8 @@
       </c>
       <c r="F38" s="24"/>
       <c r="G38" s="24"/>
-      <c r="I38" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" s="6" t="s">
         <v>56</v>
       </c>
@@ -2161,11 +2030,8 @@
       </c>
       <c r="F39" s="24"/>
       <c r="G39" s="24"/>
-      <c r="I39" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" s="6" t="s">
         <v>56</v>
       </c>
@@ -2183,11 +2049,8 @@
       </c>
       <c r="F40" s="24"/>
       <c r="G40" s="24"/>
-      <c r="I40" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" s="6" t="s">
         <v>56</v>
       </c>
@@ -2205,11 +2068,8 @@
       </c>
       <c r="F41" s="24"/>
       <c r="G41" s="24"/>
-      <c r="I41" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" s="6" t="s">
         <v>56</v>
       </c>
@@ -2227,11 +2087,8 @@
       </c>
       <c r="F42" s="24"/>
       <c r="G42" s="24"/>
-      <c r="I42" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" s="6" t="s">
         <v>56</v>
       </c>
@@ -2247,11 +2104,8 @@
       <c r="E43" s="24"/>
       <c r="F43" s="24"/>
       <c r="G43" s="24"/>
-      <c r="I43" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" s="25"/>
       <c r="B44" s="25"/>
       <c r="C44" s="25"/>
@@ -2260,7 +2114,7 @@
       <c r="F44" s="25"/>
       <c r="G44" s="25"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" s="20" t="s">
         <v>75</v>
       </c>
@@ -2278,11 +2132,8 @@
         <v>8</v>
       </c>
       <c r="G45" s="24"/>
-      <c r="H45" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" s="20" t="s">
         <v>75</v>
       </c>
@@ -2300,11 +2151,8 @@
         <v>10</v>
       </c>
       <c r="G46" s="24"/>
-      <c r="H46" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" s="20" t="s">
         <v>75</v>
       </c>
@@ -2322,11 +2170,8 @@
       </c>
       <c r="F47" s="24"/>
       <c r="G47" s="24"/>
-      <c r="H47" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" s="20" t="s">
         <v>75</v>
       </c>
@@ -2344,11 +2189,8 @@
       </c>
       <c r="F48" s="24"/>
       <c r="G48" s="24"/>
-      <c r="H48" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49" s="20" t="s">
         <v>75</v>
       </c>
@@ -2366,11 +2208,8 @@
       </c>
       <c r="F49" s="24"/>
       <c r="G49" s="24"/>
-      <c r="H49" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" s="20" t="s">
         <v>75</v>
       </c>
@@ -2388,11 +2227,8 @@
       </c>
       <c r="F50" s="24"/>
       <c r="G50" s="24"/>
-      <c r="H50" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51" s="20" t="s">
         <v>75</v>
       </c>
@@ -2410,11 +2246,8 @@
       </c>
       <c r="F51" s="24"/>
       <c r="G51" s="24"/>
-      <c r="H51" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52" s="20" t="s">
         <v>75</v>
       </c>
@@ -2432,11 +2265,8 @@
       </c>
       <c r="F52" s="24"/>
       <c r="G52" s="24"/>
-      <c r="H52" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53" s="20" t="s">
         <v>75</v>
       </c>
@@ -2454,11 +2284,8 @@
       </c>
       <c r="F53" s="24"/>
       <c r="G53" s="24"/>
-      <c r="H53" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54" s="20" t="s">
         <v>75</v>
       </c>
@@ -2474,11 +2301,8 @@
       <c r="E54" s="24"/>
       <c r="F54" s="24"/>
       <c r="G54" s="24"/>
-      <c r="H54" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55" s="25"/>
       <c r="B55" s="25"/>
       <c r="C55" s="25"/>
@@ -2487,7 +2311,7 @@
       <c r="F55" s="25"/>
       <c r="G55" s="25"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56" s="20" t="s">
         <v>76</v>
       </c>
@@ -2505,11 +2329,8 @@
         <v>8</v>
       </c>
       <c r="G56" s="24"/>
-      <c r="H56" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57" s="20" t="s">
         <v>76</v>
       </c>
@@ -2527,11 +2348,8 @@
         <v>10</v>
       </c>
       <c r="G57" s="24"/>
-      <c r="H57" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58" s="20" t="s">
         <v>76</v>
       </c>
@@ -2549,11 +2367,8 @@
       </c>
       <c r="F58" s="24"/>
       <c r="G58" s="24"/>
-      <c r="H58" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59" s="20" t="s">
         <v>76</v>
       </c>
@@ -2571,11 +2386,8 @@
       </c>
       <c r="F59" s="24"/>
       <c r="G59" s="24"/>
-      <c r="H59" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60" s="20" t="s">
         <v>76</v>
       </c>
@@ -2593,11 +2405,8 @@
       </c>
       <c r="F60" s="24"/>
       <c r="G60" s="24"/>
-      <c r="H60" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A61" s="20" t="s">
         <v>76</v>
       </c>
@@ -2615,11 +2424,8 @@
       </c>
       <c r="F61" s="24"/>
       <c r="G61" s="24"/>
-      <c r="H61" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62" s="20" t="s">
         <v>76</v>
       </c>
@@ -2637,11 +2443,8 @@
       </c>
       <c r="F62" s="32"/>
       <c r="G62" s="32"/>
-      <c r="H62" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A63" s="20" t="s">
         <v>76</v>
       </c>
@@ -2659,11 +2462,8 @@
       </c>
       <c r="F63" s="7"/>
       <c r="G63" s="24"/>
-      <c r="H63" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A64" s="20" t="s">
         <v>76</v>
       </c>
@@ -2681,11 +2481,8 @@
       </c>
       <c r="F64" s="7"/>
       <c r="G64" s="24"/>
-      <c r="H64" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A65" s="20" t="s">
         <v>76</v>
       </c>
@@ -2705,11 +2502,8 @@
         <v>60</v>
       </c>
       <c r="G65" s="24"/>
-      <c r="H65" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A66" s="20" t="s">
         <v>76</v>
       </c>
@@ -2725,11 +2519,8 @@
       <c r="E66" s="24"/>
       <c r="F66" s="24"/>
       <c r="G66" s="24"/>
-      <c r="H66" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A67" s="29"/>
       <c r="B67" s="30"/>
       <c r="C67" s="30"/>
@@ -2738,7 +2529,7 @@
       <c r="F67" s="30"/>
       <c r="G67" s="31"/>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A68" s="20" t="s">
         <v>64</v>
       </c>
@@ -2756,11 +2547,8 @@
         <v>8</v>
       </c>
       <c r="G68" s="24"/>
-      <c r="I68" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A69" s="20" t="s">
         <v>64</v>
       </c>
@@ -2778,11 +2566,8 @@
         <v>10</v>
       </c>
       <c r="G69" s="24"/>
-      <c r="I69" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A70" s="20" t="s">
         <v>64</v>
       </c>
@@ -2802,11 +2587,8 @@
         <v>148</v>
       </c>
       <c r="G70" s="24"/>
-      <c r="I70" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A71" s="20" t="s">
         <v>64</v>
       </c>
@@ -2824,11 +2606,8 @@
       </c>
       <c r="F71" s="24"/>
       <c r="G71" s="24"/>
-      <c r="I71" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A72" s="20" t="s">
         <v>64</v>
       </c>
@@ -2844,11 +2623,8 @@
       <c r="E72" s="24"/>
       <c r="F72" s="24"/>
       <c r="G72" s="24"/>
-      <c r="I72" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A73" s="20" t="s">
         <v>64</v>
       </c>
@@ -2866,11 +2642,8 @@
       </c>
       <c r="F73" s="24"/>
       <c r="G73" s="24"/>
-      <c r="I73" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A74" s="20" t="s">
         <v>64</v>
       </c>
@@ -2888,11 +2661,8 @@
       </c>
       <c r="F74" s="24"/>
       <c r="G74" s="24"/>
-      <c r="I74" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A75" s="20" t="s">
         <v>64</v>
       </c>
@@ -2910,11 +2680,8 @@
       </c>
       <c r="F75" s="7"/>
       <c r="G75" s="24"/>
-      <c r="I75" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A76" s="20" t="s">
         <v>64</v>
       </c>
@@ -2932,11 +2699,8 @@
       </c>
       <c r="F76" s="24"/>
       <c r="G76" s="24"/>
-      <c r="I76" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A77" s="20" t="s">
         <v>64</v>
       </c>
@@ -2954,11 +2718,8 @@
       </c>
       <c r="F77" s="24"/>
       <c r="G77" s="24"/>
-      <c r="I77" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A78" s="20" t="s">
         <v>64</v>
       </c>
@@ -2976,11 +2737,8 @@
       </c>
       <c r="F78" s="24"/>
       <c r="G78" s="24"/>
-      <c r="I78" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A79" s="20" t="s">
         <v>64</v>
       </c>
@@ -2998,11 +2756,8 @@
       </c>
       <c r="F79" s="24"/>
       <c r="G79" s="24"/>
-      <c r="I79" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A80" s="20" t="s">
         <v>64</v>
       </c>
@@ -3022,11 +2777,8 @@
         <v>111</v>
       </c>
       <c r="G80" s="24"/>
-      <c r="I80" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A81" s="20" t="s">
         <v>64</v>
       </c>
@@ -3046,11 +2798,8 @@
         <v>112</v>
       </c>
       <c r="G81" s="24"/>
-      <c r="I81" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A82" s="20" t="s">
         <v>64</v>
       </c>
@@ -3068,11 +2817,8 @@
       </c>
       <c r="F82" s="24"/>
       <c r="G82" s="24"/>
-      <c r="I82" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A83" s="20" t="s">
         <v>64</v>
       </c>
@@ -3090,11 +2836,8 @@
       </c>
       <c r="F83" s="7"/>
       <c r="G83" s="24"/>
-      <c r="I83" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A84" s="20" t="s">
         <v>64</v>
       </c>
@@ -3112,11 +2855,8 @@
       </c>
       <c r="F84" s="7"/>
       <c r="G84" s="24"/>
-      <c r="I84" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A85" s="20" t="s">
         <v>64</v>
       </c>
@@ -3134,11 +2874,8 @@
       </c>
       <c r="F85" s="24"/>
       <c r="G85" s="24"/>
-      <c r="I85" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A86" s="20" t="s">
         <v>64</v>
       </c>
@@ -3156,11 +2893,8 @@
       </c>
       <c r="F86" s="24"/>
       <c r="G86" s="24"/>
-      <c r="I86" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A87" s="20" t="s">
         <v>64</v>
       </c>
@@ -3176,11 +2910,8 @@
       <c r="E87" s="26"/>
       <c r="F87" s="24"/>
       <c r="G87" s="24"/>
-      <c r="I87" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A88" s="25"/>
       <c r="B88" s="25"/>
       <c r="C88" s="25"/>
@@ -3189,7 +2920,7 @@
       <c r="F88" s="25"/>
       <c r="G88" s="25"/>
     </row>
-    <row r="89" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A89" s="19" t="s">
         <v>114</v>
       </c>
@@ -3207,11 +2938,8 @@
         <v>8</v>
       </c>
       <c r="G89" s="24"/>
-      <c r="H89" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    </row>
+    <row r="90" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A90" s="19" t="s">
         <v>114</v>
       </c>
@@ -3229,11 +2957,8 @@
         <v>10</v>
       </c>
       <c r="G90" s="24"/>
-      <c r="H90" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    </row>
+    <row r="91" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A91" s="19" t="s">
         <v>114</v>
       </c>
@@ -3251,11 +2976,8 @@
       </c>
       <c r="F91" s="24"/>
       <c r="G91" s="24"/>
-      <c r="H91" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    </row>
+    <row r="92" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A92" s="19" t="s">
         <v>114</v>
       </c>
@@ -3273,11 +2995,8 @@
       </c>
       <c r="F92" s="7"/>
       <c r="G92" s="7"/>
-      <c r="H92" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    </row>
+    <row r="93" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A93" s="19" t="s">
         <v>114</v>
       </c>
@@ -3295,11 +3014,8 @@
       </c>
       <c r="F93" s="7"/>
       <c r="G93" s="7"/>
-      <c r="H93" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    </row>
+    <row r="94" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A94" s="19" t="s">
         <v>114</v>
       </c>
@@ -3317,11 +3033,8 @@
       </c>
       <c r="F94" s="7"/>
       <c r="G94" s="7"/>
-      <c r="H94" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    </row>
+    <row r="95" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A95" s="19" t="s">
         <v>114</v>
       </c>
@@ -3339,11 +3052,8 @@
       </c>
       <c r="F95" s="24"/>
       <c r="G95" s="24"/>
-      <c r="H95" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+    </row>
+    <row r="96" spans="1:7" ht="87" x14ac:dyDescent="0.35">
       <c r="A96" s="19" t="s">
         <v>114</v>
       </c>
@@ -3361,11 +3071,8 @@
       </c>
       <c r="F96" s="24"/>
       <c r="G96" s="24"/>
-      <c r="H96" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    </row>
+    <row r="97" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A97" s="19" t="s">
         <v>114</v>
       </c>
@@ -3381,11 +3088,8 @@
       <c r="E97" s="24"/>
       <c r="F97" s="24"/>
       <c r="G97" s="24"/>
-      <c r="H97" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A98" s="25"/>
       <c r="B98" s="25"/>
       <c r="C98" s="25"/>
@@ -3394,7 +3098,7 @@
       <c r="F98" s="25"/>
       <c r="G98" s="25"/>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A99" s="19" t="s">
         <v>115</v>
       </c>
@@ -3412,11 +3116,8 @@
         <v>8</v>
       </c>
       <c r="G99" s="24"/>
-      <c r="H99" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A100" s="19" t="s">
         <v>115</v>
       </c>
@@ -3434,11 +3135,8 @@
         <v>10</v>
       </c>
       <c r="G100" s="24"/>
-      <c r="H100" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    </row>
+    <row r="101" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A101" s="19" t="s">
         <v>115</v>
       </c>
@@ -3456,11 +3154,8 @@
       </c>
       <c r="F101" s="24"/>
       <c r="G101" s="24"/>
-      <c r="H101" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    </row>
+    <row r="102" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A102" s="19" t="s">
         <v>115</v>
       </c>
@@ -3478,11 +3173,8 @@
       </c>
       <c r="F102" s="24"/>
       <c r="G102" s="24"/>
-      <c r="H102" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A103" s="19" t="s">
         <v>115</v>
       </c>
@@ -3498,11 +3190,8 @@
       <c r="E103" s="26"/>
       <c r="F103" s="24"/>
       <c r="G103" s="24"/>
-      <c r="H103" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A104" s="25"/>
       <c r="B104" s="25"/>
       <c r="C104" s="25"/>
@@ -3513,7 +3202,7 @@
       <c r="F104" s="25"/>
       <c r="G104" s="25"/>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A105" s="23" t="s">
         <v>123</v>
       </c>
@@ -3531,11 +3220,8 @@
         <v>8</v>
       </c>
       <c r="G105" s="24"/>
-      <c r="H105" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A106" s="23" t="s">
         <v>123</v>
       </c>
@@ -3553,11 +3239,8 @@
         <v>10</v>
       </c>
       <c r="G106" s="24"/>
-      <c r="H106" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A107" s="23" t="s">
         <v>123</v>
       </c>
@@ -3575,11 +3258,8 @@
       </c>
       <c r="F107" s="24"/>
       <c r="G107" s="24"/>
-      <c r="H107" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A108" s="23" t="s">
         <v>123</v>
       </c>
@@ -3597,11 +3277,8 @@
       </c>
       <c r="F108" s="24"/>
       <c r="G108" s="24"/>
-      <c r="H108" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A109" s="23" t="s">
         <v>123</v>
       </c>
@@ -3619,11 +3296,8 @@
       </c>
       <c r="F109" s="24"/>
       <c r="G109" s="24"/>
-      <c r="H109" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A110" s="23" t="s">
         <v>123</v>
       </c>
@@ -3641,11 +3315,8 @@
       </c>
       <c r="F110" s="24"/>
       <c r="G110" s="24"/>
-      <c r="H110" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A111" s="23" t="s">
         <v>123</v>
       </c>
@@ -3663,11 +3334,8 @@
       </c>
       <c r="F111" s="24"/>
       <c r="G111" s="24"/>
-      <c r="H111" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A112" s="23" t="s">
         <v>123</v>
       </c>
@@ -3685,11 +3353,8 @@
       </c>
       <c r="F112" s="24"/>
       <c r="G112" s="24"/>
-      <c r="H112" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A113" s="23" t="s">
         <v>123</v>
       </c>
@@ -3707,11 +3372,8 @@
       </c>
       <c r="F113" s="24"/>
       <c r="G113" s="24"/>
-      <c r="H113" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A114" s="23" t="s">
         <v>123</v>
       </c>
@@ -3729,11 +3391,8 @@
       </c>
       <c r="F114" s="24"/>
       <c r="G114" s="24"/>
-      <c r="H114" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A115" s="23" t="s">
         <v>123</v>
       </c>
@@ -3751,11 +3410,8 @@
       </c>
       <c r="F115" s="24"/>
       <c r="G115" s="24"/>
-      <c r="H115" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A116" s="23" t="s">
         <v>123</v>
       </c>
@@ -3773,11 +3429,8 @@
       </c>
       <c r="F116" s="24"/>
       <c r="G116" s="24"/>
-      <c r="H116" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A117" s="23" t="s">
         <v>123</v>
       </c>
@@ -3795,11 +3448,8 @@
       </c>
       <c r="F117" s="24"/>
       <c r="G117" s="24"/>
-      <c r="H117" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A118" s="23" t="s">
         <v>123</v>
       </c>
@@ -3815,11 +3465,8 @@
       <c r="E118" s="24"/>
       <c r="F118" s="24"/>
       <c r="G118" s="24"/>
-      <c r="H118" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A119" s="10"/>
       <c r="B119" s="10"/>
       <c r="C119" s="10"/>
@@ -3828,7 +3475,7 @@
       <c r="F119" s="10"/>
       <c r="G119" s="10"/>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A120" s="10"/>
       <c r="B120" s="10"/>
       <c r="C120" s="10"/>
@@ -3837,7 +3484,7 @@
       <c r="F120" s="10"/>
       <c r="G120" s="10"/>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A121" s="28"/>
       <c r="B121" s="28"/>
       <c r="C121" s="28"/>
@@ -3846,7 +3493,7 @@
       <c r="F121" s="10"/>
       <c r="G121" s="10"/>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A122" s="10"/>
       <c r="B122" s="10"/>
       <c r="C122" s="10"/>
@@ -3855,7 +3502,7 @@
       <c r="F122" s="10"/>
       <c r="G122" s="10"/>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A123" s="10"/>
       <c r="B123" s="10"/>
       <c r="C123" s="10"/>
@@ -3864,7 +3511,7 @@
       <c r="F123" s="10"/>
       <c r="G123" s="10"/>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A124" s="10"/>
       <c r="B124" s="10"/>
       <c r="C124" s="10"/>
@@ -3873,7 +3520,7 @@
       <c r="F124" s="10"/>
       <c r="G124" s="10"/>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A125" s="10"/>
       <c r="B125" s="10"/>
       <c r="C125" s="10"/>
@@ -3882,7 +3529,7 @@
       <c r="F125" s="10"/>
       <c r="G125" s="10"/>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A126" s="10"/>
       <c r="B126" s="10"/>
       <c r="C126" s="10"/>
@@ -3891,7 +3538,7 @@
       <c r="F126" s="10"/>
       <c r="G126" s="10"/>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A127" s="10"/>
       <c r="B127" s="10"/>
       <c r="C127" s="10"/>
@@ -3900,7 +3547,7 @@
       <c r="F127" s="10"/>
       <c r="G127" s="10"/>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A128" s="10"/>
       <c r="B128" s="10"/>
       <c r="C128" s="10"/>
@@ -8517,7 +8164,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>

--- a/src/test/java/com/born/xls/ProductDetailsPage.xlsx
+++ b/src/test/java/com/born/xls/ProductDetailsPage.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="6590" windowHeight="2660" tabRatio="937" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="6590" windowHeight="2660" tabRatio="937" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="159">
   <si>
     <t>TCID</t>
   </si>
@@ -602,6 +602,9 @@
       </rPr>
       <t xml:space="preserve"> button is working to add the products</t>
     </r>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
@@ -1159,7 +1162,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView zoomScale="105" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C2" sqref="C2:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1189,7 +1192,7 @@
         <v>157</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>62</v>
+        <v>158</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -1200,7 +1203,7 @@
         <v>50</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>62</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -1211,7 +1214,7 @@
         <v>134</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>62</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -1222,7 +1225,7 @@
         <v>135</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>62</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -1233,7 +1236,7 @@
         <v>113</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>62</v>
+        <v>158</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -1244,7 +1247,7 @@
         <v>65</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>62</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="29" x14ac:dyDescent="0.35">
@@ -1255,7 +1258,7 @@
         <v>116</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>62</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="29" x14ac:dyDescent="0.35">
@@ -1266,7 +1269,7 @@
         <v>132</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>62</v>
+        <v>158</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
@@ -1290,10 +1293,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:J637"/>
+  <dimension ref="A1:K637"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:I1048576"/>
+    <sheetView tabSelected="1" topLeftCell="D97" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H102" sqref="H102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1305,9 +1308,9 @@
     <col min="5" max="5" width="34.1796875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="29.7265625" style="1" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="17" style="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="9.1796875" style="1" collapsed="1"/>
-    <col min="9" max="10" width="9.1796875" style="1"/>
-    <col min="11" max="16384" width="9.1796875" style="1" collapsed="1"/>
+    <col min="8" max="10" width="9.1796875" style="1" collapsed="1"/>
+    <col min="11" max="11" width="9.1796875" style="1"/>
+    <col min="12" max="16384" width="9.1796875" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
@@ -8164,7 +8167,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>

--- a/src/test/java/com/born/xls/ProductDetailsPage.xlsx
+++ b/src/test/java/com/born/xls/ProductDetailsPage.xlsx
@@ -11,6 +11,7 @@
     <sheet name="Test Steps" sheetId="3" r:id="rId2"/>
     <sheet name="PDP-Write a Review" sheetId="57" r:id="rId3"/>
     <sheet name="Comparing the Products" sheetId="58" r:id="rId4"/>
+    <sheet name="WhereToBuy" sheetId="59" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Test Cases'!$A$1:$C$8</definedName>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="162">
   <si>
     <t>TCID</t>
   </si>
@@ -394,9 +395,6 @@
   </si>
   <si>
     <t>ServicePartsPage_Link</t>
-  </si>
-  <si>
-    <t>Shop Online Where to Buy(WTB)</t>
   </si>
   <si>
     <t>Verify that 1) Contact us 2) Find a Part 3) Get Support should be there</t>
@@ -606,12 +604,25 @@
   <si>
     <t>N</t>
   </si>
+  <si>
+    <t>Result1</t>
+  </si>
+  <si>
+    <t>SKIP</t>
+  </si>
+  <si>
+    <t>WhereToBuy</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -671,7 +682,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -706,6 +717,11 @@
       <patternFill patternType="solid">
         <fgColor theme="1"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="55"/>
       </patternFill>
     </fill>
   </fills>
@@ -773,7 +789,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -849,6 +865,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1162,15 +1179,15 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView zoomScale="105" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C9"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="35.90625" style="2" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="57" style="2" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.54296875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="16384" width="9.1796875" style="2" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="2" width="35.90625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="2" width="57.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="9.54296875" collapsed="true"/>
+    <col min="4" max="16384" style="2" width="9.1796875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
@@ -1189,10 +1206,10 @@
         <v>38</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>157</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -1203,7 +1220,7 @@
         <v>50</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -1211,10 +1228,10 @@
         <v>56</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -1222,10 +1239,10 @@
         <v>75</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -1236,7 +1253,7 @@
         <v>113</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -1247,7 +1264,7 @@
         <v>65</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="29" x14ac:dyDescent="0.35">
@@ -1258,7 +1275,7 @@
         <v>116</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="29" x14ac:dyDescent="0.35">
@@ -1266,18 +1283,18 @@
         <v>115</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
-        <v>123</v>
+        <v>160</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>62</v>
@@ -1293,27 +1310,26 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:K637"/>
+  <dimension ref="A1:H637"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D97" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H102" sqref="H102"/>
+    <sheetView tabSelected="1" topLeftCell="A103" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C115" sqref="C115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="32.6328125" style="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="9.1796875" style="1" collapsed="1"/>
-    <col min="3" max="3" width="54.08984375" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="22.81640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="34.1796875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="29.7265625" style="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="17" style="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="10" width="9.1796875" style="1" collapsed="1"/>
-    <col min="11" max="11" width="9.1796875" style="1"/>
-    <col min="12" max="16384" width="9.1796875" style="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="32.6328125" collapsed="true"/>
+    <col min="2" max="2" style="1" width="9.1796875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="54.08984375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="22.81640625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="34.1796875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="1" width="29.7265625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="1" width="17.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="1" width="7.51171875" collapsed="true"/>
+    <col min="9" max="16384" style="1" width="9.1796875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1335,8 +1351,11 @@
       <c r="G1" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="H1" s="33" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>38</v>
       </c>
@@ -1355,7 +1374,7 @@
       </c>
       <c r="G2" s="24"/>
     </row>
-    <row r="3" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>38</v>
       </c>
@@ -1374,7 +1393,7 @@
       </c>
       <c r="G3" s="24"/>
     </row>
-    <row r="4" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>38</v>
       </c>
@@ -1393,7 +1412,7 @@
       <c r="F4" s="24"/>
       <c r="G4" s="24"/>
     </row>
-    <row r="5" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>38</v>
       </c>
@@ -1412,7 +1431,7 @@
       <c r="F5" s="24"/>
       <c r="G5" s="24"/>
     </row>
-    <row r="6" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
         <v>38</v>
       </c>
@@ -1431,7 +1450,7 @@
       <c r="F6" s="24"/>
       <c r="G6" s="24"/>
     </row>
-    <row r="7" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>38</v>
       </c>
@@ -1450,7 +1469,7 @@
       <c r="F7" s="24"/>
       <c r="G7" s="24"/>
     </row>
-    <row r="8" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>38</v>
       </c>
@@ -1469,7 +1488,7 @@
       <c r="F8" s="24"/>
       <c r="G8" s="24"/>
     </row>
-    <row r="9" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
         <v>38</v>
       </c>
@@ -1486,7 +1505,7 @@
       <c r="F9" s="24"/>
       <c r="G9" s="24"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="25"/>
       <c r="B10" s="25"/>
       <c r="C10" s="25"/>
@@ -1495,7 +1514,7 @@
       <c r="F10" s="25"/>
       <c r="G10" s="25"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
         <v>49</v>
       </c>
@@ -1514,7 +1533,7 @@
       </c>
       <c r="G11" s="24"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
         <v>49</v>
       </c>
@@ -1533,7 +1552,7 @@
       </c>
       <c r="G12" s="24"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
         <v>49</v>
       </c>
@@ -1552,7 +1571,7 @@
       <c r="F13" s="24"/>
       <c r="G13" s="24"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
         <v>49</v>
       </c>
@@ -1571,7 +1590,7 @@
       <c r="F14" s="24"/>
       <c r="G14" s="24"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
         <v>49</v>
       </c>
@@ -1590,7 +1609,7 @@
       <c r="F15" s="24"/>
       <c r="G15" s="24"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="6" t="s">
         <v>49</v>
       </c>
@@ -1620,7 +1639,7 @@
         <v>63</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E17" s="24" t="s">
         <v>47</v>
@@ -1778,13 +1797,13 @@
         <v>24</v>
       </c>
       <c r="C26" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D26" s="24" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E26" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F26" s="24"/>
       <c r="G26" s="24"/>
@@ -1797,10 +1816,10 @@
         <v>23</v>
       </c>
       <c r="C27" s="24" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D27" s="24" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E27" s="24"/>
       <c r="F27" s="24"/>
@@ -1817,10 +1836,10 @@
         <v>87</v>
       </c>
       <c r="D28" s="24" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E28" s="26" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F28" s="24"/>
       <c r="G28" s="24"/>
@@ -1836,7 +1855,7 @@
         <v>88</v>
       </c>
       <c r="D29" s="24" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E29" s="24" t="s">
         <v>59</v>
@@ -1855,10 +1874,10 @@
         <v>87</v>
       </c>
       <c r="D30" s="24" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E30" s="26" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F30" s="24"/>
       <c r="G30" s="24"/>
@@ -1893,7 +1912,7 @@
         <v>87</v>
       </c>
       <c r="D32" s="24" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E32" s="24" t="s">
         <v>82</v>
@@ -1949,13 +1968,13 @@
         <v>15</v>
       </c>
       <c r="C35" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D35" s="24" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E35" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F35" s="24"/>
       <c r="G35" s="24"/>
@@ -1968,10 +1987,10 @@
         <v>16</v>
       </c>
       <c r="C36" s="24" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D36" s="24" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E36" s="24"/>
       <c r="F36" s="24"/>
@@ -1988,10 +2007,10 @@
         <v>87</v>
       </c>
       <c r="D37" s="24" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E37" s="26" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F37" s="24"/>
       <c r="G37" s="24"/>
@@ -2007,7 +2026,7 @@
         <v>88</v>
       </c>
       <c r="D38" s="24" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E38" s="24" t="s">
         <v>59</v>
@@ -2026,10 +2045,10 @@
         <v>87</v>
       </c>
       <c r="D39" s="24" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E39" s="26" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F39" s="24"/>
       <c r="G39" s="24"/>
@@ -2058,7 +2077,7 @@
         <v>56</v>
       </c>
       <c r="B41" s="24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C41" s="24" t="s">
         <v>89</v>
@@ -2077,7 +2096,7 @@
         <v>56</v>
       </c>
       <c r="B42" s="24" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C42" s="24" t="s">
         <v>58</v>
@@ -2096,7 +2115,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="24" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C43" s="24" t="s">
         <v>34</v>
@@ -2223,10 +2242,10 @@
         <v>78</v>
       </c>
       <c r="D50" s="24" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E50" s="26" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F50" s="24"/>
       <c r="G50" s="24"/>
@@ -2261,10 +2280,10 @@
         <v>78</v>
       </c>
       <c r="D52" s="24" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E52" s="26" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F52" s="24"/>
       <c r="G52" s="24"/>
@@ -2439,10 +2458,10 @@
         <v>63</v>
       </c>
       <c r="D62" s="24" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E62" s="26" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F62" s="32"/>
       <c r="G62" s="32"/>
@@ -2578,7 +2597,7 @@
         <v>25</v>
       </c>
       <c r="C70" s="24" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D70" s="24" t="s">
         <v>11</v>
@@ -2587,7 +2606,7 @@
         <v>59</v>
       </c>
       <c r="F70" s="24" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G70" s="24"/>
     </row>
@@ -2599,13 +2618,13 @@
         <v>24</v>
       </c>
       <c r="C71" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D71" s="24" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E71" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F71" s="24"/>
       <c r="G71" s="24"/>
@@ -2618,10 +2637,10 @@
         <v>23</v>
       </c>
       <c r="C72" s="24" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D72" s="24" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E72" s="24"/>
       <c r="F72" s="24"/>
@@ -2635,13 +2654,13 @@
         <v>22</v>
       </c>
       <c r="C73" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D73" s="24" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E73" s="26" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F73" s="24"/>
       <c r="G73" s="24"/>
@@ -2654,10 +2673,10 @@
         <v>21</v>
       </c>
       <c r="C74" s="24" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D74" s="24" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E74" s="24" t="s">
         <v>59</v>
@@ -2676,7 +2695,7 @@
         <v>63</v>
       </c>
       <c r="D75" s="24" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E75" s="24" t="s">
         <v>97</v>
@@ -2714,7 +2733,7 @@
         <v>78</v>
       </c>
       <c r="D77" s="24" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E77" s="26" t="s">
         <v>104</v>
@@ -2813,7 +2832,7 @@
         <v>71</v>
       </c>
       <c r="D82" s="24" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E82" s="26" t="s">
         <v>102</v>
@@ -2848,13 +2867,13 @@
         <v>74</v>
       </c>
       <c r="C84" s="24" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D84" s="24" t="s">
         <v>33</v>
       </c>
       <c r="E84" s="26" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F84" s="7"/>
       <c r="G84" s="24"/>
@@ -2867,7 +2886,7 @@
         <v>96</v>
       </c>
       <c r="C85" s="24" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D85" s="24" t="s">
         <v>33</v>
@@ -2883,7 +2902,7 @@
         <v>64</v>
       </c>
       <c r="B86" s="24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C86" s="24" t="s">
         <v>73</v>
@@ -2902,7 +2921,7 @@
         <v>64</v>
       </c>
       <c r="B87" s="24" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C87" s="24" t="s">
         <v>34</v>
@@ -3029,7 +3048,7 @@
         <v>78</v>
       </c>
       <c r="D94" s="24" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E94" s="24" t="s">
         <v>46</v>
@@ -3075,7 +3094,7 @@
       <c r="F96" s="24"/>
       <c r="G96" s="24"/>
     </row>
-    <row r="97" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A97" s="19" t="s">
         <v>114</v>
       </c>
@@ -3092,7 +3111,7 @@
       <c r="F97" s="24"/>
       <c r="G97" s="24"/>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A98" s="25"/>
       <c r="B98" s="25"/>
       <c r="C98" s="25"/>
@@ -3101,7 +3120,7 @@
       <c r="F98" s="25"/>
       <c r="G98" s="25"/>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A99" s="19" t="s">
         <v>115</v>
       </c>
@@ -3120,7 +3139,7 @@
       </c>
       <c r="G99" s="24"/>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A100" s="19" t="s">
         <v>115</v>
       </c>
@@ -3139,7 +3158,7 @@
       </c>
       <c r="G100" s="24"/>
     </row>
-    <row r="101" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A101" s="19" t="s">
         <v>115</v>
       </c>
@@ -3158,7 +3177,7 @@
       <c r="F101" s="24"/>
       <c r="G101" s="24"/>
     </row>
-    <row r="102" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A102" s="19" t="s">
         <v>115</v>
       </c>
@@ -3166,18 +3185,18 @@
         <v>24</v>
       </c>
       <c r="C102" s="23" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D102" s="24" t="s">
         <v>32</v>
       </c>
       <c r="E102" s="26" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F102" s="24"/>
       <c r="G102" s="24"/>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A103" s="19" t="s">
         <v>115</v>
       </c>
@@ -3194,7 +3213,7 @@
       <c r="F103" s="24"/>
       <c r="G103" s="24"/>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A104" s="25"/>
       <c r="B104" s="25"/>
       <c r="C104" s="25"/>
@@ -3205,9 +3224,9 @@
       <c r="F104" s="25"/>
       <c r="G104" s="25"/>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A105" s="23" t="s">
-        <v>123</v>
+        <v>160</v>
       </c>
       <c r="B105" s="24" t="s">
         <v>27</v>
@@ -3223,10 +3242,13 @@
         <v>8</v>
       </c>
       <c r="G105" s="24"/>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H105" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A106" s="23" t="s">
-        <v>123</v>
+        <v>160</v>
       </c>
       <c r="B106" s="24" t="s">
         <v>26</v>
@@ -3242,105 +3264,123 @@
         <v>10</v>
       </c>
       <c r="G106" s="24"/>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H106" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A107" s="23" t="s">
-        <v>123</v>
+        <v>160</v>
       </c>
       <c r="B107" s="24" t="s">
         <v>25</v>
       </c>
       <c r="C107" s="24" t="s">
-        <v>39</v>
+        <v>146</v>
       </c>
       <c r="D107" s="24" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="E107" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="F107" s="24"/>
+        <v>59</v>
+      </c>
+      <c r="F107" s="24" t="s">
+        <v>60</v>
+      </c>
       <c r="G107" s="24"/>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H107" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A108" s="23" t="s">
-        <v>123</v>
+        <v>160</v>
       </c>
       <c r="B108" s="24" t="s">
         <v>24</v>
       </c>
       <c r="C108" s="24" t="s">
-        <v>40</v>
+        <v>136</v>
       </c>
       <c r="D108" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="E108" s="24" t="s">
-        <v>44</v>
+        <v>140</v>
+      </c>
+      <c r="E108" s="26" t="s">
+        <v>149</v>
       </c>
       <c r="F108" s="24"/>
       <c r="G108" s="24"/>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H108" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A109" s="23" t="s">
-        <v>123</v>
+        <v>160</v>
       </c>
       <c r="B109" s="24" t="s">
         <v>23</v>
       </c>
       <c r="C109" s="24" t="s">
-        <v>41</v>
+        <v>151</v>
       </c>
       <c r="D109" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="E109" s="24" t="s">
-        <v>42</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="E109" s="24"/>
       <c r="F109" s="24"/>
       <c r="G109" s="24"/>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H109" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A110" s="23" t="s">
-        <v>123</v>
+        <v>160</v>
       </c>
       <c r="B110" s="24" t="s">
         <v>22</v>
       </c>
       <c r="C110" s="24" t="s">
-        <v>78</v>
+        <v>136</v>
       </c>
       <c r="D110" s="24" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E110" s="26" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="F110" s="24"/>
       <c r="G110" s="24"/>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H110" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A111" s="23" t="s">
-        <v>123</v>
+        <v>160</v>
       </c>
       <c r="B111" s="24" t="s">
         <v>21</v>
       </c>
       <c r="C111" s="24" t="s">
-        <v>48</v>
+        <v>152</v>
       </c>
       <c r="D111" s="24" t="s">
-        <v>31</v>
+        <v>148</v>
       </c>
       <c r="E111" s="24" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="F111" s="24"/>
       <c r="G111" s="24"/>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H111" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A112" s="23" t="s">
-        <v>123</v>
+        <v>160</v>
       </c>
       <c r="B112" s="24" t="s">
         <v>20</v>
@@ -3349,36 +3389,42 @@
         <v>63</v>
       </c>
       <c r="D112" s="24" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E112" s="26" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F112" s="24"/>
       <c r="G112" s="24"/>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H112" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A113" s="23" t="s">
-        <v>123</v>
+        <v>160</v>
       </c>
       <c r="B113" s="24" t="s">
         <v>19</v>
       </c>
       <c r="C113" s="23" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D113" s="24" t="s">
         <v>33</v>
       </c>
       <c r="E113" s="26" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F113" s="24"/>
       <c r="G113" s="24"/>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H113" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A114" s="23" t="s">
-        <v>123</v>
+        <v>160</v>
       </c>
       <c r="B114" s="24" t="s">
         <v>12</v>
@@ -3387,36 +3433,42 @@
         <v>87</v>
       </c>
       <c r="D114" s="24" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E114" s="24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F114" s="24"/>
       <c r="G114" s="24"/>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H114" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A115" s="23" t="s">
-        <v>123</v>
+        <v>160</v>
       </c>
       <c r="B115" s="24" t="s">
         <v>13</v>
       </c>
       <c r="C115" s="24" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D115" s="24" t="s">
         <v>33</v>
       </c>
       <c r="E115" s="24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F115" s="24"/>
       <c r="G115" s="24"/>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H115" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A116" s="23" t="s">
-        <v>123</v>
+        <v>160</v>
       </c>
       <c r="B116" s="24" t="s">
         <v>14</v>
@@ -3425,36 +3477,42 @@
         <v>87</v>
       </c>
       <c r="D116" s="24" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E116" s="24" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F116" s="24"/>
       <c r="G116" s="24"/>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H116" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A117" s="23" t="s">
-        <v>123</v>
+        <v>160</v>
       </c>
       <c r="B117" s="24" t="s">
         <v>15</v>
       </c>
       <c r="C117" s="24" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D117" s="24" t="s">
         <v>32</v>
       </c>
       <c r="E117" s="24" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F117" s="24"/>
       <c r="G117" s="24"/>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H117" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A118" s="23" t="s">
-        <v>123</v>
+        <v>160</v>
       </c>
       <c r="B118" s="24" t="s">
         <v>16</v>
@@ -3468,8 +3526,11 @@
       <c r="E118" s="24"/>
       <c r="F118" s="24"/>
       <c r="G118" s="24"/>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H118" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A119" s="10"/>
       <c r="B119" s="10"/>
       <c r="C119" s="10"/>
@@ -3478,7 +3539,7 @@
       <c r="F119" s="10"/>
       <c r="G119" s="10"/>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A120" s="10"/>
       <c r="B120" s="10"/>
       <c r="C120" s="10"/>
@@ -3487,7 +3548,7 @@
       <c r="F120" s="10"/>
       <c r="G120" s="10"/>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A121" s="28"/>
       <c r="B121" s="28"/>
       <c r="C121" s="28"/>
@@ -3496,7 +3557,7 @@
       <c r="F121" s="10"/>
       <c r="G121" s="10"/>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A122" s="10"/>
       <c r="B122" s="10"/>
       <c r="C122" s="10"/>
@@ -3505,7 +3566,7 @@
       <c r="F122" s="10"/>
       <c r="G122" s="10"/>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A123" s="10"/>
       <c r="B123" s="10"/>
       <c r="C123" s="10"/>
@@ -3514,7 +3575,7 @@
       <c r="F123" s="10"/>
       <c r="G123" s="10"/>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A124" s="10"/>
       <c r="B124" s="10"/>
       <c r="C124" s="10"/>
@@ -3523,7 +3584,7 @@
       <c r="F124" s="10"/>
       <c r="G124" s="10"/>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A125" s="10"/>
       <c r="B125" s="10"/>
       <c r="C125" s="10"/>
@@ -3532,7 +3593,7 @@
       <c r="F125" s="10"/>
       <c r="G125" s="10"/>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A126" s="10"/>
       <c r="B126" s="10"/>
       <c r="C126" s="10"/>
@@ -3541,7 +3602,7 @@
       <c r="F126" s="10"/>
       <c r="G126" s="10"/>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A127" s="10"/>
       <c r="B127" s="10"/>
       <c r="C127" s="10"/>
@@ -3550,7 +3611,7 @@
       <c r="F127" s="10"/>
       <c r="G127" s="10"/>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A128" s="10"/>
       <c r="B128" s="10"/>
       <c r="C128" s="10"/>
@@ -8125,13 +8186,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="15" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="36.08984375" customWidth="1" collapsed="1"/>
+    <col min="1" max="2" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="36.08984375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>107</v>
@@ -8168,13 +8229,13 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.08984375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14.08984375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="16.08984375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="14.08984375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
@@ -8203,4 +8264,38 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="13.453125" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/test/java/com/born/xls/ProductDetailsPage.xlsx
+++ b/src/test/java/com/born/xls/ProductDetailsPage.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="158">
   <si>
     <t>TCID</t>
   </si>
@@ -602,27 +602,14 @@
     </r>
   </si>
   <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>Result1</t>
-  </si>
-  <si>
-    <t>SKIP</t>
-  </si>
-  <si>
     <t>WhereToBuy</t>
-  </si>
-  <si>
-    <t>PASS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -682,7 +669,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -717,11 +704,6 @@
       <patternFill patternType="solid">
         <fgColor theme="1"/>
         <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="55"/>
       </patternFill>
     </fill>
   </fills>
@@ -789,7 +771,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -865,7 +847,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1179,15 +1160,15 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView zoomScale="105" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="C2" sqref="C2:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="2" width="35.90625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="2" width="57.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="9.54296875" collapsed="true"/>
-    <col min="4" max="16384" style="2" width="9.1796875" collapsed="true"/>
+    <col min="1" max="1" width="35.90625" style="2" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="57" style="2" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.54296875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="9.1796875" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
@@ -1209,7 +1190,7 @@
         <v>156</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>157</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -1220,7 +1201,7 @@
         <v>50</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>157</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -1231,7 +1212,7 @@
         <v>133</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>157</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -1242,7 +1223,7 @@
         <v>134</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>157</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -1253,7 +1234,7 @@
         <v>113</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>157</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -1264,7 +1245,7 @@
         <v>65</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>157</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="29" x14ac:dyDescent="0.35">
@@ -1275,7 +1256,7 @@
         <v>116</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>157</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="29" x14ac:dyDescent="0.35">
@@ -1286,12 +1267,12 @@
         <v>131</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>157</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>132</v>
@@ -1312,24 +1293,24 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H637"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C115" sqref="C115"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H111" sqref="H111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="32.6328125" collapsed="true"/>
-    <col min="2" max="2" style="1" width="9.1796875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="54.08984375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="22.81640625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="34.1796875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="1" width="29.7265625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="1" width="17.0" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="1" width="7.51171875" collapsed="true"/>
-    <col min="9" max="16384" style="1" width="9.1796875" collapsed="true"/>
+    <col min="1" max="1" width="32.6328125" style="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="9.1796875" style="1" collapsed="1"/>
+    <col min="3" max="3" width="54.08984375" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="22.81640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="34.1796875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="29.7265625" style="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="17" style="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="9.1796875" style="1"/>
+    <col min="9" max="16384" width="9.1796875" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1351,11 +1332,8 @@
       <c r="G1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="33" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>38</v>
       </c>
@@ -1374,7 +1352,7 @@
       </c>
       <c r="G2" s="24"/>
     </row>
-    <row r="3" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>38</v>
       </c>
@@ -1393,7 +1371,7 @@
       </c>
       <c r="G3" s="24"/>
     </row>
-    <row r="4" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>38</v>
       </c>
@@ -1412,7 +1390,7 @@
       <c r="F4" s="24"/>
       <c r="G4" s="24"/>
     </row>
-    <row r="5" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>38</v>
       </c>
@@ -1431,7 +1409,7 @@
       <c r="F5" s="24"/>
       <c r="G5" s="24"/>
     </row>
-    <row r="6" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
         <v>38</v>
       </c>
@@ -1450,7 +1428,7 @@
       <c r="F6" s="24"/>
       <c r="G6" s="24"/>
     </row>
-    <row r="7" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>38</v>
       </c>
@@ -1469,7 +1447,7 @@
       <c r="F7" s="24"/>
       <c r="G7" s="24"/>
     </row>
-    <row r="8" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>38</v>
       </c>
@@ -1488,7 +1466,7 @@
       <c r="F8" s="24"/>
       <c r="G8" s="24"/>
     </row>
-    <row r="9" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
         <v>38</v>
       </c>
@@ -1505,7 +1483,7 @@
       <c r="F9" s="24"/>
       <c r="G9" s="24"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="25"/>
       <c r="B10" s="25"/>
       <c r="C10" s="25"/>
@@ -1514,7 +1492,7 @@
       <c r="F10" s="25"/>
       <c r="G10" s="25"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
         <v>49</v>
       </c>
@@ -1533,7 +1511,7 @@
       </c>
       <c r="G11" s="24"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
         <v>49</v>
       </c>
@@ -1552,7 +1530,7 @@
       </c>
       <c r="G12" s="24"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
         <v>49</v>
       </c>
@@ -1571,7 +1549,7 @@
       <c r="F13" s="24"/>
       <c r="G13" s="24"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
         <v>49</v>
       </c>
@@ -1590,7 +1568,7 @@
       <c r="F14" s="24"/>
       <c r="G14" s="24"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
         <v>49</v>
       </c>
@@ -1609,7 +1587,7 @@
       <c r="F15" s="24"/>
       <c r="G15" s="24"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="6" t="s">
         <v>49</v>
       </c>
@@ -3094,7 +3072,7 @@
       <c r="F96" s="24"/>
       <c r="G96" s="24"/>
     </row>
-    <row r="97" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A97" s="19" t="s">
         <v>114</v>
       </c>
@@ -3111,7 +3089,7 @@
       <c r="F97" s="24"/>
       <c r="G97" s="24"/>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A98" s="25"/>
       <c r="B98" s="25"/>
       <c r="C98" s="25"/>
@@ -3120,7 +3098,7 @@
       <c r="F98" s="25"/>
       <c r="G98" s="25"/>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A99" s="19" t="s">
         <v>115</v>
       </c>
@@ -3139,7 +3117,7 @@
       </c>
       <c r="G99" s="24"/>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A100" s="19" t="s">
         <v>115</v>
       </c>
@@ -3158,7 +3136,7 @@
       </c>
       <c r="G100" s="24"/>
     </row>
-    <row r="101" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A101" s="19" t="s">
         <v>115</v>
       </c>
@@ -3177,7 +3155,7 @@
       <c r="F101" s="24"/>
       <c r="G101" s="24"/>
     </row>
-    <row r="102" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A102" s="19" t="s">
         <v>115</v>
       </c>
@@ -3196,7 +3174,7 @@
       <c r="F102" s="24"/>
       <c r="G102" s="24"/>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A103" s="19" t="s">
         <v>115</v>
       </c>
@@ -3213,7 +3191,7 @@
       <c r="F103" s="24"/>
       <c r="G103" s="24"/>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A104" s="25"/>
       <c r="B104" s="25"/>
       <c r="C104" s="25"/>
@@ -3224,9 +3202,9 @@
       <c r="F104" s="25"/>
       <c r="G104" s="25"/>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A105" s="23" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B105" s="24" t="s">
         <v>27</v>
@@ -3242,13 +3220,10 @@
         <v>8</v>
       </c>
       <c r="G105" s="24"/>
-      <c r="H105" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A106" s="23" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B106" s="24" t="s">
         <v>26</v>
@@ -3264,13 +3239,10 @@
         <v>10</v>
       </c>
       <c r="G106" s="24"/>
-      <c r="H106" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A107" s="23" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B107" s="24" t="s">
         <v>25</v>
@@ -3288,13 +3260,10 @@
         <v>60</v>
       </c>
       <c r="G107" s="24"/>
-      <c r="H107" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A108" s="23" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B108" s="24" t="s">
         <v>24</v>
@@ -3310,13 +3279,10 @@
       </c>
       <c r="F108" s="24"/>
       <c r="G108" s="24"/>
-      <c r="H108" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A109" s="23" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B109" s="24" t="s">
         <v>23</v>
@@ -3330,13 +3296,10 @@
       <c r="E109" s="24"/>
       <c r="F109" s="24"/>
       <c r="G109" s="24"/>
-      <c r="H109" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A110" s="23" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B110" s="24" t="s">
         <v>22</v>
@@ -3352,13 +3315,10 @@
       </c>
       <c r="F110" s="24"/>
       <c r="G110" s="24"/>
-      <c r="H110" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A111" s="23" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B111" s="24" t="s">
         <v>21</v>
@@ -3374,13 +3334,10 @@
       </c>
       <c r="F111" s="24"/>
       <c r="G111" s="24"/>
-      <c r="H111" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A112" s="23" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B112" s="24" t="s">
         <v>20</v>
@@ -3396,13 +3353,10 @@
       </c>
       <c r="F112" s="24"/>
       <c r="G112" s="24"/>
-      <c r="H112" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A113" s="23" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B113" s="24" t="s">
         <v>19</v>
@@ -3418,13 +3372,10 @@
       </c>
       <c r="F113" s="24"/>
       <c r="G113" s="24"/>
-      <c r="H113" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A114" s="23" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B114" s="24" t="s">
         <v>12</v>
@@ -3440,13 +3391,10 @@
       </c>
       <c r="F114" s="24"/>
       <c r="G114" s="24"/>
-      <c r="H114" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A115" s="23" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B115" s="24" t="s">
         <v>13</v>
@@ -3462,13 +3410,10 @@
       </c>
       <c r="F115" s="24"/>
       <c r="G115" s="24"/>
-      <c r="H115" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A116" s="23" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B116" s="24" t="s">
         <v>14</v>
@@ -3484,13 +3429,10 @@
       </c>
       <c r="F116" s="24"/>
       <c r="G116" s="24"/>
-      <c r="H116" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A117" s="23" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B117" s="24" t="s">
         <v>15</v>
@@ -3506,13 +3448,10 @@
       </c>
       <c r="F117" s="24"/>
       <c r="G117" s="24"/>
-      <c r="H117" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A118" s="23" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B118" s="24" t="s">
         <v>16</v>
@@ -3526,11 +3465,8 @@
       <c r="E118" s="24"/>
       <c r="F118" s="24"/>
       <c r="G118" s="24"/>
-      <c r="H118" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A119" s="10"/>
       <c r="B119" s="10"/>
       <c r="C119" s="10"/>
@@ -3539,7 +3475,7 @@
       <c r="F119" s="10"/>
       <c r="G119" s="10"/>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A120" s="10"/>
       <c r="B120" s="10"/>
       <c r="C120" s="10"/>
@@ -3548,7 +3484,7 @@
       <c r="F120" s="10"/>
       <c r="G120" s="10"/>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A121" s="28"/>
       <c r="B121" s="28"/>
       <c r="C121" s="28"/>
@@ -3557,7 +3493,7 @@
       <c r="F121" s="10"/>
       <c r="G121" s="10"/>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A122" s="10"/>
       <c r="B122" s="10"/>
       <c r="C122" s="10"/>
@@ -3566,7 +3502,7 @@
       <c r="F122" s="10"/>
       <c r="G122" s="10"/>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A123" s="10"/>
       <c r="B123" s="10"/>
       <c r="C123" s="10"/>
@@ -3575,7 +3511,7 @@
       <c r="F123" s="10"/>
       <c r="G123" s="10"/>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A124" s="10"/>
       <c r="B124" s="10"/>
       <c r="C124" s="10"/>
@@ -3584,7 +3520,7 @@
       <c r="F124" s="10"/>
       <c r="G124" s="10"/>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A125" s="10"/>
       <c r="B125" s="10"/>
       <c r="C125" s="10"/>
@@ -3593,7 +3529,7 @@
       <c r="F125" s="10"/>
       <c r="G125" s="10"/>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A126" s="10"/>
       <c r="B126" s="10"/>
       <c r="C126" s="10"/>
@@ -3602,7 +3538,7 @@
       <c r="F126" s="10"/>
       <c r="G126" s="10"/>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A127" s="10"/>
       <c r="B127" s="10"/>
       <c r="C127" s="10"/>
@@ -3611,7 +3547,7 @@
       <c r="F127" s="10"/>
       <c r="G127" s="10"/>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A128" s="10"/>
       <c r="B128" s="10"/>
       <c r="C128" s="10"/>
@@ -8186,8 +8122,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="36.08984375" collapsed="true"/>
+    <col min="1" max="2" width="15" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="36.08984375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
@@ -8234,8 +8170,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="16.08984375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="14.08984375" collapsed="true"/>
+    <col min="1" max="1" width="16.08984375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.08984375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
@@ -8276,7 +8212,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="13.453125" collapsed="true"/>
+    <col min="1" max="1" width="13.453125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">

--- a/src/test/java/com/born/xls/ProductDetailsPage.xlsx
+++ b/src/test/java/com/born/xls/ProductDetailsPage.xlsx
@@ -4,14 +4,15 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="6590" windowHeight="2660" tabRatio="937" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="6590" windowHeight="2660" tabRatio="937" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="2" r:id="rId1"/>
     <sheet name="Test Steps" sheetId="3" r:id="rId2"/>
-    <sheet name="PDP-Write a Review" sheetId="57" r:id="rId3"/>
-    <sheet name="Comparing the Products" sheetId="58" r:id="rId4"/>
-    <sheet name="WhereToBuy" sheetId="59" r:id="rId5"/>
+    <sheet name="ProductRegistration" sheetId="60" r:id="rId3"/>
+    <sheet name="PDP-Write a Review" sheetId="57" r:id="rId4"/>
+    <sheet name="Comparing the Products" sheetId="58" r:id="rId5"/>
+    <sheet name="WhereToBuy" sheetId="59" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Test Cases'!$A$1:$C$8</definedName>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="213">
   <si>
     <t>TCID</t>
   </si>
@@ -604,12 +605,177 @@
   <si>
     <t>WhereToBuy</t>
   </si>
+  <si>
+    <t>ProductRegistration</t>
+  </si>
+  <si>
+    <t>To verify whether user can able to register the product or not</t>
+  </si>
+  <si>
+    <t>Enter the FirstName</t>
+  </si>
+  <si>
+    <t>Enter the LastName</t>
+  </si>
+  <si>
+    <t>Enter the Street address</t>
+  </si>
+  <si>
+    <t>Enter the City name</t>
+  </si>
+  <si>
+    <t>Enter the postal code</t>
+  </si>
+  <si>
+    <t>Enter the email address</t>
+  </si>
+  <si>
+    <t>Confirm the email address which you entered</t>
+  </si>
+  <si>
+    <t>Enter the product model num</t>
+  </si>
+  <si>
+    <t>Enter the purchase date of product</t>
+  </si>
+  <si>
+    <t>Click on Submitt button</t>
+  </si>
+  <si>
+    <t>Verify whether user has registered successfully or not</t>
+  </si>
+  <si>
+    <t>Click on the Title field</t>
+  </si>
+  <si>
+    <t>Click on the Register my Product link</t>
+  </si>
+  <si>
+    <t>TitleName</t>
+  </si>
+  <si>
+    <t>StateName</t>
+  </si>
+  <si>
+    <t>CountryName</t>
+  </si>
+  <si>
+    <t>ModelNum</t>
+  </si>
+  <si>
+    <t>Ms.</t>
+  </si>
+  <si>
+    <t>American Samoa (AS)</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9159T-DST </t>
+  </si>
+  <si>
+    <t>RegisterProduct_Link</t>
+  </si>
+  <si>
+    <t>Title_Field</t>
+  </si>
+  <si>
+    <t>col|PostalCode</t>
+  </si>
+  <si>
+    <t>FirstName_Field</t>
+  </si>
+  <si>
+    <t>LastName_Field</t>
+  </si>
+  <si>
+    <t>StreetAddress_Field</t>
+  </si>
+  <si>
+    <t>CityName_Field</t>
+  </si>
+  <si>
+    <t>State_Dropdown</t>
+  </si>
+  <si>
+    <t>PostalCode_Field</t>
+  </si>
+  <si>
+    <t>Country_Dropdown</t>
+  </si>
+  <si>
+    <t>Email_Field</t>
+  </si>
+  <si>
+    <t>ConfirmEmail_Field</t>
+  </si>
+  <si>
+    <t>ModelNum_Field</t>
+  </si>
+  <si>
+    <t>col|ModelNum</t>
+  </si>
+  <si>
+    <t>Date_Field</t>
+  </si>
+  <si>
+    <t>col|DOP</t>
+  </si>
+  <si>
+    <t>Submitt_Button</t>
+  </si>
+  <si>
+    <t>RegisterSuccess_Text</t>
+  </si>
+  <si>
+    <t>PostalCode</t>
+  </si>
+  <si>
+    <t>DOP</t>
+  </si>
+  <si>
+    <t>2018-01-30</t>
+  </si>
+  <si>
+    <t>51721</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>DeltaProduct1@gmail.com</t>
+  </si>
+  <si>
+    <t>col|Email</t>
+  </si>
+  <si>
+    <t>Wait for product to enter</t>
+  </si>
+  <si>
+    <t>Select the country name</t>
+  </si>
+  <si>
+    <t>Select the state name</t>
+  </si>
+  <si>
+    <t>countryselect</t>
+  </si>
+  <si>
+    <t>col|TitleName</t>
+  </si>
+  <si>
+    <t>col|StateName</t>
+  </si>
+  <si>
+    <t>col|CountryName</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -664,6 +830,29 @@
     <font>
       <b/>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -768,10 +957,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -847,8 +1037,25 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="5" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1157,10 +1364,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView zoomScale="105" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C10"/>
+      <selection activeCell="C2" sqref="C2:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1281,6 +1488,17 @@
         <v>62</v>
       </c>
     </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:C4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1291,10 +1509,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:H637"/>
+  <dimension ref="A1:I637"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H111" sqref="H111"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C133" sqref="C133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1302,12 +1520,13 @@
     <col min="1" max="1" width="32.6328125" style="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="9.1796875" style="1" collapsed="1"/>
     <col min="3" max="3" width="54.08984375" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="22.81640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="26.08984375" style="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="34.1796875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="29.7265625" style="1" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="17" style="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="9.1796875" style="1"/>
-    <col min="9" max="16384" width="9.1796875" style="1" collapsed="1"/>
+    <col min="8" max="8" width="9.1796875" style="1" collapsed="1"/>
+    <col min="9" max="9" width="9.1796875" style="1"/>
+    <col min="10" max="16384" width="9.1796875" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
@@ -3467,193 +3686,407 @@
       <c r="G118" s="24"/>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A119" s="10"/>
-      <c r="B119" s="10"/>
-      <c r="C119" s="10"/>
-      <c r="D119" s="10"/>
-      <c r="E119" s="11"/>
-      <c r="F119" s="10"/>
-      <c r="G119" s="10"/>
+      <c r="A119" s="29"/>
+      <c r="B119" s="30"/>
+      <c r="C119" s="30"/>
+      <c r="D119" s="30"/>
+      <c r="E119" s="30"/>
+      <c r="F119" s="30"/>
+      <c r="G119" s="31"/>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A120" s="10"/>
-      <c r="B120" s="10"/>
-      <c r="C120" s="10"/>
-      <c r="D120" s="10"/>
-      <c r="E120" s="10"/>
-      <c r="F120" s="10"/>
-      <c r="G120" s="10"/>
+      <c r="A120" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B120" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C120" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="D120" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="E120" s="24"/>
+      <c r="F120" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="G120" s="24"/>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A121" s="28"/>
-      <c r="B121" s="28"/>
-      <c r="C121" s="28"/>
-      <c r="D121" s="28"/>
-      <c r="E121" s="28"/>
-      <c r="F121" s="10"/>
-      <c r="G121" s="10"/>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A122" s="10"/>
-      <c r="B122" s="10"/>
-      <c r="C122" s="10"/>
-      <c r="D122" s="10"/>
-      <c r="E122" s="10"/>
-      <c r="F122" s="10"/>
-      <c r="G122" s="10"/>
+      <c r="A121" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B121" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C121" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="D121" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E121" s="24"/>
+      <c r="F121" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="G121" s="24"/>
+    </row>
+    <row r="122" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A122" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B122" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C122" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="D122" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="E122" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="F122" s="24"/>
+      <c r="G122" s="24"/>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A123" s="10"/>
-      <c r="B123" s="10"/>
-      <c r="C123" s="10"/>
-      <c r="D123" s="10"/>
-      <c r="E123" s="10"/>
-      <c r="F123" s="10"/>
-      <c r="G123" s="10"/>
+      <c r="A123" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B123" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C123" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="D123" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="E123" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="F123" s="24"/>
+      <c r="G123" s="24"/>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A124" s="10"/>
-      <c r="B124" s="10"/>
-      <c r="C124" s="10"/>
-      <c r="D124" s="10"/>
-      <c r="E124" s="10"/>
-      <c r="F124" s="10"/>
-      <c r="G124" s="10"/>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A125" s="10"/>
-      <c r="B125" s="10"/>
-      <c r="C125" s="10"/>
-      <c r="D125" s="10"/>
-      <c r="E125" s="10"/>
-      <c r="F125" s="10"/>
-      <c r="G125" s="10"/>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A126" s="10"/>
-      <c r="B126" s="10"/>
-      <c r="C126" s="10"/>
-      <c r="D126" s="10"/>
-      <c r="E126" s="10"/>
-      <c r="F126" s="10"/>
-      <c r="G126" s="10"/>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A127" s="10"/>
-      <c r="B127" s="10"/>
-      <c r="C127" s="10"/>
-      <c r="D127" s="10"/>
-      <c r="E127" s="10"/>
-      <c r="F127" s="10"/>
-      <c r="G127" s="10"/>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A128" s="10"/>
-      <c r="B128" s="10"/>
-      <c r="C128" s="10"/>
-      <c r="D128" s="10"/>
-      <c r="E128" s="10"/>
-      <c r="F128" s="10"/>
-      <c r="G128" s="10"/>
+      <c r="A124" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B124" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C124" s="24" t="s">
+        <v>171</v>
+      </c>
+      <c r="D124" s="24" t="s">
+        <v>209</v>
+      </c>
+      <c r="E124" s="24" t="s">
+        <v>182</v>
+      </c>
+      <c r="F124" s="24" t="s">
+        <v>210</v>
+      </c>
+      <c r="G124" s="24"/>
+    </row>
+    <row r="125" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A125" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B125" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C125" s="33" t="s">
+        <v>160</v>
+      </c>
+      <c r="D125" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="E125" s="33" t="s">
+        <v>184</v>
+      </c>
+      <c r="F125" s="24"/>
+      <c r="G125" s="24"/>
+    </row>
+    <row r="126" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A126" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B126" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C126" s="33" t="s">
+        <v>161</v>
+      </c>
+      <c r="D126" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="E126" s="33" t="s">
+        <v>185</v>
+      </c>
+      <c r="F126" s="24"/>
+      <c r="G126" s="24"/>
+    </row>
+    <row r="127" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A127" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B127" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="C127" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="D127" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="E127" s="24" t="s">
+        <v>186</v>
+      </c>
+      <c r="F127" s="7"/>
+      <c r="G127" s="24"/>
+    </row>
+    <row r="128" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A128" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B128" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C128" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="D128" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="E128" s="24" t="s">
+        <v>187</v>
+      </c>
+      <c r="F128" s="24"/>
+      <c r="G128" s="24"/>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A129" s="10"/>
-      <c r="B129" s="10"/>
-      <c r="C129" s="10"/>
-      <c r="D129" s="10"/>
-      <c r="E129" s="10"/>
-      <c r="F129" s="10"/>
-      <c r="G129" s="10"/>
+      <c r="A129" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B129" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C129" s="24" t="s">
+        <v>208</v>
+      </c>
+      <c r="D129" s="24" t="s">
+        <v>209</v>
+      </c>
+      <c r="E129" s="26" t="s">
+        <v>188</v>
+      </c>
+      <c r="F129" s="24" t="s">
+        <v>211</v>
+      </c>
+      <c r="G129" s="24"/>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A130" s="10"/>
-      <c r="B130" s="10"/>
-      <c r="C130" s="10"/>
-      <c r="D130" s="10"/>
-      <c r="E130" s="10"/>
-      <c r="F130" s="10"/>
-      <c r="G130" s="10"/>
+      <c r="A130" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B130" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C130" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="D130" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E130" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="F130" s="24" t="s">
+        <v>183</v>
+      </c>
+      <c r="G130" s="24"/>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A131" s="10"/>
-      <c r="B131" s="10"/>
-      <c r="C131" s="10"/>
-      <c r="D131" s="10"/>
-      <c r="E131" s="10"/>
-      <c r="F131" s="10"/>
-      <c r="G131" s="10"/>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A132" s="10"/>
-      <c r="B132" s="10"/>
-      <c r="C132" s="10"/>
-      <c r="D132" s="10"/>
-      <c r="E132" s="10"/>
-      <c r="F132" s="10"/>
-      <c r="G132" s="10"/>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A133" s="10"/>
-      <c r="B133" s="10"/>
-      <c r="C133" s="10"/>
-      <c r="D133" s="10"/>
-      <c r="E133" s="10"/>
-      <c r="F133" s="10"/>
-      <c r="G133" s="10"/>
+      <c r="A131" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B131" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C131" s="24" t="s">
+        <v>207</v>
+      </c>
+      <c r="D131" s="24" t="s">
+        <v>209</v>
+      </c>
+      <c r="E131" s="26" t="s">
+        <v>190</v>
+      </c>
+      <c r="F131" s="24" t="s">
+        <v>212</v>
+      </c>
+      <c r="G131" s="24"/>
+    </row>
+    <row r="132" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A132" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B132" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C132" s="33" t="s">
+        <v>165</v>
+      </c>
+      <c r="D132" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E132" s="33" t="s">
+        <v>191</v>
+      </c>
+      <c r="F132" s="24" t="s">
+        <v>205</v>
+      </c>
+      <c r="G132" s="24"/>
+    </row>
+    <row r="133" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A133" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B133" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C133" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="D133" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E133" s="33" t="s">
+        <v>192</v>
+      </c>
+      <c r="F133" s="24" t="s">
+        <v>205</v>
+      </c>
+      <c r="G133" s="24"/>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A134" s="10"/>
-      <c r="B134" s="10"/>
-      <c r="C134" s="10"/>
-      <c r="D134" s="10"/>
-      <c r="E134" s="10"/>
-      <c r="F134" s="10"/>
-      <c r="G134" s="10"/>
+      <c r="A134" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B134" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C134" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="D134" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E134" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="F134" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="G134" s="24"/>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A135" s="10"/>
-      <c r="B135" s="10"/>
-      <c r="C135" s="10"/>
-      <c r="D135" s="10"/>
-      <c r="E135" s="10"/>
-      <c r="F135" s="10"/>
-      <c r="G135" s="10"/>
+      <c r="A135" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B135" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C135" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="D135" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="E135" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="F135" s="7"/>
+      <c r="G135" s="24"/>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A136" s="10"/>
-      <c r="B136" s="10"/>
-      <c r="C136" s="10"/>
-      <c r="D136" s="10"/>
-      <c r="E136" s="10"/>
-      <c r="F136" s="10"/>
-      <c r="G136" s="10"/>
+      <c r="A136" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B136" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="C136" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="D136" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E136" s="26" t="s">
+        <v>195</v>
+      </c>
+      <c r="F136" s="24" t="s">
+        <v>196</v>
+      </c>
+      <c r="G136" s="24"/>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A137" s="10"/>
-      <c r="B137" s="10"/>
-      <c r="C137" s="10"/>
-      <c r="D137" s="10"/>
-      <c r="E137" s="10"/>
-      <c r="F137" s="10"/>
-      <c r="G137" s="10"/>
+      <c r="A137" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B137" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="C137" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="D137" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="E137" s="26" t="s">
+        <v>197</v>
+      </c>
+      <c r="F137" s="24"/>
+      <c r="G137" s="24"/>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A138" s="10"/>
-      <c r="B138" s="10"/>
-      <c r="C138" s="10"/>
-      <c r="D138" s="10"/>
-      <c r="E138" s="10"/>
-      <c r="F138" s="10"/>
-      <c r="G138" s="10"/>
+      <c r="A138" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B138" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="C138" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="D138" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="E138" s="26" t="s">
+        <v>198</v>
+      </c>
+      <c r="F138" s="24"/>
+      <c r="G138" s="24"/>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A139" s="10"/>
-      <c r="B139" s="10"/>
-      <c r="C139" s="10"/>
-      <c r="D139" s="10"/>
-      <c r="E139" s="10"/>
-      <c r="F139" s="10"/>
-      <c r="G139" s="10"/>
+      <c r="A139" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B139" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="C139" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="D139" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="E139" s="26"/>
+      <c r="F139" s="24"/>
+      <c r="G139" s="24"/>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A140" s="10"/>
@@ -8116,9 +8549,87 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="12.6328125" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="16.08984375" customWidth="1" collapsed="1"/>
+    <col min="4" max="7" width="14.08984375" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" s="35" t="s">
+        <v>173</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>174</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>175</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>176</v>
+      </c>
+      <c r="E1" s="35" t="s">
+        <v>199</v>
+      </c>
+      <c r="F1" s="35" t="s">
+        <v>200</v>
+      </c>
+      <c r="G1" s="35" t="s">
+        <v>203</v>
+      </c>
+      <c r="H1" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A2" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>178</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="D2" s="37" t="s">
+        <v>180</v>
+      </c>
+      <c r="E2" s="37" t="s">
+        <v>202</v>
+      </c>
+      <c r="F2" s="36" t="s">
+        <v>201</v>
+      </c>
+      <c r="G2" s="38" t="s">
+        <v>204</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -8150,7 +8661,7 @@
       <c r="C2" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>62</v>
       </c>
     </row>
@@ -8160,12 +8671,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8202,12 +8713,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/src/test/java/com/born/xls/ProductDetailsPage.xlsx
+++ b/src/test/java/com/born/xls/ProductDetailsPage.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="6590" windowHeight="2660" tabRatio="937" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="6590" windowHeight="2660" tabRatio="937" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="2" r:id="rId1"/>
@@ -1509,10 +1509,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:I637"/>
+  <dimension ref="A1:H637"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C133" sqref="C133"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1524,9 +1524,8 @@
     <col min="5" max="5" width="34.1796875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="29.7265625" style="1" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="17" style="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="9.1796875" style="1" collapsed="1"/>
-    <col min="9" max="9" width="9.1796875" style="1"/>
-    <col min="10" max="16384" width="9.1796875" style="1" collapsed="1"/>
+    <col min="8" max="8" width="9.1796875" style="1"/>
+    <col min="9" max="16384" width="9.1796875" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
@@ -8717,7 +8716,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>

--- a/src/test/java/com/born/xls/ProductDetailsPage.xlsx
+++ b/src/test/java/com/born/xls/ProductDetailsPage.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="6590" windowHeight="2660" tabRatio="937" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="6590" windowHeight="2660" tabRatio="937"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="214">
   <si>
     <t>TCID</t>
   </si>
@@ -769,6 +769,9 @@
   </si>
   <si>
     <t>col|CountryName</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
@@ -1366,8 +1369,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView zoomScale="105" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C11"/>
+    <sheetView tabSelected="1" zoomScale="105" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1397,7 +1400,7 @@
         <v>156</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>62</v>
+        <v>213</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -1408,7 +1411,7 @@
         <v>50</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>62</v>
+        <v>213</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -1419,7 +1422,7 @@
         <v>133</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>62</v>
+        <v>213</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -1430,7 +1433,7 @@
         <v>134</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>62</v>
+        <v>213</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -1441,7 +1444,7 @@
         <v>113</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>62</v>
+        <v>213</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -1452,7 +1455,7 @@
         <v>65</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>62</v>
+        <v>213</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="29" x14ac:dyDescent="0.35">
@@ -1463,7 +1466,7 @@
         <v>116</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>62</v>
+        <v>213</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="29" x14ac:dyDescent="0.35">
@@ -1474,7 +1477,7 @@
         <v>131</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>62</v>
+        <v>213</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
@@ -1496,7 +1499,7 @@
         <v>159</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>62</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -1511,7 +1514,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H637"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>

--- a/src/test/java/com/born/xls/ProductDetailsPage.xlsx
+++ b/src/test/java/com/born/xls/ProductDetailsPage.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="6590" windowHeight="2660" tabRatio="937"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="6590" windowHeight="2660" tabRatio="937" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="215">
   <si>
     <t>TCID</t>
   </si>
@@ -772,6 +772,9 @@
   </si>
   <si>
     <t>N</t>
+  </si>
+  <si>
+    <t>ClickEnter</t>
   </si>
 </sst>
 </file>
@@ -1369,7 +1372,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="105" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="105" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -1512,10 +1515,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:H637"/>
+  <dimension ref="A1:I637"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="D101" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G107" sqref="G107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1527,8 +1530,9 @@
     <col min="5" max="5" width="34.1796875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="29.7265625" style="1" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="17" style="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="9.1796875" style="1"/>
-    <col min="9" max="16384" width="9.1796875" style="1" collapsed="1"/>
+    <col min="8" max="8" width="9.1796875" style="1" collapsed="1"/>
+    <col min="9" max="9" width="9.1796875" style="1"/>
+    <col min="10" max="16384" width="9.1796875" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
@@ -3548,7 +3552,7 @@
         <v>152</v>
       </c>
       <c r="D111" s="24" t="s">
-        <v>148</v>
+        <v>214</v>
       </c>
       <c r="E111" s="24" t="s">
         <v>59</v>
@@ -8720,7 +8724,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/src/test/java/com/born/xls/ProductDetailsPage.xlsx
+++ b/src/test/java/com/born/xls/ProductDetailsPage.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="6590" windowHeight="2660" tabRatio="937" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="6590" windowHeight="2660" tabRatio="937"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="214">
   <si>
     <t>TCID</t>
   </si>
@@ -769,9 +769,6 @@
   </si>
   <si>
     <t>col|CountryName</t>
-  </si>
-  <si>
-    <t>N</t>
   </si>
   <si>
     <t>ClickEnter</t>
@@ -1372,8 +1369,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView zoomScale="105" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" zoomScale="105" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1403,7 +1400,7 @@
         <v>156</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>213</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -1414,7 +1411,7 @@
         <v>50</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>213</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -1425,7 +1422,7 @@
         <v>133</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>213</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -1436,7 +1433,7 @@
         <v>134</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>213</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -1447,7 +1444,7 @@
         <v>113</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>213</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -1458,7 +1455,7 @@
         <v>65</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>213</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="29" x14ac:dyDescent="0.35">
@@ -1469,7 +1466,7 @@
         <v>116</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>213</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="29" x14ac:dyDescent="0.35">
@@ -1480,7 +1477,7 @@
         <v>131</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>213</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
@@ -1502,7 +1499,7 @@
         <v>159</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>213</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1517,7 +1514,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:I637"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D101" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="D101" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G107" sqref="G107"/>
     </sheetView>
   </sheetViews>
@@ -3552,7 +3549,7 @@
         <v>152</v>
       </c>
       <c r="D111" s="24" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E111" s="24" t="s">
         <v>59</v>

--- a/src/test/java/com/born/xls/ProductDetailsPage.xlsx
+++ b/src/test/java/com/born/xls/ProductDetailsPage.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="6590" windowHeight="2660" tabRatio="937"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="6590" windowHeight="2660" tabRatio="937" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="221">
   <si>
     <t>TCID</t>
   </si>
@@ -773,12 +773,44 @@
   <si>
     <t>ClickEnter</t>
   </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>mouseHover1</t>
+  </si>
+  <si>
+    <t>Result1</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>FAIL Object doest not exist</t>
+  </si>
+  <si>
+    <t>FAILElement is not visible even after explicitwwaitTimed out after 30 seconds waiting for visibility of element located by By.xpath: //span[contains(text(),'Add To A Project')]
+Build info: version: '2.53.0', revision: '35ae25b1534ae328c771e0856c93e187490ca824', time: '2016-03-15 10:43:46'
+System info: host: 'BNIVMBGDELLL012', ip: '10.90.0.117', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_121'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=47.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: a7182054-e518-4e9b-b559-8c38c9d7cd1a</t>
+  </si>
+  <si>
+    <t>FAILElement is not visible even after explicitwwaitTimed out after 30 seconds waiting for visibility of element located by By.xpath: //a[contains(@class,'add-to-project')]
+Build info: version: '2.53.0', revision: '35ae25b1534ae328c771e0856c93e187490ca824', time: '2016-03-15 10:43:46'
+System info: host: 'BNIVMBGDELLL012', ip: '10.90.0.117', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_121'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=47.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: a16bca1d-8988-4453-b0c6-0e7bbf92d7cd</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -861,7 +893,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -896,6 +928,11 @@
       <patternFill patternType="solid">
         <fgColor theme="1"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="55"/>
       </patternFill>
     </fill>
   </fills>
@@ -964,7 +1001,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1056,6 +1093,7 @@
     <xf numFmtId="14" fontId="10" fillId="5" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1369,16 +1407,16 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="105" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C11"/>
+    <sheetView zoomScale="105" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="35.90625" style="2" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="57" style="2" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.54296875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="16384" width="9.1796875" style="2" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="2" width="35.90625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="2" width="57.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="9.54296875" collapsed="true"/>
+    <col min="4" max="16384" style="2" width="9.1796875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
@@ -1400,7 +1438,7 @@
         <v>156</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>62</v>
+        <v>214</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -1422,7 +1460,7 @@
         <v>133</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>62</v>
+        <v>214</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -1433,7 +1471,7 @@
         <v>134</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>62</v>
+        <v>214</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -1444,7 +1482,7 @@
         <v>113</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>62</v>
+        <v>214</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -1455,7 +1493,7 @@
         <v>65</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>62</v>
+        <v>214</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="29" x14ac:dyDescent="0.35">
@@ -1466,7 +1504,7 @@
         <v>116</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>62</v>
+        <v>214</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="29" x14ac:dyDescent="0.35">
@@ -1477,7 +1515,7 @@
         <v>131</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>62</v>
+        <v>214</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
@@ -1488,7 +1526,7 @@
         <v>132</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>62</v>
+        <v>214</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
@@ -1499,7 +1537,7 @@
         <v>159</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>62</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -1512,27 +1550,26 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:I637"/>
+  <dimension ref="A1:H637"/>
   <sheetViews>
-    <sheetView topLeftCell="D101" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G107" sqref="G107"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="32.6328125" style="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="9.1796875" style="1" collapsed="1"/>
-    <col min="3" max="3" width="54.08984375" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="26.08984375" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="34.1796875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="29.7265625" style="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="17" style="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="9.1796875" style="1" collapsed="1"/>
-    <col min="9" max="9" width="9.1796875" style="1"/>
-    <col min="10" max="16384" width="9.1796875" style="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="32.6328125" collapsed="true"/>
+    <col min="2" max="2" style="1" width="9.1796875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="54.08984375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="26.08984375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="34.1796875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="1" width="29.7265625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="1" width="17.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="1" width="255.0" collapsed="true"/>
+    <col min="9" max="16384" style="1" width="9.1796875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1554,8 +1591,11 @@
       <c r="G1" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="H1" s="39" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>38</v>
       </c>
@@ -1574,7 +1614,7 @@
       </c>
       <c r="G2" s="24"/>
     </row>
-    <row r="3" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>38</v>
       </c>
@@ -1593,7 +1633,7 @@
       </c>
       <c r="G3" s="24"/>
     </row>
-    <row r="4" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>38</v>
       </c>
@@ -1612,7 +1652,7 @@
       <c r="F4" s="24"/>
       <c r="G4" s="24"/>
     </row>
-    <row r="5" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>38</v>
       </c>
@@ -1631,7 +1671,7 @@
       <c r="F5" s="24"/>
       <c r="G5" s="24"/>
     </row>
-    <row r="6" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
         <v>38</v>
       </c>
@@ -1650,7 +1690,7 @@
       <c r="F6" s="24"/>
       <c r="G6" s="24"/>
     </row>
-    <row r="7" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>38</v>
       </c>
@@ -1669,7 +1709,7 @@
       <c r="F7" s="24"/>
       <c r="G7" s="24"/>
     </row>
-    <row r="8" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>38</v>
       </c>
@@ -1688,7 +1728,7 @@
       <c r="F8" s="24"/>
       <c r="G8" s="24"/>
     </row>
-    <row r="9" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
         <v>38</v>
       </c>
@@ -1705,7 +1745,7 @@
       <c r="F9" s="24"/>
       <c r="G9" s="24"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="25"/>
       <c r="B10" s="25"/>
       <c r="C10" s="25"/>
@@ -1714,7 +1754,7 @@
       <c r="F10" s="25"/>
       <c r="G10" s="25"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
         <v>49</v>
       </c>
@@ -1732,8 +1772,11 @@
         <v>8</v>
       </c>
       <c r="G11" s="24"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H11" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
         <v>49</v>
       </c>
@@ -1751,8 +1794,11 @@
         <v>10</v>
       </c>
       <c r="G12" s="24"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H12" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
         <v>49</v>
       </c>
@@ -1770,8 +1816,11 @@
       </c>
       <c r="F13" s="24"/>
       <c r="G13" s="24"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H13" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
         <v>49</v>
       </c>
@@ -1789,8 +1838,11 @@
       </c>
       <c r="F14" s="24"/>
       <c r="G14" s="24"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H14" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
         <v>49</v>
       </c>
@@ -1808,8 +1860,11 @@
       </c>
       <c r="F15" s="24"/>
       <c r="G15" s="24"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H15" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="6" t="s">
         <v>49</v>
       </c>
@@ -1827,8 +1882,11 @@
       </c>
       <c r="F16" s="24"/>
       <c r="G16" s="24"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H16" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="6" t="s">
         <v>49</v>
       </c>
@@ -1846,8 +1904,11 @@
       </c>
       <c r="F17" s="24"/>
       <c r="G17" s="24"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H17" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="6" t="s">
         <v>49</v>
       </c>
@@ -1858,15 +1919,18 @@
         <v>80</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E18" s="24" t="s">
         <v>47</v>
       </c>
       <c r="F18" s="24"/>
       <c r="G18" s="24"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H18" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="6" t="s">
         <v>49</v>
       </c>
@@ -1884,8 +1948,11 @@
       </c>
       <c r="F19" s="24"/>
       <c r="G19" s="24"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H19" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="6" t="s">
         <v>49</v>
       </c>
@@ -1903,8 +1970,11 @@
       </c>
       <c r="F20" s="24"/>
       <c r="G20" s="24"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H20" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="6" t="s">
         <v>49</v>
       </c>
@@ -1920,8 +1990,11 @@
       <c r="E21" s="24"/>
       <c r="F21" s="24"/>
       <c r="G21" s="24"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H21" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="25"/>
       <c r="B22" s="25"/>
       <c r="C22" s="25"/>
@@ -1930,7 +2003,7 @@
       <c r="F22" s="25"/>
       <c r="G22" s="25"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="6" t="s">
         <v>56</v>
       </c>
@@ -1949,7 +2022,7 @@
       </c>
       <c r="G23" s="24"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="6" t="s">
         <v>56</v>
       </c>
@@ -1968,7 +2041,7 @@
       </c>
       <c r="G24" s="24"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="6" t="s">
         <v>56</v>
       </c>
@@ -1989,7 +2062,7 @@
       </c>
       <c r="G25" s="24"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="6" t="s">
         <v>56</v>
       </c>
@@ -2008,7 +2081,7 @@
       <c r="F26" s="24"/>
       <c r="G26" s="24"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="6" t="s">
         <v>56</v>
       </c>
@@ -2025,7 +2098,7 @@
       <c r="F27" s="24"/>
       <c r="G27" s="24"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" s="6" t="s">
         <v>56</v>
       </c>
@@ -2044,7 +2117,7 @@
       <c r="F28" s="24"/>
       <c r="G28" s="24"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="6" t="s">
         <v>56</v>
       </c>
@@ -2063,7 +2136,7 @@
       <c r="F29" s="24"/>
       <c r="G29" s="24"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" s="6" t="s">
         <v>56</v>
       </c>
@@ -2082,7 +2155,7 @@
       <c r="F30" s="24"/>
       <c r="G30" s="24"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" s="6" t="s">
         <v>56</v>
       </c>
@@ -2101,7 +2174,7 @@
       <c r="F31" s="24"/>
       <c r="G31" s="24"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" s="6" t="s">
         <v>56</v>
       </c>
@@ -2636,16 +2709,16 @@
         <v>22</v>
       </c>
       <c r="C61" s="24" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="D61" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="E61" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="F61" s="24"/>
-      <c r="G61" s="24"/>
+        <v>143</v>
+      </c>
+      <c r="E61" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="F61" s="32"/>
+      <c r="G61" s="32"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62" s="20" t="s">
@@ -2655,16 +2728,16 @@
         <v>21</v>
       </c>
       <c r="C62" s="24" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="D62" s="24" t="s">
-        <v>143</v>
-      </c>
-      <c r="E62" s="26" t="s">
-        <v>142</v>
-      </c>
-      <c r="F62" s="32"/>
-      <c r="G62" s="32"/>
+        <v>31</v>
+      </c>
+      <c r="E62" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F62" s="24"/>
+      <c r="G62" s="24"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A63" s="20" t="s">
@@ -3000,7 +3073,7 @@
       </c>
       <c r="G80" s="24"/>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A81" s="20" t="s">
         <v>64</v>
       </c>
@@ -3021,7 +3094,7 @@
       </c>
       <c r="G81" s="24"/>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A82" s="20" t="s">
         <v>64</v>
       </c>
@@ -3040,7 +3113,7 @@
       <c r="F82" s="24"/>
       <c r="G82" s="24"/>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A83" s="20" t="s">
         <v>64</v>
       </c>
@@ -3059,7 +3132,7 @@
       <c r="F83" s="7"/>
       <c r="G83" s="24"/>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A84" s="20" t="s">
         <v>64</v>
       </c>
@@ -3078,7 +3151,7 @@
       <c r="F84" s="7"/>
       <c r="G84" s="24"/>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A85" s="20" t="s">
         <v>64</v>
       </c>
@@ -3097,7 +3170,7 @@
       <c r="F85" s="24"/>
       <c r="G85" s="24"/>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A86" s="20" t="s">
         <v>64</v>
       </c>
@@ -3116,7 +3189,7 @@
       <c r="F86" s="24"/>
       <c r="G86" s="24"/>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A87" s="20" t="s">
         <v>64</v>
       </c>
@@ -3133,7 +3206,7 @@
       <c r="F87" s="24"/>
       <c r="G87" s="24"/>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A88" s="25"/>
       <c r="B88" s="25"/>
       <c r="C88" s="25"/>
@@ -3142,7 +3215,7 @@
       <c r="F88" s="25"/>
       <c r="G88" s="25"/>
     </row>
-    <row r="89" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A89" s="19" t="s">
         <v>114</v>
       </c>
@@ -3160,8 +3233,11 @@
         <v>8</v>
       </c>
       <c r="G89" s="24"/>
-    </row>
-    <row r="90" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="H89" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A90" s="19" t="s">
         <v>114</v>
       </c>
@@ -3179,8 +3255,11 @@
         <v>10</v>
       </c>
       <c r="G90" s="24"/>
-    </row>
-    <row r="91" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="H90" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A91" s="19" t="s">
         <v>114</v>
       </c>
@@ -3198,8 +3277,11 @@
       </c>
       <c r="F91" s="24"/>
       <c r="G91" s="24"/>
-    </row>
-    <row r="92" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="H91" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A92" s="19" t="s">
         <v>114</v>
       </c>
@@ -3217,8 +3299,11 @@
       </c>
       <c r="F92" s="7"/>
       <c r="G92" s="7"/>
-    </row>
-    <row r="93" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="H92" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A93" s="19" t="s">
         <v>114</v>
       </c>
@@ -3236,8 +3321,11 @@
       </c>
       <c r="F93" s="7"/>
       <c r="G93" s="7"/>
-    </row>
-    <row r="94" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="H93" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A94" s="19" t="s">
         <v>114</v>
       </c>
@@ -3255,8 +3343,11 @@
       </c>
       <c r="F94" s="7"/>
       <c r="G94" s="7"/>
-    </row>
-    <row r="95" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="H94" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A95" s="19" t="s">
         <v>114</v>
       </c>
@@ -3267,15 +3358,18 @@
         <v>117</v>
       </c>
       <c r="D95" s="24" t="s">
-        <v>36</v>
+        <v>215</v>
       </c>
       <c r="E95" s="24" t="s">
         <v>46</v>
       </c>
       <c r="F95" s="24"/>
       <c r="G95" s="24"/>
-    </row>
-    <row r="96" spans="1:7" ht="87" x14ac:dyDescent="0.35">
+      <c r="H95" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="87" x14ac:dyDescent="0.35">
       <c r="A96" s="19" t="s">
         <v>114</v>
       </c>
@@ -3293,8 +3387,11 @@
       </c>
       <c r="F96" s="24"/>
       <c r="G96" s="24"/>
-    </row>
-    <row r="97" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="H96" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A97" s="19" t="s">
         <v>114</v>
       </c>
@@ -3310,8 +3407,11 @@
       <c r="E97" s="24"/>
       <c r="F97" s="24"/>
       <c r="G97" s="24"/>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H97" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A98" s="25"/>
       <c r="B98" s="25"/>
       <c r="C98" s="25"/>
@@ -3320,7 +3420,7 @@
       <c r="F98" s="25"/>
       <c r="G98" s="25"/>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A99" s="19" t="s">
         <v>115</v>
       </c>
@@ -3339,7 +3439,7 @@
       </c>
       <c r="G99" s="24"/>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A100" s="19" t="s">
         <v>115</v>
       </c>
@@ -3358,7 +3458,7 @@
       </c>
       <c r="G100" s="24"/>
     </row>
-    <row r="101" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A101" s="19" t="s">
         <v>115</v>
       </c>
@@ -3377,7 +3477,7 @@
       <c r="F101" s="24"/>
       <c r="G101" s="24"/>
     </row>
-    <row r="102" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A102" s="19" t="s">
         <v>115</v>
       </c>
@@ -3396,7 +3496,7 @@
       <c r="F102" s="24"/>
       <c r="G102" s="24"/>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A103" s="19" t="s">
         <v>115</v>
       </c>
@@ -3413,7 +3513,7 @@
       <c r="F103" s="24"/>
       <c r="G103" s="24"/>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A104" s="25"/>
       <c r="B104" s="25"/>
       <c r="C104" s="25"/>
@@ -3424,7 +3524,7 @@
       <c r="F104" s="25"/>
       <c r="G104" s="25"/>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A105" s="23" t="s">
         <v>157</v>
       </c>
@@ -3443,7 +3543,7 @@
       </c>
       <c r="G105" s="24"/>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A106" s="23" t="s">
         <v>157</v>
       </c>
@@ -3462,7 +3562,7 @@
       </c>
       <c r="G106" s="24"/>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A107" s="23" t="s">
         <v>157</v>
       </c>
@@ -3483,7 +3583,7 @@
       </c>
       <c r="G107" s="24"/>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A108" s="23" t="s">
         <v>157</v>
       </c>
@@ -3502,7 +3602,7 @@
       <c r="F108" s="24"/>
       <c r="G108" s="24"/>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A109" s="23" t="s">
         <v>157</v>
       </c>
@@ -3519,7 +3619,7 @@
       <c r="F109" s="24"/>
       <c r="G109" s="24"/>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A110" s="23" t="s">
         <v>157</v>
       </c>
@@ -3538,7 +3638,7 @@
       <c r="F110" s="24"/>
       <c r="G110" s="24"/>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A111" s="23" t="s">
         <v>157</v>
       </c>
@@ -3557,7 +3657,7 @@
       <c r="F111" s="24"/>
       <c r="G111" s="24"/>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A112" s="23" t="s">
         <v>157</v>
       </c>
@@ -8555,14 +8655,14 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection sqref="A1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.6328125" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="16.08984375" customWidth="1" collapsed="1"/>
-    <col min="4" max="7" width="14.08984375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="12.6328125" collapsed="true"/>
+    <col min="2" max="3" customWidth="true" width="16.08984375" collapsed="true"/>
+    <col min="4" max="7" customWidth="true" width="14.08984375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
@@ -8636,8 +8736,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="15" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="36.08984375" customWidth="1" collapsed="1"/>
+    <col min="1" max="2" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="36.08984375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
@@ -8684,8 +8784,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.08984375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14.08984375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="16.08984375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="14.08984375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
@@ -8726,7 +8826,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.453125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="13.453125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">

--- a/src/test/java/com/born/xls/ProductDetailsPage.xlsx
+++ b/src/test/java/com/born/xls/ProductDetailsPage.xlsx
@@ -9,10 +9,12 @@
   <sheets>
     <sheet name="Test Cases" sheetId="2" r:id="rId1"/>
     <sheet name="Test Steps" sheetId="3" r:id="rId2"/>
-    <sheet name="ProductRegistration" sheetId="60" r:id="rId3"/>
-    <sheet name="PDP-Write a Review" sheetId="57" r:id="rId4"/>
-    <sheet name="Comparing the Products" sheetId="58" r:id="rId5"/>
-    <sheet name="WhereToBuy" sheetId="59" r:id="rId6"/>
+    <sheet name="Favorite products" sheetId="62" r:id="rId3"/>
+    <sheet name="ProductRegistration" sheetId="60" r:id="rId4"/>
+    <sheet name="PDP-Write a Review" sheetId="57" r:id="rId5"/>
+    <sheet name="Comparing the Products" sheetId="58" r:id="rId6"/>
+    <sheet name="Verification of View My Items" sheetId="61" r:id="rId7"/>
+    <sheet name="WhereToBuy" sheetId="59" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Test Cases'!$A$1:$C$8</definedName>
@@ -23,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="216">
   <si>
     <t>TCID</t>
   </si>
@@ -251,9 +253,6 @@
   </si>
   <si>
     <t>Product details page</t>
-  </si>
-  <si>
-    <t>PDP-Verification of Favorite products</t>
   </si>
   <si>
     <t>Select a product and click on view product details</t>
@@ -774,43 +773,20 @@
     <t>ClickEnter</t>
   </si>
   <si>
-    <t>N</t>
-  </si>
-  <si>
     <t>mouseHover1</t>
   </si>
   <si>
-    <t>Result1</t>
-  </si>
-  <si>
-    <t>PASS</t>
-  </si>
-  <si>
-    <t>FAIL Object doest not exist</t>
-  </si>
-  <si>
-    <t>FAILElement is not visible even after explicitwwaitTimed out after 30 seconds waiting for visibility of element located by By.xpath: //span[contains(text(),'Add To A Project')]
-Build info: version: '2.53.0', revision: '35ae25b1534ae328c771e0856c93e187490ca824', time: '2016-03-15 10:43:46'
-System info: host: 'BNIVMBGDELLL012', ip: '10.90.0.117', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_121'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=47.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: a7182054-e518-4e9b-b559-8c38c9d7cd1a</t>
-  </si>
-  <si>
-    <t>FAILElement is not visible even after explicitwwaitTimed out after 30 seconds waiting for visibility of element located by By.xpath: //a[contains(@class,'add-to-project')]
-Build info: version: '2.53.0', revision: '35ae25b1534ae328c771e0856c93e187490ca824', time: '2016-03-15 10:43:46'
-System info: host: 'BNIVMBGDELLL012', ip: '10.90.0.117', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_121'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=47.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: a16bca1d-8988-4453-b0c6-0e7bbf92d7cd</t>
+    <t>Enter the product model number to Add To A Project</t>
+  </si>
+  <si>
+    <t>Favorite products</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="11">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -893,7 +869,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -928,11 +904,6 @@
       <patternFill patternType="solid">
         <fgColor theme="1"/>
         <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="55"/>
       </patternFill>
     </fill>
   </fills>
@@ -1001,7 +972,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1074,9 +1045,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1093,7 +1061,6 @@
     <xf numFmtId="14" fontId="10" fillId="5" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1408,15 +1375,15 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView zoomScale="105" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="2" width="35.90625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="2" width="57.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="9.54296875" collapsed="true"/>
-    <col min="4" max="16384" style="2" width="9.1796875" collapsed="true"/>
+    <col min="1" max="1" width="35.90625" style="2" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="57" style="2" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.54296875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="9.1796875" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
@@ -1435,10 +1402,10 @@
         <v>38</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>214</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -1457,10 +1424,10 @@
         <v>56</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>214</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -1468,21 +1435,21 @@
         <v>75</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>214</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="9" t="s">
-        <v>76</v>
+        <v>215</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>214</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -1493,51 +1460,51 @@
         <v>65</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>214</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="19" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>214</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="19" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>214</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>214</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>159</v>
-      </c>
       <c r="C11" s="4" t="s">
-        <v>214</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1550,26 +1517,27 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:H637"/>
+  <dimension ref="A1:J639"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="E22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="32.6328125" collapsed="true"/>
-    <col min="2" max="2" style="1" width="9.1796875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="54.08984375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="26.08984375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="34.1796875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="1" width="29.7265625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="1" width="17.0" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="1" width="255.0" collapsed="true"/>
-    <col min="9" max="16384" style="1" width="9.1796875" collapsed="true"/>
+    <col min="1" max="1" width="32.6328125" style="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="9.1796875" style="1" collapsed="1"/>
+    <col min="3" max="3" width="54.08984375" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="26.08984375" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="34.1796875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="29.7265625" style="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="17" style="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="9.1796875" style="1" collapsed="1"/>
+    <col min="9" max="10" width="9.1796875" style="1"/>
+    <col min="11" max="16384" width="9.1796875" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1591,11 +1559,8 @@
       <c r="G1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="39" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>38</v>
       </c>
@@ -1614,7 +1579,7 @@
       </c>
       <c r="G2" s="24"/>
     </row>
-    <row r="3" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>38</v>
       </c>
@@ -1633,7 +1598,7 @@
       </c>
       <c r="G3" s="24"/>
     </row>
-    <row r="4" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>38</v>
       </c>
@@ -1652,7 +1617,7 @@
       <c r="F4" s="24"/>
       <c r="G4" s="24"/>
     </row>
-    <row r="5" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>38</v>
       </c>
@@ -1671,7 +1636,7 @@
       <c r="F5" s="24"/>
       <c r="G5" s="24"/>
     </row>
-    <row r="6" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
         <v>38</v>
       </c>
@@ -1690,7 +1655,7 @@
       <c r="F6" s="24"/>
       <c r="G6" s="24"/>
     </row>
-    <row r="7" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>38</v>
       </c>
@@ -1709,7 +1674,7 @@
       <c r="F7" s="24"/>
       <c r="G7" s="24"/>
     </row>
-    <row r="8" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>38</v>
       </c>
@@ -1728,7 +1693,7 @@
       <c r="F8" s="24"/>
       <c r="G8" s="24"/>
     </row>
-    <row r="9" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
         <v>38</v>
       </c>
@@ -1745,7 +1710,7 @@
       <c r="F9" s="24"/>
       <c r="G9" s="24"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="25"/>
       <c r="B10" s="25"/>
       <c r="C10" s="25"/>
@@ -1754,7 +1719,7 @@
       <c r="F10" s="25"/>
       <c r="G10" s="25"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
         <v>49</v>
       </c>
@@ -1772,11 +1737,8 @@
         <v>8</v>
       </c>
       <c r="G11" s="24"/>
-      <c r="H11" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
         <v>49</v>
       </c>
@@ -1794,11 +1756,8 @@
         <v>10</v>
       </c>
       <c r="G12" s="24"/>
-      <c r="H12" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
         <v>49</v>
       </c>
@@ -1806,21 +1765,20 @@
         <v>25</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>39</v>
+        <v>214</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="E13" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="F13" s="24"/>
+        <v>59</v>
+      </c>
+      <c r="F13" s="24" t="s">
+        <v>60</v>
+      </c>
       <c r="G13" s="24"/>
-      <c r="H13" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
         <v>49</v>
       </c>
@@ -1828,21 +1786,18 @@
         <v>24</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>40</v>
+        <v>135</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="E14" s="24" t="s">
-        <v>44</v>
+        <v>139</v>
+      </c>
+      <c r="E14" s="26" t="s">
+        <v>148</v>
       </c>
       <c r="F14" s="24"/>
       <c r="G14" s="24"/>
-      <c r="H14" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
         <v>49</v>
       </c>
@@ -1850,21 +1805,16 @@
         <v>23</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>41</v>
+        <v>150</v>
       </c>
       <c r="D15" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15" s="24" t="s">
-        <v>42</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="E15" s="24"/>
       <c r="F15" s="24"/>
       <c r="G15" s="24"/>
-      <c r="H15" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="6" t="s">
         <v>49</v>
       </c>
@@ -1872,21 +1822,18 @@
         <v>22</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>48</v>
+        <v>86</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="E16" s="24" t="s">
-        <v>46</v>
+        <v>142</v>
+      </c>
+      <c r="E16" s="26" t="s">
+        <v>152</v>
       </c>
       <c r="F16" s="24"/>
       <c r="G16" s="24"/>
-      <c r="H16" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="6" t="s">
         <v>49</v>
       </c>
@@ -1894,21 +1841,18 @@
         <v>21</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="E17" s="24" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="F17" s="24"/>
       <c r="G17" s="24"/>
-      <c r="H17" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="6" t="s">
         <v>49</v>
       </c>
@@ -1916,21 +1860,18 @@
         <v>20</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="E18" s="24" t="s">
-        <v>47</v>
+        <v>142</v>
+      </c>
+      <c r="E18" s="26" t="s">
+        <v>154</v>
       </c>
       <c r="F18" s="24"/>
       <c r="G18" s="24"/>
-      <c r="H18" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="6" t="s">
         <v>49</v>
       </c>
@@ -1938,21 +1879,18 @@
         <v>19</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="D19" s="24" t="s">
         <v>33</v>
       </c>
       <c r="E19" s="24" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F19" s="24"/>
       <c r="G19" s="24"/>
-      <c r="H19" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="6" t="s">
         <v>49</v>
       </c>
@@ -1960,21 +1898,18 @@
         <v>12</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="D20" s="24" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E20" s="24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F20" s="24"/>
       <c r="G20" s="24"/>
-      <c r="H20" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="6" t="s">
         <v>49</v>
       </c>
@@ -1982,215 +1917,212 @@
         <v>13</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="D21" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="E21" s="24"/>
+        <v>32</v>
+      </c>
+      <c r="E21" s="24" t="s">
+        <v>53</v>
+      </c>
       <c r="F21" s="24"/>
       <c r="G21" s="24"/>
-      <c r="H21" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A22" s="25"/>
-      <c r="B22" s="25"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A23" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B23" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="C23" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="D23" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="G23" s="24"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23" s="25"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="6" t="s">
         <v>56</v>
       </c>
       <c r="B24" s="24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C24" s="24" t="s">
-        <v>91</v>
+        <v>29</v>
       </c>
       <c r="D24" s="24" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="E24" s="24"/>
       <c r="F24" s="24" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G24" s="24"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="6" t="s">
         <v>56</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D25" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="E25" s="24" t="s">
-        <v>59</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="E25" s="24"/>
       <c r="F25" s="24" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="G25" s="24"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="6" t="s">
         <v>56</v>
       </c>
       <c r="B26" s="24" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C26" s="24" t="s">
-        <v>136</v>
+        <v>93</v>
       </c>
       <c r="D26" s="24" t="s">
-        <v>140</v>
-      </c>
-      <c r="E26" s="26" t="s">
-        <v>149</v>
-      </c>
-      <c r="F26" s="24"/>
+        <v>11</v>
+      </c>
+      <c r="E26" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="F26" s="24" t="s">
+        <v>60</v>
+      </c>
       <c r="G26" s="24"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="6" t="s">
         <v>56</v>
       </c>
       <c r="B27" s="24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C27" s="24" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="D27" s="24" t="s">
-        <v>150</v>
-      </c>
-      <c r="E27" s="24"/>
+        <v>139</v>
+      </c>
+      <c r="E27" s="26" t="s">
+        <v>148</v>
+      </c>
       <c r="F27" s="24"/>
       <c r="G27" s="24"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="6" t="s">
         <v>56</v>
       </c>
       <c r="B28" s="24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C28" s="24" t="s">
-        <v>87</v>
+        <v>150</v>
       </c>
       <c r="D28" s="24" t="s">
-        <v>143</v>
-      </c>
-      <c r="E28" s="26" t="s">
-        <v>153</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="E28" s="24"/>
       <c r="F28" s="24"/>
       <c r="G28" s="24"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="6" t="s">
         <v>56</v>
       </c>
       <c r="B29" s="24" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C29" s="24" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D29" s="24" t="s">
-        <v>148</v>
-      </c>
-      <c r="E29" s="24" t="s">
-        <v>59</v>
+        <v>142</v>
+      </c>
+      <c r="E29" s="26" t="s">
+        <v>152</v>
       </c>
       <c r="F29" s="24"/>
       <c r="G29" s="24"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="6" t="s">
         <v>56</v>
       </c>
       <c r="B30" s="24" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C30" s="24" t="s">
         <v>87</v>
       </c>
       <c r="D30" s="24" t="s">
-        <v>143</v>
-      </c>
-      <c r="E30" s="26" t="s">
-        <v>155</v>
+        <v>147</v>
+      </c>
+      <c r="E30" s="24" t="s">
+        <v>59</v>
       </c>
       <c r="F30" s="24"/>
       <c r="G30" s="24"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="6" t="s">
         <v>56</v>
       </c>
       <c r="B31" s="24" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C31" s="24" t="s">
-        <v>57</v>
+        <v>86</v>
       </c>
       <c r="D31" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="E31" s="24" t="s">
-        <v>81</v>
+        <v>142</v>
+      </c>
+      <c r="E31" s="26" t="s">
+        <v>154</v>
       </c>
       <c r="F31" s="24"/>
       <c r="G31" s="24"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="6" t="s">
         <v>56</v>
       </c>
       <c r="B32" s="24" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C32" s="24" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="D32" s="24" t="s">
-        <v>140</v>
+        <v>33</v>
       </c>
       <c r="E32" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="F32" s="8"/>
+        <v>80</v>
+      </c>
+      <c r="F32" s="24"/>
       <c r="G32" s="24"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
@@ -2198,18 +2130,18 @@
         <v>56</v>
       </c>
       <c r="B33" s="24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C33" s="24" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D33" s="24" t="s">
-        <v>33</v>
+        <v>139</v>
       </c>
       <c r="E33" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="F33" s="24"/>
+        <v>81</v>
+      </c>
+      <c r="F33" s="8"/>
       <c r="G33" s="24"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
@@ -2217,20 +2149,18 @@
         <v>56</v>
       </c>
       <c r="B34" s="24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C34" s="24" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D34" s="24" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="E34" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="F34" s="24" t="s">
-        <v>85</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="F34" s="24"/>
       <c r="G34" s="24"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
@@ -2238,18 +2168,20 @@
         <v>56</v>
       </c>
       <c r="B35" s="24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C35" s="24" t="s">
-        <v>136</v>
+        <v>92</v>
       </c>
       <c r="D35" s="24" t="s">
-        <v>140</v>
-      </c>
-      <c r="E35" s="26" t="s">
-        <v>149</v>
-      </c>
-      <c r="F35" s="24"/>
+        <v>11</v>
+      </c>
+      <c r="E35" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="F35" s="24" t="s">
+        <v>84</v>
+      </c>
       <c r="G35" s="24"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
@@ -2257,15 +2189,17 @@
         <v>56</v>
       </c>
       <c r="B36" s="24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C36" s="24" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="D36" s="24" t="s">
-        <v>150</v>
-      </c>
-      <c r="E36" s="24"/>
+        <v>139</v>
+      </c>
+      <c r="E36" s="26" t="s">
+        <v>148</v>
+      </c>
       <c r="F36" s="24"/>
       <c r="G36" s="24"/>
     </row>
@@ -2274,17 +2208,15 @@
         <v>56</v>
       </c>
       <c r="B37" s="24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C37" s="24" t="s">
-        <v>87</v>
+        <v>150</v>
       </c>
       <c r="D37" s="24" t="s">
-        <v>143</v>
-      </c>
-      <c r="E37" s="26" t="s">
-        <v>153</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="E37" s="24"/>
       <c r="F37" s="24"/>
       <c r="G37" s="24"/>
     </row>
@@ -2293,16 +2225,16 @@
         <v>56</v>
       </c>
       <c r="B38" s="24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C38" s="24" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D38" s="24" t="s">
-        <v>148</v>
-      </c>
-      <c r="E38" s="24" t="s">
-        <v>59</v>
+        <v>142</v>
+      </c>
+      <c r="E38" s="26" t="s">
+        <v>152</v>
       </c>
       <c r="F38" s="24"/>
       <c r="G38" s="24"/>
@@ -2312,16 +2244,16 @@
         <v>56</v>
       </c>
       <c r="B39" s="24" t="s">
-        <v>74</v>
+        <v>18</v>
       </c>
       <c r="C39" s="24" t="s">
         <v>87</v>
       </c>
       <c r="D39" s="24" t="s">
-        <v>143</v>
-      </c>
-      <c r="E39" s="26" t="s">
-        <v>155</v>
+        <v>147</v>
+      </c>
+      <c r="E39" s="24" t="s">
+        <v>59</v>
       </c>
       <c r="F39" s="24"/>
       <c r="G39" s="24"/>
@@ -2331,16 +2263,16 @@
         <v>56</v>
       </c>
       <c r="B40" s="24" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="C40" s="24" t="s">
-        <v>57</v>
+        <v>86</v>
       </c>
       <c r="D40" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="E40" s="24" t="s">
-        <v>81</v>
+        <v>142</v>
+      </c>
+      <c r="E40" s="26" t="s">
+        <v>154</v>
       </c>
       <c r="F40" s="24"/>
       <c r="G40" s="24"/>
@@ -2350,16 +2282,16 @@
         <v>56</v>
       </c>
       <c r="B41" s="24" t="s">
-        <v>135</v>
+        <v>95</v>
       </c>
       <c r="C41" s="24" t="s">
-        <v>89</v>
+        <v>57</v>
       </c>
       <c r="D41" s="24" t="s">
         <v>33</v>
       </c>
       <c r="E41" s="24" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="F41" s="24"/>
       <c r="G41" s="24"/>
@@ -2369,16 +2301,16 @@
         <v>56</v>
       </c>
       <c r="B42" s="24" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="C42" s="24" t="s">
-        <v>58</v>
+        <v>88</v>
       </c>
       <c r="D42" s="24" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E42" s="24" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="F42" s="24"/>
       <c r="G42" s="24"/>
@@ -2388,62 +2320,62 @@
         <v>56</v>
       </c>
       <c r="B43" s="24" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="C43" s="24" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="D43" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="E43" s="24"/>
+        <v>32</v>
+      </c>
+      <c r="E43" s="24" t="s">
+        <v>89</v>
+      </c>
       <c r="F43" s="24"/>
       <c r="G43" s="24"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A44" s="25"/>
-      <c r="B44" s="25"/>
-      <c r="C44" s="25"/>
-      <c r="D44" s="25"/>
-      <c r="E44" s="25"/>
-      <c r="F44" s="25"/>
-      <c r="G44" s="25"/>
+      <c r="A44" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B44" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="C44" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="D44" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="E44" s="24"/>
+      <c r="F44" s="24"/>
+      <c r="G44" s="24"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A45" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="B45" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="C45" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="D45" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="E45" s="24"/>
-      <c r="F45" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="G45" s="24"/>
+      <c r="A45" s="25"/>
+      <c r="B45" s="25"/>
+      <c r="C45" s="25"/>
+      <c r="D45" s="25"/>
+      <c r="E45" s="25"/>
+      <c r="F45" s="25"/>
+      <c r="G45" s="25"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" s="20" t="s">
         <v>75</v>
       </c>
       <c r="B46" s="24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C46" s="24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D46" s="24" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="E46" s="24"/>
       <c r="F46" s="24" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G46" s="24"/>
     </row>
@@ -2452,18 +2384,18 @@
         <v>75</v>
       </c>
       <c r="B47" s="24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C47" s="24" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="D47" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="E47" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="F47" s="24"/>
+        <v>9</v>
+      </c>
+      <c r="E47" s="24"/>
+      <c r="F47" s="24" t="s">
+        <v>10</v>
+      </c>
       <c r="G47" s="24"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.35">
@@ -2471,16 +2403,16 @@
         <v>75</v>
       </c>
       <c r="B48" s="24" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C48" s="24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D48" s="24" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E48" s="24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F48" s="24"/>
       <c r="G48" s="24"/>
@@ -2490,16 +2422,16 @@
         <v>75</v>
       </c>
       <c r="B49" s="24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C49" s="24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D49" s="24" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E49" s="24" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F49" s="24"/>
       <c r="G49" s="24"/>
@@ -2509,16 +2441,16 @@
         <v>75</v>
       </c>
       <c r="B50" s="24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C50" s="24" t="s">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="D50" s="24" t="s">
-        <v>143</v>
-      </c>
-      <c r="E50" s="26" t="s">
-        <v>142</v>
+        <v>32</v>
+      </c>
+      <c r="E50" s="24" t="s">
+        <v>42</v>
       </c>
       <c r="F50" s="24"/>
       <c r="G50" s="24"/>
@@ -2528,16 +2460,16 @@
         <v>75</v>
       </c>
       <c r="B51" s="24" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C51" s="24" t="s">
         <v>77</v>
       </c>
       <c r="D51" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="E51" s="24" t="s">
-        <v>46</v>
+        <v>142</v>
+      </c>
+      <c r="E51" s="26" t="s">
+        <v>141</v>
       </c>
       <c r="F51" s="24"/>
       <c r="G51" s="24"/>
@@ -2547,16 +2479,16 @@
         <v>75</v>
       </c>
       <c r="B52" s="24" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C52" s="24" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D52" s="24" t="s">
-        <v>143</v>
-      </c>
-      <c r="E52" s="26" t="s">
-        <v>142</v>
+        <v>31</v>
+      </c>
+      <c r="E52" s="24" t="s">
+        <v>46</v>
       </c>
       <c r="F52" s="24"/>
       <c r="G52" s="24"/>
@@ -2566,16 +2498,16 @@
         <v>75</v>
       </c>
       <c r="B53" s="24" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C53" s="24" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D53" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="E53" s="24" t="s">
-        <v>81</v>
+        <v>142</v>
+      </c>
+      <c r="E53" s="26" t="s">
+        <v>141</v>
       </c>
       <c r="F53" s="24"/>
       <c r="G53" s="24"/>
@@ -2585,301 +2517,297 @@
         <v>75</v>
       </c>
       <c r="B54" s="24" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C54" s="24" t="s">
-        <v>34</v>
+        <v>78</v>
       </c>
       <c r="D54" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="E54" s="24"/>
+        <v>32</v>
+      </c>
+      <c r="E54" s="24" t="s">
+        <v>80</v>
+      </c>
       <c r="F54" s="24"/>
       <c r="G54" s="24"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A55" s="25"/>
-      <c r="B55" s="25"/>
-      <c r="C55" s="25"/>
-      <c r="D55" s="25"/>
-      <c r="E55" s="25"/>
-      <c r="F55" s="25"/>
-      <c r="G55" s="25"/>
+      <c r="A55" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="B55" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C55" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="D55" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="E55" s="24"/>
+      <c r="F55" s="24"/>
+      <c r="G55" s="24"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A56" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="B56" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="C56" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="D56" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="E56" s="24"/>
-      <c r="F56" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="G56" s="24"/>
+      <c r="A56" s="25"/>
+      <c r="B56" s="25"/>
+      <c r="C56" s="25"/>
+      <c r="D56" s="25"/>
+      <c r="E56" s="25"/>
+      <c r="F56" s="25"/>
+      <c r="G56" s="25"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57" s="20" t="s">
-        <v>76</v>
+        <v>215</v>
       </c>
       <c r="B57" s="24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C57" s="24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D57" s="24" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="E57" s="24"/>
       <c r="F57" s="24" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G57" s="24"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58" s="20" t="s">
-        <v>76</v>
+        <v>215</v>
       </c>
       <c r="B58" s="24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C58" s="24" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="D58" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="E58" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="F58" s="24"/>
+        <v>9</v>
+      </c>
+      <c r="E58" s="24"/>
+      <c r="F58" s="24" t="s">
+        <v>10</v>
+      </c>
       <c r="G58" s="24"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59" s="20" t="s">
-        <v>76</v>
+        <v>215</v>
       </c>
       <c r="B59" s="24" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C59" s="24" t="s">
-        <v>40</v>
+        <v>214</v>
       </c>
       <c r="D59" s="24" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="E59" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="F59" s="24"/>
+        <v>59</v>
+      </c>
+      <c r="F59" s="24" t="s">
+        <v>60</v>
+      </c>
       <c r="G59" s="24"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60" s="20" t="s">
-        <v>76</v>
+        <v>215</v>
       </c>
       <c r="B60" s="24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C60" s="24" t="s">
-        <v>41</v>
+        <v>135</v>
       </c>
       <c r="D60" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="E60" s="24" t="s">
-        <v>42</v>
+        <v>139</v>
+      </c>
+      <c r="E60" s="26" t="s">
+        <v>148</v>
       </c>
       <c r="F60" s="24"/>
       <c r="G60" s="24"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A61" s="20" t="s">
-        <v>76</v>
+        <v>215</v>
       </c>
       <c r="B61" s="24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C61" s="24" t="s">
-        <v>63</v>
+        <v>150</v>
       </c>
       <c r="D61" s="24" t="s">
-        <v>143</v>
-      </c>
-      <c r="E61" s="26" t="s">
-        <v>142</v>
-      </c>
-      <c r="F61" s="32"/>
-      <c r="G61" s="32"/>
+        <v>149</v>
+      </c>
+      <c r="E61" s="24"/>
+      <c r="F61" s="24"/>
+      <c r="G61" s="24"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62" s="20" t="s">
-        <v>76</v>
+        <v>215</v>
       </c>
       <c r="B62" s="24" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C62" s="24" t="s">
-        <v>48</v>
+        <v>86</v>
       </c>
       <c r="D62" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="E62" s="24" t="s">
-        <v>46</v>
+        <v>142</v>
+      </c>
+      <c r="E62" s="26" t="s">
+        <v>152</v>
       </c>
       <c r="F62" s="24"/>
       <c r="G62" s="24"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A63" s="20" t="s">
-        <v>76</v>
+        <v>215</v>
       </c>
       <c r="B63" s="24" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C63" s="24" t="s">
-        <v>54</v>
+        <v>87</v>
       </c>
       <c r="D63" s="24" t="s">
-        <v>33</v>
+        <v>147</v>
       </c>
       <c r="E63" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="F63" s="7"/>
+        <v>59</v>
+      </c>
+      <c r="F63" s="24"/>
       <c r="G63" s="24"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A64" s="20" t="s">
-        <v>76</v>
+        <v>215</v>
       </c>
       <c r="B64" s="24" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C64" s="24" t="s">
-        <v>35</v>
+        <v>86</v>
       </c>
       <c r="D64" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="E64" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="F64" s="7"/>
+        <v>142</v>
+      </c>
+      <c r="E64" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="F64" s="24"/>
       <c r="G64" s="24"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A65" s="20" t="s">
-        <v>76</v>
+        <v>215</v>
       </c>
       <c r="B65" s="24" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C65" s="24" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D65" s="24" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E65" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="F65" s="24" t="s">
-        <v>60</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="F65" s="7"/>
       <c r="G65" s="24"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A66" s="20" t="s">
-        <v>76</v>
+        <v>215</v>
       </c>
       <c r="B66" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C66" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="D66" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="E66" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="F66" s="7"/>
+      <c r="G66" s="24"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A67" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="B67" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C66" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="D66" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="E66" s="24"/>
-      <c r="F66" s="24"/>
-      <c r="G66" s="24"/>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A67" s="29"/>
-      <c r="B67" s="30"/>
-      <c r="C67" s="30"/>
-      <c r="D67" s="30"/>
-      <c r="E67" s="30"/>
-      <c r="F67" s="30"/>
-      <c r="G67" s="31"/>
+      <c r="C67" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="D67" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="E67" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="F67" s="24"/>
+      <c r="G67" s="24"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A68" s="20" t="s">
-        <v>64</v>
+        <v>215</v>
       </c>
       <c r="B68" s="24" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="C68" s="24" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D68" s="24" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E68" s="24"/>
-      <c r="F68" s="24" t="s">
-        <v>8</v>
-      </c>
+      <c r="F68" s="24"/>
       <c r="G68" s="24"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A69" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="B69" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C69" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="D69" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="E69" s="24"/>
-      <c r="F69" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="G69" s="24"/>
+      <c r="A69" s="29"/>
+      <c r="B69" s="30"/>
+      <c r="C69" s="30"/>
+      <c r="D69" s="30"/>
+      <c r="E69" s="30"/>
+      <c r="F69" s="30"/>
+      <c r="G69" s="31"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A70" s="20" t="s">
         <v>64</v>
       </c>
       <c r="B70" s="24" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C70" s="24" t="s">
-        <v>146</v>
+        <v>29</v>
       </c>
       <c r="D70" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="E70" s="24" t="s">
-        <v>59</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="E70" s="24"/>
       <c r="F70" s="24" t="s">
-        <v>147</v>
+        <v>8</v>
       </c>
       <c r="G70" s="24"/>
     </row>
@@ -2888,18 +2816,18 @@
         <v>64</v>
       </c>
       <c r="B71" s="24" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C71" s="24" t="s">
-        <v>136</v>
+        <v>90</v>
       </c>
       <c r="D71" s="24" t="s">
-        <v>140</v>
-      </c>
-      <c r="E71" s="26" t="s">
-        <v>149</v>
-      </c>
-      <c r="F71" s="24"/>
+        <v>9</v>
+      </c>
+      <c r="E71" s="24"/>
+      <c r="F71" s="24" t="s">
+        <v>10</v>
+      </c>
       <c r="G71" s="24"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.35">
@@ -2907,16 +2835,20 @@
         <v>64</v>
       </c>
       <c r="B72" s="24" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C72" s="24" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D72" s="24" t="s">
-        <v>150</v>
-      </c>
-      <c r="E72" s="24"/>
-      <c r="F72" s="24"/>
+        <v>11</v>
+      </c>
+      <c r="E72" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="F72" s="24" t="s">
+        <v>146</v>
+      </c>
       <c r="G72" s="24"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.35">
@@ -2924,16 +2856,16 @@
         <v>64</v>
       </c>
       <c r="B73" s="24" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C73" s="24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D73" s="24" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="E73" s="26" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F73" s="24"/>
       <c r="G73" s="24"/>
@@ -2943,17 +2875,15 @@
         <v>64</v>
       </c>
       <c r="B74" s="24" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C74" s="24" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D74" s="24" t="s">
-        <v>148</v>
-      </c>
-      <c r="E74" s="24" t="s">
-        <v>59</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="E74" s="24"/>
       <c r="F74" s="24"/>
       <c r="G74" s="24"/>
     </row>
@@ -2962,18 +2892,18 @@
         <v>64</v>
       </c>
       <c r="B75" s="24" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C75" s="24" t="s">
-        <v>63</v>
+        <v>135</v>
       </c>
       <c r="D75" s="24" t="s">
-        <v>140</v>
-      </c>
-      <c r="E75" s="24" t="s">
-        <v>97</v>
-      </c>
-      <c r="F75" s="7"/>
+        <v>142</v>
+      </c>
+      <c r="E75" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="F75" s="24"/>
       <c r="G75" s="24"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.35">
@@ -2981,16 +2911,16 @@
         <v>64</v>
       </c>
       <c r="B76" s="24" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C76" s="24" t="s">
-        <v>66</v>
+        <v>151</v>
       </c>
       <c r="D76" s="24" t="s">
-        <v>33</v>
+        <v>147</v>
       </c>
       <c r="E76" s="24" t="s">
-        <v>97</v>
+        <v>59</v>
       </c>
       <c r="F76" s="24"/>
       <c r="G76" s="24"/>
@@ -3000,18 +2930,18 @@
         <v>64</v>
       </c>
       <c r="B77" s="24" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C77" s="24" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="D77" s="24" t="s">
-        <v>140</v>
-      </c>
-      <c r="E77" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="F77" s="24"/>
+        <v>139</v>
+      </c>
+      <c r="E77" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="F77" s="7"/>
       <c r="G77" s="24"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.35">
@@ -3019,16 +2949,16 @@
         <v>64</v>
       </c>
       <c r="B78" s="24" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C78" s="24" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D78" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="E78" s="26" t="s">
-        <v>98</v>
+      <c r="E78" s="24" t="s">
+        <v>96</v>
       </c>
       <c r="F78" s="24"/>
       <c r="G78" s="24"/>
@@ -3038,16 +2968,16 @@
         <v>64</v>
       </c>
       <c r="B79" s="24" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C79" s="24" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="D79" s="24" t="s">
-        <v>33</v>
+        <v>139</v>
       </c>
       <c r="E79" s="26" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F79" s="24"/>
       <c r="G79" s="24"/>
@@ -3057,1164 +2987,1157 @@
         <v>64</v>
       </c>
       <c r="B80" s="24" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C80" s="24" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D80" s="24" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="E80" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="F80" s="24" t="s">
-        <v>111</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="F80" s="24"/>
       <c r="G80" s="24"/>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A81" s="20" t="s">
         <v>64</v>
       </c>
       <c r="B81" s="24" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C81" s="24" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D81" s="24" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="E81" s="26" t="s">
-        <v>103</v>
-      </c>
-      <c r="F81" s="24" t="s">
-        <v>112</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="F81" s="24"/>
       <c r="G81" s="24"/>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A82" s="20" t="s">
         <v>64</v>
       </c>
       <c r="B82" s="24" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C82" s="24" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D82" s="24" t="s">
-        <v>141</v>
+        <v>11</v>
       </c>
       <c r="E82" s="26" t="s">
-        <v>102</v>
-      </c>
-      <c r="F82" s="24"/>
+        <v>103</v>
+      </c>
+      <c r="F82" s="24" t="s">
+        <v>110</v>
+      </c>
       <c r="G82" s="24"/>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A83" s="20" t="s">
         <v>64</v>
       </c>
       <c r="B83" s="24" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C83" s="24" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D83" s="24" t="s">
-        <v>108</v>
+        <v>11</v>
       </c>
       <c r="E83" s="26" t="s">
-        <v>101</v>
-      </c>
-      <c r="F83" s="7"/>
+        <v>102</v>
+      </c>
+      <c r="F83" s="24" t="s">
+        <v>111</v>
+      </c>
       <c r="G83" s="24"/>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A84" s="20" t="s">
         <v>64</v>
       </c>
       <c r="B84" s="24" t="s">
-        <v>74</v>
+        <v>17</v>
       </c>
       <c r="C84" s="24" t="s">
-        <v>139</v>
+        <v>71</v>
       </c>
       <c r="D84" s="24" t="s">
-        <v>33</v>
+        <v>140</v>
       </c>
       <c r="E84" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="F84" s="7"/>
+        <v>101</v>
+      </c>
+      <c r="F84" s="24"/>
       <c r="G84" s="24"/>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A85" s="20" t="s">
         <v>64</v>
       </c>
       <c r="B85" s="24" t="s">
-        <v>96</v>
+        <v>18</v>
       </c>
       <c r="C85" s="24" t="s">
-        <v>137</v>
+        <v>72</v>
       </c>
       <c r="D85" s="24" t="s">
-        <v>33</v>
+        <v>107</v>
       </c>
       <c r="E85" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="F85" s="24"/>
+      <c r="F85" s="7"/>
       <c r="G85" s="24"/>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A86" s="20" t="s">
         <v>64</v>
       </c>
       <c r="B86" s="24" t="s">
-        <v>135</v>
+        <v>74</v>
       </c>
       <c r="C86" s="24" t="s">
-        <v>73</v>
+        <v>138</v>
       </c>
       <c r="D86" s="24" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E86" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="F86" s="24"/>
+        <v>137</v>
+      </c>
+      <c r="F86" s="7"/>
       <c r="G86" s="24"/>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A87" s="20" t="s">
         <v>64</v>
       </c>
       <c r="B87" s="24" t="s">
-        <v>144</v>
+        <v>95</v>
       </c>
       <c r="C87" s="24" t="s">
-        <v>34</v>
+        <v>136</v>
       </c>
       <c r="D87" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="E87" s="26"/>
+        <v>33</v>
+      </c>
+      <c r="E87" s="26" t="s">
+        <v>99</v>
+      </c>
       <c r="F87" s="24"/>
       <c r="G87" s="24"/>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A88" s="25"/>
-      <c r="B88" s="25"/>
-      <c r="C88" s="25"/>
-      <c r="D88" s="25"/>
-      <c r="E88" s="25"/>
-      <c r="F88" s="25"/>
-      <c r="G88" s="25"/>
-    </row>
-    <row r="89" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A89" s="19" t="s">
-        <v>114</v>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A88" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="B88" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="C88" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="D88" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="E88" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="F88" s="24"/>
+      <c r="G88" s="24"/>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A89" s="20" t="s">
+        <v>64</v>
       </c>
       <c r="B89" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="C89" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="D89" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="E89" s="26"/>
+      <c r="F89" s="24"/>
+      <c r="G89" s="24"/>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A90" s="25"/>
+      <c r="B90" s="25"/>
+      <c r="C90" s="25"/>
+      <c r="D90" s="25"/>
+      <c r="E90" s="25"/>
+      <c r="F90" s="25"/>
+      <c r="G90" s="25"/>
+    </row>
+    <row r="91" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A91" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="B91" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="C89" s="24" t="s">
+      <c r="C91" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="D89" s="24" t="s">
+      <c r="D91" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="E89" s="24"/>
-      <c r="F89" s="24" t="s">
+      <c r="E91" s="24"/>
+      <c r="F91" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="G89" s="24"/>
-      <c r="H89" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A90" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="B90" s="24" t="s">
+      <c r="G91" s="24"/>
+    </row>
+    <row r="92" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A92" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="B92" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="C90" s="24" t="s">
+      <c r="C92" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D90" s="24" t="s">
+      <c r="D92" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="E90" s="24"/>
-      <c r="F90" s="24" t="s">
+      <c r="E92" s="24"/>
+      <c r="F92" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="G90" s="24"/>
-      <c r="H90" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A91" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="B91" s="24" t="s">
+      <c r="G92" s="24"/>
+    </row>
+    <row r="93" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A93" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="B93" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="C91" s="24" t="s">
+      <c r="C93" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="D91" s="24" t="s">
+      <c r="D93" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="E91" s="24" t="s">
+      <c r="E93" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="F91" s="24"/>
-      <c r="G91" s="24"/>
-      <c r="H91" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A92" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="B92" s="24" t="s">
+      <c r="F93" s="24"/>
+      <c r="G93" s="24"/>
+    </row>
+    <row r="94" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A94" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="B94" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="C92" s="24" t="s">
+      <c r="C94" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="D92" s="24" t="s">
+      <c r="D94" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="E92" s="24" t="s">
+      <c r="E94" s="24" t="s">
         <v>44</v>
-      </c>
-      <c r="F92" s="7"/>
-      <c r="G92" s="7"/>
-      <c r="H92" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A93" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="B93" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="C93" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="D93" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="E93" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="F93" s="7"/>
-      <c r="G93" s="7"/>
-      <c r="H93" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A94" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="B94" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="C94" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="D94" s="24" t="s">
-        <v>140</v>
-      </c>
-      <c r="E94" s="24" t="s">
-        <v>46</v>
       </c>
       <c r="F94" s="7"/>
       <c r="G94" s="7"/>
-      <c r="H94" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    </row>
+    <row r="95" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A95" s="19" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B95" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C95" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="D95" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="E95" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="F95" s="7"/>
+      <c r="G95" s="7"/>
+    </row>
+    <row r="96" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A96" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="B96" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C96" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="D96" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="E96" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F96" s="7"/>
+      <c r="G96" s="7"/>
+    </row>
+    <row r="97" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A97" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="B97" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="C95" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="D95" s="24" t="s">
-        <v>215</v>
-      </c>
-      <c r="E95" s="24" t="s">
+      <c r="C97" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="D97" s="24" t="s">
+        <v>213</v>
+      </c>
+      <c r="E97" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="F95" s="24"/>
-      <c r="G95" s="24"/>
-      <c r="H95" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" ht="87" x14ac:dyDescent="0.35">
-      <c r="A96" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="B96" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="C96" s="23" t="s">
-        <v>118</v>
-      </c>
-      <c r="D96" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="E96" s="26" t="s">
-        <v>119</v>
-      </c>
-      <c r="F96" s="24"/>
-      <c r="G96" s="24"/>
-      <c r="H96" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A97" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="B97" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="C97" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="D97" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="E97" s="24"/>
       <c r="F97" s="24"/>
       <c r="G97" s="24"/>
-      <c r="H97" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A98" s="25"/>
-      <c r="B98" s="25"/>
-      <c r="C98" s="25"/>
-      <c r="D98" s="25"/>
-      <c r="E98" s="25"/>
-      <c r="F98" s="25"/>
-      <c r="G98" s="25"/>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="98" spans="1:7" ht="87" x14ac:dyDescent="0.35">
+      <c r="A98" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="B98" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="C98" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="D98" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="E98" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="F98" s="24"/>
+      <c r="G98" s="24"/>
+    </row>
+    <row r="99" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A99" s="19" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B99" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C99" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="D99" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="E99" s="24"/>
+      <c r="F99" s="24"/>
+      <c r="G99" s="24"/>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A100" s="25"/>
+      <c r="B100" s="25"/>
+      <c r="C100" s="25"/>
+      <c r="D100" s="25"/>
+      <c r="E100" s="25"/>
+      <c r="F100" s="25"/>
+      <c r="G100" s="25"/>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A101" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="B101" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="C99" s="24" t="s">
+      <c r="C101" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="D99" s="24" t="s">
+      <c r="D101" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="E99" s="23"/>
-      <c r="F99" s="24" t="s">
+      <c r="E101" s="23"/>
+      <c r="F101" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="G99" s="24"/>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A100" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="B100" s="24" t="s">
+      <c r="G101" s="24"/>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A102" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="B102" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="C100" s="24" t="s">
+      <c r="C102" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D100" s="24" t="s">
+      <c r="D102" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="E100" s="24"/>
-      <c r="F100" s="24" t="s">
+      <c r="E102" s="24"/>
+      <c r="F102" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="G100" s="24"/>
-    </row>
-    <row r="101" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A101" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="B101" s="24" t="s">
+      <c r="G102" s="24"/>
+    </row>
+    <row r="103" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A103" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="B103" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="C101" s="23" t="s">
+      <c r="C103" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="D103" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="E103" s="26" t="s">
         <v>121</v>
       </c>
-      <c r="D101" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="E101" s="26" t="s">
-        <v>122</v>
-      </c>
-      <c r="F101" s="24"/>
-      <c r="G101" s="24"/>
-    </row>
-    <row r="102" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A102" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="B102" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="C102" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="D102" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="E102" s="26" t="s">
-        <v>124</v>
-      </c>
-      <c r="F102" s="24"/>
-      <c r="G102" s="24"/>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A103" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="B103" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="C103" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="D103" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="E103" s="26"/>
       <c r="F103" s="24"/>
       <c r="G103" s="24"/>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A104" s="25"/>
-      <c r="B104" s="25"/>
-      <c r="C104" s="25"/>
-      <c r="D104" s="25"/>
-      <c r="E104" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="F104" s="25"/>
-      <c r="G104" s="25"/>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A105" s="23" t="s">
-        <v>157</v>
+    <row r="104" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A104" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="B104" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C104" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="D104" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="E104" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="F104" s="24"/>
+      <c r="G104" s="24"/>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A105" s="19" t="s">
+        <v>114</v>
       </c>
       <c r="B105" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C105" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="D105" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="E105" s="26"/>
+      <c r="F105" s="24"/>
+      <c r="G105" s="24"/>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A106" s="25"/>
+      <c r="B106" s="25"/>
+      <c r="C106" s="25"/>
+      <c r="D106" s="25"/>
+      <c r="E106" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="F106" s="25"/>
+      <c r="G106" s="25"/>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A107" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="B107" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="C105" s="24" t="s">
+      <c r="C107" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="D105" s="24" t="s">
+      <c r="D107" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="E105" s="24"/>
-      <c r="F105" s="24" t="s">
+      <c r="E107" s="24"/>
+      <c r="F107" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="G105" s="24"/>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A106" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="B106" s="24" t="s">
+      <c r="G107" s="24"/>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A108" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="B108" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="C106" s="24" t="s">
+      <c r="C108" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D106" s="24" t="s">
+      <c r="D108" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="E106" s="24"/>
-      <c r="F106" s="24" t="s">
+      <c r="E108" s="24"/>
+      <c r="F108" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="G106" s="24"/>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A107" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="B107" s="24" t="s">
+      <c r="G108" s="24"/>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A109" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="B109" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="C107" s="24" t="s">
-        <v>146</v>
-      </c>
-      <c r="D107" s="24" t="s">
+      <c r="C109" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="D109" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="E107" s="24" t="s">
+      <c r="E109" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="F107" s="24" t="s">
+      <c r="F109" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="G107" s="24"/>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A108" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="B108" s="24" t="s">
+      <c r="G109" s="24"/>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A110" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="B110" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="C108" s="24" t="s">
-        <v>136</v>
-      </c>
-      <c r="D108" s="24" t="s">
-        <v>140</v>
-      </c>
-      <c r="E108" s="26" t="s">
-        <v>149</v>
-      </c>
-      <c r="F108" s="24"/>
-      <c r="G108" s="24"/>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A109" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="B109" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="C109" s="24" t="s">
-        <v>151</v>
-      </c>
-      <c r="D109" s="24" t="s">
-        <v>150</v>
-      </c>
-      <c r="E109" s="24"/>
-      <c r="F109" s="24"/>
-      <c r="G109" s="24"/>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A110" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="B110" s="24" t="s">
-        <v>22</v>
-      </c>
       <c r="C110" s="24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D110" s="24" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="E110" s="26" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F110" s="24"/>
       <c r="G110" s="24"/>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A111" s="23" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B111" s="24" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C111" s="24" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D111" s="24" t="s">
-        <v>213</v>
-      </c>
-      <c r="E111" s="24" t="s">
-        <v>59</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="E111" s="24"/>
       <c r="F111" s="24"/>
       <c r="G111" s="24"/>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A112" s="23" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B112" s="24" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C112" s="24" t="s">
-        <v>63</v>
+        <v>135</v>
       </c>
       <c r="D112" s="24" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E112" s="26" t="s">
-        <v>125</v>
+        <v>152</v>
       </c>
       <c r="F112" s="24"/>
       <c r="G112" s="24"/>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A113" s="23" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B113" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="C113" s="23" t="s">
-        <v>126</v>
+        <v>21</v>
+      </c>
+      <c r="C113" s="24" t="s">
+        <v>151</v>
       </c>
       <c r="D113" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="E113" s="26" t="s">
-        <v>125</v>
+        <v>212</v>
+      </c>
+      <c r="E113" s="24" t="s">
+        <v>59</v>
       </c>
       <c r="F113" s="24"/>
       <c r="G113" s="24"/>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A114" s="23" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B114" s="24" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C114" s="24" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="D114" s="24" t="s">
-        <v>140</v>
-      </c>
-      <c r="E114" s="24" t="s">
-        <v>129</v>
+        <v>139</v>
+      </c>
+      <c r="E114" s="26" t="s">
+        <v>124</v>
       </c>
       <c r="F114" s="24"/>
       <c r="G114" s="24"/>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A115" s="23" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B115" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="C115" s="24" t="s">
-        <v>127</v>
+        <v>19</v>
+      </c>
+      <c r="C115" s="23" t="s">
+        <v>125</v>
       </c>
       <c r="D115" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="E115" s="24" t="s">
-        <v>129</v>
+      <c r="E115" s="26" t="s">
+        <v>124</v>
       </c>
       <c r="F115" s="24"/>
       <c r="G115" s="24"/>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A116" s="23" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B116" s="24" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C116" s="24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D116" s="24" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E116" s="24" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F116" s="24"/>
       <c r="G116" s="24"/>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A117" s="23" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B117" s="24" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C117" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="D117" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="E117" s="24" t="s">
         <v>128</v>
-      </c>
-      <c r="D117" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="E117" s="24" t="s">
-        <v>130</v>
       </c>
       <c r="F117" s="24"/>
       <c r="G117" s="24"/>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A118" s="23" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B118" s="24" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C118" s="24" t="s">
-        <v>34</v>
+        <v>86</v>
       </c>
       <c r="D118" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="E118" s="24"/>
+        <v>139</v>
+      </c>
+      <c r="E118" s="24" t="s">
+        <v>129</v>
+      </c>
       <c r="F118" s="24"/>
       <c r="G118" s="24"/>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A119" s="29"/>
-      <c r="B119" s="30"/>
-      <c r="C119" s="30"/>
-      <c r="D119" s="30"/>
-      <c r="E119" s="30"/>
-      <c r="F119" s="30"/>
-      <c r="G119" s="31"/>
+      <c r="A119" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="B119" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C119" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="D119" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="E119" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="F119" s="24"/>
+      <c r="G119" s="24"/>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A120" s="4" t="s">
-        <v>158</v>
+      <c r="A120" s="23" t="s">
+        <v>156</v>
       </c>
       <c r="B120" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C120" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="D120" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="E120" s="24"/>
+      <c r="F120" s="24"/>
+      <c r="G120" s="24"/>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A121" s="29"/>
+      <c r="B121" s="30"/>
+      <c r="C121" s="30"/>
+      <c r="D121" s="30"/>
+      <c r="E121" s="30"/>
+      <c r="F121" s="30"/>
+      <c r="G121" s="31"/>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A122" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B122" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="C120" s="24" t="s">
+      <c r="C122" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="D120" s="24" t="s">
+      <c r="D122" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="E120" s="24"/>
-      <c r="F120" s="24" t="s">
+      <c r="E122" s="24"/>
+      <c r="F122" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="G120" s="24"/>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A121" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="B121" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C121" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="D121" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="E121" s="24"/>
-      <c r="F121" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="G121" s="24"/>
-    </row>
-    <row r="122" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A122" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="B122" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C122" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="D122" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="E122" s="26" t="s">
-        <v>122</v>
-      </c>
-      <c r="F122" s="24"/>
       <c r="G122" s="24"/>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A123" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B123" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C123" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="D123" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E123" s="24"/>
+      <c r="F123" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="G123" s="24"/>
+    </row>
+    <row r="124" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A124" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B124" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C124" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="D124" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="E124" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="F124" s="24"/>
+      <c r="G124" s="24"/>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A125" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B125" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="C123" s="24" t="s">
-        <v>172</v>
-      </c>
-      <c r="D123" s="24" t="s">
+      <c r="C125" s="24" t="s">
+        <v>171</v>
+      </c>
+      <c r="D125" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="E123" s="26" t="s">
-        <v>181</v>
-      </c>
-      <c r="F123" s="24"/>
-      <c r="G123" s="24"/>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A124" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="B124" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="C124" s="24" t="s">
-        <v>171</v>
-      </c>
-      <c r="D124" s="24" t="s">
-        <v>209</v>
-      </c>
-      <c r="E124" s="24" t="s">
-        <v>182</v>
-      </c>
-      <c r="F124" s="24" t="s">
-        <v>210</v>
-      </c>
-      <c r="G124" s="24"/>
-    </row>
-    <row r="125" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A125" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="B125" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="C125" s="33" t="s">
-        <v>160</v>
-      </c>
-      <c r="D125" s="33" t="s">
-        <v>141</v>
-      </c>
-      <c r="E125" s="33" t="s">
-        <v>184</v>
+      <c r="E125" s="26" t="s">
+        <v>180</v>
       </c>
       <c r="F125" s="24"/>
       <c r="G125" s="24"/>
     </row>
-    <row r="126" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A126" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B126" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="C126" s="33" t="s">
-        <v>161</v>
-      </c>
-      <c r="D126" s="33" t="s">
-        <v>141</v>
-      </c>
-      <c r="E126" s="33" t="s">
-        <v>185</v>
-      </c>
-      <c r="F126" s="24"/>
+        <v>23</v>
+      </c>
+      <c r="C126" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="D126" s="24" t="s">
+        <v>208</v>
+      </c>
+      <c r="E126" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="F126" s="24" t="s">
+        <v>209</v>
+      </c>
       <c r="G126" s="24"/>
     </row>
     <row r="127" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A127" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B127" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="C127" s="24" t="s">
-        <v>162</v>
-      </c>
-      <c r="D127" s="33" t="s">
-        <v>141</v>
-      </c>
-      <c r="E127" s="24" t="s">
-        <v>186</v>
-      </c>
-      <c r="F127" s="7"/>
+        <v>22</v>
+      </c>
+      <c r="C127" s="32" t="s">
+        <v>159</v>
+      </c>
+      <c r="D127" s="32" t="s">
+        <v>140</v>
+      </c>
+      <c r="E127" s="32" t="s">
+        <v>183</v>
+      </c>
+      <c r="F127" s="24"/>
       <c r="G127" s="24"/>
     </row>
     <row r="128" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A128" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B128" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="C128" s="24" t="s">
-        <v>163</v>
-      </c>
-      <c r="D128" s="33" t="s">
-        <v>141</v>
-      </c>
-      <c r="E128" s="24" t="s">
-        <v>187</v>
+        <v>21</v>
+      </c>
+      <c r="C128" s="32" t="s">
+        <v>160</v>
+      </c>
+      <c r="D128" s="32" t="s">
+        <v>140</v>
+      </c>
+      <c r="E128" s="32" t="s">
+        <v>184</v>
       </c>
       <c r="F128" s="24"/>
       <c r="G128" s="24"/>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A129" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B129" s="24" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C129" s="24" t="s">
-        <v>208</v>
-      </c>
-      <c r="D129" s="24" t="s">
-        <v>209</v>
-      </c>
-      <c r="E129" s="26" t="s">
-        <v>188</v>
-      </c>
-      <c r="F129" s="24" t="s">
-        <v>211</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="D129" s="32" t="s">
+        <v>140</v>
+      </c>
+      <c r="E129" s="24" t="s">
+        <v>185</v>
+      </c>
+      <c r="F129" s="7"/>
       <c r="G129" s="24"/>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A130" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B130" s="24" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C130" s="24" t="s">
-        <v>164</v>
-      </c>
-      <c r="D130" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="E130" s="26" t="s">
-        <v>189</v>
-      </c>
-      <c r="F130" s="24" t="s">
-        <v>183</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="D130" s="32" t="s">
+        <v>140</v>
+      </c>
+      <c r="E130" s="24" t="s">
+        <v>186</v>
+      </c>
+      <c r="F130" s="24"/>
       <c r="G130" s="24"/>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A131" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B131" s="24" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C131" s="24" t="s">
         <v>207</v>
       </c>
       <c r="D131" s="24" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E131" s="26" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F131" s="24" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G131" s="24"/>
     </row>
-    <row r="132" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A132" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B132" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="C132" s="33" t="s">
-        <v>165</v>
+        <v>13</v>
+      </c>
+      <c r="C132" s="24" t="s">
+        <v>163</v>
       </c>
       <c r="D132" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="E132" s="33" t="s">
-        <v>191</v>
+      <c r="E132" s="26" t="s">
+        <v>188</v>
       </c>
       <c r="F132" s="24" t="s">
-        <v>205</v>
+        <v>182</v>
       </c>
       <c r="G132" s="24"/>
     </row>
-    <row r="133" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A133" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B133" s="24" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C133" s="24" t="s">
-        <v>166</v>
+        <v>206</v>
       </c>
       <c r="D133" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="E133" s="33" t="s">
-        <v>192</v>
+        <v>208</v>
+      </c>
+      <c r="E133" s="26" t="s">
+        <v>189</v>
       </c>
       <c r="F133" s="24" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="G133" s="24"/>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A134" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B134" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C134" s="24" t="s">
-        <v>167</v>
+        <v>15</v>
+      </c>
+      <c r="C134" s="32" t="s">
+        <v>164</v>
       </c>
       <c r="D134" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="E134" s="26" t="s">
-        <v>193</v>
-      </c>
-      <c r="F134" s="7" t="s">
-        <v>194</v>
+      <c r="E134" s="32" t="s">
+        <v>190</v>
+      </c>
+      <c r="F134" s="24" t="s">
+        <v>204</v>
       </c>
       <c r="G134" s="24"/>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A135" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B135" s="24" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C135" s="24" t="s">
-        <v>206</v>
+        <v>165</v>
       </c>
       <c r="D135" s="24" t="s">
-        <v>143</v>
-      </c>
-      <c r="E135" s="26" t="s">
-        <v>142</v>
-      </c>
-      <c r="F135" s="7"/>
+        <v>11</v>
+      </c>
+      <c r="E135" s="32" t="s">
+        <v>191</v>
+      </c>
+      <c r="F135" s="24" t="s">
+        <v>204</v>
+      </c>
       <c r="G135" s="24"/>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A136" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B136" s="24" t="s">
-        <v>74</v>
+        <v>17</v>
       </c>
       <c r="C136" s="24" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D136" s="24" t="s">
         <v>11</v>
       </c>
       <c r="E136" s="26" t="s">
-        <v>195</v>
-      </c>
-      <c r="F136" s="24" t="s">
-        <v>196</v>
+        <v>192</v>
+      </c>
+      <c r="F136" s="7" t="s">
+        <v>193</v>
       </c>
       <c r="G136" s="24"/>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A137" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B137" s="24" t="s">
-        <v>96</v>
+        <v>18</v>
       </c>
       <c r="C137" s="24" t="s">
-        <v>169</v>
+        <v>205</v>
       </c>
       <c r="D137" s="24" t="s">
-        <v>33</v>
+        <v>142</v>
       </c>
       <c r="E137" s="26" t="s">
-        <v>197</v>
-      </c>
-      <c r="F137" s="24"/>
+        <v>141</v>
+      </c>
+      <c r="F137" s="7"/>
       <c r="G137" s="24"/>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A138" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B138" s="24" t="s">
-        <v>135</v>
+        <v>74</v>
       </c>
       <c r="C138" s="24" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D138" s="24" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="E138" s="26" t="s">
-        <v>198</v>
-      </c>
-      <c r="F138" s="24"/>
+        <v>194</v>
+      </c>
+      <c r="F138" s="24" t="s">
+        <v>195</v>
+      </c>
       <c r="G138" s="24"/>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A139" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B139" s="24" t="s">
-        <v>144</v>
+        <v>95</v>
       </c>
       <c r="C139" s="24" t="s">
-        <v>34</v>
+        <v>168</v>
       </c>
       <c r="D139" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="E139" s="26"/>
+        <v>33</v>
+      </c>
+      <c r="E139" s="26" t="s">
+        <v>196</v>
+      </c>
       <c r="F139" s="24"/>
       <c r="G139" s="24"/>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A140" s="10"/>
-      <c r="B140" s="10"/>
-      <c r="C140" s="10"/>
-      <c r="D140" s="10"/>
-      <c r="E140" s="10"/>
-      <c r="F140" s="10"/>
-      <c r="G140" s="10"/>
+      <c r="A140" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B140" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="C140" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="D140" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="E140" s="26" t="s">
+        <v>197</v>
+      </c>
+      <c r="F140" s="24"/>
+      <c r="G140" s="24"/>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A141" s="10"/>
-      <c r="B141" s="10"/>
-      <c r="C141" s="10"/>
-      <c r="D141" s="10"/>
-      <c r="E141" s="11"/>
-      <c r="F141" s="10"/>
-      <c r="G141" s="10"/>
+      <c r="A141" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B141" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="C141" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="D141" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="E141" s="26"/>
+      <c r="F141" s="24"/>
+      <c r="G141" s="24"/>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A142" s="10"/>
       <c r="B142" s="10"/>
       <c r="C142" s="10"/>
       <c r="D142" s="10"/>
-      <c r="E142" s="11"/>
+      <c r="E142" s="10"/>
       <c r="F142" s="10"/>
       <c r="G142" s="10"/>
     </row>
@@ -4241,7 +4164,7 @@
       <c r="B145" s="10"/>
       <c r="C145" s="10"/>
       <c r="D145" s="10"/>
-      <c r="E145" s="10"/>
+      <c r="E145" s="11"/>
       <c r="F145" s="10"/>
       <c r="G145" s="10"/>
     </row>
@@ -4250,7 +4173,7 @@
       <c r="B146" s="10"/>
       <c r="C146" s="10"/>
       <c r="D146" s="10"/>
-      <c r="E146" s="10"/>
+      <c r="E146" s="11"/>
       <c r="F146" s="10"/>
       <c r="G146" s="10"/>
     </row>
@@ -4259,7 +4182,7 @@
       <c r="B147" s="10"/>
       <c r="C147" s="10"/>
       <c r="D147" s="10"/>
-      <c r="E147" s="11"/>
+      <c r="E147" s="10"/>
       <c r="F147" s="10"/>
       <c r="G147" s="10"/>
     </row>
@@ -4268,7 +4191,7 @@
       <c r="B148" s="10"/>
       <c r="C148" s="10"/>
       <c r="D148" s="10"/>
-      <c r="E148" s="11"/>
+      <c r="E148" s="10"/>
       <c r="F148" s="10"/>
       <c r="G148" s="10"/>
     </row>
@@ -4401,7 +4324,7 @@
     <row r="163" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A163" s="10"/>
       <c r="B163" s="10"/>
-      <c r="C163" s="12"/>
+      <c r="C163" s="10"/>
       <c r="D163" s="10"/>
       <c r="E163" s="11"/>
       <c r="F163" s="10"/>
@@ -4412,16 +4335,16 @@
       <c r="B164" s="10"/>
       <c r="C164" s="10"/>
       <c r="D164" s="10"/>
-      <c r="E164" s="10"/>
+      <c r="E164" s="11"/>
       <c r="F164" s="10"/>
       <c r="G164" s="10"/>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A165" s="10"/>
       <c r="B165" s="10"/>
-      <c r="C165" s="10"/>
+      <c r="C165" s="12"/>
       <c r="D165" s="10"/>
-      <c r="E165" s="10"/>
+      <c r="E165" s="11"/>
       <c r="F165" s="10"/>
       <c r="G165" s="10"/>
     </row>
@@ -4484,7 +4407,7 @@
       <c r="B172" s="10"/>
       <c r="C172" s="10"/>
       <c r="D172" s="10"/>
-      <c r="E172" s="11"/>
+      <c r="E172" s="10"/>
       <c r="F172" s="10"/>
       <c r="G172" s="10"/>
     </row>
@@ -4512,8 +4435,8 @@
       <c r="C175" s="10"/>
       <c r="D175" s="10"/>
       <c r="E175" s="10"/>
-      <c r="F175" s="28"/>
-      <c r="G175" s="28"/>
+      <c r="F175" s="10"/>
+      <c r="G175" s="10"/>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A176" s="10"/>
@@ -4530,15 +4453,15 @@
       <c r="C177" s="10"/>
       <c r="D177" s="10"/>
       <c r="E177" s="10"/>
-      <c r="F177" s="10"/>
-      <c r="G177" s="10"/>
+      <c r="F177" s="28"/>
+      <c r="G177" s="28"/>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A178" s="10"/>
       <c r="B178" s="10"/>
       <c r="C178" s="10"/>
       <c r="D178" s="10"/>
-      <c r="E178" s="10"/>
+      <c r="E178" s="11"/>
       <c r="F178" s="10"/>
       <c r="G178" s="10"/>
     </row>
@@ -4556,7 +4479,7 @@
       <c r="B180" s="10"/>
       <c r="C180" s="10"/>
       <c r="D180" s="10"/>
-      <c r="E180" s="11"/>
+      <c r="E180" s="10"/>
       <c r="F180" s="10"/>
       <c r="G180" s="10"/>
     </row>
@@ -4565,7 +4488,7 @@
       <c r="B181" s="10"/>
       <c r="C181" s="10"/>
       <c r="D181" s="10"/>
-      <c r="E181" s="11"/>
+      <c r="E181" s="10"/>
       <c r="F181" s="10"/>
       <c r="G181" s="10"/>
     </row>
@@ -4637,16 +4560,16 @@
       <c r="B189" s="10"/>
       <c r="C189" s="10"/>
       <c r="D189" s="10"/>
-      <c r="E189" s="10"/>
+      <c r="E189" s="11"/>
       <c r="F189" s="10"/>
       <c r="G189" s="10"/>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A190" s="28"/>
-      <c r="B190" s="28"/>
-      <c r="C190" s="28"/>
-      <c r="D190" s="28"/>
-      <c r="E190" s="28"/>
+      <c r="A190" s="10"/>
+      <c r="B190" s="10"/>
+      <c r="C190" s="10"/>
+      <c r="D190" s="10"/>
+      <c r="E190" s="11"/>
       <c r="F190" s="10"/>
       <c r="G190" s="10"/>
     </row>
@@ -4656,15 +4579,15 @@
       <c r="C191" s="10"/>
       <c r="D191" s="10"/>
       <c r="E191" s="10"/>
-      <c r="F191" s="28"/>
-      <c r="G191" s="28"/>
+      <c r="F191" s="10"/>
+      <c r="G191" s="10"/>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A192" s="10"/>
-      <c r="B192" s="10"/>
-      <c r="C192" s="10"/>
-      <c r="D192" s="10"/>
-      <c r="E192" s="10"/>
+      <c r="A192" s="28"/>
+      <c r="B192" s="28"/>
+      <c r="C192" s="28"/>
+      <c r="D192" s="28"/>
+      <c r="E192" s="28"/>
       <c r="F192" s="10"/>
       <c r="G192" s="10"/>
     </row>
@@ -4674,8 +4597,8 @@
       <c r="C193" s="10"/>
       <c r="D193" s="10"/>
       <c r="E193" s="10"/>
-      <c r="F193" s="10"/>
-      <c r="G193" s="10"/>
+      <c r="F193" s="28"/>
+      <c r="G193" s="28"/>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A194" s="10"/>
@@ -4736,7 +4659,7 @@
       <c r="B200" s="10"/>
       <c r="C200" s="10"/>
       <c r="D200" s="10"/>
-      <c r="E200" s="11"/>
+      <c r="E200" s="10"/>
       <c r="F200" s="10"/>
       <c r="G200" s="10"/>
     </row>
@@ -4745,7 +4668,7 @@
       <c r="B201" s="10"/>
       <c r="C201" s="10"/>
       <c r="D201" s="10"/>
-      <c r="E201" s="11"/>
+      <c r="E201" s="10"/>
       <c r="F201" s="10"/>
       <c r="G201" s="10"/>
     </row>
@@ -4781,16 +4704,16 @@
       <c r="B205" s="10"/>
       <c r="C205" s="10"/>
       <c r="D205" s="10"/>
-      <c r="E205" s="10"/>
+      <c r="E205" s="11"/>
       <c r="F205" s="10"/>
       <c r="G205" s="10"/>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A206" s="28"/>
-      <c r="B206" s="28"/>
-      <c r="C206" s="28"/>
-      <c r="D206" s="28"/>
-      <c r="E206" s="28"/>
+      <c r="A206" s="10"/>
+      <c r="B206" s="10"/>
+      <c r="C206" s="10"/>
+      <c r="D206" s="10"/>
+      <c r="E206" s="11"/>
       <c r="F206" s="10"/>
       <c r="G206" s="10"/>
     </row>
@@ -4804,13 +4727,13 @@
       <c r="G207" s="10"/>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A208" s="10"/>
-      <c r="B208" s="10"/>
-      <c r="C208" s="10"/>
-      <c r="D208" s="10"/>
-      <c r="E208" s="10"/>
-      <c r="F208" s="28"/>
-      <c r="G208" s="28"/>
+      <c r="A208" s="28"/>
+      <c r="B208" s="28"/>
+      <c r="C208" s="28"/>
+      <c r="D208" s="28"/>
+      <c r="E208" s="28"/>
+      <c r="F208" s="10"/>
+      <c r="G208" s="10"/>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A209" s="10"/>
@@ -4827,8 +4750,8 @@
       <c r="C210" s="10"/>
       <c r="D210" s="10"/>
       <c r="E210" s="10"/>
-      <c r="F210" s="10"/>
-      <c r="G210" s="10"/>
+      <c r="F210" s="28"/>
+      <c r="G210" s="28"/>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A211" s="10"/>
@@ -4889,7 +4812,7 @@
       <c r="B217" s="10"/>
       <c r="C217" s="10"/>
       <c r="D217" s="10"/>
-      <c r="E217" s="11"/>
+      <c r="E217" s="10"/>
       <c r="F217" s="10"/>
       <c r="G217" s="10"/>
     </row>
@@ -4898,7 +4821,7 @@
       <c r="B218" s="10"/>
       <c r="C218" s="10"/>
       <c r="D218" s="10"/>
-      <c r="E218" s="11"/>
+      <c r="E218" s="10"/>
       <c r="F218" s="10"/>
       <c r="G218" s="10"/>
     </row>
@@ -4934,16 +4857,16 @@
       <c r="B222" s="10"/>
       <c r="C222" s="10"/>
       <c r="D222" s="10"/>
-      <c r="E222" s="10"/>
+      <c r="E222" s="11"/>
       <c r="F222" s="10"/>
       <c r="G222" s="10"/>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A223" s="28"/>
-      <c r="B223" s="28"/>
-      <c r="C223" s="28"/>
-      <c r="D223" s="28"/>
-      <c r="E223" s="28"/>
+      <c r="A223" s="10"/>
+      <c r="B223" s="10"/>
+      <c r="C223" s="10"/>
+      <c r="D223" s="10"/>
+      <c r="E223" s="11"/>
       <c r="F223" s="10"/>
       <c r="G223" s="10"/>
     </row>
@@ -4957,11 +4880,11 @@
       <c r="G224" s="10"/>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A225" s="10"/>
-      <c r="B225" s="10"/>
-      <c r="C225" s="10"/>
-      <c r="D225" s="10"/>
-      <c r="E225" s="10"/>
+      <c r="A225" s="28"/>
+      <c r="B225" s="28"/>
+      <c r="C225" s="28"/>
+      <c r="D225" s="28"/>
+      <c r="E225" s="28"/>
       <c r="F225" s="10"/>
       <c r="G225" s="10"/>
     </row>
@@ -4998,8 +4921,8 @@
       <c r="C229" s="10"/>
       <c r="D229" s="10"/>
       <c r="E229" s="10"/>
-      <c r="F229" s="28"/>
-      <c r="G229" s="28"/>
+      <c r="F229" s="10"/>
+      <c r="G229" s="10"/>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A230" s="10"/>
@@ -5016,8 +4939,8 @@
       <c r="C231" s="10"/>
       <c r="D231" s="10"/>
       <c r="E231" s="10"/>
-      <c r="F231" s="10"/>
-      <c r="G231" s="10"/>
+      <c r="F231" s="28"/>
+      <c r="G231" s="28"/>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A232" s="10"/>
@@ -5112,11 +5035,11 @@
     <row r="242" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A242" s="10"/>
       <c r="B242" s="10"/>
-      <c r="C242" s="12"/>
+      <c r="C242" s="10"/>
       <c r="D242" s="10"/>
       <c r="E242" s="10"/>
-      <c r="F242" s="28"/>
-      <c r="G242" s="28"/>
+      <c r="F242" s="10"/>
+      <c r="G242" s="10"/>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A243" s="10"/>
@@ -5128,13 +5051,13 @@
       <c r="G243" s="10"/>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A244" s="28"/>
-      <c r="B244" s="28"/>
-      <c r="C244" s="28"/>
-      <c r="D244" s="28"/>
-      <c r="E244" s="28"/>
-      <c r="F244" s="10"/>
-      <c r="G244" s="10"/>
+      <c r="A244" s="10"/>
+      <c r="B244" s="10"/>
+      <c r="C244" s="12"/>
+      <c r="D244" s="10"/>
+      <c r="E244" s="10"/>
+      <c r="F244" s="28"/>
+      <c r="G244" s="28"/>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A245" s="10"/>
@@ -5146,11 +5069,11 @@
       <c r="G245" s="10"/>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A246" s="10"/>
-      <c r="B246" s="10"/>
-      <c r="C246" s="10"/>
-      <c r="D246" s="10"/>
-      <c r="E246" s="10"/>
+      <c r="A246" s="28"/>
+      <c r="B246" s="28"/>
+      <c r="C246" s="28"/>
+      <c r="D246" s="28"/>
+      <c r="E246" s="28"/>
       <c r="F246" s="10"/>
       <c r="G246" s="10"/>
     </row>
@@ -5245,11 +5168,11 @@
       <c r="G256" s="10"/>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A257" s="28"/>
-      <c r="B257" s="28"/>
-      <c r="C257" s="28"/>
-      <c r="D257" s="28"/>
-      <c r="E257" s="28"/>
+      <c r="A257" s="10"/>
+      <c r="B257" s="10"/>
+      <c r="C257" s="10"/>
+      <c r="D257" s="10"/>
+      <c r="E257" s="10"/>
       <c r="F257" s="10"/>
       <c r="G257" s="10"/>
     </row>
@@ -5263,11 +5186,11 @@
       <c r="G258" s="10"/>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A259" s="10"/>
-      <c r="B259" s="10"/>
-      <c r="C259" s="10"/>
-      <c r="D259" s="10"/>
-      <c r="E259" s="10"/>
+      <c r="A259" s="28"/>
+      <c r="B259" s="28"/>
+      <c r="C259" s="28"/>
+      <c r="D259" s="28"/>
+      <c r="E259" s="28"/>
       <c r="F259" s="10"/>
       <c r="G259" s="10"/>
     </row>
@@ -5295,8 +5218,8 @@
       <c r="C262" s="10"/>
       <c r="D262" s="10"/>
       <c r="E262" s="10"/>
-      <c r="F262" s="28"/>
-      <c r="G262" s="28"/>
+      <c r="F262" s="10"/>
+      <c r="G262" s="10"/>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A263" s="10"/>
@@ -5313,8 +5236,8 @@
       <c r="C264" s="10"/>
       <c r="D264" s="10"/>
       <c r="E264" s="10"/>
-      <c r="F264" s="10"/>
-      <c r="G264" s="10"/>
+      <c r="F264" s="28"/>
+      <c r="G264" s="28"/>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A265" s="10"/>
@@ -5425,11 +5348,11 @@
       <c r="G276" s="10"/>
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A277" s="28"/>
-      <c r="B277" s="28"/>
-      <c r="C277" s="28"/>
-      <c r="D277" s="28"/>
-      <c r="E277" s="28"/>
+      <c r="A277" s="10"/>
+      <c r="B277" s="10"/>
+      <c r="C277" s="10"/>
+      <c r="D277" s="10"/>
+      <c r="E277" s="10"/>
       <c r="F277" s="10"/>
       <c r="G277" s="10"/>
     </row>
@@ -5443,11 +5366,11 @@
       <c r="G278" s="10"/>
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A279" s="10"/>
-      <c r="B279" s="10"/>
-      <c r="C279" s="10"/>
-      <c r="D279" s="10"/>
-      <c r="E279" s="10"/>
+      <c r="A279" s="28"/>
+      <c r="B279" s="28"/>
+      <c r="C279" s="28"/>
+      <c r="D279" s="28"/>
+      <c r="E279" s="28"/>
       <c r="F279" s="10"/>
       <c r="G279" s="10"/>
     </row>
@@ -5546,7 +5469,7 @@
       <c r="B290" s="10"/>
       <c r="C290" s="10"/>
       <c r="D290" s="10"/>
-      <c r="E290" s="11"/>
+      <c r="E290" s="10"/>
       <c r="F290" s="10"/>
       <c r="G290" s="10"/>
     </row>
@@ -5555,7 +5478,7 @@
       <c r="B291" s="10"/>
       <c r="C291" s="10"/>
       <c r="D291" s="10"/>
-      <c r="E291" s="11"/>
+      <c r="E291" s="10"/>
       <c r="F291" s="10"/>
       <c r="G291" s="10"/>
     </row>
@@ -5600,7 +5523,7 @@
       <c r="B296" s="10"/>
       <c r="C296" s="10"/>
       <c r="D296" s="10"/>
-      <c r="E296" s="10"/>
+      <c r="E296" s="11"/>
       <c r="F296" s="10"/>
       <c r="G296" s="10"/>
     </row>
@@ -5609,9 +5532,9 @@
       <c r="B297" s="10"/>
       <c r="C297" s="10"/>
       <c r="D297" s="10"/>
-      <c r="E297" s="10"/>
-      <c r="F297" s="28"/>
-      <c r="G297" s="28"/>
+      <c r="E297" s="11"/>
+      <c r="F297" s="10"/>
+      <c r="G297" s="10"/>
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A298" s="10"/>
@@ -5628,8 +5551,8 @@
       <c r="C299" s="10"/>
       <c r="D299" s="10"/>
       <c r="E299" s="10"/>
-      <c r="F299" s="10"/>
-      <c r="G299" s="10"/>
+      <c r="F299" s="28"/>
+      <c r="G299" s="28"/>
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A300" s="10"/>
@@ -5708,7 +5631,7 @@
       <c r="B308" s="10"/>
       <c r="C308" s="10"/>
       <c r="D308" s="10"/>
-      <c r="E308" s="11"/>
+      <c r="E308" s="10"/>
       <c r="F308" s="10"/>
       <c r="G308" s="10"/>
     </row>
@@ -5726,7 +5649,7 @@
       <c r="B310" s="10"/>
       <c r="C310" s="10"/>
       <c r="D310" s="10"/>
-      <c r="E310" s="10"/>
+      <c r="E310" s="11"/>
       <c r="F310" s="10"/>
       <c r="G310" s="10"/>
     </row>
@@ -5740,11 +5663,11 @@
       <c r="G311" s="10"/>
     </row>
     <row r="312" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A312" s="28"/>
-      <c r="B312" s="28"/>
-      <c r="C312" s="28"/>
-      <c r="D312" s="28"/>
-      <c r="E312" s="28"/>
+      <c r="A312" s="10"/>
+      <c r="B312" s="10"/>
+      <c r="C312" s="10"/>
+      <c r="D312" s="10"/>
+      <c r="E312" s="10"/>
       <c r="F312" s="10"/>
       <c r="G312" s="10"/>
     </row>
@@ -5758,11 +5681,11 @@
       <c r="G313" s="10"/>
     </row>
     <row r="314" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A314" s="10"/>
-      <c r="B314" s="10"/>
-      <c r="C314" s="10"/>
-      <c r="D314" s="10"/>
-      <c r="E314" s="10"/>
+      <c r="A314" s="28"/>
+      <c r="B314" s="28"/>
+      <c r="C314" s="28"/>
+      <c r="D314" s="28"/>
+      <c r="E314" s="28"/>
       <c r="F314" s="10"/>
       <c r="G314" s="10"/>
     </row>
@@ -5790,8 +5713,8 @@
       <c r="C317" s="10"/>
       <c r="D317" s="10"/>
       <c r="E317" s="10"/>
-      <c r="F317" s="28"/>
-      <c r="G317" s="28"/>
+      <c r="F317" s="10"/>
+      <c r="G317" s="10"/>
     </row>
     <row r="318" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A318" s="10"/>
@@ -5808,8 +5731,8 @@
       <c r="C319" s="10"/>
       <c r="D319" s="10"/>
       <c r="E319" s="10"/>
-      <c r="F319" s="10"/>
-      <c r="G319" s="10"/>
+      <c r="F319" s="28"/>
+      <c r="G319" s="28"/>
     </row>
     <row r="320" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A320" s="10"/>
@@ -5852,7 +5775,7 @@
       <c r="B324" s="10"/>
       <c r="C324" s="10"/>
       <c r="D324" s="10"/>
-      <c r="E324" s="11"/>
+      <c r="E324" s="10"/>
       <c r="F324" s="10"/>
       <c r="G324" s="10"/>
     </row>
@@ -5861,7 +5784,7 @@
       <c r="B325" s="10"/>
       <c r="C325" s="10"/>
       <c r="D325" s="10"/>
-      <c r="E325" s="11"/>
+      <c r="E325" s="10"/>
       <c r="F325" s="10"/>
       <c r="G325" s="10"/>
     </row>
@@ -5897,16 +5820,16 @@
       <c r="B329" s="10"/>
       <c r="C329" s="10"/>
       <c r="D329" s="10"/>
-      <c r="E329" s="10"/>
-      <c r="F329" s="28"/>
-      <c r="G329" s="28"/>
+      <c r="E329" s="11"/>
+      <c r="F329" s="10"/>
+      <c r="G329" s="10"/>
     </row>
     <row r="330" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A330" s="10"/>
       <c r="B330" s="10"/>
       <c r="C330" s="10"/>
       <c r="D330" s="10"/>
-      <c r="E330" s="10"/>
+      <c r="E330" s="11"/>
       <c r="F330" s="10"/>
       <c r="G330" s="10"/>
     </row>
@@ -5916,15 +5839,15 @@
       <c r="C331" s="10"/>
       <c r="D331" s="10"/>
       <c r="E331" s="10"/>
-      <c r="F331" s="10"/>
-      <c r="G331" s="10"/>
+      <c r="F331" s="28"/>
+      <c r="G331" s="28"/>
     </row>
     <row r="332" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A332" s="28"/>
-      <c r="B332" s="28"/>
-      <c r="C332" s="28"/>
-      <c r="D332" s="28"/>
-      <c r="E332" s="28"/>
+      <c r="A332" s="10"/>
+      <c r="B332" s="10"/>
+      <c r="C332" s="10"/>
+      <c r="D332" s="10"/>
+      <c r="E332" s="10"/>
       <c r="F332" s="10"/>
       <c r="G332" s="10"/>
     </row>
@@ -5938,11 +5861,11 @@
       <c r="G333" s="10"/>
     </row>
     <row r="334" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A334" s="10"/>
-      <c r="B334" s="10"/>
-      <c r="C334" s="10"/>
-      <c r="D334" s="10"/>
-      <c r="E334" s="10"/>
+      <c r="A334" s="28"/>
+      <c r="B334" s="28"/>
+      <c r="C334" s="28"/>
+      <c r="D334" s="28"/>
+      <c r="E334" s="28"/>
       <c r="F334" s="10"/>
       <c r="G334" s="10"/>
     </row>
@@ -6028,11 +5951,11 @@
       <c r="G343" s="10"/>
     </row>
     <row r="344" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A344" s="28"/>
-      <c r="B344" s="28"/>
-      <c r="C344" s="28"/>
-      <c r="D344" s="28"/>
-      <c r="E344" s="28"/>
+      <c r="A344" s="10"/>
+      <c r="B344" s="10"/>
+      <c r="C344" s="10"/>
+      <c r="D344" s="10"/>
+      <c r="E344" s="10"/>
       <c r="F344" s="10"/>
       <c r="G344" s="10"/>
     </row>
@@ -6046,11 +5969,11 @@
       <c r="G345" s="10"/>
     </row>
     <row r="346" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A346" s="10"/>
-      <c r="B346" s="10"/>
-      <c r="C346" s="10"/>
-      <c r="D346" s="10"/>
-      <c r="E346" s="10"/>
+      <c r="A346" s="28"/>
+      <c r="B346" s="28"/>
+      <c r="C346" s="28"/>
+      <c r="D346" s="28"/>
+      <c r="E346" s="28"/>
       <c r="F346" s="10"/>
       <c r="G346" s="10"/>
     </row>
@@ -6087,8 +6010,8 @@
       <c r="C350" s="10"/>
       <c r="D350" s="10"/>
       <c r="E350" s="10"/>
-      <c r="F350" s="28"/>
-      <c r="G350" s="28"/>
+      <c r="F350" s="10"/>
+      <c r="G350" s="10"/>
     </row>
     <row r="351" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A351" s="10"/>
@@ -6105,8 +6028,8 @@
       <c r="C352" s="10"/>
       <c r="D352" s="10"/>
       <c r="E352" s="10"/>
-      <c r="F352" s="10"/>
-      <c r="G352" s="10"/>
+      <c r="F352" s="28"/>
+      <c r="G352" s="28"/>
     </row>
     <row r="353" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A353" s="10"/>
@@ -6217,11 +6140,11 @@
       <c r="G364" s="10"/>
     </row>
     <row r="365" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A365" s="28"/>
-      <c r="B365" s="28"/>
-      <c r="C365" s="28"/>
-      <c r="D365" s="28"/>
-      <c r="E365" s="28"/>
+      <c r="A365" s="10"/>
+      <c r="B365" s="10"/>
+      <c r="C365" s="10"/>
+      <c r="D365" s="10"/>
+      <c r="E365" s="10"/>
       <c r="F365" s="10"/>
       <c r="G365" s="10"/>
     </row>
@@ -6235,11 +6158,11 @@
       <c r="G366" s="10"/>
     </row>
     <row r="367" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A367" s="10"/>
-      <c r="B367" s="10"/>
-      <c r="C367" s="10"/>
-      <c r="D367" s="10"/>
-      <c r="E367" s="10"/>
+      <c r="A367" s="28"/>
+      <c r="B367" s="28"/>
+      <c r="C367" s="28"/>
+      <c r="D367" s="28"/>
+      <c r="E367" s="28"/>
       <c r="F367" s="10"/>
       <c r="G367" s="10"/>
     </row>
@@ -6339,8 +6262,8 @@
       <c r="C378" s="10"/>
       <c r="D378" s="10"/>
       <c r="E378" s="10"/>
-      <c r="F378" s="28"/>
-      <c r="G378" s="28"/>
+      <c r="F378" s="10"/>
+      <c r="G378" s="10"/>
     </row>
     <row r="379" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A379" s="10"/>
@@ -6357,8 +6280,8 @@
       <c r="C380" s="10"/>
       <c r="D380" s="10"/>
       <c r="E380" s="10"/>
-      <c r="F380" s="10"/>
-      <c r="G380" s="10"/>
+      <c r="F380" s="28"/>
+      <c r="G380" s="28"/>
     </row>
     <row r="381" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A381" s="10"/>
@@ -6392,7 +6315,7 @@
       <c r="B384" s="10"/>
       <c r="C384" s="10"/>
       <c r="D384" s="10"/>
-      <c r="E384" s="11"/>
+      <c r="E384" s="10"/>
       <c r="F384" s="10"/>
       <c r="G384" s="10"/>
     </row>
@@ -6401,7 +6324,7 @@
       <c r="B385" s="10"/>
       <c r="C385" s="10"/>
       <c r="D385" s="10"/>
-      <c r="E385" s="11"/>
+      <c r="E385" s="10"/>
       <c r="F385" s="10"/>
       <c r="G385" s="10"/>
     </row>
@@ -6410,7 +6333,7 @@
       <c r="B386" s="10"/>
       <c r="C386" s="10"/>
       <c r="D386" s="10"/>
-      <c r="E386" s="10"/>
+      <c r="E386" s="11"/>
       <c r="F386" s="10"/>
       <c r="G386" s="10"/>
     </row>
@@ -6419,7 +6342,7 @@
       <c r="B387" s="10"/>
       <c r="C387" s="10"/>
       <c r="D387" s="10"/>
-      <c r="E387" s="10"/>
+      <c r="E387" s="11"/>
       <c r="F387" s="10"/>
       <c r="G387" s="10"/>
     </row>
@@ -6469,11 +6392,11 @@
       <c r="G392" s="10"/>
     </row>
     <row r="393" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A393" s="28"/>
-      <c r="B393" s="28"/>
-      <c r="C393" s="28"/>
-      <c r="D393" s="28"/>
-      <c r="E393" s="28"/>
+      <c r="A393" s="10"/>
+      <c r="B393" s="10"/>
+      <c r="C393" s="10"/>
+      <c r="D393" s="10"/>
+      <c r="E393" s="10"/>
       <c r="F393" s="10"/>
       <c r="G393" s="10"/>
     </row>
@@ -6487,11 +6410,11 @@
       <c r="G394" s="10"/>
     </row>
     <row r="395" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A395" s="10"/>
-      <c r="B395" s="10"/>
-      <c r="C395" s="10"/>
-      <c r="D395" s="10"/>
-      <c r="E395" s="10"/>
+      <c r="A395" s="28"/>
+      <c r="B395" s="28"/>
+      <c r="C395" s="28"/>
+      <c r="D395" s="28"/>
+      <c r="E395" s="28"/>
       <c r="F395" s="10"/>
       <c r="G395" s="10"/>
     </row>
@@ -6582,7 +6505,7 @@
       <c r="C405" s="10"/>
       <c r="D405" s="10"/>
       <c r="E405" s="10"/>
-      <c r="F405" s="11"/>
+      <c r="F405" s="10"/>
       <c r="G405" s="10"/>
     </row>
     <row r="406" spans="1:7" x14ac:dyDescent="0.35">
@@ -6591,7 +6514,7 @@
       <c r="C406" s="10"/>
       <c r="D406" s="10"/>
       <c r="E406" s="10"/>
-      <c r="F406" s="11"/>
+      <c r="F406" s="10"/>
       <c r="G406" s="10"/>
     </row>
     <row r="407" spans="1:7" x14ac:dyDescent="0.35">
@@ -6636,8 +6559,8 @@
       <c r="C411" s="10"/>
       <c r="D411" s="10"/>
       <c r="E411" s="10"/>
-      <c r="F411" s="28"/>
-      <c r="G411" s="28"/>
+      <c r="F411" s="11"/>
+      <c r="G411" s="10"/>
     </row>
     <row r="412" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A412" s="10"/>
@@ -6645,7 +6568,7 @@
       <c r="C412" s="10"/>
       <c r="D412" s="10"/>
       <c r="E412" s="10"/>
-      <c r="F412" s="10"/>
+      <c r="F412" s="11"/>
       <c r="G412" s="10"/>
     </row>
     <row r="413" spans="1:7" x14ac:dyDescent="0.35">
@@ -6654,8 +6577,8 @@
       <c r="C413" s="10"/>
       <c r="D413" s="10"/>
       <c r="E413" s="10"/>
-      <c r="F413" s="10"/>
-      <c r="G413" s="10"/>
+      <c r="F413" s="28"/>
+      <c r="G413" s="28"/>
     </row>
     <row r="414" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A414" s="10"/>
@@ -6766,11 +6689,11 @@
       <c r="G425" s="10"/>
     </row>
     <row r="426" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A426" s="28"/>
-      <c r="B426" s="28"/>
-      <c r="C426" s="28"/>
-      <c r="D426" s="28"/>
-      <c r="E426" s="28"/>
+      <c r="A426" s="10"/>
+      <c r="B426" s="10"/>
+      <c r="C426" s="10"/>
+      <c r="D426" s="10"/>
+      <c r="E426" s="10"/>
       <c r="F426" s="10"/>
       <c r="G426" s="10"/>
     </row>
@@ -6784,11 +6707,11 @@
       <c r="G427" s="10"/>
     </row>
     <row r="428" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A428" s="10"/>
-      <c r="B428" s="10"/>
-      <c r="C428" s="10"/>
-      <c r="D428" s="10"/>
-      <c r="E428" s="10"/>
+      <c r="A428" s="28"/>
+      <c r="B428" s="28"/>
+      <c r="C428" s="28"/>
+      <c r="D428" s="28"/>
+      <c r="E428" s="28"/>
       <c r="F428" s="10"/>
       <c r="G428" s="10"/>
     </row>
@@ -6978,8 +6901,8 @@
       <c r="C449" s="10"/>
       <c r="D449" s="10"/>
       <c r="E449" s="10"/>
-      <c r="F449" s="28"/>
-      <c r="G449" s="28"/>
+      <c r="F449" s="10"/>
+      <c r="G449" s="10"/>
     </row>
     <row r="450" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A450" s="10"/>
@@ -6996,8 +6919,8 @@
       <c r="C451" s="10"/>
       <c r="D451" s="10"/>
       <c r="E451" s="10"/>
-      <c r="F451" s="10"/>
-      <c r="G451" s="10"/>
+      <c r="F451" s="28"/>
+      <c r="G451" s="28"/>
     </row>
     <row r="452" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A452" s="10"/>
@@ -7108,11 +7031,11 @@
       <c r="G463" s="10"/>
     </row>
     <row r="464" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A464" s="28"/>
-      <c r="B464" s="28"/>
-      <c r="C464" s="28"/>
-      <c r="D464" s="28"/>
-      <c r="E464" s="28"/>
+      <c r="A464" s="10"/>
+      <c r="B464" s="10"/>
+      <c r="C464" s="10"/>
+      <c r="D464" s="10"/>
+      <c r="E464" s="10"/>
       <c r="F464" s="10"/>
       <c r="G464" s="10"/>
     </row>
@@ -7126,11 +7049,11 @@
       <c r="G465" s="10"/>
     </row>
     <row r="466" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A466" s="10"/>
-      <c r="B466" s="10"/>
-      <c r="C466" s="10"/>
-      <c r="D466" s="10"/>
-      <c r="E466" s="10"/>
+      <c r="A466" s="28"/>
+      <c r="B466" s="28"/>
+      <c r="C466" s="28"/>
+      <c r="D466" s="28"/>
+      <c r="E466" s="28"/>
       <c r="F466" s="10"/>
       <c r="G466" s="10"/>
     </row>
@@ -7302,8 +7225,8 @@
       <c r="C485" s="10"/>
       <c r="D485" s="10"/>
       <c r="E485" s="10"/>
-      <c r="F485" s="28"/>
-      <c r="G485" s="28"/>
+      <c r="F485" s="10"/>
+      <c r="G485" s="10"/>
     </row>
     <row r="486" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A486" s="10"/>
@@ -7320,8 +7243,8 @@
       <c r="C487" s="10"/>
       <c r="D487" s="10"/>
       <c r="E487" s="10"/>
-      <c r="F487" s="10"/>
-      <c r="G487" s="10"/>
+      <c r="F487" s="28"/>
+      <c r="G487" s="28"/>
     </row>
     <row r="488" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A488" s="10"/>
@@ -7432,11 +7355,11 @@
       <c r="G499" s="10"/>
     </row>
     <row r="500" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A500" s="28"/>
-      <c r="B500" s="28"/>
-      <c r="C500" s="28"/>
-      <c r="D500" s="28"/>
-      <c r="E500" s="28"/>
+      <c r="A500" s="10"/>
+      <c r="B500" s="10"/>
+      <c r="C500" s="10"/>
+      <c r="D500" s="10"/>
+      <c r="E500" s="10"/>
       <c r="F500" s="10"/>
       <c r="G500" s="10"/>
     </row>
@@ -7450,11 +7373,11 @@
       <c r="G501" s="10"/>
     </row>
     <row r="502" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A502" s="10"/>
-      <c r="B502" s="10"/>
-      <c r="C502" s="10"/>
-      <c r="D502" s="10"/>
-      <c r="E502" s="10"/>
+      <c r="A502" s="28"/>
+      <c r="B502" s="28"/>
+      <c r="C502" s="28"/>
+      <c r="D502" s="28"/>
+      <c r="E502" s="28"/>
       <c r="F502" s="10"/>
       <c r="G502" s="10"/>
     </row>
@@ -7563,8 +7486,8 @@
       <c r="C514" s="10"/>
       <c r="D514" s="10"/>
       <c r="E514" s="10"/>
-      <c r="F514" s="28"/>
-      <c r="G514" s="28"/>
+      <c r="F514" s="10"/>
+      <c r="G514" s="10"/>
     </row>
     <row r="515" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A515" s="10"/>
@@ -7581,8 +7504,8 @@
       <c r="C516" s="10"/>
       <c r="D516" s="10"/>
       <c r="E516" s="10"/>
-      <c r="F516" s="10"/>
-      <c r="G516" s="10"/>
+      <c r="F516" s="28"/>
+      <c r="G516" s="28"/>
     </row>
     <row r="517" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A517" s="10"/>
@@ -7693,11 +7616,11 @@
       <c r="G528" s="10"/>
     </row>
     <row r="529" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A529" s="28"/>
-      <c r="B529" s="28"/>
-      <c r="C529" s="28"/>
-      <c r="D529" s="28"/>
-      <c r="E529" s="28"/>
+      <c r="A529" s="10"/>
+      <c r="B529" s="10"/>
+      <c r="C529" s="10"/>
+      <c r="D529" s="10"/>
+      <c r="E529" s="10"/>
       <c r="F529" s="10"/>
       <c r="G529" s="10"/>
     </row>
@@ -7711,11 +7634,11 @@
       <c r="G530" s="10"/>
     </row>
     <row r="531" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A531" s="10"/>
-      <c r="B531" s="10"/>
-      <c r="C531" s="10"/>
-      <c r="D531" s="10"/>
-      <c r="E531" s="10"/>
+      <c r="A531" s="28"/>
+      <c r="B531" s="28"/>
+      <c r="C531" s="28"/>
+      <c r="D531" s="28"/>
+      <c r="E531" s="28"/>
       <c r="F531" s="10"/>
       <c r="G531" s="10"/>
     </row>
@@ -7743,8 +7666,8 @@
       <c r="C534" s="10"/>
       <c r="D534" s="10"/>
       <c r="E534" s="10"/>
-      <c r="F534" s="28"/>
-      <c r="G534" s="28"/>
+      <c r="F534" s="10"/>
+      <c r="G534" s="10"/>
     </row>
     <row r="535" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A535" s="10"/>
@@ -7761,8 +7684,8 @@
       <c r="C536" s="10"/>
       <c r="D536" s="10"/>
       <c r="E536" s="10"/>
-      <c r="F536" s="10"/>
-      <c r="G536" s="10"/>
+      <c r="F536" s="28"/>
+      <c r="G536" s="28"/>
     </row>
     <row r="537" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A537" s="10"/>
@@ -7796,7 +7719,7 @@
       <c r="B540" s="10"/>
       <c r="C540" s="10"/>
       <c r="D540" s="10"/>
-      <c r="E540" s="11"/>
+      <c r="E540" s="10"/>
       <c r="F540" s="10"/>
       <c r="G540" s="10"/>
     </row>
@@ -7805,7 +7728,7 @@
       <c r="B541" s="10"/>
       <c r="C541" s="10"/>
       <c r="D541" s="10"/>
-      <c r="E541" s="11"/>
+      <c r="E541" s="10"/>
       <c r="F541" s="10"/>
       <c r="G541" s="10"/>
     </row>
@@ -7832,7 +7755,7 @@
       <c r="B544" s="10"/>
       <c r="C544" s="10"/>
       <c r="D544" s="10"/>
-      <c r="E544" s="10"/>
+      <c r="E544" s="11"/>
       <c r="F544" s="10"/>
       <c r="G544" s="10"/>
     </row>
@@ -7841,7 +7764,7 @@
       <c r="B545" s="10"/>
       <c r="C545" s="10"/>
       <c r="D545" s="10"/>
-      <c r="E545" s="10"/>
+      <c r="E545" s="11"/>
       <c r="F545" s="10"/>
       <c r="G545" s="10"/>
     </row>
@@ -7873,11 +7796,11 @@
       <c r="G548" s="10"/>
     </row>
     <row r="549" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A549" s="28"/>
-      <c r="B549" s="28"/>
-      <c r="C549" s="28"/>
-      <c r="D549" s="28"/>
-      <c r="E549" s="28"/>
+      <c r="A549" s="10"/>
+      <c r="B549" s="10"/>
+      <c r="C549" s="10"/>
+      <c r="D549" s="10"/>
+      <c r="E549" s="10"/>
       <c r="F549" s="10"/>
       <c r="G549" s="10"/>
     </row>
@@ -7891,11 +7814,11 @@
       <c r="G550" s="10"/>
     </row>
     <row r="551" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A551" s="10"/>
-      <c r="B551" s="10"/>
-      <c r="C551" s="10"/>
-      <c r="D551" s="10"/>
-      <c r="E551" s="10"/>
+      <c r="A551" s="28"/>
+      <c r="B551" s="28"/>
+      <c r="C551" s="28"/>
+      <c r="D551" s="28"/>
+      <c r="E551" s="28"/>
       <c r="F551" s="10"/>
       <c r="G551" s="10"/>
     </row>
@@ -7950,8 +7873,8 @@
       <c r="C557" s="10"/>
       <c r="D557" s="10"/>
       <c r="E557" s="10"/>
-      <c r="F557" s="28"/>
-      <c r="G557" s="28"/>
+      <c r="F557" s="10"/>
+      <c r="G557" s="10"/>
     </row>
     <row r="558" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A558" s="10"/>
@@ -7959,8 +7882,8 @@
       <c r="C558" s="10"/>
       <c r="D558" s="10"/>
       <c r="E558" s="10"/>
-      <c r="F558" s="28"/>
-      <c r="G558" s="28"/>
+      <c r="F558" s="10"/>
+      <c r="G558" s="10"/>
     </row>
     <row r="559" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A559" s="10"/>
@@ -7968,8 +7891,8 @@
       <c r="C559" s="10"/>
       <c r="D559" s="10"/>
       <c r="E559" s="10"/>
-      <c r="F559" s="10"/>
-      <c r="G559" s="10"/>
+      <c r="F559" s="28"/>
+      <c r="G559" s="28"/>
     </row>
     <row r="560" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A560" s="10"/>
@@ -7977,8 +7900,8 @@
       <c r="C560" s="10"/>
       <c r="D560" s="10"/>
       <c r="E560" s="10"/>
-      <c r="F560" s="10"/>
-      <c r="G560" s="10"/>
+      <c r="F560" s="28"/>
+      <c r="G560" s="28"/>
     </row>
     <row r="561" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A561" s="10"/>
@@ -8025,7 +7948,7 @@
       <c r="F565" s="10"/>
       <c r="G565" s="10"/>
     </row>
-    <row r="566" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="566" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A566" s="10"/>
       <c r="B566" s="10"/>
       <c r="C566" s="10"/>
@@ -8040,10 +7963,10 @@
       <c r="C567" s="10"/>
       <c r="D567" s="10"/>
       <c r="E567" s="10"/>
-      <c r="F567" s="28"/>
-      <c r="G567" s="28"/>
-    </row>
-    <row r="568" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F567" s="10"/>
+      <c r="G567" s="10"/>
+    </row>
+    <row r="568" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A568" s="10"/>
       <c r="B568" s="10"/>
       <c r="C568" s="10"/>
@@ -8058,8 +7981,8 @@
       <c r="C569" s="10"/>
       <c r="D569" s="10"/>
       <c r="E569" s="10"/>
-      <c r="F569" s="10"/>
-      <c r="G569" s="10"/>
+      <c r="F569" s="28"/>
+      <c r="G569" s="28"/>
     </row>
     <row r="570" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A570" s="10"/>
@@ -8080,38 +8003,38 @@
       <c r="G571" s="10"/>
     </row>
     <row r="572" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A572" s="28"/>
-      <c r="B572" s="28"/>
-      <c r="C572" s="28"/>
-      <c r="D572" s="28"/>
-      <c r="E572" s="28"/>
+      <c r="A572" s="10"/>
+      <c r="B572" s="10"/>
+      <c r="C572" s="10"/>
+      <c r="D572" s="10"/>
+      <c r="E572" s="10"/>
       <c r="F572" s="10"/>
       <c r="G572" s="10"/>
     </row>
     <row r="573" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A573" s="28"/>
-      <c r="B573" s="28"/>
-      <c r="C573" s="28"/>
-      <c r="D573" s="28"/>
-      <c r="E573" s="28"/>
+      <c r="A573" s="10"/>
+      <c r="B573" s="10"/>
+      <c r="C573" s="10"/>
+      <c r="D573" s="10"/>
+      <c r="E573" s="10"/>
       <c r="F573" s="10"/>
       <c r="G573" s="10"/>
     </row>
     <row r="574" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A574" s="10"/>
-      <c r="B574" s="10"/>
-      <c r="C574" s="10"/>
-      <c r="D574" s="10"/>
-      <c r="E574" s="10"/>
+      <c r="A574" s="28"/>
+      <c r="B574" s="28"/>
+      <c r="C574" s="28"/>
+      <c r="D574" s="28"/>
+      <c r="E574" s="28"/>
       <c r="F574" s="10"/>
       <c r="G574" s="10"/>
     </row>
     <row r="575" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A575" s="10"/>
-      <c r="B575" s="10"/>
-      <c r="C575" s="10"/>
-      <c r="D575" s="10"/>
-      <c r="E575" s="10"/>
+      <c r="A575" s="28"/>
+      <c r="B575" s="28"/>
+      <c r="C575" s="28"/>
+      <c r="D575" s="28"/>
+      <c r="E575" s="28"/>
       <c r="F575" s="10"/>
       <c r="G575" s="10"/>
     </row>
@@ -8121,8 +8044,8 @@
       <c r="C576" s="10"/>
       <c r="D576" s="10"/>
       <c r="E576" s="10"/>
-      <c r="F576" s="28"/>
-      <c r="G576" s="28"/>
+      <c r="F576" s="10"/>
+      <c r="G576" s="10"/>
     </row>
     <row r="577" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A577" s="10"/>
@@ -8139,8 +8062,8 @@
       <c r="C578" s="10"/>
       <c r="D578" s="10"/>
       <c r="E578" s="10"/>
-      <c r="F578" s="10"/>
-      <c r="G578" s="10"/>
+      <c r="F578" s="28"/>
+      <c r="G578" s="28"/>
     </row>
     <row r="579" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A579" s="10"/>
@@ -8170,11 +8093,11 @@
       <c r="G581" s="10"/>
     </row>
     <row r="582" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A582" s="28"/>
-      <c r="B582" s="28"/>
-      <c r="C582" s="28"/>
-      <c r="D582" s="28"/>
-      <c r="E582" s="28"/>
+      <c r="A582" s="10"/>
+      <c r="B582" s="10"/>
+      <c r="C582" s="10"/>
+      <c r="D582" s="10"/>
+      <c r="E582" s="10"/>
       <c r="F582" s="10"/>
       <c r="G582" s="10"/>
     </row>
@@ -8188,11 +8111,11 @@
       <c r="G583" s="10"/>
     </row>
     <row r="584" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A584" s="10"/>
-      <c r="B584" s="10"/>
-      <c r="C584" s="10"/>
-      <c r="D584" s="10"/>
-      <c r="E584" s="10"/>
+      <c r="A584" s="28"/>
+      <c r="B584" s="28"/>
+      <c r="C584" s="28"/>
+      <c r="D584" s="28"/>
+      <c r="E584" s="28"/>
       <c r="F584" s="10"/>
       <c r="G584" s="10"/>
     </row>
@@ -8251,11 +8174,11 @@
       <c r="G590" s="10"/>
     </row>
     <row r="591" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A591" s="28"/>
-      <c r="B591" s="28"/>
-      <c r="C591" s="28"/>
-      <c r="D591" s="28"/>
-      <c r="E591" s="28"/>
+      <c r="A591" s="10"/>
+      <c r="B591" s="10"/>
+      <c r="C591" s="10"/>
+      <c r="D591" s="10"/>
+      <c r="E591" s="10"/>
       <c r="F591" s="10"/>
       <c r="G591" s="10"/>
     </row>
@@ -8269,11 +8192,11 @@
       <c r="G592" s="10"/>
     </row>
     <row r="593" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A593" s="10"/>
-      <c r="B593" s="10"/>
-      <c r="C593" s="10"/>
-      <c r="D593" s="10"/>
-      <c r="E593" s="10"/>
+      <c r="A593" s="28"/>
+      <c r="B593" s="28"/>
+      <c r="C593" s="28"/>
+      <c r="D593" s="28"/>
+      <c r="E593" s="28"/>
       <c r="F593" s="10"/>
       <c r="G593" s="10"/>
     </row>
@@ -8301,8 +8224,8 @@
       <c r="C596" s="10"/>
       <c r="D596" s="10"/>
       <c r="E596" s="10"/>
-      <c r="F596" s="28"/>
-      <c r="G596" s="28"/>
+      <c r="F596" s="10"/>
+      <c r="G596" s="10"/>
     </row>
     <row r="597" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A597" s="10"/>
@@ -8319,8 +8242,8 @@
       <c r="C598" s="10"/>
       <c r="D598" s="10"/>
       <c r="E598" s="10"/>
-      <c r="F598" s="10"/>
-      <c r="G598" s="10"/>
+      <c r="F598" s="28"/>
+      <c r="G598" s="28"/>
     </row>
     <row r="599" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A599" s="10"/>
@@ -8431,11 +8354,11 @@
       <c r="G610" s="10"/>
     </row>
     <row r="611" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A611" s="28"/>
-      <c r="B611" s="28"/>
-      <c r="C611" s="28"/>
-      <c r="D611" s="28"/>
-      <c r="E611" s="28"/>
+      <c r="A611" s="10"/>
+      <c r="B611" s="10"/>
+      <c r="C611" s="10"/>
+      <c r="D611" s="10"/>
+      <c r="E611" s="10"/>
       <c r="F611" s="10"/>
       <c r="G611" s="10"/>
     </row>
@@ -8449,11 +8372,11 @@
       <c r="G612" s="10"/>
     </row>
     <row r="613" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A613" s="10"/>
-      <c r="B613" s="10"/>
-      <c r="C613" s="10"/>
-      <c r="D613" s="10"/>
-      <c r="E613" s="10"/>
+      <c r="A613" s="28"/>
+      <c r="B613" s="28"/>
+      <c r="C613" s="28"/>
+      <c r="D613" s="28"/>
+      <c r="E613" s="28"/>
       <c r="F613" s="10"/>
       <c r="G613" s="10"/>
     </row>
@@ -8544,6 +8467,8 @@
       <c r="C623" s="10"/>
       <c r="D623" s="10"/>
       <c r="E623" s="10"/>
+      <c r="F623" s="10"/>
+      <c r="G623" s="10"/>
     </row>
     <row r="624" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A624" s="10"/>
@@ -8551,6 +8476,8 @@
       <c r="C624" s="10"/>
       <c r="D624" s="10"/>
       <c r="E624" s="10"/>
+      <c r="F624" s="10"/>
+      <c r="G624" s="10"/>
     </row>
     <row r="625" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A625" s="10"/>
@@ -8642,6 +8569,20 @@
       <c r="C637" s="10"/>
       <c r="D637" s="10"/>
       <c r="E637" s="10"/>
+    </row>
+    <row r="638" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A638" s="10"/>
+      <c r="B638" s="10"/>
+      <c r="C638" s="10"/>
+      <c r="D638" s="10"/>
+      <c r="E638" s="10"/>
+    </row>
+    <row r="639" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A639" s="10"/>
+      <c r="B639" s="10"/>
+      <c r="C639" s="10"/>
+      <c r="D639" s="10"/>
+      <c r="E639" s="10"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:G1"/>
@@ -8652,66 +8593,100 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H1048576"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="12.6328125" collapsed="true"/>
-    <col min="2" max="3" customWidth="true" width="16.08984375" collapsed="true"/>
-    <col min="4" max="7" customWidth="true" width="14.08984375" collapsed="true"/>
+    <col min="1" max="1" width="14.08984375" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="12.6328125" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="16.08984375" customWidth="1" collapsed="1"/>
+    <col min="4" max="7" width="14.08984375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="34" t="s">
+        <v>172</v>
+      </c>
+      <c r="B1" s="34" t="s">
         <v>173</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="C1" s="34" t="s">
         <v>174</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="D1" s="34" t="s">
         <v>175</v>
       </c>
-      <c r="D1" s="35" t="s">
-        <v>176</v>
-      </c>
-      <c r="E1" s="35" t="s">
+      <c r="E1" s="34" t="s">
+        <v>198</v>
+      </c>
+      <c r="F1" s="34" t="s">
         <v>199</v>
       </c>
-      <c r="F1" s="35" t="s">
-        <v>200</v>
-      </c>
-      <c r="G1" s="35" t="s">
-        <v>203</v>
-      </c>
-      <c r="H1" s="35" t="s">
+      <c r="G1" s="34" t="s">
+        <v>202</v>
+      </c>
+      <c r="H1" s="34" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="B2" s="33" t="s">
         <v>177</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="C2" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="D2" s="36" t="s">
         <v>179</v>
       </c>
-      <c r="D2" s="37" t="s">
-        <v>180</v>
-      </c>
-      <c r="E2" s="37" t="s">
-        <v>202</v>
-      </c>
-      <c r="F2" s="36" t="s">
+      <c r="E2" s="36" t="s">
         <v>201</v>
       </c>
-      <c r="G2" s="38" t="s">
-        <v>204</v>
+      <c r="F2" s="35" t="s">
+        <v>200</v>
+      </c>
+      <c r="G2" s="37" t="s">
+        <v>203</v>
       </c>
       <c r="H2" s="13" t="s">
         <v>62</v>
@@ -8726,7 +8701,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -8736,19 +8711,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="36.08984375" collapsed="true"/>
+    <col min="1" max="2" width="15" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="36.08984375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>2</v>
@@ -8756,57 +8731,15 @@
     </row>
     <row r="2" spans="1:4" ht="80" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B2" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="C2" s="18" t="s">
-        <v>110</v>
-      </c>
       <c r="D2" s="7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" customWidth="true" width="16.08984375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="14.08984375" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="C2" s="13" t="s">
         <v>62</v>
       </c>
     </row>
@@ -8818,15 +8751,57 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B1" sqref="B1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="13.453125" collapsed="true"/>
+    <col min="1" max="1" width="16.08984375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.08984375" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="14.08984375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
@@ -8838,8 +8813,42 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="13.453125" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>62</v>

--- a/src/test/java/com/born/xls/ProductDetailsPage.xlsx
+++ b/src/test/java/com/born/xls/ProductDetailsPage.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="6590" windowHeight="2660" tabRatio="937" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="6585" windowHeight="2655" tabRatio="937"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="2" r:id="rId1"/>
@@ -1374,19 +1374,19 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView zoomScale="105" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" zoomScale="105" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.90625" style="2" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="35.85546875" style="2" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="57" style="2" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.54296875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="16384" width="9.1796875" style="2" collapsed="1"/>
+    <col min="3" max="3" width="9.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="9.140625" style="2" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
@@ -1397,7 +1397,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>38</v>
       </c>
@@ -1408,7 +1408,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>49</v>
       </c>
@@ -1419,7 +1419,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>56</v>
       </c>
@@ -1430,7 +1430,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>75</v>
       </c>
@@ -1441,7 +1441,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>215</v>
       </c>
@@ -1452,7 +1452,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>64</v>
       </c>
@@ -1463,7 +1463,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
         <v>113</v>
       </c>
@@ -1474,7 +1474,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
         <v>114</v>
       </c>
@@ -1485,7 +1485,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>156</v>
       </c>
@@ -1496,7 +1496,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>157</v>
       </c>
@@ -1519,25 +1519,25 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:J639"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E22" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A112" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.6328125" style="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="9.1796875" style="1" collapsed="1"/>
-    <col min="3" max="3" width="54.08984375" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="26.08984375" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="34.1796875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="29.7265625" style="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="32.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="9.140625" style="1" collapsed="1"/>
+    <col min="3" max="3" width="54.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="26.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="34.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="29.7109375" style="1" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="17" style="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="9.1796875" style="1" collapsed="1"/>
-    <col min="9" max="10" width="9.1796875" style="1"/>
-    <col min="11" max="16384" width="9.1796875" style="1" collapsed="1"/>
+    <col min="8" max="8" width="9.140625" style="1" collapsed="1"/>
+    <col min="9" max="10" width="9.140625" style="1"/>
+    <col min="11" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1560,7 +1560,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>38</v>
       </c>
@@ -1579,7 +1579,7 @@
       </c>
       <c r="G2" s="24"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>38</v>
       </c>
@@ -1598,7 +1598,7 @@
       </c>
       <c r="G3" s="24"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>38</v>
       </c>
@@ -1617,7 +1617,7 @@
       <c r="F4" s="24"/>
       <c r="G4" s="24"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>38</v>
       </c>
@@ -1636,7 +1636,7 @@
       <c r="F5" s="24"/>
       <c r="G5" s="24"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>38</v>
       </c>
@@ -1655,7 +1655,7 @@
       <c r="F6" s="24"/>
       <c r="G6" s="24"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>38</v>
       </c>
@@ -1674,7 +1674,7 @@
       <c r="F7" s="24"/>
       <c r="G7" s="24"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>38</v>
       </c>
@@ -1693,7 +1693,7 @@
       <c r="F8" s="24"/>
       <c r="G8" s="24"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>38</v>
       </c>
@@ -1710,7 +1710,7 @@
       <c r="F9" s="24"/>
       <c r="G9" s="24"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="25"/>
       <c r="B10" s="25"/>
       <c r="C10" s="25"/>
@@ -1719,7 +1719,7 @@
       <c r="F10" s="25"/>
       <c r="G10" s="25"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>49</v>
       </c>
@@ -1738,7 +1738,7 @@
       </c>
       <c r="G11" s="24"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>49</v>
       </c>
@@ -1757,7 +1757,7 @@
       </c>
       <c r="G12" s="24"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>49</v>
       </c>
@@ -1778,7 +1778,7 @@
       </c>
       <c r="G13" s="24"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>49</v>
       </c>
@@ -1797,7 +1797,7 @@
       <c r="F14" s="24"/>
       <c r="G14" s="24"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>49</v>
       </c>
@@ -1814,7 +1814,7 @@
       <c r="F15" s="24"/>
       <c r="G15" s="24"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>49</v>
       </c>
@@ -1833,7 +1833,7 @@
       <c r="F16" s="24"/>
       <c r="G16" s="24"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>49</v>
       </c>
@@ -1852,7 +1852,7 @@
       <c r="F17" s="24"/>
       <c r="G17" s="24"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>49</v>
       </c>
@@ -1871,7 +1871,7 @@
       <c r="F18" s="24"/>
       <c r="G18" s="24"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>49</v>
       </c>
@@ -1890,7 +1890,7 @@
       <c r="F19" s="24"/>
       <c r="G19" s="24"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>49</v>
       </c>
@@ -1909,7 +1909,7 @@
       <c r="F20" s="24"/>
       <c r="G20" s="24"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>49</v>
       </c>
@@ -1928,7 +1928,7 @@
       <c r="F21" s="24"/>
       <c r="G21" s="24"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>49</v>
       </c>
@@ -1945,7 +1945,7 @@
       <c r="F22" s="24"/>
       <c r="G22" s="24"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="25"/>
       <c r="B23" s="25"/>
       <c r="C23" s="25"/>
@@ -1954,7 +1954,7 @@
       <c r="F23" s="25"/>
       <c r="G23" s="25"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>56</v>
       </c>
@@ -1973,7 +1973,7 @@
       </c>
       <c r="G24" s="24"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>56</v>
       </c>
@@ -1992,7 +1992,7 @@
       </c>
       <c r="G25" s="24"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>56</v>
       </c>
@@ -2013,7 +2013,7 @@
       </c>
       <c r="G26" s="24"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>56</v>
       </c>
@@ -2032,7 +2032,7 @@
       <c r="F27" s="24"/>
       <c r="G27" s="24"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>56</v>
       </c>
@@ -2049,7 +2049,7 @@
       <c r="F28" s="24"/>
       <c r="G28" s="24"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>56</v>
       </c>
@@ -2068,7 +2068,7 @@
       <c r="F29" s="24"/>
       <c r="G29" s="24"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>56</v>
       </c>
@@ -2087,7 +2087,7 @@
       <c r="F30" s="24"/>
       <c r="G30" s="24"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>56</v>
       </c>
@@ -2106,7 +2106,7 @@
       <c r="F31" s="24"/>
       <c r="G31" s="24"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>56</v>
       </c>
@@ -2125,7 +2125,7 @@
       <c r="F32" s="24"/>
       <c r="G32" s="24"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>56</v>
       </c>
@@ -2144,7 +2144,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="24"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>56</v>
       </c>
@@ -2163,7 +2163,7 @@
       <c r="F34" s="24"/>
       <c r="G34" s="24"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>56</v>
       </c>
@@ -2184,7 +2184,7 @@
       </c>
       <c r="G35" s="24"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>56</v>
       </c>
@@ -2203,7 +2203,7 @@
       <c r="F36" s="24"/>
       <c r="G36" s="24"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>56</v>
       </c>
@@ -2220,7 +2220,7 @@
       <c r="F37" s="24"/>
       <c r="G37" s="24"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>56</v>
       </c>
@@ -2239,7 +2239,7 @@
       <c r="F38" s="24"/>
       <c r="G38" s="24"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
         <v>56</v>
       </c>
@@ -2258,7 +2258,7 @@
       <c r="F39" s="24"/>
       <c r="G39" s="24"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>56</v>
       </c>
@@ -2277,7 +2277,7 @@
       <c r="F40" s="24"/>
       <c r="G40" s="24"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>56</v>
       </c>
@@ -2296,7 +2296,7 @@
       <c r="F41" s="24"/>
       <c r="G41" s="24"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>56</v>
       </c>
@@ -2315,7 +2315,7 @@
       <c r="F42" s="24"/>
       <c r="G42" s="24"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
         <v>56</v>
       </c>
@@ -2334,7 +2334,7 @@
       <c r="F43" s="24"/>
       <c r="G43" s="24"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>56</v>
       </c>
@@ -2351,7 +2351,7 @@
       <c r="F44" s="24"/>
       <c r="G44" s="24"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="25"/>
       <c r="B45" s="25"/>
       <c r="C45" s="25"/>
@@ -2360,7 +2360,7 @@
       <c r="F45" s="25"/>
       <c r="G45" s="25"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="20" t="s">
         <v>75</v>
       </c>
@@ -2379,7 +2379,7 @@
       </c>
       <c r="G46" s="24"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="20" t="s">
         <v>75</v>
       </c>
@@ -2398,7 +2398,7 @@
       </c>
       <c r="G47" s="24"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="20" t="s">
         <v>75</v>
       </c>
@@ -2417,7 +2417,7 @@
       <c r="F48" s="24"/>
       <c r="G48" s="24"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="20" t="s">
         <v>75</v>
       </c>
@@ -2436,7 +2436,7 @@
       <c r="F49" s="24"/>
       <c r="G49" s="24"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="20" t="s">
         <v>75</v>
       </c>
@@ -2455,7 +2455,7 @@
       <c r="F50" s="24"/>
       <c r="G50" s="24"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="20" t="s">
         <v>75</v>
       </c>
@@ -2474,7 +2474,7 @@
       <c r="F51" s="24"/>
       <c r="G51" s="24"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="20" t="s">
         <v>75</v>
       </c>
@@ -2493,7 +2493,7 @@
       <c r="F52" s="24"/>
       <c r="G52" s="24"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="20" t="s">
         <v>75</v>
       </c>
@@ -2512,7 +2512,7 @@
       <c r="F53" s="24"/>
       <c r="G53" s="24"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="20" t="s">
         <v>75</v>
       </c>
@@ -2531,7 +2531,7 @@
       <c r="F54" s="24"/>
       <c r="G54" s="24"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="20" t="s">
         <v>75</v>
       </c>
@@ -2548,7 +2548,7 @@
       <c r="F55" s="24"/>
       <c r="G55" s="24"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="25"/>
       <c r="B56" s="25"/>
       <c r="C56" s="25"/>
@@ -2557,7 +2557,7 @@
       <c r="F56" s="25"/>
       <c r="G56" s="25"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="20" t="s">
         <v>215</v>
       </c>
@@ -2576,7 +2576,7 @@
       </c>
       <c r="G57" s="24"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="20" t="s">
         <v>215</v>
       </c>
@@ -2595,7 +2595,7 @@
       </c>
       <c r="G58" s="24"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="20" t="s">
         <v>215</v>
       </c>
@@ -2616,7 +2616,7 @@
       </c>
       <c r="G59" s="24"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="20" t="s">
         <v>215</v>
       </c>
@@ -2635,7 +2635,7 @@
       <c r="F60" s="24"/>
       <c r="G60" s="24"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="20" t="s">
         <v>215</v>
       </c>
@@ -2652,7 +2652,7 @@
       <c r="F61" s="24"/>
       <c r="G61" s="24"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="20" t="s">
         <v>215</v>
       </c>
@@ -2671,7 +2671,7 @@
       <c r="F62" s="24"/>
       <c r="G62" s="24"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="20" t="s">
         <v>215</v>
       </c>
@@ -2690,7 +2690,7 @@
       <c r="F63" s="24"/>
       <c r="G63" s="24"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="20" t="s">
         <v>215</v>
       </c>
@@ -2709,7 +2709,7 @@
       <c r="F64" s="24"/>
       <c r="G64" s="24"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="20" t="s">
         <v>215</v>
       </c>
@@ -2728,7 +2728,7 @@
       <c r="F65" s="7"/>
       <c r="G65" s="24"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="20" t="s">
         <v>215</v>
       </c>
@@ -2747,7 +2747,7 @@
       <c r="F66" s="7"/>
       <c r="G66" s="24"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="20" t="s">
         <v>215</v>
       </c>
@@ -2766,7 +2766,7 @@
       <c r="F67" s="24"/>
       <c r="G67" s="24"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="20" t="s">
         <v>215</v>
       </c>
@@ -2783,7 +2783,7 @@
       <c r="F68" s="24"/>
       <c r="G68" s="24"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="29"/>
       <c r="B69" s="30"/>
       <c r="C69" s="30"/>
@@ -2792,7 +2792,7 @@
       <c r="F69" s="30"/>
       <c r="G69" s="31"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="20" t="s">
         <v>64</v>
       </c>
@@ -2811,7 +2811,7 @@
       </c>
       <c r="G70" s="24"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="20" t="s">
         <v>64</v>
       </c>
@@ -2830,7 +2830,7 @@
       </c>
       <c r="G71" s="24"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="20" t="s">
         <v>64</v>
       </c>
@@ -2851,7 +2851,7 @@
       </c>
       <c r="G72" s="24"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="20" t="s">
         <v>64</v>
       </c>
@@ -2870,7 +2870,7 @@
       <c r="F73" s="24"/>
       <c r="G73" s="24"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="20" t="s">
         <v>64</v>
       </c>
@@ -2887,7 +2887,7 @@
       <c r="F74" s="24"/>
       <c r="G74" s="24"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="20" t="s">
         <v>64</v>
       </c>
@@ -2906,7 +2906,7 @@
       <c r="F75" s="24"/>
       <c r="G75" s="24"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="20" t="s">
         <v>64</v>
       </c>
@@ -2925,7 +2925,7 @@
       <c r="F76" s="24"/>
       <c r="G76" s="24"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="20" t="s">
         <v>64</v>
       </c>
@@ -2944,7 +2944,7 @@
       <c r="F77" s="7"/>
       <c r="G77" s="24"/>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="20" t="s">
         <v>64</v>
       </c>
@@ -2963,7 +2963,7 @@
       <c r="F78" s="24"/>
       <c r="G78" s="24"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="20" t="s">
         <v>64</v>
       </c>
@@ -2982,7 +2982,7 @@
       <c r="F79" s="24"/>
       <c r="G79" s="24"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="20" t="s">
         <v>64</v>
       </c>
@@ -3001,7 +3001,7 @@
       <c r="F80" s="24"/>
       <c r="G80" s="24"/>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="20" t="s">
         <v>64</v>
       </c>
@@ -3020,7 +3020,7 @@
       <c r="F81" s="24"/>
       <c r="G81" s="24"/>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="20" t="s">
         <v>64</v>
       </c>
@@ -3041,7 +3041,7 @@
       </c>
       <c r="G82" s="24"/>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="20" t="s">
         <v>64</v>
       </c>
@@ -3062,7 +3062,7 @@
       </c>
       <c r="G83" s="24"/>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="20" t="s">
         <v>64</v>
       </c>
@@ -3081,7 +3081,7 @@
       <c r="F84" s="24"/>
       <c r="G84" s="24"/>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="20" t="s">
         <v>64</v>
       </c>
@@ -3100,7 +3100,7 @@
       <c r="F85" s="7"/>
       <c r="G85" s="24"/>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="20" t="s">
         <v>64</v>
       </c>
@@ -3119,7 +3119,7 @@
       <c r="F86" s="7"/>
       <c r="G86" s="24"/>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="20" t="s">
         <v>64</v>
       </c>
@@ -3138,7 +3138,7 @@
       <c r="F87" s="24"/>
       <c r="G87" s="24"/>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="20" t="s">
         <v>64</v>
       </c>
@@ -3157,7 +3157,7 @@
       <c r="F88" s="24"/>
       <c r="G88" s="24"/>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="20" t="s">
         <v>64</v>
       </c>
@@ -3174,7 +3174,7 @@
       <c r="F89" s="24"/>
       <c r="G89" s="24"/>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="25"/>
       <c r="B90" s="25"/>
       <c r="C90" s="25"/>
@@ -3183,7 +3183,7 @@
       <c r="F90" s="25"/>
       <c r="G90" s="25"/>
     </row>
-    <row r="91" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A91" s="19" t="s">
         <v>113</v>
       </c>
@@ -3202,7 +3202,7 @@
       </c>
       <c r="G91" s="24"/>
     </row>
-    <row r="92" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A92" s="19" t="s">
         <v>113</v>
       </c>
@@ -3221,7 +3221,7 @@
       </c>
       <c r="G92" s="24"/>
     </row>
-    <row r="93" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A93" s="19" t="s">
         <v>113</v>
       </c>
@@ -3240,7 +3240,7 @@
       <c r="F93" s="24"/>
       <c r="G93" s="24"/>
     </row>
-    <row r="94" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A94" s="19" t="s">
         <v>113</v>
       </c>
@@ -3259,7 +3259,7 @@
       <c r="F94" s="7"/>
       <c r="G94" s="7"/>
     </row>
-    <row r="95" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A95" s="19" t="s">
         <v>113</v>
       </c>
@@ -3278,7 +3278,7 @@
       <c r="F95" s="7"/>
       <c r="G95" s="7"/>
     </row>
-    <row r="96" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A96" s="19" t="s">
         <v>113</v>
       </c>
@@ -3297,7 +3297,7 @@
       <c r="F96" s="7"/>
       <c r="G96" s="7"/>
     </row>
-    <row r="97" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A97" s="19" t="s">
         <v>113</v>
       </c>
@@ -3316,7 +3316,7 @@
       <c r="F97" s="24"/>
       <c r="G97" s="24"/>
     </row>
-    <row r="98" spans="1:7" ht="87" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A98" s="19" t="s">
         <v>113</v>
       </c>
@@ -3335,7 +3335,7 @@
       <c r="F98" s="24"/>
       <c r="G98" s="24"/>
     </row>
-    <row r="99" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A99" s="19" t="s">
         <v>113</v>
       </c>
@@ -3352,7 +3352,7 @@
       <c r="F99" s="24"/>
       <c r="G99" s="24"/>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="25"/>
       <c r="B100" s="25"/>
       <c r="C100" s="25"/>
@@ -3361,7 +3361,7 @@
       <c r="F100" s="25"/>
       <c r="G100" s="25"/>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="19" t="s">
         <v>114</v>
       </c>
@@ -3380,7 +3380,7 @@
       </c>
       <c r="G101" s="24"/>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="19" t="s">
         <v>114</v>
       </c>
@@ -3399,7 +3399,7 @@
       </c>
       <c r="G102" s="24"/>
     </row>
-    <row r="103" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A103" s="19" t="s">
         <v>114</v>
       </c>
@@ -3418,7 +3418,7 @@
       <c r="F103" s="24"/>
       <c r="G103" s="24"/>
     </row>
-    <row r="104" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A104" s="19" t="s">
         <v>114</v>
       </c>
@@ -3437,7 +3437,7 @@
       <c r="F104" s="24"/>
       <c r="G104" s="24"/>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="19" t="s">
         <v>114</v>
       </c>
@@ -3454,7 +3454,7 @@
       <c r="F105" s="24"/>
       <c r="G105" s="24"/>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="25"/>
       <c r="B106" s="25"/>
       <c r="C106" s="25"/>
@@ -3465,7 +3465,7 @@
       <c r="F106" s="25"/>
       <c r="G106" s="25"/>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="23" t="s">
         <v>156</v>
       </c>
@@ -3484,7 +3484,7 @@
       </c>
       <c r="G107" s="24"/>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="23" t="s">
         <v>156</v>
       </c>
@@ -3503,7 +3503,7 @@
       </c>
       <c r="G108" s="24"/>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="23" t="s">
         <v>156</v>
       </c>
@@ -3524,7 +3524,7 @@
       </c>
       <c r="G109" s="24"/>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="23" t="s">
         <v>156</v>
       </c>
@@ -3543,7 +3543,7 @@
       <c r="F110" s="24"/>
       <c r="G110" s="24"/>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="23" t="s">
         <v>156</v>
       </c>
@@ -3560,7 +3560,7 @@
       <c r="F111" s="24"/>
       <c r="G111" s="24"/>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="23" t="s">
         <v>156</v>
       </c>
@@ -3579,7 +3579,7 @@
       <c r="F112" s="24"/>
       <c r="G112" s="24"/>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="23" t="s">
         <v>156</v>
       </c>
@@ -3598,7 +3598,7 @@
       <c r="F113" s="24"/>
       <c r="G113" s="24"/>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="23" t="s">
         <v>156</v>
       </c>
@@ -3617,7 +3617,7 @@
       <c r="F114" s="24"/>
       <c r="G114" s="24"/>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="23" t="s">
         <v>156</v>
       </c>
@@ -3636,7 +3636,7 @@
       <c r="F115" s="24"/>
       <c r="G115" s="24"/>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="23" t="s">
         <v>156</v>
       </c>
@@ -3655,7 +3655,7 @@
       <c r="F116" s="24"/>
       <c r="G116" s="24"/>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="23" t="s">
         <v>156</v>
       </c>
@@ -3674,7 +3674,7 @@
       <c r="F117" s="24"/>
       <c r="G117" s="24"/>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="23" t="s">
         <v>156</v>
       </c>
@@ -3693,7 +3693,7 @@
       <c r="F118" s="24"/>
       <c r="G118" s="24"/>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="23" t="s">
         <v>156</v>
       </c>
@@ -3712,7 +3712,7 @@
       <c r="F119" s="24"/>
       <c r="G119" s="24"/>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="23" t="s">
         <v>156</v>
       </c>
@@ -3729,7 +3729,7 @@
       <c r="F120" s="24"/>
       <c r="G120" s="24"/>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="29"/>
       <c r="B121" s="30"/>
       <c r="C121" s="30"/>
@@ -3738,7 +3738,7 @@
       <c r="F121" s="30"/>
       <c r="G121" s="31"/>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="4" t="s">
         <v>157</v>
       </c>
@@ -3757,7 +3757,7 @@
       </c>
       <c r="G122" s="24"/>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="4" t="s">
         <v>157</v>
       </c>
@@ -3776,7 +3776,7 @@
       </c>
       <c r="G123" s="24"/>
     </row>
-    <row r="124" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A124" s="4" t="s">
         <v>157</v>
       </c>
@@ -3795,7 +3795,7 @@
       <c r="F124" s="24"/>
       <c r="G124" s="24"/>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="4" t="s">
         <v>157</v>
       </c>
@@ -3814,7 +3814,7 @@
       <c r="F125" s="24"/>
       <c r="G125" s="24"/>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="4" t="s">
         <v>157</v>
       </c>
@@ -3835,7 +3835,7 @@
       </c>
       <c r="G126" s="24"/>
     </row>
-    <row r="127" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A127" s="4" t="s">
         <v>157</v>
       </c>
@@ -3854,7 +3854,7 @@
       <c r="F127" s="24"/>
       <c r="G127" s="24"/>
     </row>
-    <row r="128" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A128" s="4" t="s">
         <v>157</v>
       </c>
@@ -3873,7 +3873,7 @@
       <c r="F128" s="24"/>
       <c r="G128" s="24"/>
     </row>
-    <row r="129" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A129" s="4" t="s">
         <v>157</v>
       </c>
@@ -3892,7 +3892,7 @@
       <c r="F129" s="7"/>
       <c r="G129" s="24"/>
     </row>
-    <row r="130" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A130" s="4" t="s">
         <v>157</v>
       </c>
@@ -3911,7 +3911,7 @@
       <c r="F130" s="24"/>
       <c r="G130" s="24"/>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="4" t="s">
         <v>157</v>
       </c>
@@ -3932,7 +3932,7 @@
       </c>
       <c r="G131" s="24"/>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="4" t="s">
         <v>157</v>
       </c>
@@ -3953,7 +3953,7 @@
       </c>
       <c r="G132" s="24"/>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="4" t="s">
         <v>157</v>
       </c>
@@ -3974,7 +3974,7 @@
       </c>
       <c r="G133" s="24"/>
     </row>
-    <row r="134" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A134" s="4" t="s">
         <v>157</v>
       </c>
@@ -3995,7 +3995,7 @@
       </c>
       <c r="G134" s="24"/>
     </row>
-    <row r="135" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A135" s="4" t="s">
         <v>157</v>
       </c>
@@ -4016,7 +4016,7 @@
       </c>
       <c r="G135" s="24"/>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="4" t="s">
         <v>157</v>
       </c>
@@ -4037,7 +4037,7 @@
       </c>
       <c r="G136" s="24"/>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="4" t="s">
         <v>157</v>
       </c>
@@ -4056,7 +4056,7 @@
       <c r="F137" s="7"/>
       <c r="G137" s="24"/>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="4" t="s">
         <v>157</v>
       </c>
@@ -4077,7 +4077,7 @@
       </c>
       <c r="G138" s="24"/>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="4" t="s">
         <v>157</v>
       </c>
@@ -4096,7 +4096,7 @@
       <c r="F139" s="24"/>
       <c r="G139" s="24"/>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="4" t="s">
         <v>157</v>
       </c>
@@ -4115,7 +4115,7 @@
       <c r="F140" s="24"/>
       <c r="G140" s="24"/>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="4" t="s">
         <v>157</v>
       </c>
@@ -4132,7 +4132,7 @@
       <c r="F141" s="24"/>
       <c r="G141" s="24"/>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="10"/>
       <c r="B142" s="10"/>
       <c r="C142" s="10"/>
@@ -4141,7 +4141,7 @@
       <c r="F142" s="10"/>
       <c r="G142" s="10"/>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="10"/>
       <c r="B143" s="10"/>
       <c r="C143" s="10"/>
@@ -4150,7 +4150,7 @@
       <c r="F143" s="10"/>
       <c r="G143" s="10"/>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="10"/>
       <c r="B144" s="10"/>
       <c r="C144" s="10"/>
@@ -4159,7 +4159,7 @@
       <c r="F144" s="10"/>
       <c r="G144" s="10"/>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="10"/>
       <c r="B145" s="10"/>
       <c r="C145" s="10"/>
@@ -4168,7 +4168,7 @@
       <c r="F145" s="10"/>
       <c r="G145" s="10"/>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="10"/>
       <c r="B146" s="10"/>
       <c r="C146" s="10"/>
@@ -4177,7 +4177,7 @@
       <c r="F146" s="10"/>
       <c r="G146" s="10"/>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="10"/>
       <c r="B147" s="10"/>
       <c r="C147" s="10"/>
@@ -4186,7 +4186,7 @@
       <c r="F147" s="10"/>
       <c r="G147" s="10"/>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="10"/>
       <c r="B148" s="10"/>
       <c r="C148" s="10"/>
@@ -4195,7 +4195,7 @@
       <c r="F148" s="10"/>
       <c r="G148" s="10"/>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="10"/>
       <c r="B149" s="10"/>
       <c r="C149" s="10"/>
@@ -4204,7 +4204,7 @@
       <c r="F149" s="10"/>
       <c r="G149" s="10"/>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="10"/>
       <c r="B150" s="10"/>
       <c r="C150" s="10"/>
@@ -4213,7 +4213,7 @@
       <c r="F150" s="10"/>
       <c r="G150" s="10"/>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="10"/>
       <c r="B151" s="10"/>
       <c r="C151" s="10"/>
@@ -4222,7 +4222,7 @@
       <c r="F151" s="10"/>
       <c r="G151" s="10"/>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="10"/>
       <c r="B152" s="10"/>
       <c r="C152" s="10"/>
@@ -4231,7 +4231,7 @@
       <c r="F152" s="10"/>
       <c r="G152" s="10"/>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="10"/>
       <c r="B153" s="10"/>
       <c r="C153" s="10"/>
@@ -4240,7 +4240,7 @@
       <c r="F153" s="10"/>
       <c r="G153" s="10"/>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="10"/>
       <c r="B154" s="10"/>
       <c r="C154" s="10"/>
@@ -4249,7 +4249,7 @@
       <c r="F154" s="10"/>
       <c r="G154" s="10"/>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="10"/>
       <c r="B155" s="10"/>
       <c r="C155" s="10"/>
@@ -4258,7 +4258,7 @@
       <c r="F155" s="10"/>
       <c r="G155" s="10"/>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="10"/>
       <c r="B156" s="10"/>
       <c r="C156" s="10"/>
@@ -4267,7 +4267,7 @@
       <c r="F156" s="10"/>
       <c r="G156" s="10"/>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="10"/>
       <c r="B157" s="10"/>
       <c r="C157" s="10"/>
@@ -4276,7 +4276,7 @@
       <c r="F157" s="10"/>
       <c r="G157" s="10"/>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="10"/>
       <c r="B158" s="10"/>
       <c r="C158" s="10"/>
@@ -4285,7 +4285,7 @@
       <c r="F158" s="10"/>
       <c r="G158" s="10"/>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="10"/>
       <c r="B159" s="10"/>
       <c r="C159" s="10"/>
@@ -4294,7 +4294,7 @@
       <c r="F159" s="10"/>
       <c r="G159" s="10"/>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="10"/>
       <c r="B160" s="10"/>
       <c r="C160" s="10"/>
@@ -4303,7 +4303,7 @@
       <c r="F160" s="10"/>
       <c r="G160" s="10"/>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="10"/>
       <c r="B161" s="10"/>
       <c r="C161" s="10"/>
@@ -4312,7 +4312,7 @@
       <c r="F161" s="10"/>
       <c r="G161" s="10"/>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="10"/>
       <c r="B162" s="10"/>
       <c r="C162" s="10"/>
@@ -4321,7 +4321,7 @@
       <c r="F162" s="10"/>
       <c r="G162" s="10"/>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="10"/>
       <c r="B163" s="10"/>
       <c r="C163" s="10"/>
@@ -4330,7 +4330,7 @@
       <c r="F163" s="10"/>
       <c r="G163" s="10"/>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="10"/>
       <c r="B164" s="10"/>
       <c r="C164" s="10"/>
@@ -4339,7 +4339,7 @@
       <c r="F164" s="10"/>
       <c r="G164" s="10"/>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="10"/>
       <c r="B165" s="10"/>
       <c r="C165" s="12"/>
@@ -4348,7 +4348,7 @@
       <c r="F165" s="10"/>
       <c r="G165" s="10"/>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="10"/>
       <c r="B166" s="10"/>
       <c r="C166" s="10"/>
@@ -4357,7 +4357,7 @@
       <c r="F166" s="10"/>
       <c r="G166" s="10"/>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="10"/>
       <c r="B167" s="10"/>
       <c r="C167" s="10"/>
@@ -4366,7 +4366,7 @@
       <c r="F167" s="10"/>
       <c r="G167" s="10"/>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="10"/>
       <c r="B168" s="10"/>
       <c r="C168" s="10"/>
@@ -4375,7 +4375,7 @@
       <c r="F168" s="10"/>
       <c r="G168" s="10"/>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="10"/>
       <c r="B169" s="10"/>
       <c r="C169" s="10"/>
@@ -4384,7 +4384,7 @@
       <c r="F169" s="10"/>
       <c r="G169" s="10"/>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="10"/>
       <c r="B170" s="10"/>
       <c r="C170" s="10"/>
@@ -4393,7 +4393,7 @@
       <c r="F170" s="10"/>
       <c r="G170" s="10"/>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="10"/>
       <c r="B171" s="10"/>
       <c r="C171" s="10"/>
@@ -4402,7 +4402,7 @@
       <c r="F171" s="10"/>
       <c r="G171" s="10"/>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="10"/>
       <c r="B172" s="10"/>
       <c r="C172" s="10"/>
@@ -4411,7 +4411,7 @@
       <c r="F172" s="10"/>
       <c r="G172" s="10"/>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="10"/>
       <c r="B173" s="10"/>
       <c r="C173" s="10"/>
@@ -4420,7 +4420,7 @@
       <c r="F173" s="10"/>
       <c r="G173" s="10"/>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="10"/>
       <c r="B174" s="10"/>
       <c r="C174" s="10"/>
@@ -4429,7 +4429,7 @@
       <c r="F174" s="10"/>
       <c r="G174" s="10"/>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="10"/>
       <c r="B175" s="10"/>
       <c r="C175" s="10"/>
@@ -4438,7 +4438,7 @@
       <c r="F175" s="10"/>
       <c r="G175" s="10"/>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="10"/>
       <c r="B176" s="10"/>
       <c r="C176" s="10"/>
@@ -4447,7 +4447,7 @@
       <c r="F176" s="10"/>
       <c r="G176" s="10"/>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="10"/>
       <c r="B177" s="10"/>
       <c r="C177" s="10"/>
@@ -4456,7 +4456,7 @@
       <c r="F177" s="28"/>
       <c r="G177" s="28"/>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="10"/>
       <c r="B178" s="10"/>
       <c r="C178" s="10"/>
@@ -4465,7 +4465,7 @@
       <c r="F178" s="10"/>
       <c r="G178" s="10"/>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="10"/>
       <c r="B179" s="10"/>
       <c r="C179" s="10"/>
@@ -4474,7 +4474,7 @@
       <c r="F179" s="10"/>
       <c r="G179" s="10"/>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="10"/>
       <c r="B180" s="10"/>
       <c r="C180" s="10"/>
@@ -4483,7 +4483,7 @@
       <c r="F180" s="10"/>
       <c r="G180" s="10"/>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="10"/>
       <c r="B181" s="10"/>
       <c r="C181" s="10"/>
@@ -4492,7 +4492,7 @@
       <c r="F181" s="10"/>
       <c r="G181" s="10"/>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="10"/>
       <c r="B182" s="10"/>
       <c r="C182" s="10"/>
@@ -4501,7 +4501,7 @@
       <c r="F182" s="10"/>
       <c r="G182" s="10"/>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="10"/>
       <c r="B183" s="10"/>
       <c r="C183" s="10"/>
@@ -4510,7 +4510,7 @@
       <c r="F183" s="10"/>
       <c r="G183" s="10"/>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="10"/>
       <c r="B184" s="10"/>
       <c r="C184" s="10"/>
@@ -4519,7 +4519,7 @@
       <c r="F184" s="10"/>
       <c r="G184" s="10"/>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="10"/>
       <c r="B185" s="10"/>
       <c r="C185" s="10"/>
@@ -4528,7 +4528,7 @@
       <c r="F185" s="10"/>
       <c r="G185" s="10"/>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="10"/>
       <c r="B186" s="10"/>
       <c r="C186" s="10"/>
@@ -4537,7 +4537,7 @@
       <c r="F186" s="10"/>
       <c r="G186" s="10"/>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" s="10"/>
       <c r="B187" s="10"/>
       <c r="C187" s="10"/>
@@ -4546,7 +4546,7 @@
       <c r="F187" s="10"/>
       <c r="G187" s="10"/>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="10"/>
       <c r="B188" s="10"/>
       <c r="C188" s="10"/>
@@ -4555,7 +4555,7 @@
       <c r="F188" s="10"/>
       <c r="G188" s="10"/>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="10"/>
       <c r="B189" s="10"/>
       <c r="C189" s="10"/>
@@ -4564,7 +4564,7 @@
       <c r="F189" s="10"/>
       <c r="G189" s="10"/>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="10"/>
       <c r="B190" s="10"/>
       <c r="C190" s="10"/>
@@ -4573,7 +4573,7 @@
       <c r="F190" s="10"/>
       <c r="G190" s="10"/>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="10"/>
       <c r="B191" s="10"/>
       <c r="C191" s="10"/>
@@ -4582,7 +4582,7 @@
       <c r="F191" s="10"/>
       <c r="G191" s="10"/>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="28"/>
       <c r="B192" s="28"/>
       <c r="C192" s="28"/>
@@ -4591,7 +4591,7 @@
       <c r="F192" s="10"/>
       <c r="G192" s="10"/>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" s="10"/>
       <c r="B193" s="10"/>
       <c r="C193" s="10"/>
@@ -4600,7 +4600,7 @@
       <c r="F193" s="28"/>
       <c r="G193" s="28"/>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" s="10"/>
       <c r="B194" s="10"/>
       <c r="C194" s="10"/>
@@ -4609,7 +4609,7 @@
       <c r="F194" s="10"/>
       <c r="G194" s="10"/>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" s="10"/>
       <c r="B195" s="10"/>
       <c r="C195" s="10"/>
@@ -4618,7 +4618,7 @@
       <c r="F195" s="10"/>
       <c r="G195" s="10"/>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="10"/>
       <c r="B196" s="10"/>
       <c r="C196" s="10"/>
@@ -4627,7 +4627,7 @@
       <c r="F196" s="10"/>
       <c r="G196" s="10"/>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" s="10"/>
       <c r="B197" s="10"/>
       <c r="C197" s="10"/>
@@ -4636,7 +4636,7 @@
       <c r="F197" s="10"/>
       <c r="G197" s="10"/>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" s="10"/>
       <c r="B198" s="10"/>
       <c r="C198" s="10"/>
@@ -4645,7 +4645,7 @@
       <c r="F198" s="10"/>
       <c r="G198" s="10"/>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" s="10"/>
       <c r="B199" s="10"/>
       <c r="C199" s="10"/>
@@ -4654,7 +4654,7 @@
       <c r="F199" s="10"/>
       <c r="G199" s="10"/>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" s="10"/>
       <c r="B200" s="10"/>
       <c r="C200" s="10"/>
@@ -4663,7 +4663,7 @@
       <c r="F200" s="10"/>
       <c r="G200" s="10"/>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" s="10"/>
       <c r="B201" s="10"/>
       <c r="C201" s="10"/>
@@ -4672,7 +4672,7 @@
       <c r="F201" s="10"/>
       <c r="G201" s="10"/>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" s="10"/>
       <c r="B202" s="10"/>
       <c r="C202" s="10"/>
@@ -4681,7 +4681,7 @@
       <c r="F202" s="10"/>
       <c r="G202" s="10"/>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" s="10"/>
       <c r="B203" s="10"/>
       <c r="C203" s="10"/>
@@ -4690,7 +4690,7 @@
       <c r="F203" s="10"/>
       <c r="G203" s="10"/>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" s="10"/>
       <c r="B204" s="10"/>
       <c r="C204" s="10"/>
@@ -4699,7 +4699,7 @@
       <c r="F204" s="10"/>
       <c r="G204" s="10"/>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" s="10"/>
       <c r="B205" s="10"/>
       <c r="C205" s="10"/>
@@ -4708,7 +4708,7 @@
       <c r="F205" s="10"/>
       <c r="G205" s="10"/>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" s="10"/>
       <c r="B206" s="10"/>
       <c r="C206" s="10"/>
@@ -4717,7 +4717,7 @@
       <c r="F206" s="10"/>
       <c r="G206" s="10"/>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" s="10"/>
       <c r="B207" s="10"/>
       <c r="C207" s="10"/>
@@ -4726,7 +4726,7 @@
       <c r="F207" s="10"/>
       <c r="G207" s="10"/>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" s="28"/>
       <c r="B208" s="28"/>
       <c r="C208" s="28"/>
@@ -4735,7 +4735,7 @@
       <c r="F208" s="10"/>
       <c r="G208" s="10"/>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" s="10"/>
       <c r="B209" s="10"/>
       <c r="C209" s="10"/>
@@ -4744,7 +4744,7 @@
       <c r="F209" s="10"/>
       <c r="G209" s="10"/>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" s="10"/>
       <c r="B210" s="10"/>
       <c r="C210" s="10"/>
@@ -4753,7 +4753,7 @@
       <c r="F210" s="28"/>
       <c r="G210" s="28"/>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" s="10"/>
       <c r="B211" s="10"/>
       <c r="C211" s="10"/>
@@ -4762,7 +4762,7 @@
       <c r="F211" s="10"/>
       <c r="G211" s="10"/>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" s="10"/>
       <c r="B212" s="10"/>
       <c r="C212" s="10"/>
@@ -4771,7 +4771,7 @@
       <c r="F212" s="10"/>
       <c r="G212" s="10"/>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" s="10"/>
       <c r="B213" s="10"/>
       <c r="C213" s="10"/>
@@ -4780,7 +4780,7 @@
       <c r="F213" s="10"/>
       <c r="G213" s="10"/>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" s="10"/>
       <c r="B214" s="10"/>
       <c r="C214" s="10"/>
@@ -4789,7 +4789,7 @@
       <c r="F214" s="10"/>
       <c r="G214" s="10"/>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" s="10"/>
       <c r="B215" s="10"/>
       <c r="C215" s="10"/>
@@ -4798,7 +4798,7 @@
       <c r="F215" s="10"/>
       <c r="G215" s="10"/>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" s="10"/>
       <c r="B216" s="10"/>
       <c r="C216" s="10"/>
@@ -4807,7 +4807,7 @@
       <c r="F216" s="10"/>
       <c r="G216" s="10"/>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" s="10"/>
       <c r="B217" s="10"/>
       <c r="C217" s="10"/>
@@ -4816,7 +4816,7 @@
       <c r="F217" s="10"/>
       <c r="G217" s="10"/>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" s="10"/>
       <c r="B218" s="10"/>
       <c r="C218" s="10"/>
@@ -4825,7 +4825,7 @@
       <c r="F218" s="10"/>
       <c r="G218" s="10"/>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" s="10"/>
       <c r="B219" s="10"/>
       <c r="C219" s="10"/>
@@ -4834,7 +4834,7 @@
       <c r="F219" s="10"/>
       <c r="G219" s="10"/>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" s="10"/>
       <c r="B220" s="10"/>
       <c r="C220" s="10"/>
@@ -4843,7 +4843,7 @@
       <c r="F220" s="10"/>
       <c r="G220" s="10"/>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" s="10"/>
       <c r="B221" s="10"/>
       <c r="C221" s="10"/>
@@ -4852,7 +4852,7 @@
       <c r="F221" s="10"/>
       <c r="G221" s="10"/>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" s="10"/>
       <c r="B222" s="10"/>
       <c r="C222" s="10"/>
@@ -4861,7 +4861,7 @@
       <c r="F222" s="10"/>
       <c r="G222" s="10"/>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" s="10"/>
       <c r="B223" s="10"/>
       <c r="C223" s="10"/>
@@ -4870,7 +4870,7 @@
       <c r="F223" s="10"/>
       <c r="G223" s="10"/>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" s="10"/>
       <c r="B224" s="10"/>
       <c r="C224" s="10"/>
@@ -4879,7 +4879,7 @@
       <c r="F224" s="10"/>
       <c r="G224" s="10"/>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" s="28"/>
       <c r="B225" s="28"/>
       <c r="C225" s="28"/>
@@ -4888,7 +4888,7 @@
       <c r="F225" s="10"/>
       <c r="G225" s="10"/>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" s="10"/>
       <c r="B226" s="10"/>
       <c r="C226" s="10"/>
@@ -4897,7 +4897,7 @@
       <c r="F226" s="10"/>
       <c r="G226" s="10"/>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" s="10"/>
       <c r="B227" s="10"/>
       <c r="C227" s="10"/>
@@ -4906,7 +4906,7 @@
       <c r="F227" s="10"/>
       <c r="G227" s="10"/>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" s="10"/>
       <c r="B228" s="10"/>
       <c r="C228" s="10"/>
@@ -4915,7 +4915,7 @@
       <c r="F228" s="10"/>
       <c r="G228" s="10"/>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" s="10"/>
       <c r="B229" s="10"/>
       <c r="C229" s="10"/>
@@ -4924,7 +4924,7 @@
       <c r="F229" s="10"/>
       <c r="G229" s="10"/>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" s="10"/>
       <c r="B230" s="10"/>
       <c r="C230" s="10"/>
@@ -4933,7 +4933,7 @@
       <c r="F230" s="10"/>
       <c r="G230" s="10"/>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" s="10"/>
       <c r="B231" s="10"/>
       <c r="C231" s="10"/>
@@ -4942,7 +4942,7 @@
       <c r="F231" s="28"/>
       <c r="G231" s="28"/>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" s="10"/>
       <c r="B232" s="10"/>
       <c r="C232" s="10"/>
@@ -4951,7 +4951,7 @@
       <c r="F232" s="10"/>
       <c r="G232" s="10"/>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" s="10"/>
       <c r="B233" s="10"/>
       <c r="C233" s="10"/>
@@ -4960,7 +4960,7 @@
       <c r="F233" s="10"/>
       <c r="G233" s="10"/>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" s="10"/>
       <c r="B234" s="10"/>
       <c r="C234" s="10"/>
@@ -4969,7 +4969,7 @@
       <c r="F234" s="10"/>
       <c r="G234" s="10"/>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235" s="10"/>
       <c r="B235" s="10"/>
       <c r="C235" s="10"/>
@@ -4978,7 +4978,7 @@
       <c r="F235" s="10"/>
       <c r="G235" s="10"/>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" s="10"/>
       <c r="B236" s="10"/>
       <c r="C236" s="10"/>
@@ -4987,7 +4987,7 @@
       <c r="F236" s="10"/>
       <c r="G236" s="10"/>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" s="10"/>
       <c r="B237" s="10"/>
       <c r="C237" s="10"/>
@@ -4996,7 +4996,7 @@
       <c r="F237" s="10"/>
       <c r="G237" s="10"/>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" s="10"/>
       <c r="B238" s="10"/>
       <c r="C238" s="10"/>
@@ -5005,7 +5005,7 @@
       <c r="F238" s="10"/>
       <c r="G238" s="10"/>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" s="10"/>
       <c r="B239" s="10"/>
       <c r="C239" s="10"/>
@@ -5014,7 +5014,7 @@
       <c r="F239" s="10"/>
       <c r="G239" s="10"/>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" s="10"/>
       <c r="B240" s="10"/>
       <c r="C240" s="10"/>
@@ -5023,7 +5023,7 @@
       <c r="F240" s="10"/>
       <c r="G240" s="10"/>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" s="10"/>
       <c r="B241" s="10"/>
       <c r="C241" s="10"/>
@@ -5032,7 +5032,7 @@
       <c r="F241" s="10"/>
       <c r="G241" s="10"/>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" s="10"/>
       <c r="B242" s="10"/>
       <c r="C242" s="10"/>
@@ -5041,7 +5041,7 @@
       <c r="F242" s="10"/>
       <c r="G242" s="10"/>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" s="10"/>
       <c r="B243" s="10"/>
       <c r="C243" s="10"/>
@@ -5050,7 +5050,7 @@
       <c r="F243" s="10"/>
       <c r="G243" s="10"/>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244" s="10"/>
       <c r="B244" s="10"/>
       <c r="C244" s="12"/>
@@ -5059,7 +5059,7 @@
       <c r="F244" s="28"/>
       <c r="G244" s="28"/>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245" s="10"/>
       <c r="B245" s="10"/>
       <c r="C245" s="10"/>
@@ -5068,7 +5068,7 @@
       <c r="F245" s="10"/>
       <c r="G245" s="10"/>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246" s="28"/>
       <c r="B246" s="28"/>
       <c r="C246" s="28"/>
@@ -5077,7 +5077,7 @@
       <c r="F246" s="10"/>
       <c r="G246" s="10"/>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247" s="10"/>
       <c r="B247" s="10"/>
       <c r="C247" s="10"/>
@@ -5086,7 +5086,7 @@
       <c r="F247" s="10"/>
       <c r="G247" s="10"/>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248" s="10"/>
       <c r="B248" s="10"/>
       <c r="C248" s="10"/>
@@ -5095,7 +5095,7 @@
       <c r="F248" s="10"/>
       <c r="G248" s="10"/>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249" s="10"/>
       <c r="B249" s="10"/>
       <c r="C249" s="10"/>
@@ -5104,7 +5104,7 @@
       <c r="F249" s="10"/>
       <c r="G249" s="10"/>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250" s="10"/>
       <c r="B250" s="10"/>
       <c r="C250" s="10"/>
@@ -5113,7 +5113,7 @@
       <c r="F250" s="10"/>
       <c r="G250" s="10"/>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251" s="10"/>
       <c r="B251" s="10"/>
       <c r="C251" s="10"/>
@@ -5122,7 +5122,7 @@
       <c r="F251" s="10"/>
       <c r="G251" s="10"/>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252" s="10"/>
       <c r="B252" s="10"/>
       <c r="C252" s="10"/>
@@ -5131,7 +5131,7 @@
       <c r="F252" s="10"/>
       <c r="G252" s="10"/>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253" s="10"/>
       <c r="B253" s="10"/>
       <c r="C253" s="10"/>
@@ -5140,7 +5140,7 @@
       <c r="F253" s="10"/>
       <c r="G253" s="10"/>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254" s="10"/>
       <c r="B254" s="10"/>
       <c r="C254" s="10"/>
@@ -5149,7 +5149,7 @@
       <c r="F254" s="10"/>
       <c r="G254" s="10"/>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255" s="10"/>
       <c r="B255" s="10"/>
       <c r="C255" s="10"/>
@@ -5158,7 +5158,7 @@
       <c r="F255" s="10"/>
       <c r="G255" s="10"/>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256" s="10"/>
       <c r="B256" s="10"/>
       <c r="C256" s="10"/>
@@ -5167,7 +5167,7 @@
       <c r="F256" s="10"/>
       <c r="G256" s="10"/>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257" s="10"/>
       <c r="B257" s="10"/>
       <c r="C257" s="10"/>
@@ -5176,7 +5176,7 @@
       <c r="F257" s="10"/>
       <c r="G257" s="10"/>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258" s="10"/>
       <c r="B258" s="10"/>
       <c r="C258" s="10"/>
@@ -5185,7 +5185,7 @@
       <c r="F258" s="10"/>
       <c r="G258" s="10"/>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A259" s="28"/>
       <c r="B259" s="28"/>
       <c r="C259" s="28"/>
@@ -5194,7 +5194,7 @@
       <c r="F259" s="10"/>
       <c r="G259" s="10"/>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A260" s="10"/>
       <c r="B260" s="10"/>
       <c r="C260" s="10"/>
@@ -5203,7 +5203,7 @@
       <c r="F260" s="10"/>
       <c r="G260" s="10"/>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A261" s="10"/>
       <c r="B261" s="10"/>
       <c r="C261" s="10"/>
@@ -5212,7 +5212,7 @@
       <c r="F261" s="10"/>
       <c r="G261" s="10"/>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A262" s="10"/>
       <c r="B262" s="10"/>
       <c r="C262" s="10"/>
@@ -5221,7 +5221,7 @@
       <c r="F262" s="10"/>
       <c r="G262" s="10"/>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A263" s="10"/>
       <c r="B263" s="10"/>
       <c r="C263" s="10"/>
@@ -5230,7 +5230,7 @@
       <c r="F263" s="10"/>
       <c r="G263" s="10"/>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A264" s="10"/>
       <c r="B264" s="10"/>
       <c r="C264" s="10"/>
@@ -5239,7 +5239,7 @@
       <c r="F264" s="28"/>
       <c r="G264" s="28"/>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265" s="10"/>
       <c r="B265" s="10"/>
       <c r="C265" s="10"/>
@@ -5248,7 +5248,7 @@
       <c r="F265" s="10"/>
       <c r="G265" s="10"/>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266" s="10"/>
       <c r="B266" s="10"/>
       <c r="C266" s="10"/>
@@ -5257,7 +5257,7 @@
       <c r="F266" s="10"/>
       <c r="G266" s="10"/>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A267" s="10"/>
       <c r="B267" s="10"/>
       <c r="C267" s="10"/>
@@ -5266,7 +5266,7 @@
       <c r="F267" s="10"/>
       <c r="G267" s="10"/>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A268" s="10"/>
       <c r="B268" s="10"/>
       <c r="C268" s="10"/>
@@ -5275,7 +5275,7 @@
       <c r="F268" s="10"/>
       <c r="G268" s="10"/>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A269" s="10"/>
       <c r="B269" s="10"/>
       <c r="C269" s="10"/>
@@ -5284,7 +5284,7 @@
       <c r="F269" s="10"/>
       <c r="G269" s="10"/>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A270" s="10"/>
       <c r="B270" s="10"/>
       <c r="C270" s="10"/>
@@ -5293,7 +5293,7 @@
       <c r="F270" s="10"/>
       <c r="G270" s="10"/>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A271" s="10"/>
       <c r="B271" s="10"/>
       <c r="C271" s="10"/>
@@ -5302,7 +5302,7 @@
       <c r="F271" s="10"/>
       <c r="G271" s="10"/>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A272" s="10"/>
       <c r="B272" s="10"/>
       <c r="C272" s="10"/>
@@ -5311,7 +5311,7 @@
       <c r="F272" s="10"/>
       <c r="G272" s="10"/>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A273" s="10"/>
       <c r="B273" s="10"/>
       <c r="C273" s="10"/>
@@ -5320,7 +5320,7 @@
       <c r="F273" s="10"/>
       <c r="G273" s="10"/>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A274" s="10"/>
       <c r="B274" s="10"/>
       <c r="C274" s="10"/>
@@ -5329,7 +5329,7 @@
       <c r="F274" s="10"/>
       <c r="G274" s="10"/>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A275" s="10"/>
       <c r="B275" s="10"/>
       <c r="C275" s="10"/>
@@ -5338,7 +5338,7 @@
       <c r="F275" s="10"/>
       <c r="G275" s="10"/>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A276" s="10"/>
       <c r="B276" s="10"/>
       <c r="C276" s="10"/>
@@ -5347,7 +5347,7 @@
       <c r="F276" s="10"/>
       <c r="G276" s="10"/>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A277" s="10"/>
       <c r="B277" s="10"/>
       <c r="C277" s="10"/>
@@ -5356,7 +5356,7 @@
       <c r="F277" s="10"/>
       <c r="G277" s="10"/>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A278" s="10"/>
       <c r="B278" s="10"/>
       <c r="C278" s="10"/>
@@ -5365,7 +5365,7 @@
       <c r="F278" s="10"/>
       <c r="G278" s="10"/>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A279" s="28"/>
       <c r="B279" s="28"/>
       <c r="C279" s="28"/>
@@ -5374,7 +5374,7 @@
       <c r="F279" s="10"/>
       <c r="G279" s="10"/>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A280" s="10"/>
       <c r="B280" s="10"/>
       <c r="C280" s="10"/>
@@ -5383,7 +5383,7 @@
       <c r="F280" s="10"/>
       <c r="G280" s="10"/>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A281" s="10"/>
       <c r="B281" s="10"/>
       <c r="C281" s="10"/>
@@ -5392,7 +5392,7 @@
       <c r="F281" s="10"/>
       <c r="G281" s="10"/>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A282" s="10"/>
       <c r="B282" s="10"/>
       <c r="C282" s="10"/>
@@ -5401,7 +5401,7 @@
       <c r="F282" s="10"/>
       <c r="G282" s="10"/>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A283" s="10"/>
       <c r="B283" s="10"/>
       <c r="C283" s="10"/>
@@ -5410,7 +5410,7 @@
       <c r="F283" s="10"/>
       <c r="G283" s="10"/>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A284" s="10"/>
       <c r="B284" s="10"/>
       <c r="C284" s="10"/>
@@ -5419,7 +5419,7 @@
       <c r="F284" s="10"/>
       <c r="G284" s="10"/>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A285" s="10"/>
       <c r="B285" s="10"/>
       <c r="C285" s="10"/>
@@ -5428,7 +5428,7 @@
       <c r="F285" s="10"/>
       <c r="G285" s="10"/>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A286" s="10"/>
       <c r="B286" s="10"/>
       <c r="C286" s="10"/>
@@ -5437,7 +5437,7 @@
       <c r="F286" s="10"/>
       <c r="G286" s="10"/>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A287" s="10"/>
       <c r="B287" s="10"/>
       <c r="C287" s="10"/>
@@ -5446,7 +5446,7 @@
       <c r="F287" s="10"/>
       <c r="G287" s="10"/>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A288" s="10"/>
       <c r="B288" s="10"/>
       <c r="C288" s="10"/>
@@ -5455,7 +5455,7 @@
       <c r="F288" s="10"/>
       <c r="G288" s="10"/>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A289" s="10"/>
       <c r="B289" s="10"/>
       <c r="C289" s="10"/>
@@ -5464,7 +5464,7 @@
       <c r="F289" s="10"/>
       <c r="G289" s="10"/>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A290" s="10"/>
       <c r="B290" s="10"/>
       <c r="C290" s="10"/>
@@ -5473,7 +5473,7 @@
       <c r="F290" s="10"/>
       <c r="G290" s="10"/>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A291" s="10"/>
       <c r="B291" s="10"/>
       <c r="C291" s="10"/>
@@ -5482,7 +5482,7 @@
       <c r="F291" s="10"/>
       <c r="G291" s="10"/>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A292" s="10"/>
       <c r="B292" s="10"/>
       <c r="C292" s="10"/>
@@ -5491,7 +5491,7 @@
       <c r="F292" s="10"/>
       <c r="G292" s="10"/>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A293" s="10"/>
       <c r="B293" s="10"/>
       <c r="C293" s="10"/>
@@ -5500,7 +5500,7 @@
       <c r="F293" s="10"/>
       <c r="G293" s="10"/>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A294" s="10"/>
       <c r="B294" s="10"/>
       <c r="C294" s="10"/>
@@ -5509,7 +5509,7 @@
       <c r="F294" s="10"/>
       <c r="G294" s="10"/>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A295" s="10"/>
       <c r="B295" s="10"/>
       <c r="C295" s="10"/>
@@ -5518,7 +5518,7 @@
       <c r="F295" s="10"/>
       <c r="G295" s="10"/>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A296" s="10"/>
       <c r="B296" s="10"/>
       <c r="C296" s="10"/>
@@ -5527,7 +5527,7 @@
       <c r="F296" s="10"/>
       <c r="G296" s="10"/>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A297" s="10"/>
       <c r="B297" s="10"/>
       <c r="C297" s="10"/>
@@ -5536,7 +5536,7 @@
       <c r="F297" s="10"/>
       <c r="G297" s="10"/>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A298" s="10"/>
       <c r="B298" s="10"/>
       <c r="C298" s="10"/>
@@ -5545,7 +5545,7 @@
       <c r="F298" s="10"/>
       <c r="G298" s="10"/>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A299" s="10"/>
       <c r="B299" s="10"/>
       <c r="C299" s="10"/>
@@ -5554,7 +5554,7 @@
       <c r="F299" s="28"/>
       <c r="G299" s="28"/>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A300" s="10"/>
       <c r="B300" s="10"/>
       <c r="C300" s="10"/>
@@ -5563,7 +5563,7 @@
       <c r="F300" s="10"/>
       <c r="G300" s="10"/>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A301" s="10"/>
       <c r="B301" s="10"/>
       <c r="C301" s="10"/>
@@ -5572,7 +5572,7 @@
       <c r="F301" s="10"/>
       <c r="G301" s="10"/>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A302" s="10"/>
       <c r="B302" s="10"/>
       <c r="C302" s="10"/>
@@ -5581,7 +5581,7 @@
       <c r="F302" s="10"/>
       <c r="G302" s="10"/>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A303" s="10"/>
       <c r="B303" s="10"/>
       <c r="C303" s="10"/>
@@ -5590,7 +5590,7 @@
       <c r="F303" s="10"/>
       <c r="G303" s="10"/>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A304" s="10"/>
       <c r="B304" s="10"/>
       <c r="C304" s="10"/>
@@ -5599,7 +5599,7 @@
       <c r="F304" s="10"/>
       <c r="G304" s="10"/>
     </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A305" s="10"/>
       <c r="B305" s="10"/>
       <c r="C305" s="10"/>
@@ -5608,7 +5608,7 @@
       <c r="F305" s="10"/>
       <c r="G305" s="10"/>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A306" s="10"/>
       <c r="B306" s="10"/>
       <c r="C306" s="10"/>
@@ -5617,7 +5617,7 @@
       <c r="F306" s="10"/>
       <c r="G306" s="10"/>
     </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A307" s="10"/>
       <c r="B307" s="10"/>
       <c r="C307" s="10"/>
@@ -5626,7 +5626,7 @@
       <c r="F307" s="10"/>
       <c r="G307" s="10"/>
     </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A308" s="10"/>
       <c r="B308" s="10"/>
       <c r="C308" s="10"/>
@@ -5635,7 +5635,7 @@
       <c r="F308" s="10"/>
       <c r="G308" s="10"/>
     </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A309" s="10"/>
       <c r="B309" s="10"/>
       <c r="C309" s="10"/>
@@ -5644,7 +5644,7 @@
       <c r="F309" s="10"/>
       <c r="G309" s="10"/>
     </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A310" s="10"/>
       <c r="B310" s="10"/>
       <c r="C310" s="10"/>
@@ -5653,7 +5653,7 @@
       <c r="F310" s="10"/>
       <c r="G310" s="10"/>
     </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A311" s="10"/>
       <c r="B311" s="10"/>
       <c r="C311" s="10"/>
@@ -5662,7 +5662,7 @@
       <c r="F311" s="10"/>
       <c r="G311" s="10"/>
     </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A312" s="10"/>
       <c r="B312" s="10"/>
       <c r="C312" s="10"/>
@@ -5671,7 +5671,7 @@
       <c r="F312" s="10"/>
       <c r="G312" s="10"/>
     </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A313" s="10"/>
       <c r="B313" s="10"/>
       <c r="C313" s="10"/>
@@ -5680,7 +5680,7 @@
       <c r="F313" s="10"/>
       <c r="G313" s="10"/>
     </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A314" s="28"/>
       <c r="B314" s="28"/>
       <c r="C314" s="28"/>
@@ -5689,7 +5689,7 @@
       <c r="F314" s="10"/>
       <c r="G314" s="10"/>
     </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A315" s="10"/>
       <c r="B315" s="10"/>
       <c r="C315" s="10"/>
@@ -5698,7 +5698,7 @@
       <c r="F315" s="10"/>
       <c r="G315" s="10"/>
     </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A316" s="10"/>
       <c r="B316" s="10"/>
       <c r="C316" s="10"/>
@@ -5707,7 +5707,7 @@
       <c r="F316" s="10"/>
       <c r="G316" s="10"/>
     </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A317" s="10"/>
       <c r="B317" s="10"/>
       <c r="C317" s="10"/>
@@ -5716,7 +5716,7 @@
       <c r="F317" s="10"/>
       <c r="G317" s="10"/>
     </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A318" s="10"/>
       <c r="B318" s="10"/>
       <c r="C318" s="10"/>
@@ -5725,7 +5725,7 @@
       <c r="F318" s="10"/>
       <c r="G318" s="10"/>
     </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A319" s="10"/>
       <c r="B319" s="10"/>
       <c r="C319" s="10"/>
@@ -5734,7 +5734,7 @@
       <c r="F319" s="28"/>
       <c r="G319" s="28"/>
     </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A320" s="10"/>
       <c r="B320" s="10"/>
       <c r="C320" s="10"/>
@@ -5743,7 +5743,7 @@
       <c r="F320" s="10"/>
       <c r="G320" s="10"/>
     </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A321" s="10"/>
       <c r="B321" s="10"/>
       <c r="C321" s="10"/>
@@ -5752,7 +5752,7 @@
       <c r="F321" s="10"/>
       <c r="G321" s="10"/>
     </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A322" s="10"/>
       <c r="B322" s="10"/>
       <c r="C322" s="10"/>
@@ -5761,7 +5761,7 @@
       <c r="F322" s="10"/>
       <c r="G322" s="10"/>
     </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A323" s="10"/>
       <c r="B323" s="10"/>
       <c r="C323" s="10"/>
@@ -5770,7 +5770,7 @@
       <c r="F323" s="10"/>
       <c r="G323" s="10"/>
     </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A324" s="10"/>
       <c r="B324" s="10"/>
       <c r="C324" s="10"/>
@@ -5779,7 +5779,7 @@
       <c r="F324" s="10"/>
       <c r="G324" s="10"/>
     </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A325" s="10"/>
       <c r="B325" s="10"/>
       <c r="C325" s="10"/>
@@ -5788,7 +5788,7 @@
       <c r="F325" s="10"/>
       <c r="G325" s="10"/>
     </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A326" s="10"/>
       <c r="B326" s="10"/>
       <c r="C326" s="10"/>
@@ -5797,7 +5797,7 @@
       <c r="F326" s="10"/>
       <c r="G326" s="10"/>
     </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A327" s="10"/>
       <c r="B327" s="10"/>
       <c r="C327" s="10"/>
@@ -5806,7 +5806,7 @@
       <c r="F327" s="10"/>
       <c r="G327" s="10"/>
     </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A328" s="10"/>
       <c r="B328" s="10"/>
       <c r="C328" s="10"/>
@@ -5815,7 +5815,7 @@
       <c r="F328" s="10"/>
       <c r="G328" s="10"/>
     </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A329" s="10"/>
       <c r="B329" s="10"/>
       <c r="C329" s="10"/>
@@ -5824,7 +5824,7 @@
       <c r="F329" s="10"/>
       <c r="G329" s="10"/>
     </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A330" s="10"/>
       <c r="B330" s="10"/>
       <c r="C330" s="10"/>
@@ -5833,7 +5833,7 @@
       <c r="F330" s="10"/>
       <c r="G330" s="10"/>
     </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A331" s="10"/>
       <c r="B331" s="10"/>
       <c r="C331" s="10"/>
@@ -5842,7 +5842,7 @@
       <c r="F331" s="28"/>
       <c r="G331" s="28"/>
     </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A332" s="10"/>
       <c r="B332" s="10"/>
       <c r="C332" s="10"/>
@@ -5851,7 +5851,7 @@
       <c r="F332" s="10"/>
       <c r="G332" s="10"/>
     </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A333" s="10"/>
       <c r="B333" s="10"/>
       <c r="C333" s="10"/>
@@ -5860,7 +5860,7 @@
       <c r="F333" s="10"/>
       <c r="G333" s="10"/>
     </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A334" s="28"/>
       <c r="B334" s="28"/>
       <c r="C334" s="28"/>
@@ -5869,7 +5869,7 @@
       <c r="F334" s="10"/>
       <c r="G334" s="10"/>
     </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A335" s="10"/>
       <c r="B335" s="10"/>
       <c r="C335" s="10"/>
@@ -5878,7 +5878,7 @@
       <c r="F335" s="10"/>
       <c r="G335" s="10"/>
     </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A336" s="10"/>
       <c r="B336" s="10"/>
       <c r="C336" s="10"/>
@@ -5887,7 +5887,7 @@
       <c r="F336" s="10"/>
       <c r="G336" s="10"/>
     </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A337" s="10"/>
       <c r="B337" s="10"/>
       <c r="C337" s="10"/>
@@ -5896,7 +5896,7 @@
       <c r="F337" s="10"/>
       <c r="G337" s="10"/>
     </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A338" s="10"/>
       <c r="B338" s="10"/>
       <c r="C338" s="10"/>
@@ -5905,7 +5905,7 @@
       <c r="F338" s="10"/>
       <c r="G338" s="10"/>
     </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A339" s="10"/>
       <c r="B339" s="10"/>
       <c r="C339" s="10"/>
@@ -5914,7 +5914,7 @@
       <c r="F339" s="10"/>
       <c r="G339" s="10"/>
     </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A340" s="10"/>
       <c r="B340" s="10"/>
       <c r="C340" s="10"/>
@@ -5923,7 +5923,7 @@
       <c r="F340" s="10"/>
       <c r="G340" s="10"/>
     </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A341" s="10"/>
       <c r="B341" s="10"/>
       <c r="C341" s="10"/>
@@ -5932,7 +5932,7 @@
       <c r="F341" s="10"/>
       <c r="G341" s="10"/>
     </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A342" s="10"/>
       <c r="B342" s="10"/>
       <c r="C342" s="10"/>
@@ -5941,7 +5941,7 @@
       <c r="F342" s="10"/>
       <c r="G342" s="10"/>
     </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A343" s="10"/>
       <c r="B343" s="10"/>
       <c r="C343" s="10"/>
@@ -5950,7 +5950,7 @@
       <c r="F343" s="10"/>
       <c r="G343" s="10"/>
     </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A344" s="10"/>
       <c r="B344" s="10"/>
       <c r="C344" s="10"/>
@@ -5959,7 +5959,7 @@
       <c r="F344" s="10"/>
       <c r="G344" s="10"/>
     </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A345" s="10"/>
       <c r="B345" s="10"/>
       <c r="C345" s="10"/>
@@ -5968,7 +5968,7 @@
       <c r="F345" s="10"/>
       <c r="G345" s="10"/>
     </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A346" s="28"/>
       <c r="B346" s="28"/>
       <c r="C346" s="28"/>
@@ -5977,7 +5977,7 @@
       <c r="F346" s="10"/>
       <c r="G346" s="10"/>
     </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A347" s="10"/>
       <c r="B347" s="10"/>
       <c r="C347" s="10"/>
@@ -5986,7 +5986,7 @@
       <c r="F347" s="10"/>
       <c r="G347" s="10"/>
     </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A348" s="10"/>
       <c r="B348" s="10"/>
       <c r="C348" s="10"/>
@@ -5995,7 +5995,7 @@
       <c r="F348" s="10"/>
       <c r="G348" s="10"/>
     </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A349" s="10"/>
       <c r="B349" s="10"/>
       <c r="C349" s="10"/>
@@ -6004,7 +6004,7 @@
       <c r="F349" s="10"/>
       <c r="G349" s="10"/>
     </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A350" s="10"/>
       <c r="B350" s="10"/>
       <c r="C350" s="10"/>
@@ -6013,7 +6013,7 @@
       <c r="F350" s="10"/>
       <c r="G350" s="10"/>
     </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A351" s="10"/>
       <c r="B351" s="10"/>
       <c r="C351" s="10"/>
@@ -6022,7 +6022,7 @@
       <c r="F351" s="10"/>
       <c r="G351" s="10"/>
     </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A352" s="10"/>
       <c r="B352" s="10"/>
       <c r="C352" s="10"/>
@@ -6031,7 +6031,7 @@
       <c r="F352" s="28"/>
       <c r="G352" s="28"/>
     </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A353" s="10"/>
       <c r="B353" s="10"/>
       <c r="C353" s="10"/>
@@ -6040,7 +6040,7 @@
       <c r="F353" s="10"/>
       <c r="G353" s="10"/>
     </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A354" s="10"/>
       <c r="B354" s="10"/>
       <c r="C354" s="10"/>
@@ -6049,7 +6049,7 @@
       <c r="F354" s="10"/>
       <c r="G354" s="10"/>
     </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A355" s="10"/>
       <c r="B355" s="10"/>
       <c r="C355" s="10"/>
@@ -6058,7 +6058,7 @@
       <c r="F355" s="10"/>
       <c r="G355" s="10"/>
     </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A356" s="10"/>
       <c r="B356" s="10"/>
       <c r="C356" s="10"/>
@@ -6067,7 +6067,7 @@
       <c r="F356" s="10"/>
       <c r="G356" s="10"/>
     </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A357" s="10"/>
       <c r="B357" s="10"/>
       <c r="C357" s="10"/>
@@ -6076,7 +6076,7 @@
       <c r="F357" s="10"/>
       <c r="G357" s="10"/>
     </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A358" s="10"/>
       <c r="B358" s="10"/>
       <c r="C358" s="10"/>
@@ -6085,7 +6085,7 @@
       <c r="F358" s="10"/>
       <c r="G358" s="10"/>
     </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A359" s="10"/>
       <c r="B359" s="10"/>
       <c r="C359" s="10"/>
@@ -6094,7 +6094,7 @@
       <c r="F359" s="10"/>
       <c r="G359" s="10"/>
     </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A360" s="10"/>
       <c r="B360" s="10"/>
       <c r="C360" s="10"/>
@@ -6103,7 +6103,7 @@
       <c r="F360" s="10"/>
       <c r="G360" s="10"/>
     </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A361" s="10"/>
       <c r="B361" s="10"/>
       <c r="C361" s="10"/>
@@ -6112,7 +6112,7 @@
       <c r="F361" s="10"/>
       <c r="G361" s="10"/>
     </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A362" s="10"/>
       <c r="B362" s="10"/>
       <c r="C362" s="10"/>
@@ -6121,7 +6121,7 @@
       <c r="F362" s="10"/>
       <c r="G362" s="10"/>
     </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A363" s="10"/>
       <c r="B363" s="10"/>
       <c r="C363" s="10"/>
@@ -6130,7 +6130,7 @@
       <c r="F363" s="10"/>
       <c r="G363" s="10"/>
     </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A364" s="10"/>
       <c r="B364" s="10"/>
       <c r="C364" s="10"/>
@@ -6139,7 +6139,7 @@
       <c r="F364" s="10"/>
       <c r="G364" s="10"/>
     </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A365" s="10"/>
       <c r="B365" s="10"/>
       <c r="C365" s="10"/>
@@ -6148,7 +6148,7 @@
       <c r="F365" s="10"/>
       <c r="G365" s="10"/>
     </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A366" s="10"/>
       <c r="B366" s="10"/>
       <c r="C366" s="10"/>
@@ -6157,7 +6157,7 @@
       <c r="F366" s="10"/>
       <c r="G366" s="10"/>
     </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A367" s="28"/>
       <c r="B367" s="28"/>
       <c r="C367" s="28"/>
@@ -6166,7 +6166,7 @@
       <c r="F367" s="10"/>
       <c r="G367" s="10"/>
     </row>
-    <row r="368" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A368" s="10"/>
       <c r="B368" s="10"/>
       <c r="C368" s="10"/>
@@ -6175,7 +6175,7 @@
       <c r="F368" s="10"/>
       <c r="G368" s="10"/>
     </row>
-    <row r="369" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A369" s="10"/>
       <c r="B369" s="10"/>
       <c r="C369" s="10"/>
@@ -6184,7 +6184,7 @@
       <c r="F369" s="10"/>
       <c r="G369" s="10"/>
     </row>
-    <row r="370" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A370" s="10"/>
       <c r="B370" s="10"/>
       <c r="C370" s="10"/>
@@ -6193,7 +6193,7 @@
       <c r="F370" s="10"/>
       <c r="G370" s="10"/>
     </row>
-    <row r="371" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A371" s="10"/>
       <c r="B371" s="10"/>
       <c r="C371" s="10"/>
@@ -6202,7 +6202,7 @@
       <c r="F371" s="10"/>
       <c r="G371" s="10"/>
     </row>
-    <row r="372" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A372" s="10"/>
       <c r="B372" s="10"/>
       <c r="C372" s="10"/>
@@ -6211,7 +6211,7 @@
       <c r="F372" s="10"/>
       <c r="G372" s="10"/>
     </row>
-    <row r="373" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A373" s="10"/>
       <c r="B373" s="10"/>
       <c r="C373" s="10"/>
@@ -6220,7 +6220,7 @@
       <c r="F373" s="10"/>
       <c r="G373" s="10"/>
     </row>
-    <row r="374" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A374" s="10"/>
       <c r="B374" s="10"/>
       <c r="C374" s="10"/>
@@ -6229,7 +6229,7 @@
       <c r="F374" s="10"/>
       <c r="G374" s="10"/>
     </row>
-    <row r="375" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A375" s="10"/>
       <c r="B375" s="10"/>
       <c r="C375" s="10"/>
@@ -6238,7 +6238,7 @@
       <c r="F375" s="10"/>
       <c r="G375" s="10"/>
     </row>
-    <row r="376" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A376" s="10"/>
       <c r="B376" s="10"/>
       <c r="C376" s="10"/>
@@ -6247,7 +6247,7 @@
       <c r="F376" s="10"/>
       <c r="G376" s="10"/>
     </row>
-    <row r="377" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A377" s="10"/>
       <c r="B377" s="10"/>
       <c r="C377" s="10"/>
@@ -6256,7 +6256,7 @@
       <c r="F377" s="10"/>
       <c r="G377" s="10"/>
     </row>
-    <row r="378" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A378" s="10"/>
       <c r="B378" s="10"/>
       <c r="C378" s="10"/>
@@ -6265,7 +6265,7 @@
       <c r="F378" s="10"/>
       <c r="G378" s="10"/>
     </row>
-    <row r="379" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A379" s="10"/>
       <c r="B379" s="10"/>
       <c r="C379" s="10"/>
@@ -6274,7 +6274,7 @@
       <c r="F379" s="10"/>
       <c r="G379" s="10"/>
     </row>
-    <row r="380" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A380" s="10"/>
       <c r="B380" s="10"/>
       <c r="C380" s="10"/>
@@ -6283,7 +6283,7 @@
       <c r="F380" s="28"/>
       <c r="G380" s="28"/>
     </row>
-    <row r="381" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A381" s="10"/>
       <c r="B381" s="10"/>
       <c r="C381" s="10"/>
@@ -6292,7 +6292,7 @@
       <c r="F381" s="10"/>
       <c r="G381" s="10"/>
     </row>
-    <row r="382" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A382" s="10"/>
       <c r="B382" s="10"/>
       <c r="C382" s="10"/>
@@ -6301,7 +6301,7 @@
       <c r="F382" s="10"/>
       <c r="G382" s="10"/>
     </row>
-    <row r="383" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A383" s="10"/>
       <c r="B383" s="10"/>
       <c r="C383" s="10"/>
@@ -6310,7 +6310,7 @@
       <c r="F383" s="10"/>
       <c r="G383" s="10"/>
     </row>
-    <row r="384" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A384" s="10"/>
       <c r="B384" s="10"/>
       <c r="C384" s="10"/>
@@ -6319,7 +6319,7 @@
       <c r="F384" s="10"/>
       <c r="G384" s="10"/>
     </row>
-    <row r="385" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A385" s="10"/>
       <c r="B385" s="10"/>
       <c r="C385" s="10"/>
@@ -6328,7 +6328,7 @@
       <c r="F385" s="10"/>
       <c r="G385" s="10"/>
     </row>
-    <row r="386" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A386" s="10"/>
       <c r="B386" s="10"/>
       <c r="C386" s="10"/>
@@ -6337,7 +6337,7 @@
       <c r="F386" s="10"/>
       <c r="G386" s="10"/>
     </row>
-    <row r="387" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A387" s="10"/>
       <c r="B387" s="10"/>
       <c r="C387" s="10"/>
@@ -6346,7 +6346,7 @@
       <c r="F387" s="10"/>
       <c r="G387" s="10"/>
     </row>
-    <row r="388" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A388" s="10"/>
       <c r="B388" s="10"/>
       <c r="C388" s="10"/>
@@ -6355,7 +6355,7 @@
       <c r="F388" s="10"/>
       <c r="G388" s="10"/>
     </row>
-    <row r="389" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A389" s="10"/>
       <c r="B389" s="10"/>
       <c r="C389" s="10"/>
@@ -6364,7 +6364,7 @@
       <c r="F389" s="10"/>
       <c r="G389" s="10"/>
     </row>
-    <row r="390" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A390" s="10"/>
       <c r="B390" s="10"/>
       <c r="C390" s="10"/>
@@ -6373,7 +6373,7 @@
       <c r="F390" s="10"/>
       <c r="G390" s="10"/>
     </row>
-    <row r="391" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A391" s="10"/>
       <c r="B391" s="10"/>
       <c r="C391" s="10"/>
@@ -6382,7 +6382,7 @@
       <c r="F391" s="10"/>
       <c r="G391" s="10"/>
     </row>
-    <row r="392" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A392" s="10"/>
       <c r="B392" s="10"/>
       <c r="C392" s="10"/>
@@ -6391,7 +6391,7 @@
       <c r="F392" s="10"/>
       <c r="G392" s="10"/>
     </row>
-    <row r="393" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A393" s="10"/>
       <c r="B393" s="10"/>
       <c r="C393" s="10"/>
@@ -6400,7 +6400,7 @@
       <c r="F393" s="10"/>
       <c r="G393" s="10"/>
     </row>
-    <row r="394" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A394" s="10"/>
       <c r="B394" s="10"/>
       <c r="C394" s="10"/>
@@ -6409,7 +6409,7 @@
       <c r="F394" s="10"/>
       <c r="G394" s="10"/>
     </row>
-    <row r="395" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A395" s="28"/>
       <c r="B395" s="28"/>
       <c r="C395" s="28"/>
@@ -6418,7 +6418,7 @@
       <c r="F395" s="10"/>
       <c r="G395" s="10"/>
     </row>
-    <row r="396" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A396" s="10"/>
       <c r="B396" s="10"/>
       <c r="C396" s="10"/>
@@ -6427,7 +6427,7 @@
       <c r="F396" s="10"/>
       <c r="G396" s="10"/>
     </row>
-    <row r="397" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A397" s="10"/>
       <c r="B397" s="10"/>
       <c r="C397" s="10"/>
@@ -6436,7 +6436,7 @@
       <c r="F397" s="10"/>
       <c r="G397" s="10"/>
     </row>
-    <row r="398" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A398" s="10"/>
       <c r="B398" s="10"/>
       <c r="C398" s="10"/>
@@ -6445,7 +6445,7 @@
       <c r="F398" s="10"/>
       <c r="G398" s="10"/>
     </row>
-    <row r="399" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A399" s="10"/>
       <c r="B399" s="10"/>
       <c r="C399" s="10"/>
@@ -6454,7 +6454,7 @@
       <c r="F399" s="10"/>
       <c r="G399" s="10"/>
     </row>
-    <row r="400" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A400" s="10"/>
       <c r="B400" s="10"/>
       <c r="C400" s="10"/>
@@ -6463,7 +6463,7 @@
       <c r="F400" s="10"/>
       <c r="G400" s="10"/>
     </row>
-    <row r="401" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A401" s="10"/>
       <c r="B401" s="10"/>
       <c r="C401" s="10"/>
@@ -6472,7 +6472,7 @@
       <c r="F401" s="10"/>
       <c r="G401" s="10"/>
     </row>
-    <row r="402" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A402" s="10"/>
       <c r="B402" s="10"/>
       <c r="C402" s="10"/>
@@ -6481,7 +6481,7 @@
       <c r="F402" s="10"/>
       <c r="G402" s="10"/>
     </row>
-    <row r="403" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A403" s="10"/>
       <c r="B403" s="10"/>
       <c r="C403" s="10"/>
@@ -6490,7 +6490,7 @@
       <c r="F403" s="10"/>
       <c r="G403" s="10"/>
     </row>
-    <row r="404" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A404" s="10"/>
       <c r="B404" s="10"/>
       <c r="C404" s="10"/>
@@ -6499,7 +6499,7 @@
       <c r="F404" s="10"/>
       <c r="G404" s="10"/>
     </row>
-    <row r="405" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A405" s="10"/>
       <c r="B405" s="10"/>
       <c r="C405" s="10"/>
@@ -6508,7 +6508,7 @@
       <c r="F405" s="10"/>
       <c r="G405" s="10"/>
     </row>
-    <row r="406" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A406" s="10"/>
       <c r="B406" s="10"/>
       <c r="C406" s="10"/>
@@ -6517,7 +6517,7 @@
       <c r="F406" s="10"/>
       <c r="G406" s="10"/>
     </row>
-    <row r="407" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A407" s="10"/>
       <c r="B407" s="10"/>
       <c r="C407" s="10"/>
@@ -6526,7 +6526,7 @@
       <c r="F407" s="11"/>
       <c r="G407" s="10"/>
     </row>
-    <row r="408" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A408" s="10"/>
       <c r="B408" s="10"/>
       <c r="C408" s="10"/>
@@ -6535,7 +6535,7 @@
       <c r="F408" s="11"/>
       <c r="G408" s="10"/>
     </row>
-    <row r="409" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A409" s="10"/>
       <c r="B409" s="10"/>
       <c r="C409" s="10"/>
@@ -6544,7 +6544,7 @@
       <c r="F409" s="11"/>
       <c r="G409" s="10"/>
     </row>
-    <row r="410" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A410" s="10"/>
       <c r="B410" s="10"/>
       <c r="C410" s="10"/>
@@ -6553,7 +6553,7 @@
       <c r="F410" s="11"/>
       <c r="G410" s="10"/>
     </row>
-    <row r="411" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A411" s="10"/>
       <c r="B411" s="10"/>
       <c r="C411" s="10"/>
@@ -6562,7 +6562,7 @@
       <c r="F411" s="11"/>
       <c r="G411" s="10"/>
     </row>
-    <row r="412" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A412" s="10"/>
       <c r="B412" s="10"/>
       <c r="C412" s="10"/>
@@ -6571,7 +6571,7 @@
       <c r="F412" s="11"/>
       <c r="G412" s="10"/>
     </row>
-    <row r="413" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A413" s="10"/>
       <c r="B413" s="10"/>
       <c r="C413" s="10"/>
@@ -6580,7 +6580,7 @@
       <c r="F413" s="28"/>
       <c r="G413" s="28"/>
     </row>
-    <row r="414" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A414" s="10"/>
       <c r="B414" s="10"/>
       <c r="C414" s="10"/>
@@ -6589,7 +6589,7 @@
       <c r="F414" s="10"/>
       <c r="G414" s="10"/>
     </row>
-    <row r="415" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A415" s="10"/>
       <c r="B415" s="10"/>
       <c r="C415" s="10"/>
@@ -6598,7 +6598,7 @@
       <c r="F415" s="10"/>
       <c r="G415" s="10"/>
     </row>
-    <row r="416" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A416" s="10"/>
       <c r="B416" s="10"/>
       <c r="C416" s="10"/>
@@ -6607,7 +6607,7 @@
       <c r="F416" s="10"/>
       <c r="G416" s="10"/>
     </row>
-    <row r="417" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A417" s="10"/>
       <c r="B417" s="10"/>
       <c r="C417" s="10"/>
@@ -6616,7 +6616,7 @@
       <c r="F417" s="10"/>
       <c r="G417" s="10"/>
     </row>
-    <row r="418" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A418" s="10"/>
       <c r="B418" s="10"/>
       <c r="C418" s="10"/>
@@ -6625,7 +6625,7 @@
       <c r="F418" s="10"/>
       <c r="G418" s="10"/>
     </row>
-    <row r="419" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A419" s="10"/>
       <c r="B419" s="10"/>
       <c r="C419" s="10"/>
@@ -6634,7 +6634,7 @@
       <c r="F419" s="10"/>
       <c r="G419" s="10"/>
     </row>
-    <row r="420" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A420" s="10"/>
       <c r="B420" s="10"/>
       <c r="C420" s="10"/>
@@ -6643,7 +6643,7 @@
       <c r="F420" s="10"/>
       <c r="G420" s="10"/>
     </row>
-    <row r="421" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A421" s="10"/>
       <c r="B421" s="10"/>
       <c r="C421" s="10"/>
@@ -6652,7 +6652,7 @@
       <c r="F421" s="10"/>
       <c r="G421" s="10"/>
     </row>
-    <row r="422" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A422" s="10"/>
       <c r="B422" s="10"/>
       <c r="C422" s="10"/>
@@ -6661,7 +6661,7 @@
       <c r="F422" s="10"/>
       <c r="G422" s="10"/>
     </row>
-    <row r="423" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A423" s="10"/>
       <c r="B423" s="10"/>
       <c r="C423" s="10"/>
@@ -6670,7 +6670,7 @@
       <c r="F423" s="10"/>
       <c r="G423" s="10"/>
     </row>
-    <row r="424" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A424" s="10"/>
       <c r="B424" s="10"/>
       <c r="C424" s="10"/>
@@ -6679,7 +6679,7 @@
       <c r="F424" s="10"/>
       <c r="G424" s="10"/>
     </row>
-    <row r="425" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A425" s="10"/>
       <c r="B425" s="10"/>
       <c r="C425" s="10"/>
@@ -6688,7 +6688,7 @@
       <c r="F425" s="10"/>
       <c r="G425" s="10"/>
     </row>
-    <row r="426" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A426" s="10"/>
       <c r="B426" s="10"/>
       <c r="C426" s="10"/>
@@ -6697,7 +6697,7 @@
       <c r="F426" s="10"/>
       <c r="G426" s="10"/>
     </row>
-    <row r="427" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A427" s="10"/>
       <c r="B427" s="10"/>
       <c r="C427" s="10"/>
@@ -6706,7 +6706,7 @@
       <c r="F427" s="10"/>
       <c r="G427" s="10"/>
     </row>
-    <row r="428" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A428" s="28"/>
       <c r="B428" s="28"/>
       <c r="C428" s="28"/>
@@ -6715,7 +6715,7 @@
       <c r="F428" s="10"/>
       <c r="G428" s="10"/>
     </row>
-    <row r="429" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A429" s="10"/>
       <c r="B429" s="10"/>
       <c r="C429" s="10"/>
@@ -6724,7 +6724,7 @@
       <c r="F429" s="10"/>
       <c r="G429" s="10"/>
     </row>
-    <row r="430" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A430" s="10"/>
       <c r="B430" s="10"/>
       <c r="C430" s="10"/>
@@ -6733,7 +6733,7 @@
       <c r="F430" s="10"/>
       <c r="G430" s="10"/>
     </row>
-    <row r="431" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A431" s="10"/>
       <c r="B431" s="10"/>
       <c r="C431" s="10"/>
@@ -6742,7 +6742,7 @@
       <c r="F431" s="10"/>
       <c r="G431" s="10"/>
     </row>
-    <row r="432" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A432" s="10"/>
       <c r="B432" s="10"/>
       <c r="C432" s="10"/>
@@ -6751,7 +6751,7 @@
       <c r="F432" s="10"/>
       <c r="G432" s="10"/>
     </row>
-    <row r="433" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A433" s="10"/>
       <c r="B433" s="10"/>
       <c r="C433" s="10"/>
@@ -6760,7 +6760,7 @@
       <c r="F433" s="10"/>
       <c r="G433" s="10"/>
     </row>
-    <row r="434" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A434" s="10"/>
       <c r="B434" s="10"/>
       <c r="C434" s="10"/>
@@ -6769,7 +6769,7 @@
       <c r="F434" s="10"/>
       <c r="G434" s="10"/>
     </row>
-    <row r="435" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A435" s="10"/>
       <c r="B435" s="10"/>
       <c r="C435" s="10"/>
@@ -6778,7 +6778,7 @@
       <c r="F435" s="10"/>
       <c r="G435" s="10"/>
     </row>
-    <row r="436" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A436" s="10"/>
       <c r="B436" s="10"/>
       <c r="C436" s="10"/>
@@ -6787,7 +6787,7 @@
       <c r="F436" s="10"/>
       <c r="G436" s="10"/>
     </row>
-    <row r="437" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A437" s="10"/>
       <c r="B437" s="10"/>
       <c r="C437" s="10"/>
@@ -6796,7 +6796,7 @@
       <c r="F437" s="10"/>
       <c r="G437" s="10"/>
     </row>
-    <row r="438" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A438" s="10"/>
       <c r="B438" s="10"/>
       <c r="C438" s="10"/>
@@ -6805,7 +6805,7 @@
       <c r="F438" s="10"/>
       <c r="G438" s="10"/>
     </row>
-    <row r="439" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A439" s="10"/>
       <c r="B439" s="10"/>
       <c r="C439" s="10"/>
@@ -6814,7 +6814,7 @@
       <c r="F439" s="10"/>
       <c r="G439" s="10"/>
     </row>
-    <row r="440" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A440" s="10"/>
       <c r="B440" s="10"/>
       <c r="C440" s="10"/>
@@ -6823,7 +6823,7 @@
       <c r="F440" s="10"/>
       <c r="G440" s="10"/>
     </row>
-    <row r="441" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A441" s="10"/>
       <c r="B441" s="10"/>
       <c r="C441" s="10"/>
@@ -6832,7 +6832,7 @@
       <c r="F441" s="10"/>
       <c r="G441" s="10"/>
     </row>
-    <row r="442" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A442" s="10"/>
       <c r="B442" s="10"/>
       <c r="C442" s="10"/>
@@ -6841,7 +6841,7 @@
       <c r="F442" s="10"/>
       <c r="G442" s="10"/>
     </row>
-    <row r="443" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="443" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A443" s="10"/>
       <c r="B443" s="10"/>
       <c r="C443" s="10"/>
@@ -6850,7 +6850,7 @@
       <c r="F443" s="10"/>
       <c r="G443" s="10"/>
     </row>
-    <row r="444" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A444" s="10"/>
       <c r="B444" s="10"/>
       <c r="C444" s="10"/>
@@ -6859,7 +6859,7 @@
       <c r="F444" s="10"/>
       <c r="G444" s="10"/>
     </row>
-    <row r="445" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A445" s="10"/>
       <c r="B445" s="10"/>
       <c r="C445" s="10"/>
@@ -6868,7 +6868,7 @@
       <c r="F445" s="10"/>
       <c r="G445" s="10"/>
     </row>
-    <row r="446" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A446" s="10"/>
       <c r="B446" s="10"/>
       <c r="C446" s="10"/>
@@ -6877,7 +6877,7 @@
       <c r="F446" s="10"/>
       <c r="G446" s="10"/>
     </row>
-    <row r="447" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A447" s="10"/>
       <c r="B447" s="10"/>
       <c r="C447" s="10"/>
@@ -6886,7 +6886,7 @@
       <c r="F447" s="10"/>
       <c r="G447" s="10"/>
     </row>
-    <row r="448" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A448" s="10"/>
       <c r="B448" s="10"/>
       <c r="C448" s="10"/>
@@ -6895,7 +6895,7 @@
       <c r="F448" s="10"/>
       <c r="G448" s="10"/>
     </row>
-    <row r="449" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A449" s="10"/>
       <c r="B449" s="10"/>
       <c r="C449" s="10"/>
@@ -6904,7 +6904,7 @@
       <c r="F449" s="10"/>
       <c r="G449" s="10"/>
     </row>
-    <row r="450" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A450" s="10"/>
       <c r="B450" s="10"/>
       <c r="C450" s="10"/>
@@ -6913,7 +6913,7 @@
       <c r="F450" s="10"/>
       <c r="G450" s="10"/>
     </row>
-    <row r="451" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A451" s="10"/>
       <c r="B451" s="10"/>
       <c r="C451" s="10"/>
@@ -6922,7 +6922,7 @@
       <c r="F451" s="28"/>
       <c r="G451" s="28"/>
     </row>
-    <row r="452" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A452" s="10"/>
       <c r="B452" s="10"/>
       <c r="C452" s="10"/>
@@ -6931,7 +6931,7 @@
       <c r="F452" s="10"/>
       <c r="G452" s="10"/>
     </row>
-    <row r="453" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A453" s="10"/>
       <c r="B453" s="10"/>
       <c r="C453" s="10"/>
@@ -6940,7 +6940,7 @@
       <c r="F453" s="10"/>
       <c r="G453" s="10"/>
     </row>
-    <row r="454" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A454" s="10"/>
       <c r="B454" s="10"/>
       <c r="C454" s="10"/>
@@ -6949,7 +6949,7 @@
       <c r="F454" s="10"/>
       <c r="G454" s="10"/>
     </row>
-    <row r="455" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="455" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A455" s="10"/>
       <c r="B455" s="10"/>
       <c r="C455" s="10"/>
@@ -6958,7 +6958,7 @@
       <c r="F455" s="10"/>
       <c r="G455" s="10"/>
     </row>
-    <row r="456" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="456" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A456" s="10"/>
       <c r="B456" s="10"/>
       <c r="C456" s="10"/>
@@ -6967,7 +6967,7 @@
       <c r="F456" s="10"/>
       <c r="G456" s="10"/>
     </row>
-    <row r="457" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="457" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A457" s="10"/>
       <c r="B457" s="10"/>
       <c r="C457" s="10"/>
@@ -6976,7 +6976,7 @@
       <c r="F457" s="10"/>
       <c r="G457" s="10"/>
     </row>
-    <row r="458" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="458" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A458" s="10"/>
       <c r="B458" s="10"/>
       <c r="C458" s="10"/>
@@ -6985,7 +6985,7 @@
       <c r="F458" s="10"/>
       <c r="G458" s="10"/>
     </row>
-    <row r="459" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A459" s="10"/>
       <c r="B459" s="10"/>
       <c r="C459" s="10"/>
@@ -6994,7 +6994,7 @@
       <c r="F459" s="10"/>
       <c r="G459" s="10"/>
     </row>
-    <row r="460" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A460" s="10"/>
       <c r="B460" s="10"/>
       <c r="C460" s="10"/>
@@ -7003,7 +7003,7 @@
       <c r="F460" s="10"/>
       <c r="G460" s="10"/>
     </row>
-    <row r="461" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="461" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A461" s="10"/>
       <c r="B461" s="10"/>
       <c r="C461" s="10"/>
@@ -7012,7 +7012,7 @@
       <c r="F461" s="10"/>
       <c r="G461" s="10"/>
     </row>
-    <row r="462" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="462" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A462" s="10"/>
       <c r="B462" s="10"/>
       <c r="C462" s="10"/>
@@ -7021,7 +7021,7 @@
       <c r="F462" s="10"/>
       <c r="G462" s="10"/>
     </row>
-    <row r="463" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="463" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A463" s="10"/>
       <c r="B463" s="10"/>
       <c r="C463" s="10"/>
@@ -7030,7 +7030,7 @@
       <c r="F463" s="10"/>
       <c r="G463" s="10"/>
     </row>
-    <row r="464" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="464" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A464" s="10"/>
       <c r="B464" s="10"/>
       <c r="C464" s="10"/>
@@ -7039,7 +7039,7 @@
       <c r="F464" s="10"/>
       <c r="G464" s="10"/>
     </row>
-    <row r="465" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="465" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A465" s="10"/>
       <c r="B465" s="10"/>
       <c r="C465" s="10"/>
@@ -7048,7 +7048,7 @@
       <c r="F465" s="10"/>
       <c r="G465" s="10"/>
     </row>
-    <row r="466" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="466" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A466" s="28"/>
       <c r="B466" s="28"/>
       <c r="C466" s="28"/>
@@ -7057,7 +7057,7 @@
       <c r="F466" s="10"/>
       <c r="G466" s="10"/>
     </row>
-    <row r="467" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="467" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A467" s="10"/>
       <c r="B467" s="10"/>
       <c r="C467" s="10"/>
@@ -7066,7 +7066,7 @@
       <c r="F467" s="10"/>
       <c r="G467" s="10"/>
     </row>
-    <row r="468" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="468" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A468" s="10"/>
       <c r="B468" s="10"/>
       <c r="C468" s="10"/>
@@ -7075,7 +7075,7 @@
       <c r="F468" s="10"/>
       <c r="G468" s="10"/>
     </row>
-    <row r="469" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="469" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A469" s="10"/>
       <c r="B469" s="10"/>
       <c r="C469" s="10"/>
@@ -7084,7 +7084,7 @@
       <c r="F469" s="10"/>
       <c r="G469" s="10"/>
     </row>
-    <row r="470" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="470" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A470" s="10"/>
       <c r="B470" s="10"/>
       <c r="C470" s="10"/>
@@ -7093,7 +7093,7 @@
       <c r="F470" s="10"/>
       <c r="G470" s="10"/>
     </row>
-    <row r="471" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="471" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A471" s="10"/>
       <c r="B471" s="10"/>
       <c r="C471" s="10"/>
@@ -7102,7 +7102,7 @@
       <c r="F471" s="10"/>
       <c r="G471" s="10"/>
     </row>
-    <row r="472" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="472" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A472" s="10"/>
       <c r="B472" s="10"/>
       <c r="C472" s="10"/>
@@ -7111,7 +7111,7 @@
       <c r="F472" s="10"/>
       <c r="G472" s="10"/>
     </row>
-    <row r="473" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="473" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A473" s="10"/>
       <c r="B473" s="10"/>
       <c r="C473" s="10"/>
@@ -7120,7 +7120,7 @@
       <c r="F473" s="10"/>
       <c r="G473" s="10"/>
     </row>
-    <row r="474" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="474" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A474" s="10"/>
       <c r="B474" s="10"/>
       <c r="C474" s="10"/>
@@ -7129,7 +7129,7 @@
       <c r="F474" s="10"/>
       <c r="G474" s="10"/>
     </row>
-    <row r="475" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="475" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A475" s="10"/>
       <c r="B475" s="10"/>
       <c r="C475" s="10"/>
@@ -7138,7 +7138,7 @@
       <c r="F475" s="10"/>
       <c r="G475" s="10"/>
     </row>
-    <row r="476" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="476" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A476" s="10"/>
       <c r="B476" s="10"/>
       <c r="C476" s="10"/>
@@ -7147,7 +7147,7 @@
       <c r="F476" s="10"/>
       <c r="G476" s="10"/>
     </row>
-    <row r="477" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="477" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A477" s="10"/>
       <c r="B477" s="10"/>
       <c r="C477" s="10"/>
@@ -7156,7 +7156,7 @@
       <c r="F477" s="10"/>
       <c r="G477" s="10"/>
     </row>
-    <row r="478" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="478" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A478" s="10"/>
       <c r="B478" s="10"/>
       <c r="C478" s="10"/>
@@ -7165,7 +7165,7 @@
       <c r="F478" s="10"/>
       <c r="G478" s="10"/>
     </row>
-    <row r="479" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="479" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A479" s="10"/>
       <c r="B479" s="10"/>
       <c r="C479" s="10"/>
@@ -7174,7 +7174,7 @@
       <c r="F479" s="10"/>
       <c r="G479" s="10"/>
     </row>
-    <row r="480" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="480" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A480" s="10"/>
       <c r="B480" s="10"/>
       <c r="C480" s="10"/>
@@ -7183,7 +7183,7 @@
       <c r="F480" s="10"/>
       <c r="G480" s="10"/>
     </row>
-    <row r="481" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="481" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A481" s="10"/>
       <c r="B481" s="10"/>
       <c r="C481" s="10"/>
@@ -7192,7 +7192,7 @@
       <c r="F481" s="10"/>
       <c r="G481" s="10"/>
     </row>
-    <row r="482" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="482" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A482" s="10"/>
       <c r="B482" s="10"/>
       <c r="C482" s="10"/>
@@ -7201,7 +7201,7 @@
       <c r="F482" s="10"/>
       <c r="G482" s="10"/>
     </row>
-    <row r="483" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="483" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A483" s="10"/>
       <c r="B483" s="10"/>
       <c r="C483" s="10"/>
@@ -7210,7 +7210,7 @@
       <c r="F483" s="10"/>
       <c r="G483" s="10"/>
     </row>
-    <row r="484" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="484" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A484" s="10"/>
       <c r="B484" s="10"/>
       <c r="C484" s="10"/>
@@ -7219,7 +7219,7 @@
       <c r="F484" s="10"/>
       <c r="G484" s="10"/>
     </row>
-    <row r="485" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="485" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A485" s="10"/>
       <c r="B485" s="10"/>
       <c r="C485" s="10"/>
@@ -7228,7 +7228,7 @@
       <c r="F485" s="10"/>
       <c r="G485" s="10"/>
     </row>
-    <row r="486" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="486" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A486" s="10"/>
       <c r="B486" s="10"/>
       <c r="C486" s="10"/>
@@ -7237,7 +7237,7 @@
       <c r="F486" s="10"/>
       <c r="G486" s="10"/>
     </row>
-    <row r="487" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="487" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A487" s="10"/>
       <c r="B487" s="10"/>
       <c r="C487" s="10"/>
@@ -7246,7 +7246,7 @@
       <c r="F487" s="28"/>
       <c r="G487" s="28"/>
     </row>
-    <row r="488" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="488" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A488" s="10"/>
       <c r="B488" s="10"/>
       <c r="C488" s="10"/>
@@ -7255,7 +7255,7 @@
       <c r="F488" s="10"/>
       <c r="G488" s="10"/>
     </row>
-    <row r="489" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="489" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A489" s="10"/>
       <c r="B489" s="10"/>
       <c r="C489" s="10"/>
@@ -7264,7 +7264,7 @@
       <c r="F489" s="10"/>
       <c r="G489" s="10"/>
     </row>
-    <row r="490" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="490" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A490" s="10"/>
       <c r="B490" s="10"/>
       <c r="C490" s="10"/>
@@ -7273,7 +7273,7 @@
       <c r="F490" s="10"/>
       <c r="G490" s="10"/>
     </row>
-    <row r="491" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="491" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A491" s="10"/>
       <c r="B491" s="10"/>
       <c r="C491" s="10"/>
@@ -7282,7 +7282,7 @@
       <c r="F491" s="10"/>
       <c r="G491" s="10"/>
     </row>
-    <row r="492" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="492" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A492" s="10"/>
       <c r="B492" s="10"/>
       <c r="C492" s="10"/>
@@ -7291,7 +7291,7 @@
       <c r="F492" s="10"/>
       <c r="G492" s="10"/>
     </row>
-    <row r="493" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="493" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A493" s="10"/>
       <c r="B493" s="10"/>
       <c r="C493" s="10"/>
@@ -7300,7 +7300,7 @@
       <c r="F493" s="10"/>
       <c r="G493" s="10"/>
     </row>
-    <row r="494" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="494" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A494" s="10"/>
       <c r="B494" s="10"/>
       <c r="C494" s="10"/>
@@ -7309,7 +7309,7 @@
       <c r="F494" s="10"/>
       <c r="G494" s="10"/>
     </row>
-    <row r="495" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="495" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A495" s="10"/>
       <c r="B495" s="10"/>
       <c r="C495" s="10"/>
@@ -7318,7 +7318,7 @@
       <c r="F495" s="10"/>
       <c r="G495" s="10"/>
     </row>
-    <row r="496" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="496" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A496" s="10"/>
       <c r="B496" s="10"/>
       <c r="C496" s="10"/>
@@ -7327,7 +7327,7 @@
       <c r="F496" s="10"/>
       <c r="G496" s="10"/>
     </row>
-    <row r="497" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="497" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A497" s="10"/>
       <c r="B497" s="10"/>
       <c r="C497" s="10"/>
@@ -7336,7 +7336,7 @@
       <c r="F497" s="10"/>
       <c r="G497" s="10"/>
     </row>
-    <row r="498" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="498" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A498" s="10"/>
       <c r="B498" s="10"/>
       <c r="C498" s="10"/>
@@ -7345,7 +7345,7 @@
       <c r="F498" s="10"/>
       <c r="G498" s="10"/>
     </row>
-    <row r="499" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="499" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A499" s="10"/>
       <c r="B499" s="10"/>
       <c r="C499" s="10"/>
@@ -7354,7 +7354,7 @@
       <c r="F499" s="10"/>
       <c r="G499" s="10"/>
     </row>
-    <row r="500" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="500" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A500" s="10"/>
       <c r="B500" s="10"/>
       <c r="C500" s="10"/>
@@ -7363,7 +7363,7 @@
       <c r="F500" s="10"/>
       <c r="G500" s="10"/>
     </row>
-    <row r="501" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="501" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A501" s="10"/>
       <c r="B501" s="10"/>
       <c r="C501" s="10"/>
@@ -7372,7 +7372,7 @@
       <c r="F501" s="10"/>
       <c r="G501" s="10"/>
     </row>
-    <row r="502" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="502" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A502" s="28"/>
       <c r="B502" s="28"/>
       <c r="C502" s="28"/>
@@ -7381,7 +7381,7 @@
       <c r="F502" s="10"/>
       <c r="G502" s="10"/>
     </row>
-    <row r="503" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="503" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A503" s="10"/>
       <c r="B503" s="10"/>
       <c r="C503" s="10"/>
@@ -7390,7 +7390,7 @@
       <c r="F503" s="10"/>
       <c r="G503" s="10"/>
     </row>
-    <row r="504" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="504" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A504" s="10"/>
       <c r="B504" s="10"/>
       <c r="C504" s="10"/>
@@ -7399,7 +7399,7 @@
       <c r="F504" s="10"/>
       <c r="G504" s="10"/>
     </row>
-    <row r="505" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="505" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A505" s="10"/>
       <c r="B505" s="10"/>
       <c r="C505" s="10"/>
@@ -7408,7 +7408,7 @@
       <c r="F505" s="10"/>
       <c r="G505" s="10"/>
     </row>
-    <row r="506" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="506" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A506" s="10"/>
       <c r="B506" s="10"/>
       <c r="C506" s="10"/>
@@ -7417,7 +7417,7 @@
       <c r="F506" s="10"/>
       <c r="G506" s="10"/>
     </row>
-    <row r="507" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="507" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A507" s="10"/>
       <c r="B507" s="10"/>
       <c r="C507" s="10"/>
@@ -7426,7 +7426,7 @@
       <c r="F507" s="10"/>
       <c r="G507" s="10"/>
     </row>
-    <row r="508" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="508" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A508" s="10"/>
       <c r="B508" s="10"/>
       <c r="C508" s="10"/>
@@ -7435,7 +7435,7 @@
       <c r="F508" s="10"/>
       <c r="G508" s="10"/>
     </row>
-    <row r="509" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="509" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A509" s="10"/>
       <c r="B509" s="10"/>
       <c r="C509" s="10"/>
@@ -7444,7 +7444,7 @@
       <c r="F509" s="10"/>
       <c r="G509" s="10"/>
     </row>
-    <row r="510" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="510" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A510" s="10"/>
       <c r="B510" s="10"/>
       <c r="C510" s="10"/>
@@ -7453,7 +7453,7 @@
       <c r="F510" s="10"/>
       <c r="G510" s="10"/>
     </row>
-    <row r="511" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="511" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A511" s="10"/>
       <c r="B511" s="10"/>
       <c r="C511" s="10"/>
@@ -7462,7 +7462,7 @@
       <c r="F511" s="10"/>
       <c r="G511" s="10"/>
     </row>
-    <row r="512" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="512" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A512" s="10"/>
       <c r="B512" s="10"/>
       <c r="C512" s="10"/>
@@ -7471,7 +7471,7 @@
       <c r="F512" s="10"/>
       <c r="G512" s="10"/>
     </row>
-    <row r="513" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="513" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A513" s="10"/>
       <c r="B513" s="10"/>
       <c r="C513" s="10"/>
@@ -7480,7 +7480,7 @@
       <c r="F513" s="10"/>
       <c r="G513" s="10"/>
     </row>
-    <row r="514" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="514" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A514" s="10"/>
       <c r="B514" s="10"/>
       <c r="C514" s="10"/>
@@ -7489,7 +7489,7 @@
       <c r="F514" s="10"/>
       <c r="G514" s="10"/>
     </row>
-    <row r="515" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="515" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A515" s="10"/>
       <c r="B515" s="10"/>
       <c r="C515" s="10"/>
@@ -7498,7 +7498,7 @@
       <c r="F515" s="10"/>
       <c r="G515" s="10"/>
     </row>
-    <row r="516" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="516" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A516" s="10"/>
       <c r="B516" s="10"/>
       <c r="C516" s="10"/>
@@ -7507,7 +7507,7 @@
       <c r="F516" s="28"/>
       <c r="G516" s="28"/>
     </row>
-    <row r="517" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="517" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A517" s="10"/>
       <c r="B517" s="10"/>
       <c r="C517" s="10"/>
@@ -7516,7 +7516,7 @@
       <c r="F517" s="10"/>
       <c r="G517" s="10"/>
     </row>
-    <row r="518" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="518" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A518" s="10"/>
       <c r="B518" s="10"/>
       <c r="C518" s="10"/>
@@ -7525,7 +7525,7 @@
       <c r="F518" s="10"/>
       <c r="G518" s="10"/>
     </row>
-    <row r="519" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="519" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A519" s="10"/>
       <c r="B519" s="10"/>
       <c r="C519" s="10"/>
@@ -7534,7 +7534,7 @@
       <c r="F519" s="10"/>
       <c r="G519" s="10"/>
     </row>
-    <row r="520" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="520" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A520" s="10"/>
       <c r="B520" s="10"/>
       <c r="C520" s="10"/>
@@ -7543,7 +7543,7 @@
       <c r="F520" s="10"/>
       <c r="G520" s="10"/>
     </row>
-    <row r="521" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="521" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A521" s="10"/>
       <c r="B521" s="10"/>
       <c r="C521" s="10"/>
@@ -7552,7 +7552,7 @@
       <c r="F521" s="10"/>
       <c r="G521" s="10"/>
     </row>
-    <row r="522" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="522" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A522" s="10"/>
       <c r="B522" s="10"/>
       <c r="C522" s="10"/>
@@ -7561,7 +7561,7 @@
       <c r="F522" s="10"/>
       <c r="G522" s="10"/>
     </row>
-    <row r="523" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="523" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A523" s="10"/>
       <c r="B523" s="10"/>
       <c r="C523" s="10"/>
@@ -7570,7 +7570,7 @@
       <c r="F523" s="10"/>
       <c r="G523" s="10"/>
     </row>
-    <row r="524" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="524" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A524" s="10"/>
       <c r="B524" s="10"/>
       <c r="C524" s="10"/>
@@ -7579,7 +7579,7 @@
       <c r="F524" s="10"/>
       <c r="G524" s="10"/>
     </row>
-    <row r="525" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="525" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A525" s="10"/>
       <c r="B525" s="10"/>
       <c r="C525" s="10"/>
@@ -7588,7 +7588,7 @@
       <c r="F525" s="10"/>
       <c r="G525" s="10"/>
     </row>
-    <row r="526" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="526" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A526" s="10"/>
       <c r="B526" s="10"/>
       <c r="C526" s="10"/>
@@ -7597,7 +7597,7 @@
       <c r="F526" s="10"/>
       <c r="G526" s="10"/>
     </row>
-    <row r="527" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="527" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A527" s="10"/>
       <c r="B527" s="10"/>
       <c r="C527" s="10"/>
@@ -7606,7 +7606,7 @@
       <c r="F527" s="10"/>
       <c r="G527" s="10"/>
     </row>
-    <row r="528" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="528" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A528" s="10"/>
       <c r="B528" s="10"/>
       <c r="C528" s="10"/>
@@ -7615,7 +7615,7 @@
       <c r="F528" s="10"/>
       <c r="G528" s="10"/>
     </row>
-    <row r="529" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="529" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A529" s="10"/>
       <c r="B529" s="10"/>
       <c r="C529" s="10"/>
@@ -7624,7 +7624,7 @@
       <c r="F529" s="10"/>
       <c r="G529" s="10"/>
     </row>
-    <row r="530" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="530" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A530" s="10"/>
       <c r="B530" s="10"/>
       <c r="C530" s="10"/>
@@ -7633,7 +7633,7 @@
       <c r="F530" s="10"/>
       <c r="G530" s="10"/>
     </row>
-    <row r="531" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="531" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A531" s="28"/>
       <c r="B531" s="28"/>
       <c r="C531" s="28"/>
@@ -7642,7 +7642,7 @@
       <c r="F531" s="10"/>
       <c r="G531" s="10"/>
     </row>
-    <row r="532" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="532" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A532" s="10"/>
       <c r="B532" s="10"/>
       <c r="C532" s="10"/>
@@ -7651,7 +7651,7 @@
       <c r="F532" s="10"/>
       <c r="G532" s="10"/>
     </row>
-    <row r="533" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="533" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A533" s="10"/>
       <c r="B533" s="10"/>
       <c r="C533" s="10"/>
@@ -7660,7 +7660,7 @@
       <c r="F533" s="10"/>
       <c r="G533" s="10"/>
     </row>
-    <row r="534" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="534" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A534" s="10"/>
       <c r="B534" s="10"/>
       <c r="C534" s="10"/>
@@ -7669,7 +7669,7 @@
       <c r="F534" s="10"/>
       <c r="G534" s="10"/>
     </row>
-    <row r="535" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="535" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A535" s="10"/>
       <c r="B535" s="10"/>
       <c r="C535" s="10"/>
@@ -7678,7 +7678,7 @@
       <c r="F535" s="10"/>
       <c r="G535" s="10"/>
     </row>
-    <row r="536" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="536" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A536" s="10"/>
       <c r="B536" s="10"/>
       <c r="C536" s="10"/>
@@ -7687,7 +7687,7 @@
       <c r="F536" s="28"/>
       <c r="G536" s="28"/>
     </row>
-    <row r="537" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="537" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A537" s="10"/>
       <c r="B537" s="10"/>
       <c r="C537" s="10"/>
@@ -7696,7 +7696,7 @@
       <c r="F537" s="10"/>
       <c r="G537" s="10"/>
     </row>
-    <row r="538" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="538" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A538" s="10"/>
       <c r="B538" s="10"/>
       <c r="C538" s="10"/>
@@ -7705,7 +7705,7 @@
       <c r="F538" s="10"/>
       <c r="G538" s="10"/>
     </row>
-    <row r="539" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="539" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A539" s="10"/>
       <c r="B539" s="10"/>
       <c r="C539" s="10"/>
@@ -7714,7 +7714,7 @@
       <c r="F539" s="10"/>
       <c r="G539" s="10"/>
     </row>
-    <row r="540" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="540" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A540" s="10"/>
       <c r="B540" s="10"/>
       <c r="C540" s="10"/>
@@ -7723,7 +7723,7 @@
       <c r="F540" s="10"/>
       <c r="G540" s="10"/>
     </row>
-    <row r="541" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="541" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A541" s="10"/>
       <c r="B541" s="10"/>
       <c r="C541" s="10"/>
@@ -7732,7 +7732,7 @@
       <c r="F541" s="10"/>
       <c r="G541" s="10"/>
     </row>
-    <row r="542" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="542" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A542" s="10"/>
       <c r="B542" s="10"/>
       <c r="C542" s="10"/>
@@ -7741,7 +7741,7 @@
       <c r="F542" s="10"/>
       <c r="G542" s="10"/>
     </row>
-    <row r="543" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="543" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A543" s="10"/>
       <c r="B543" s="10"/>
       <c r="C543" s="10"/>
@@ -7750,7 +7750,7 @@
       <c r="F543" s="10"/>
       <c r="G543" s="10"/>
     </row>
-    <row r="544" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="544" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A544" s="10"/>
       <c r="B544" s="10"/>
       <c r="C544" s="10"/>
@@ -7759,7 +7759,7 @@
       <c r="F544" s="10"/>
       <c r="G544" s="10"/>
     </row>
-    <row r="545" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="545" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A545" s="10"/>
       <c r="B545" s="10"/>
       <c r="C545" s="10"/>
@@ -7768,7 +7768,7 @@
       <c r="F545" s="10"/>
       <c r="G545" s="10"/>
     </row>
-    <row r="546" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="546" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A546" s="10"/>
       <c r="B546" s="10"/>
       <c r="C546" s="10"/>
@@ -7777,7 +7777,7 @@
       <c r="F546" s="10"/>
       <c r="G546" s="10"/>
     </row>
-    <row r="547" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="547" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A547" s="10"/>
       <c r="B547" s="10"/>
       <c r="C547" s="10"/>
@@ -7786,7 +7786,7 @@
       <c r="F547" s="10"/>
       <c r="G547" s="10"/>
     </row>
-    <row r="548" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="548" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A548" s="10"/>
       <c r="B548" s="10"/>
       <c r="C548" s="10"/>
@@ -7795,7 +7795,7 @@
       <c r="F548" s="10"/>
       <c r="G548" s="10"/>
     </row>
-    <row r="549" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="549" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A549" s="10"/>
       <c r="B549" s="10"/>
       <c r="C549" s="10"/>
@@ -7804,7 +7804,7 @@
       <c r="F549" s="10"/>
       <c r="G549" s="10"/>
     </row>
-    <row r="550" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="550" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A550" s="10"/>
       <c r="B550" s="10"/>
       <c r="C550" s="10"/>
@@ -7813,7 +7813,7 @@
       <c r="F550" s="10"/>
       <c r="G550" s="10"/>
     </row>
-    <row r="551" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="551" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A551" s="28"/>
       <c r="B551" s="28"/>
       <c r="C551" s="28"/>
@@ -7822,7 +7822,7 @@
       <c r="F551" s="10"/>
       <c r="G551" s="10"/>
     </row>
-    <row r="552" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="552" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A552" s="10"/>
       <c r="B552" s="10"/>
       <c r="C552" s="10"/>
@@ -7831,7 +7831,7 @@
       <c r="F552" s="10"/>
       <c r="G552" s="10"/>
     </row>
-    <row r="553" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="553" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A553" s="10"/>
       <c r="B553" s="10"/>
       <c r="C553" s="10"/>
@@ -7840,7 +7840,7 @@
       <c r="F553" s="10"/>
       <c r="G553" s="10"/>
     </row>
-    <row r="554" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="554" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A554" s="10"/>
       <c r="B554" s="10"/>
       <c r="C554" s="10"/>
@@ -7849,7 +7849,7 @@
       <c r="F554" s="10"/>
       <c r="G554" s="10"/>
     </row>
-    <row r="555" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="555" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A555" s="10"/>
       <c r="B555" s="10"/>
       <c r="C555" s="10"/>
@@ -7858,7 +7858,7 @@
       <c r="F555" s="10"/>
       <c r="G555" s="10"/>
     </row>
-    <row r="556" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="556" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A556" s="10"/>
       <c r="B556" s="10"/>
       <c r="C556" s="10"/>
@@ -7867,7 +7867,7 @@
       <c r="F556" s="10"/>
       <c r="G556" s="10"/>
     </row>
-    <row r="557" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="557" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A557" s="10"/>
       <c r="B557" s="10"/>
       <c r="C557" s="10"/>
@@ -7876,7 +7876,7 @@
       <c r="F557" s="10"/>
       <c r="G557" s="10"/>
     </row>
-    <row r="558" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="558" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A558" s="10"/>
       <c r="B558" s="10"/>
       <c r="C558" s="10"/>
@@ -7885,7 +7885,7 @@
       <c r="F558" s="10"/>
       <c r="G558" s="10"/>
     </row>
-    <row r="559" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="559" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A559" s="10"/>
       <c r="B559" s="10"/>
       <c r="C559" s="10"/>
@@ -7894,7 +7894,7 @@
       <c r="F559" s="28"/>
       <c r="G559" s="28"/>
     </row>
-    <row r="560" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="560" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A560" s="10"/>
       <c r="B560" s="10"/>
       <c r="C560" s="10"/>
@@ -7903,7 +7903,7 @@
       <c r="F560" s="28"/>
       <c r="G560" s="28"/>
     </row>
-    <row r="561" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="561" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A561" s="10"/>
       <c r="B561" s="10"/>
       <c r="C561" s="10"/>
@@ -7912,7 +7912,7 @@
       <c r="F561" s="10"/>
       <c r="G561" s="10"/>
     </row>
-    <row r="562" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="562" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A562" s="10"/>
       <c r="B562" s="10"/>
       <c r="C562" s="10"/>
@@ -7921,7 +7921,7 @@
       <c r="F562" s="10"/>
       <c r="G562" s="10"/>
     </row>
-    <row r="563" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="563" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A563" s="10"/>
       <c r="B563" s="10"/>
       <c r="C563" s="10"/>
@@ -7930,7 +7930,7 @@
       <c r="F563" s="10"/>
       <c r="G563" s="10"/>
     </row>
-    <row r="564" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="564" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A564" s="10"/>
       <c r="B564" s="10"/>
       <c r="C564" s="10"/>
@@ -7939,7 +7939,7 @@
       <c r="F564" s="10"/>
       <c r="G564" s="10"/>
     </row>
-    <row r="565" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="565" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A565" s="10"/>
       <c r="B565" s="10"/>
       <c r="C565" s="10"/>
@@ -7948,7 +7948,7 @@
       <c r="F565" s="10"/>
       <c r="G565" s="10"/>
     </row>
-    <row r="566" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="566" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A566" s="10"/>
       <c r="B566" s="10"/>
       <c r="C566" s="10"/>
@@ -7957,7 +7957,7 @@
       <c r="F566" s="10"/>
       <c r="G566" s="10"/>
     </row>
-    <row r="567" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="567" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A567" s="10"/>
       <c r="B567" s="10"/>
       <c r="C567" s="10"/>
@@ -7966,7 +7966,7 @@
       <c r="F567" s="10"/>
       <c r="G567" s="10"/>
     </row>
-    <row r="568" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="568" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A568" s="10"/>
       <c r="B568" s="10"/>
       <c r="C568" s="10"/>
@@ -7975,7 +7975,7 @@
       <c r="F568" s="10"/>
       <c r="G568" s="10"/>
     </row>
-    <row r="569" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="569" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A569" s="10"/>
       <c r="B569" s="10"/>
       <c r="C569" s="10"/>
@@ -7984,7 +7984,7 @@
       <c r="F569" s="28"/>
       <c r="G569" s="28"/>
     </row>
-    <row r="570" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="570" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A570" s="10"/>
       <c r="B570" s="10"/>
       <c r="C570" s="10"/>
@@ -7993,7 +7993,7 @@
       <c r="F570" s="10"/>
       <c r="G570" s="10"/>
     </row>
-    <row r="571" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="571" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A571" s="10"/>
       <c r="B571" s="10"/>
       <c r="C571" s="10"/>
@@ -8002,7 +8002,7 @@
       <c r="F571" s="10"/>
       <c r="G571" s="10"/>
     </row>
-    <row r="572" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="572" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A572" s="10"/>
       <c r="B572" s="10"/>
       <c r="C572" s="10"/>
@@ -8011,7 +8011,7 @@
       <c r="F572" s="10"/>
       <c r="G572" s="10"/>
     </row>
-    <row r="573" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="573" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A573" s="10"/>
       <c r="B573" s="10"/>
       <c r="C573" s="10"/>
@@ -8020,7 +8020,7 @@
       <c r="F573" s="10"/>
       <c r="G573" s="10"/>
     </row>
-    <row r="574" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="574" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A574" s="28"/>
       <c r="B574" s="28"/>
       <c r="C574" s="28"/>
@@ -8029,7 +8029,7 @@
       <c r="F574" s="10"/>
       <c r="G574" s="10"/>
     </row>
-    <row r="575" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="575" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A575" s="28"/>
       <c r="B575" s="28"/>
       <c r="C575" s="28"/>
@@ -8038,7 +8038,7 @@
       <c r="F575" s="10"/>
       <c r="G575" s="10"/>
     </row>
-    <row r="576" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="576" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A576" s="10"/>
       <c r="B576" s="10"/>
       <c r="C576" s="10"/>
@@ -8047,7 +8047,7 @@
       <c r="F576" s="10"/>
       <c r="G576" s="10"/>
     </row>
-    <row r="577" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="577" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A577" s="10"/>
       <c r="B577" s="10"/>
       <c r="C577" s="10"/>
@@ -8056,7 +8056,7 @@
       <c r="F577" s="10"/>
       <c r="G577" s="10"/>
     </row>
-    <row r="578" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="578" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A578" s="10"/>
       <c r="B578" s="10"/>
       <c r="C578" s="10"/>
@@ -8065,7 +8065,7 @@
       <c r="F578" s="28"/>
       <c r="G578" s="28"/>
     </row>
-    <row r="579" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="579" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A579" s="10"/>
       <c r="B579" s="10"/>
       <c r="C579" s="10"/>
@@ -8074,7 +8074,7 @@
       <c r="F579" s="10"/>
       <c r="G579" s="10"/>
     </row>
-    <row r="580" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="580" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A580" s="10"/>
       <c r="B580" s="10"/>
       <c r="C580" s="10"/>
@@ -8083,7 +8083,7 @@
       <c r="F580" s="10"/>
       <c r="G580" s="10"/>
     </row>
-    <row r="581" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="581" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A581" s="10"/>
       <c r="B581" s="10"/>
       <c r="C581" s="10"/>
@@ -8092,7 +8092,7 @@
       <c r="F581" s="10"/>
       <c r="G581" s="10"/>
     </row>
-    <row r="582" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="582" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A582" s="10"/>
       <c r="B582" s="10"/>
       <c r="C582" s="10"/>
@@ -8101,7 +8101,7 @@
       <c r="F582" s="10"/>
       <c r="G582" s="10"/>
     </row>
-    <row r="583" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="583" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A583" s="10"/>
       <c r="B583" s="10"/>
       <c r="C583" s="10"/>
@@ -8110,7 +8110,7 @@
       <c r="F583" s="10"/>
       <c r="G583" s="10"/>
     </row>
-    <row r="584" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="584" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A584" s="28"/>
       <c r="B584" s="28"/>
       <c r="C584" s="28"/>
@@ -8119,7 +8119,7 @@
       <c r="F584" s="10"/>
       <c r="G584" s="10"/>
     </row>
-    <row r="585" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="585" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A585" s="10"/>
       <c r="B585" s="10"/>
       <c r="C585" s="10"/>
@@ -8128,7 +8128,7 @@
       <c r="F585" s="10"/>
       <c r="G585" s="10"/>
     </row>
-    <row r="586" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="586" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A586" s="10"/>
       <c r="B586" s="10"/>
       <c r="C586" s="10"/>
@@ -8137,7 +8137,7 @@
       <c r="F586" s="10"/>
       <c r="G586" s="10"/>
     </row>
-    <row r="587" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="587" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A587" s="10"/>
       <c r="B587" s="10"/>
       <c r="C587" s="10"/>
@@ -8146,7 +8146,7 @@
       <c r="F587" s="10"/>
       <c r="G587" s="10"/>
     </row>
-    <row r="588" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="588" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A588" s="10"/>
       <c r="B588" s="10"/>
       <c r="C588" s="10"/>
@@ -8155,7 +8155,7 @@
       <c r="F588" s="10"/>
       <c r="G588" s="10"/>
     </row>
-    <row r="589" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="589" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A589" s="10"/>
       <c r="B589" s="10"/>
       <c r="C589" s="10"/>
@@ -8164,7 +8164,7 @@
       <c r="F589" s="10"/>
       <c r="G589" s="10"/>
     </row>
-    <row r="590" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="590" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A590" s="10"/>
       <c r="B590" s="10"/>
       <c r="C590" s="10"/>
@@ -8173,7 +8173,7 @@
       <c r="F590" s="10"/>
       <c r="G590" s="10"/>
     </row>
-    <row r="591" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="591" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A591" s="10"/>
       <c r="B591" s="10"/>
       <c r="C591" s="10"/>
@@ -8182,7 +8182,7 @@
       <c r="F591" s="10"/>
       <c r="G591" s="10"/>
     </row>
-    <row r="592" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="592" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A592" s="10"/>
       <c r="B592" s="10"/>
       <c r="C592" s="10"/>
@@ -8191,7 +8191,7 @@
       <c r="F592" s="10"/>
       <c r="G592" s="10"/>
     </row>
-    <row r="593" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="593" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A593" s="28"/>
       <c r="B593" s="28"/>
       <c r="C593" s="28"/>
@@ -8200,7 +8200,7 @@
       <c r="F593" s="10"/>
       <c r="G593" s="10"/>
     </row>
-    <row r="594" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="594" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A594" s="10"/>
       <c r="B594" s="10"/>
       <c r="C594" s="10"/>
@@ -8209,7 +8209,7 @@
       <c r="F594" s="10"/>
       <c r="G594" s="10"/>
     </row>
-    <row r="595" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="595" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A595" s="10"/>
       <c r="B595" s="10"/>
       <c r="C595" s="10"/>
@@ -8218,7 +8218,7 @@
       <c r="F595" s="10"/>
       <c r="G595" s="10"/>
     </row>
-    <row r="596" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="596" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A596" s="10"/>
       <c r="B596" s="10"/>
       <c r="C596" s="10"/>
@@ -8227,7 +8227,7 @@
       <c r="F596" s="10"/>
       <c r="G596" s="10"/>
     </row>
-    <row r="597" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="597" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A597" s="10"/>
       <c r="B597" s="10"/>
       <c r="C597" s="10"/>
@@ -8236,7 +8236,7 @@
       <c r="F597" s="10"/>
       <c r="G597" s="10"/>
     </row>
-    <row r="598" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="598" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A598" s="10"/>
       <c r="B598" s="10"/>
       <c r="C598" s="10"/>
@@ -8245,7 +8245,7 @@
       <c r="F598" s="28"/>
       <c r="G598" s="28"/>
     </row>
-    <row r="599" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="599" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A599" s="10"/>
       <c r="B599" s="10"/>
       <c r="C599" s="10"/>
@@ -8254,7 +8254,7 @@
       <c r="F599" s="10"/>
       <c r="G599" s="10"/>
     </row>
-    <row r="600" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="600" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A600" s="10"/>
       <c r="B600" s="10"/>
       <c r="C600" s="10"/>
@@ -8263,7 +8263,7 @@
       <c r="F600" s="10"/>
       <c r="G600" s="10"/>
     </row>
-    <row r="601" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="601" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A601" s="10"/>
       <c r="B601" s="10"/>
       <c r="C601" s="10"/>
@@ -8272,7 +8272,7 @@
       <c r="F601" s="10"/>
       <c r="G601" s="10"/>
     </row>
-    <row r="602" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="602" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A602" s="10"/>
       <c r="B602" s="10"/>
       <c r="C602" s="10"/>
@@ -8281,7 +8281,7 @@
       <c r="F602" s="10"/>
       <c r="G602" s="10"/>
     </row>
-    <row r="603" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="603" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A603" s="10"/>
       <c r="B603" s="10"/>
       <c r="C603" s="10"/>
@@ -8290,7 +8290,7 @@
       <c r="F603" s="10"/>
       <c r="G603" s="10"/>
     </row>
-    <row r="604" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="604" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A604" s="10"/>
       <c r="B604" s="10"/>
       <c r="C604" s="10"/>
@@ -8299,7 +8299,7 @@
       <c r="F604" s="10"/>
       <c r="G604" s="10"/>
     </row>
-    <row r="605" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="605" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A605" s="10"/>
       <c r="B605" s="10"/>
       <c r="C605" s="10"/>
@@ -8308,7 +8308,7 @@
       <c r="F605" s="10"/>
       <c r="G605" s="10"/>
     </row>
-    <row r="606" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="606" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A606" s="10"/>
       <c r="B606" s="10"/>
       <c r="C606" s="10"/>
@@ -8317,7 +8317,7 @@
       <c r="F606" s="10"/>
       <c r="G606" s="10"/>
     </row>
-    <row r="607" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="607" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A607" s="10"/>
       <c r="B607" s="10"/>
       <c r="C607" s="10"/>
@@ -8326,7 +8326,7 @@
       <c r="F607" s="10"/>
       <c r="G607" s="10"/>
     </row>
-    <row r="608" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="608" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A608" s="10"/>
       <c r="B608" s="10"/>
       <c r="C608" s="10"/>
@@ -8335,7 +8335,7 @@
       <c r="F608" s="10"/>
       <c r="G608" s="10"/>
     </row>
-    <row r="609" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="609" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A609" s="10"/>
       <c r="B609" s="10"/>
       <c r="C609" s="10"/>
@@ -8344,7 +8344,7 @@
       <c r="F609" s="10"/>
       <c r="G609" s="10"/>
     </row>
-    <row r="610" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="610" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A610" s="10"/>
       <c r="B610" s="10"/>
       <c r="C610" s="10"/>
@@ -8353,7 +8353,7 @@
       <c r="F610" s="10"/>
       <c r="G610" s="10"/>
     </row>
-    <row r="611" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="611" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A611" s="10"/>
       <c r="B611" s="10"/>
       <c r="C611" s="10"/>
@@ -8362,7 +8362,7 @@
       <c r="F611" s="10"/>
       <c r="G611" s="10"/>
     </row>
-    <row r="612" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="612" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A612" s="10"/>
       <c r="B612" s="10"/>
       <c r="C612" s="10"/>
@@ -8371,7 +8371,7 @@
       <c r="F612" s="10"/>
       <c r="G612" s="10"/>
     </row>
-    <row r="613" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="613" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A613" s="28"/>
       <c r="B613" s="28"/>
       <c r="C613" s="28"/>
@@ -8380,7 +8380,7 @@
       <c r="F613" s="10"/>
       <c r="G613" s="10"/>
     </row>
-    <row r="614" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="614" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A614" s="10"/>
       <c r="B614" s="10"/>
       <c r="C614" s="10"/>
@@ -8389,7 +8389,7 @@
       <c r="F614" s="10"/>
       <c r="G614" s="10"/>
     </row>
-    <row r="615" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="615" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A615" s="10"/>
       <c r="B615" s="10"/>
       <c r="C615" s="10"/>
@@ -8398,7 +8398,7 @@
       <c r="F615" s="10"/>
       <c r="G615" s="10"/>
     </row>
-    <row r="616" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="616" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A616" s="10"/>
       <c r="B616" s="10"/>
       <c r="C616" s="10"/>
@@ -8407,7 +8407,7 @@
       <c r="F616" s="10"/>
       <c r="G616" s="10"/>
     </row>
-    <row r="617" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="617" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A617" s="10"/>
       <c r="B617" s="10"/>
       <c r="C617" s="10"/>
@@ -8416,7 +8416,7 @@
       <c r="F617" s="10"/>
       <c r="G617" s="10"/>
     </row>
-    <row r="618" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="618" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A618" s="10"/>
       <c r="B618" s="10"/>
       <c r="C618" s="10"/>
@@ -8425,7 +8425,7 @@
       <c r="F618" s="10"/>
       <c r="G618" s="10"/>
     </row>
-    <row r="619" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="619" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A619" s="10"/>
       <c r="B619" s="10"/>
       <c r="C619" s="10"/>
@@ -8434,7 +8434,7 @@
       <c r="F619" s="10"/>
       <c r="G619" s="10"/>
     </row>
-    <row r="620" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="620" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A620" s="10"/>
       <c r="B620" s="10"/>
       <c r="C620" s="10"/>
@@ -8443,7 +8443,7 @@
       <c r="F620" s="10"/>
       <c r="G620" s="10"/>
     </row>
-    <row r="621" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="621" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A621" s="10"/>
       <c r="B621" s="10"/>
       <c r="C621" s="10"/>
@@ -8452,7 +8452,7 @@
       <c r="F621" s="10"/>
       <c r="G621" s="10"/>
     </row>
-    <row r="622" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="622" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A622" s="10"/>
       <c r="B622" s="10"/>
       <c r="C622" s="10"/>
@@ -8461,7 +8461,7 @@
       <c r="F622" s="10"/>
       <c r="G622" s="10"/>
     </row>
-    <row r="623" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="623" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A623" s="10"/>
       <c r="B623" s="10"/>
       <c r="C623" s="10"/>
@@ -8470,7 +8470,7 @@
       <c r="F623" s="10"/>
       <c r="G623" s="10"/>
     </row>
-    <row r="624" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="624" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A624" s="10"/>
       <c r="B624" s="10"/>
       <c r="C624" s="10"/>
@@ -8479,105 +8479,105 @@
       <c r="F624" s="10"/>
       <c r="G624" s="10"/>
     </row>
-    <row r="625" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="625" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A625" s="10"/>
       <c r="B625" s="10"/>
       <c r="C625" s="10"/>
       <c r="D625" s="10"/>
       <c r="E625" s="10"/>
     </row>
-    <row r="626" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="626" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A626" s="10"/>
       <c r="B626" s="10"/>
       <c r="C626" s="10"/>
       <c r="D626" s="10"/>
       <c r="E626" s="10"/>
     </row>
-    <row r="627" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="627" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A627" s="10"/>
       <c r="B627" s="10"/>
       <c r="C627" s="10"/>
       <c r="D627" s="10"/>
       <c r="E627" s="10"/>
     </row>
-    <row r="628" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="628" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A628" s="10"/>
       <c r="B628" s="10"/>
       <c r="C628" s="10"/>
       <c r="D628" s="10"/>
       <c r="E628" s="10"/>
     </row>
-    <row r="629" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="629" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A629" s="10"/>
       <c r="B629" s="10"/>
       <c r="C629" s="10"/>
       <c r="D629" s="10"/>
       <c r="E629" s="10"/>
     </row>
-    <row r="630" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="630" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A630" s="10"/>
       <c r="B630" s="10"/>
       <c r="C630" s="10"/>
       <c r="D630" s="10"/>
       <c r="E630" s="10"/>
     </row>
-    <row r="631" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="631" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A631" s="10"/>
       <c r="B631" s="10"/>
       <c r="C631" s="10"/>
       <c r="D631" s="10"/>
       <c r="E631" s="10"/>
     </row>
-    <row r="632" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="632" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A632" s="10"/>
       <c r="B632" s="10"/>
       <c r="C632" s="10"/>
       <c r="D632" s="10"/>
       <c r="E632" s="10"/>
     </row>
-    <row r="633" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="633" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A633" s="10"/>
       <c r="B633" s="10"/>
       <c r="C633" s="10"/>
       <c r="D633" s="10"/>
       <c r="E633" s="10"/>
     </row>
-    <row r="634" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="634" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A634" s="10"/>
       <c r="B634" s="10"/>
       <c r="C634" s="10"/>
       <c r="D634" s="10"/>
       <c r="E634" s="10"/>
     </row>
-    <row r="635" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="635" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A635" s="10"/>
       <c r="B635" s="10"/>
       <c r="C635" s="10"/>
       <c r="D635" s="10"/>
       <c r="E635" s="10"/>
     </row>
-    <row r="636" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="636" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A636" s="10"/>
       <c r="B636" s="10"/>
       <c r="C636" s="10"/>
       <c r="D636" s="10"/>
       <c r="E636" s="10"/>
     </row>
-    <row r="637" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="637" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A637" s="10"/>
       <c r="B637" s="10"/>
       <c r="C637" s="10"/>
       <c r="D637" s="10"/>
       <c r="E637" s="10"/>
     </row>
-    <row r="638" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="638" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A638" s="10"/>
       <c r="B638" s="10"/>
       <c r="C638" s="10"/>
       <c r="D638" s="10"/>
       <c r="E638" s="10"/>
     </row>
-    <row r="639" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="639" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A639" s="10"/>
       <c r="B639" s="10"/>
       <c r="C639" s="10"/>
@@ -8599,12 +8599,12 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.08984375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="14.140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>61</v>
       </c>
@@ -8612,7 +8612,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>83</v>
       </c>
@@ -8633,14 +8633,14 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.6328125" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="16.08984375" customWidth="1" collapsed="1"/>
-    <col min="4" max="7" width="14.08984375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="12.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="16.140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="7" width="14.140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="34" t="s">
         <v>172</v>
       </c>
@@ -8666,7 +8666,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>176</v>
       </c>
@@ -8709,13 +8709,13 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="15" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="36.08984375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="36.140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>144</v>
       </c>
@@ -8729,7 +8729,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="80" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>82</v>
       </c>
@@ -8757,13 +8757,13 @@
       <selection activeCell="B1" sqref="B1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.08984375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14.08984375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="16.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>61</v>
       </c>
@@ -8774,7 +8774,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>82</v>
       </c>
@@ -8799,12 +8799,12 @@
       <selection sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.08984375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="14.140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>61</v>
       </c>
@@ -8812,7 +8812,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>83</v>
       </c>
@@ -8833,12 +8833,12 @@
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.453125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="13.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>61</v>
       </c>
@@ -8846,7 +8846,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>82</v>
       </c>

--- a/src/test/java/com/born/xls/ProductDetailsPage.xlsx
+++ b/src/test/java/com/born/xls/ProductDetailsPage.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="215">
   <si>
     <t>TCID</t>
   </si>
@@ -768,9 +768,6 @@
   </si>
   <si>
     <t>col|CountryName</t>
-  </si>
-  <si>
-    <t>ClickEnter</t>
   </si>
   <si>
     <t>mouseHover1</t>
@@ -1375,7 +1372,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="105" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1443,7 +1440,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>112</v>
@@ -1519,8 +1516,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:J639"/>
   <sheetViews>
-    <sheetView topLeftCell="A112" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+    <sheetView topLeftCell="A103" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C113" sqref="C113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1765,7 +1762,7 @@
         <v>25</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D13" s="24" t="s">
         <v>11</v>
@@ -2559,7 +2556,7 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="20" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B57" s="24" t="s">
         <v>27</v>
@@ -2578,7 +2575,7 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="20" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B58" s="24" t="s">
         <v>26</v>
@@ -2597,13 +2594,13 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="20" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B59" s="24" t="s">
         <v>25</v>
       </c>
       <c r="C59" s="24" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D59" s="24" t="s">
         <v>11</v>
@@ -2618,7 +2615,7 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="20" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B60" s="24" t="s">
         <v>24</v>
@@ -2637,7 +2634,7 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="20" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B61" s="24" t="s">
         <v>23</v>
@@ -2654,7 +2651,7 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="20" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B62" s="24" t="s">
         <v>22</v>
@@ -2673,7 +2670,7 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="20" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B63" s="24" t="s">
         <v>21</v>
@@ -2692,7 +2689,7 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="20" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B64" s="24" t="s">
         <v>20</v>
@@ -2711,7 +2708,7 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="20" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B65" s="24" t="s">
         <v>19</v>
@@ -2730,7 +2727,7 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="20" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B66" s="24" t="s">
         <v>12</v>
@@ -2749,7 +2746,7 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="20" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B67" s="24" t="s">
         <v>13</v>
@@ -2768,7 +2765,7 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="20" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B68" s="24" t="s">
         <v>14</v>
@@ -3308,7 +3305,7 @@
         <v>116</v>
       </c>
       <c r="D97" s="24" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E97" s="24" t="s">
         <v>46</v>
@@ -3590,7 +3587,7 @@
         <v>151</v>
       </c>
       <c r="D113" s="24" t="s">
-        <v>212</v>
+        <v>147</v>
       </c>
       <c r="E113" s="24" t="s">
         <v>59</v>

--- a/src/test/java/com/born/xls/ProductDetailsPage.xlsx
+++ b/src/test/java/com/born/xls/ProductDetailsPage.xlsx
@@ -4,17 +4,16 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="6585" windowHeight="2655" tabRatio="937"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="6590" windowHeight="2660" tabRatio="937"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="2" r:id="rId1"/>
     <sheet name="Test Steps" sheetId="3" r:id="rId2"/>
     <sheet name="Favorite products" sheetId="62" r:id="rId3"/>
-    <sheet name="ProductRegistration" sheetId="60" r:id="rId4"/>
-    <sheet name="PDP-Write a Review" sheetId="57" r:id="rId5"/>
-    <sheet name="Comparing the Products" sheetId="58" r:id="rId6"/>
-    <sheet name="Verification of View My Items" sheetId="61" r:id="rId7"/>
-    <sheet name="WhereToBuy" sheetId="59" r:id="rId8"/>
+    <sheet name="PDP-Write a Review" sheetId="57" r:id="rId4"/>
+    <sheet name="Comparing the Products" sheetId="58" r:id="rId5"/>
+    <sheet name="Verification of View My Items" sheetId="61" r:id="rId6"/>
+    <sheet name="WhereToBuy" sheetId="59" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Test Cases'!$A$1:$C$8</definedName>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="157">
   <si>
     <t>TCID</t>
   </si>
@@ -540,9 +539,6 @@
     <t>pause</t>
   </si>
   <si>
-    <t>TS020</t>
-  </si>
-  <si>
     <t>Product Name</t>
   </si>
   <si>
@@ -555,9 +551,6 @@
     <t>enter</t>
   </si>
   <si>
-    <t>AutoComplete_Suggetion</t>
-  </si>
-  <si>
     <t>ArrowKeyDown</t>
   </si>
   <si>
@@ -568,9 +561,6 @@
   </si>
   <si>
     <t>2</t>
-  </si>
-  <si>
-    <t>TS021</t>
   </si>
   <si>
     <t>3</t>
@@ -605,171 +595,6 @@
     <t>WhereToBuy</t>
   </si>
   <si>
-    <t>ProductRegistration</t>
-  </si>
-  <si>
-    <t>To verify whether user can able to register the product or not</t>
-  </si>
-  <si>
-    <t>Enter the FirstName</t>
-  </si>
-  <si>
-    <t>Enter the LastName</t>
-  </si>
-  <si>
-    <t>Enter the Street address</t>
-  </si>
-  <si>
-    <t>Enter the City name</t>
-  </si>
-  <si>
-    <t>Enter the postal code</t>
-  </si>
-  <si>
-    <t>Enter the email address</t>
-  </si>
-  <si>
-    <t>Confirm the email address which you entered</t>
-  </si>
-  <si>
-    <t>Enter the product model num</t>
-  </si>
-  <si>
-    <t>Enter the purchase date of product</t>
-  </si>
-  <si>
-    <t>Click on Submitt button</t>
-  </si>
-  <si>
-    <t>Verify whether user has registered successfully or not</t>
-  </si>
-  <si>
-    <t>Click on the Title field</t>
-  </si>
-  <si>
-    <t>Click on the Register my Product link</t>
-  </si>
-  <si>
-    <t>TitleName</t>
-  </si>
-  <si>
-    <t>StateName</t>
-  </si>
-  <si>
-    <t>CountryName</t>
-  </si>
-  <si>
-    <t>ModelNum</t>
-  </si>
-  <si>
-    <t>Ms.</t>
-  </si>
-  <si>
-    <t>American Samoa (AS)</t>
-  </si>
-  <si>
-    <t>United States</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9159T-DST </t>
-  </si>
-  <si>
-    <t>RegisterProduct_Link</t>
-  </si>
-  <si>
-    <t>Title_Field</t>
-  </si>
-  <si>
-    <t>col|PostalCode</t>
-  </si>
-  <si>
-    <t>FirstName_Field</t>
-  </si>
-  <si>
-    <t>LastName_Field</t>
-  </si>
-  <si>
-    <t>StreetAddress_Field</t>
-  </si>
-  <si>
-    <t>CityName_Field</t>
-  </si>
-  <si>
-    <t>State_Dropdown</t>
-  </si>
-  <si>
-    <t>PostalCode_Field</t>
-  </si>
-  <si>
-    <t>Country_Dropdown</t>
-  </si>
-  <si>
-    <t>Email_Field</t>
-  </si>
-  <si>
-    <t>ConfirmEmail_Field</t>
-  </si>
-  <si>
-    <t>ModelNum_Field</t>
-  </si>
-  <si>
-    <t>col|ModelNum</t>
-  </si>
-  <si>
-    <t>Date_Field</t>
-  </si>
-  <si>
-    <t>col|DOP</t>
-  </si>
-  <si>
-    <t>Submitt_Button</t>
-  </si>
-  <si>
-    <t>RegisterSuccess_Text</t>
-  </si>
-  <si>
-    <t>PostalCode</t>
-  </si>
-  <si>
-    <t>DOP</t>
-  </si>
-  <si>
-    <t>2018-01-30</t>
-  </si>
-  <si>
-    <t>51721</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>DeltaProduct1@gmail.com</t>
-  </si>
-  <si>
-    <t>col|Email</t>
-  </si>
-  <si>
-    <t>Wait for product to enter</t>
-  </si>
-  <si>
-    <t>Select the country name</t>
-  </si>
-  <si>
-    <t>Select the state name</t>
-  </si>
-  <si>
-    <t>countryselect</t>
-  </si>
-  <si>
-    <t>col|TitleName</t>
-  </si>
-  <si>
-    <t>col|StateName</t>
-  </si>
-  <si>
-    <t>col|CountryName</t>
-  </si>
-  <si>
     <t>mouseHover1</t>
   </si>
   <si>
@@ -783,7 +608,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -838,29 +663,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF222222"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -965,11 +767,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1042,25 +843,8 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="5" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1369,21 +1153,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="105" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="35.85546875" style="2" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="35.81640625" style="2" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="57" style="2" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="16384" width="9.140625" style="2" collapsed="1"/>
+    <col min="3" max="3" width="9.54296875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="9.1796875" style="2" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
@@ -1394,18 +1178,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>38</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>49</v>
       </c>
@@ -1416,7 +1200,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>56</v>
       </c>
@@ -1427,7 +1211,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
         <v>75</v>
       </c>
@@ -1438,9 +1222,9 @@
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="9" t="s">
-        <v>214</v>
+        <v>156</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>112</v>
@@ -1449,7 +1233,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
         <v>64</v>
       </c>
@@ -1460,7 +1244,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="19" t="s">
         <v>113</v>
       </c>
@@ -1471,7 +1255,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="19" t="s">
         <v>114</v>
       </c>
@@ -1482,25 +1266,14 @@
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>131</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C11" s="4" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1514,27 +1287,27 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:J639"/>
+  <dimension ref="A1:J615"/>
   <sheetViews>
-    <sheetView topLeftCell="A103" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C113" sqref="C113"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="32.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="9.140625" style="1" collapsed="1"/>
-    <col min="3" max="3" width="54.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="26.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="34.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="29.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="32.54296875" style="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="9.1796875" style="1" collapsed="1"/>
+    <col min="3" max="3" width="54.1796875" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="26.1796875" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="34.1796875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="29.7265625" style="1" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="17" style="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="9.140625" style="1" collapsed="1"/>
-    <col min="9" max="10" width="9.140625" style="1"/>
-    <col min="11" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="8" max="8" width="9.1796875" style="1" collapsed="1"/>
+    <col min="9" max="10" width="9.1796875" style="1"/>
+    <col min="11" max="16384" width="9.1796875" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1557,7 +1330,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>38</v>
       </c>
@@ -1576,7 +1349,7 @@
       </c>
       <c r="G2" s="24"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>38</v>
       </c>
@@ -1595,7 +1368,7 @@
       </c>
       <c r="G3" s="24"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>38</v>
       </c>
@@ -1614,7 +1387,7 @@
       <c r="F4" s="24"/>
       <c r="G4" s="24"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>38</v>
       </c>
@@ -1633,7 +1406,7 @@
       <c r="F5" s="24"/>
       <c r="G5" s="24"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
         <v>38</v>
       </c>
@@ -1652,7 +1425,7 @@
       <c r="F6" s="24"/>
       <c r="G6" s="24"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>38</v>
       </c>
@@ -1671,7 +1444,7 @@
       <c r="F7" s="24"/>
       <c r="G7" s="24"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>38</v>
       </c>
@@ -1690,7 +1463,7 @@
       <c r="F8" s="24"/>
       <c r="G8" s="24"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
         <v>38</v>
       </c>
@@ -1707,7 +1480,7 @@
       <c r="F9" s="24"/>
       <c r="G9" s="24"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="25"/>
       <c r="B10" s="25"/>
       <c r="C10" s="25"/>
@@ -1716,7 +1489,7 @@
       <c r="F10" s="25"/>
       <c r="G10" s="25"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
         <v>49</v>
       </c>
@@ -1735,7 +1508,7 @@
       </c>
       <c r="G11" s="24"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
         <v>49</v>
       </c>
@@ -1754,7 +1527,7 @@
       </c>
       <c r="G12" s="24"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
         <v>49</v>
       </c>
@@ -1762,7 +1535,7 @@
         <v>25</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>213</v>
+        <v>155</v>
       </c>
       <c r="D13" s="24" t="s">
         <v>11</v>
@@ -1775,7 +1548,7 @@
       </c>
       <c r="G13" s="24"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
         <v>49</v>
       </c>
@@ -1783,18 +1556,16 @@
         <v>24</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>139</v>
-      </c>
-      <c r="E14" s="26" t="s">
-        <v>148</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="E14" s="24"/>
       <c r="F14" s="24"/>
       <c r="G14" s="24"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
         <v>49</v>
       </c>
@@ -1802,16 +1573,18 @@
         <v>23</v>
       </c>
       <c r="C15" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="D15" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="E15" s="26" t="s">
         <v>150</v>
       </c>
-      <c r="D15" s="24" t="s">
-        <v>149</v>
-      </c>
-      <c r="E15" s="24"/>
       <c r="F15" s="24"/>
       <c r="G15" s="24"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="6" t="s">
         <v>49</v>
       </c>
@@ -1819,18 +1592,18 @@
         <v>22</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="E16" s="26" t="s">
-        <v>152</v>
+        <v>146</v>
+      </c>
+      <c r="E16" s="24" t="s">
+        <v>59</v>
       </c>
       <c r="F16" s="24"/>
       <c r="G16" s="24"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="6" t="s">
         <v>49</v>
       </c>
@@ -1838,18 +1611,18 @@
         <v>21</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>147</v>
-      </c>
-      <c r="E17" s="24" t="s">
-        <v>59</v>
+        <v>142</v>
+      </c>
+      <c r="E17" s="26" t="s">
+        <v>151</v>
       </c>
       <c r="F17" s="24"/>
       <c r="G17" s="24"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="6" t="s">
         <v>49</v>
       </c>
@@ -1857,18 +1630,18 @@
         <v>20</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="E18" s="26" t="s">
-        <v>154</v>
+        <v>33</v>
+      </c>
+      <c r="E18" s="24" t="s">
+        <v>47</v>
       </c>
       <c r="F18" s="24"/>
       <c r="G18" s="24"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="6" t="s">
         <v>49</v>
       </c>
@@ -1876,18 +1649,18 @@
         <v>19</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>79</v>
+        <v>35</v>
       </c>
       <c r="D19" s="24" t="s">
         <v>33</v>
       </c>
       <c r="E19" s="24" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F19" s="24"/>
       <c r="G19" s="24"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="6" t="s">
         <v>49</v>
       </c>
@@ -1895,18 +1668,18 @@
         <v>12</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="D20" s="24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E20" s="24" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F20" s="24"/>
       <c r="G20" s="24"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="6" t="s">
         <v>49</v>
       </c>
@@ -1914,144 +1687,144 @@
         <v>13</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="D21" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="E21" s="24" t="s">
-        <v>53</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="E21" s="24"/>
       <c r="F21" s="24"/>
       <c r="G21" s="24"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B22" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="D22" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="24"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="25"/>
-      <c r="B23" s="25"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" s="25"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B23" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="G23" s="24"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="6" t="s">
         <v>56</v>
       </c>
       <c r="B24" s="24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C24" s="24" t="s">
-        <v>29</v>
+        <v>90</v>
       </c>
       <c r="D24" s="24" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="E24" s="24"/>
       <c r="F24" s="24" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G24" s="24"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="6" t="s">
         <v>56</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D25" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="E25" s="24"/>
+        <v>11</v>
+      </c>
+      <c r="E25" s="24" t="s">
+        <v>59</v>
+      </c>
       <c r="F25" s="24" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="G25" s="24"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="6" t="s">
         <v>56</v>
       </c>
       <c r="B26" s="24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C26" s="24" t="s">
-        <v>93</v>
+        <v>148</v>
       </c>
       <c r="D26" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="E26" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="F26" s="24" t="s">
-        <v>60</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
       <c r="G26" s="24"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="6" t="s">
         <v>56</v>
       </c>
       <c r="B27" s="24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C27" s="24" t="s">
-        <v>135</v>
+        <v>86</v>
       </c>
       <c r="D27" s="24" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="E27" s="26" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F27" s="24"/>
       <c r="G27" s="24"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="6" t="s">
         <v>56</v>
       </c>
       <c r="B28" s="24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C28" s="24" t="s">
-        <v>150</v>
+        <v>87</v>
       </c>
       <c r="D28" s="24" t="s">
-        <v>149</v>
-      </c>
-      <c r="E28" s="24"/>
+        <v>146</v>
+      </c>
+      <c r="E28" s="24" t="s">
+        <v>59</v>
+      </c>
       <c r="F28" s="24"/>
       <c r="G28" s="24"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="6" t="s">
         <v>56</v>
       </c>
       <c r="B29" s="24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C29" s="24" t="s">
         <v>86</v>
@@ -2060,2076 +1833,1775 @@
         <v>142</v>
       </c>
       <c r="E29" s="26" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F29" s="24"/>
       <c r="G29" s="24"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="6" t="s">
         <v>56</v>
       </c>
       <c r="B30" s="24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C30" s="24" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="D30" s="24" t="s">
-        <v>147</v>
+        <v>33</v>
       </c>
       <c r="E30" s="24" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="F30" s="24"/>
       <c r="G30" s="24"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="6" t="s">
         <v>56</v>
       </c>
       <c r="B31" s="24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C31" s="24" t="s">
         <v>86</v>
       </c>
       <c r="D31" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="E31" s="26" t="s">
-        <v>154</v>
-      </c>
-      <c r="F31" s="24"/>
+        <v>139</v>
+      </c>
+      <c r="E31" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="F31" s="8"/>
       <c r="G31" s="24"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="6" t="s">
         <v>56</v>
       </c>
       <c r="B32" s="24" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C32" s="24" t="s">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="D32" s="24" t="s">
         <v>33</v>
       </c>
       <c r="E32" s="24" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F32" s="24"/>
       <c r="G32" s="24"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" s="6" t="s">
         <v>56</v>
       </c>
       <c r="B33" s="24" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C33" s="24" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="D33" s="24" t="s">
-        <v>139</v>
+        <v>11</v>
       </c>
       <c r="E33" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="F33" s="8"/>
+        <v>59</v>
+      </c>
+      <c r="F33" s="24" t="s">
+        <v>84</v>
+      </c>
       <c r="G33" s="24"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" s="6" t="s">
         <v>56</v>
       </c>
       <c r="B34" s="24" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C34" s="24" t="s">
-        <v>91</v>
+        <v>148</v>
       </c>
       <c r="D34" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="E34" s="24" t="s">
-        <v>81</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="E34" s="24"/>
       <c r="F34" s="24"/>
       <c r="G34" s="24"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" s="6" t="s">
         <v>56</v>
       </c>
       <c r="B35" s="24" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C35" s="24" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D35" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="E35" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="F35" s="24" t="s">
-        <v>84</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="E35" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="F35" s="24"/>
       <c r="G35" s="24"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" s="6" t="s">
         <v>56</v>
       </c>
       <c r="B36" s="24" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C36" s="24" t="s">
-        <v>135</v>
+        <v>87</v>
       </c>
       <c r="D36" s="24" t="s">
-        <v>139</v>
-      </c>
-      <c r="E36" s="26" t="s">
-        <v>148</v>
+        <v>146</v>
+      </c>
+      <c r="E36" s="24" t="s">
+        <v>59</v>
       </c>
       <c r="F36" s="24"/>
       <c r="G36" s="24"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" s="6" t="s">
         <v>56</v>
       </c>
       <c r="B37" s="24" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C37" s="24" t="s">
-        <v>150</v>
+        <v>86</v>
       </c>
       <c r="D37" s="24" t="s">
-        <v>149</v>
-      </c>
-      <c r="E37" s="24"/>
+        <v>142</v>
+      </c>
+      <c r="E37" s="26" t="s">
+        <v>151</v>
+      </c>
       <c r="F37" s="24"/>
       <c r="G37" s="24"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" s="6" t="s">
         <v>56</v>
       </c>
       <c r="B38" s="24" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C38" s="24" t="s">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="D38" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="E38" s="26" t="s">
-        <v>152</v>
+        <v>33</v>
+      </c>
+      <c r="E38" s="24" t="s">
+        <v>80</v>
       </c>
       <c r="F38" s="24"/>
       <c r="G38" s="24"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" s="6" t="s">
         <v>56</v>
       </c>
       <c r="B39" s="24" t="s">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="C39" s="24" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D39" s="24" t="s">
-        <v>147</v>
+        <v>33</v>
       </c>
       <c r="E39" s="24" t="s">
-        <v>59</v>
+        <v>94</v>
       </c>
       <c r="F39" s="24"/>
       <c r="G39" s="24"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" s="6" t="s">
         <v>56</v>
       </c>
       <c r="B40" s="24" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="C40" s="24" t="s">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="D40" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="E40" s="26" t="s">
-        <v>154</v>
+        <v>32</v>
+      </c>
+      <c r="E40" s="24" t="s">
+        <v>89</v>
       </c>
       <c r="F40" s="24"/>
       <c r="G40" s="24"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" s="6" t="s">
         <v>56</v>
       </c>
       <c r="B41" s="24" t="s">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="C41" s="24" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="D41" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="E41" s="24" t="s">
-        <v>80</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="E41" s="24"/>
       <c r="F41" s="24"/>
       <c r="G41" s="24"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B42" s="24" t="s">
-        <v>134</v>
-      </c>
-      <c r="C42" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="D42" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="E42" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="F42" s="24"/>
-      <c r="G42" s="24"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="6" t="s">
-        <v>56</v>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A42" s="25"/>
+      <c r="B42" s="25"/>
+      <c r="C42" s="25"/>
+      <c r="D42" s="25"/>
+      <c r="E42" s="25"/>
+      <c r="F42" s="25"/>
+      <c r="G42" s="25"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A43" s="20" t="s">
+        <v>75</v>
       </c>
       <c r="B43" s="24" t="s">
-        <v>143</v>
+        <v>27</v>
       </c>
       <c r="C43" s="24" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="D43" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="E43" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="F43" s="24"/>
+        <v>28</v>
+      </c>
+      <c r="E43" s="24"/>
+      <c r="F43" s="24" t="s">
+        <v>8</v>
+      </c>
       <c r="G43" s="24"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="6" t="s">
-        <v>56</v>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A44" s="20" t="s">
+        <v>75</v>
       </c>
       <c r="B44" s="24" t="s">
-        <v>153</v>
+        <v>26</v>
       </c>
       <c r="C44" s="24" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D44" s="24" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="E44" s="24"/>
-      <c r="F44" s="24"/>
+      <c r="F44" s="24" t="s">
+        <v>10</v>
+      </c>
       <c r="G44" s="24"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="25"/>
-      <c r="B45" s="25"/>
-      <c r="C45" s="25"/>
-      <c r="D45" s="25"/>
-      <c r="E45" s="25"/>
-      <c r="F45" s="25"/>
-      <c r="G45" s="25"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A45" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="B45" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C45" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="D45" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="E45" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F45" s="24"/>
+      <c r="G45" s="24"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" s="20" t="s">
         <v>75</v>
       </c>
       <c r="B46" s="24" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C46" s="24" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="D46" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="E46" s="24"/>
-      <c r="F46" s="24" t="s">
-        <v>8</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="E46" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" s="24"/>
       <c r="G46" s="24"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" s="20" t="s">
         <v>75</v>
       </c>
       <c r="B47" s="24" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C47" s="24" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="D47" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="E47" s="24"/>
-      <c r="F47" s="24" t="s">
-        <v>10</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="E47" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="F47" s="24"/>
       <c r="G47" s="24"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" s="20" t="s">
         <v>75</v>
       </c>
       <c r="B48" s="24" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C48" s="24" t="s">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="D48" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="E48" s="24" t="s">
-        <v>43</v>
+        <v>142</v>
+      </c>
+      <c r="E48" s="26" t="s">
+        <v>141</v>
       </c>
       <c r="F48" s="24"/>
       <c r="G48" s="24"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49" s="20" t="s">
         <v>75</v>
       </c>
       <c r="B49" s="24" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C49" s="24" t="s">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="D49" s="24" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E49" s="24" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F49" s="24"/>
       <c r="G49" s="24"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" s="20" t="s">
         <v>75</v>
       </c>
       <c r="B50" s="24" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C50" s="24" t="s">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="D50" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="E50" s="24" t="s">
-        <v>42</v>
+        <v>142</v>
+      </c>
+      <c r="E50" s="26" t="s">
+        <v>141</v>
       </c>
       <c r="F50" s="24"/>
       <c r="G50" s="24"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51" s="20" t="s">
         <v>75</v>
       </c>
       <c r="B51" s="24" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C51" s="24" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D51" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="E51" s="26" t="s">
-        <v>141</v>
+        <v>32</v>
+      </c>
+      <c r="E51" s="24" t="s">
+        <v>80</v>
       </c>
       <c r="F51" s="24"/>
       <c r="G51" s="24"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52" s="20" t="s">
         <v>75</v>
       </c>
       <c r="B52" s="24" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C52" s="24" t="s">
-        <v>76</v>
+        <v>34</v>
       </c>
       <c r="D52" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="E52" s="24" t="s">
-        <v>46</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="E52" s="24"/>
       <c r="F52" s="24"/>
       <c r="G52" s="24"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="B53" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="C53" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="D53" s="24" t="s">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A53" s="25"/>
+      <c r="B53" s="25"/>
+      <c r="C53" s="25"/>
+      <c r="D53" s="25"/>
+      <c r="E53" s="25"/>
+      <c r="F53" s="25"/>
+      <c r="G53" s="25"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A54" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="B54" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C54" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="D54" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="E54" s="24"/>
+      <c r="F54" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="G54" s="24"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A55" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="B55" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C55" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="D55" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E55" s="24"/>
+      <c r="F55" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="G55" s="24"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A56" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="B56" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C56" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="D56" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E56" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="F56" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="G56" s="24"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A57" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="B57" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C57" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="D57" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="E57" s="24"/>
+      <c r="F57" s="24"/>
+      <c r="G57" s="24"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A58" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="B58" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C58" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="D58" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="E53" s="26" t="s">
-        <v>141</v>
-      </c>
-      <c r="F53" s="24"/>
-      <c r="G53" s="24"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="B54" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="C54" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="D54" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="E54" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="F54" s="24"/>
-      <c r="G54" s="24"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="B55" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="C55" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="D55" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="E55" s="24"/>
-      <c r="F55" s="24"/>
-      <c r="G55" s="24"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="25"/>
-      <c r="B56" s="25"/>
-      <c r="C56" s="25"/>
-      <c r="D56" s="25"/>
-      <c r="E56" s="25"/>
-      <c r="F56" s="25"/>
-      <c r="G56" s="25"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="20" t="s">
-        <v>214</v>
-      </c>
-      <c r="B57" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="C57" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="D57" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="E57" s="24"/>
-      <c r="F57" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="G57" s="24"/>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="20" t="s">
-        <v>214</v>
-      </c>
-      <c r="B58" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C58" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="D58" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="E58" s="24"/>
-      <c r="F58" s="24" t="s">
-        <v>10</v>
-      </c>
+      <c r="E58" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="F58" s="24"/>
       <c r="G58" s="24"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59" s="20" t="s">
-        <v>214</v>
+        <v>156</v>
       </c>
       <c r="B59" s="24" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C59" s="24" t="s">
-        <v>213</v>
+        <v>87</v>
       </c>
       <c r="D59" s="24" t="s">
-        <v>11</v>
+        <v>146</v>
       </c>
       <c r="E59" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="F59" s="24" t="s">
-        <v>60</v>
-      </c>
+      <c r="F59" s="24"/>
       <c r="G59" s="24"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60" s="20" t="s">
-        <v>214</v>
+        <v>156</v>
       </c>
       <c r="B60" s="24" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C60" s="24" t="s">
-        <v>135</v>
+        <v>86</v>
       </c>
       <c r="D60" s="24" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="E60" s="26" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="F60" s="24"/>
       <c r="G60" s="24"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A61" s="20" t="s">
-        <v>214</v>
+        <v>156</v>
       </c>
       <c r="B61" s="24" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C61" s="24" t="s">
-        <v>150</v>
+        <v>54</v>
       </c>
       <c r="D61" s="24" t="s">
-        <v>149</v>
-      </c>
-      <c r="E61" s="24"/>
-      <c r="F61" s="24"/>
+        <v>33</v>
+      </c>
+      <c r="E61" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="F61" s="7"/>
       <c r="G61" s="24"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62" s="20" t="s">
-        <v>214</v>
+        <v>156</v>
       </c>
       <c r="B62" s="24" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C62" s="24" t="s">
-        <v>86</v>
+        <v>35</v>
       </c>
       <c r="D62" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="E62" s="26" t="s">
-        <v>152</v>
-      </c>
-      <c r="F62" s="24"/>
+        <v>33</v>
+      </c>
+      <c r="E62" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="F62" s="7"/>
       <c r="G62" s="24"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A63" s="20" t="s">
-        <v>214</v>
+        <v>156</v>
       </c>
       <c r="B63" s="24" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C63" s="24" t="s">
-        <v>87</v>
+        <v>51</v>
       </c>
       <c r="D63" s="24" t="s">
-        <v>147</v>
+        <v>32</v>
       </c>
       <c r="E63" s="24" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F63" s="24"/>
       <c r="G63" s="24"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A64" s="20" t="s">
-        <v>214</v>
+        <v>156</v>
       </c>
       <c r="B64" s="24" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C64" s="24" t="s">
-        <v>86</v>
+        <v>34</v>
       </c>
       <c r="D64" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="E64" s="26" t="s">
-        <v>154</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="E64" s="24"/>
       <c r="F64" s="24"/>
       <c r="G64" s="24"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="20" t="s">
-        <v>214</v>
-      </c>
-      <c r="B65" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="C65" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="D65" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="E65" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="F65" s="7"/>
-      <c r="G65" s="24"/>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A65" s="29"/>
+      <c r="B65" s="30"/>
+      <c r="C65" s="30"/>
+      <c r="D65" s="30"/>
+      <c r="E65" s="30"/>
+      <c r="F65" s="30"/>
+      <c r="G65" s="31"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A66" s="20" t="s">
-        <v>214</v>
+        <v>64</v>
       </c>
       <c r="B66" s="24" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="C66" s="24" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D66" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="E66" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="F66" s="7"/>
+        <v>28</v>
+      </c>
+      <c r="E66" s="24"/>
+      <c r="F66" s="24" t="s">
+        <v>8</v>
+      </c>
       <c r="G66" s="24"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A67" s="20" t="s">
-        <v>214</v>
+        <v>64</v>
       </c>
       <c r="B67" s="24" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="C67" s="24" t="s">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="D67" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="E67" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="F67" s="24"/>
+        <v>9</v>
+      </c>
+      <c r="E67" s="24"/>
+      <c r="F67" s="24" t="s">
+        <v>10</v>
+      </c>
       <c r="G67" s="24"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A68" s="20" t="s">
-        <v>214</v>
+        <v>64</v>
       </c>
       <c r="B68" s="24" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="C68" s="24" t="s">
-        <v>34</v>
+        <v>144</v>
       </c>
       <c r="D68" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="E68" s="24"/>
-      <c r="F68" s="24"/>
+        <v>11</v>
+      </c>
+      <c r="E68" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="F68" s="24" t="s">
+        <v>145</v>
+      </c>
       <c r="G68" s="24"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="29"/>
-      <c r="B69" s="30"/>
-      <c r="C69" s="30"/>
-      <c r="D69" s="30"/>
-      <c r="E69" s="30"/>
-      <c r="F69" s="30"/>
-      <c r="G69" s="31"/>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A69" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="B69" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C69" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="D69" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="E69" s="24"/>
+      <c r="F69" s="24"/>
+      <c r="G69" s="24"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A70" s="20" t="s">
         <v>64</v>
       </c>
       <c r="B70" s="24" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C70" s="24" t="s">
-        <v>29</v>
+        <v>135</v>
       </c>
       <c r="D70" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="E70" s="24"/>
-      <c r="F70" s="24" t="s">
-        <v>8</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="E70" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="F70" s="24"/>
       <c r="G70" s="24"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A71" s="20" t="s">
         <v>64</v>
       </c>
       <c r="B71" s="24" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C71" s="24" t="s">
-        <v>90</v>
+        <v>149</v>
       </c>
       <c r="D71" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="E71" s="24"/>
-      <c r="F71" s="24" t="s">
-        <v>10</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="E71" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="F71" s="24"/>
       <c r="G71" s="24"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A72" s="20" t="s">
         <v>64</v>
       </c>
       <c r="B72" s="24" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C72" s="24" t="s">
-        <v>145</v>
+        <v>63</v>
       </c>
       <c r="D72" s="24" t="s">
-        <v>11</v>
+        <v>139</v>
       </c>
       <c r="E72" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="F72" s="24" t="s">
-        <v>146</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="F72" s="7"/>
       <c r="G72" s="24"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A73" s="20" t="s">
         <v>64</v>
       </c>
       <c r="B73" s="24" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C73" s="24" t="s">
-        <v>135</v>
+        <v>66</v>
       </c>
       <c r="D73" s="24" t="s">
-        <v>139</v>
-      </c>
-      <c r="E73" s="26" t="s">
-        <v>148</v>
+        <v>33</v>
+      </c>
+      <c r="E73" s="24" t="s">
+        <v>96</v>
       </c>
       <c r="F73" s="24"/>
       <c r="G73" s="24"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A74" s="20" t="s">
         <v>64</v>
       </c>
       <c r="B74" s="24" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C74" s="24" t="s">
-        <v>150</v>
+        <v>77</v>
       </c>
       <c r="D74" s="24" t="s">
-        <v>149</v>
-      </c>
-      <c r="E74" s="24"/>
+        <v>139</v>
+      </c>
+      <c r="E74" s="26" t="s">
+        <v>103</v>
+      </c>
       <c r="F74" s="24"/>
       <c r="G74" s="24"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A75" s="20" t="s">
         <v>64</v>
       </c>
       <c r="B75" s="24" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C75" s="24" t="s">
-        <v>135</v>
+        <v>67</v>
       </c>
       <c r="D75" s="24" t="s">
-        <v>142</v>
+        <v>33</v>
       </c>
       <c r="E75" s="26" t="s">
-        <v>152</v>
+        <v>97</v>
       </c>
       <c r="F75" s="24"/>
       <c r="G75" s="24"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A76" s="20" t="s">
         <v>64</v>
       </c>
       <c r="B76" s="24" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C76" s="24" t="s">
-        <v>151</v>
+        <v>68</v>
       </c>
       <c r="D76" s="24" t="s">
-        <v>147</v>
-      </c>
-      <c r="E76" s="24" t="s">
-        <v>59</v>
+        <v>33</v>
+      </c>
+      <c r="E76" s="26" t="s">
+        <v>104</v>
       </c>
       <c r="F76" s="24"/>
       <c r="G76" s="24"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A77" s="20" t="s">
         <v>64</v>
       </c>
       <c r="B77" s="24" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C77" s="24" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="D77" s="24" t="s">
-        <v>139</v>
-      </c>
-      <c r="E77" s="24" t="s">
-        <v>96</v>
-      </c>
-      <c r="F77" s="7"/>
+        <v>11</v>
+      </c>
+      <c r="E77" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="F77" s="24" t="s">
+        <v>110</v>
+      </c>
       <c r="G77" s="24"/>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A78" s="20" t="s">
         <v>64</v>
       </c>
       <c r="B78" s="24" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C78" s="24" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D78" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="E78" s="24" t="s">
-        <v>96</v>
-      </c>
-      <c r="F78" s="24"/>
+        <v>11</v>
+      </c>
+      <c r="E78" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="F78" s="24" t="s">
+        <v>111</v>
+      </c>
       <c r="G78" s="24"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A79" s="20" t="s">
         <v>64</v>
       </c>
       <c r="B79" s="24" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C79" s="24" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D79" s="24" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E79" s="26" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F79" s="24"/>
       <c r="G79" s="24"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A80" s="20" t="s">
         <v>64</v>
       </c>
       <c r="B80" s="24" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C80" s="24" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D80" s="24" t="s">
-        <v>33</v>
+        <v>107</v>
       </c>
       <c r="E80" s="26" t="s">
-        <v>97</v>
-      </c>
-      <c r="F80" s="24"/>
+        <v>100</v>
+      </c>
+      <c r="F80" s="7"/>
       <c r="G80" s="24"/>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A81" s="20" t="s">
         <v>64</v>
       </c>
       <c r="B81" s="24" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C81" s="24" t="s">
-        <v>68</v>
+        <v>138</v>
       </c>
       <c r="D81" s="24" t="s">
         <v>33</v>
       </c>
       <c r="E81" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="F81" s="24"/>
+        <v>137</v>
+      </c>
+      <c r="F81" s="7"/>
       <c r="G81" s="24"/>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A82" s="20" t="s">
         <v>64</v>
       </c>
       <c r="B82" s="24" t="s">
-        <v>15</v>
+        <v>74</v>
       </c>
       <c r="C82" s="24" t="s">
-        <v>69</v>
+        <v>136</v>
       </c>
       <c r="D82" s="24" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="E82" s="26" t="s">
-        <v>103</v>
-      </c>
-      <c r="F82" s="24" t="s">
-        <v>110</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="F82" s="24"/>
       <c r="G82" s="24"/>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A83" s="20" t="s">
         <v>64</v>
       </c>
       <c r="B83" s="24" t="s">
-        <v>16</v>
+        <v>95</v>
       </c>
       <c r="C83" s="24" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D83" s="24" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="E83" s="26" t="s">
-        <v>102</v>
-      </c>
-      <c r="F83" s="24" t="s">
-        <v>111</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="F83" s="24"/>
       <c r="G83" s="24"/>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A84" s="20" t="s">
         <v>64</v>
       </c>
       <c r="B84" s="24" t="s">
-        <v>17</v>
+        <v>134</v>
       </c>
       <c r="C84" s="24" t="s">
-        <v>71</v>
+        <v>34</v>
       </c>
       <c r="D84" s="24" t="s">
-        <v>140</v>
-      </c>
-      <c r="E84" s="26" t="s">
-        <v>101</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="E84" s="26"/>
       <c r="F84" s="24"/>
       <c r="G84" s="24"/>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="B85" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="C85" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="D85" s="24" t="s">
-        <v>107</v>
-      </c>
-      <c r="E85" s="26" t="s">
-        <v>100</v>
-      </c>
-      <c r="F85" s="7"/>
-      <c r="G85" s="24"/>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="20" t="s">
-        <v>64</v>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A85" s="25"/>
+      <c r="B85" s="25"/>
+      <c r="C85" s="25"/>
+      <c r="D85" s="25"/>
+      <c r="E85" s="25"/>
+      <c r="F85" s="25"/>
+      <c r="G85" s="25"/>
+    </row>
+    <row r="86" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A86" s="19" t="s">
+        <v>113</v>
       </c>
       <c r="B86" s="24" t="s">
-        <v>74</v>
+        <v>27</v>
       </c>
       <c r="C86" s="24" t="s">
-        <v>138</v>
+        <v>29</v>
       </c>
       <c r="D86" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="E86" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="F86" s="7"/>
+        <v>28</v>
+      </c>
+      <c r="E86" s="24"/>
+      <c r="F86" s="24" t="s">
+        <v>8</v>
+      </c>
       <c r="G86" s="24"/>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="20" t="s">
-        <v>64</v>
+    <row r="87" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A87" s="19" t="s">
+        <v>113</v>
       </c>
       <c r="B87" s="24" t="s">
-        <v>95</v>
+        <v>26</v>
       </c>
       <c r="C87" s="24" t="s">
-        <v>136</v>
+        <v>30</v>
       </c>
       <c r="D87" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="E87" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="F87" s="24"/>
+        <v>9</v>
+      </c>
+      <c r="E87" s="24"/>
+      <c r="F87" s="24" t="s">
+        <v>10</v>
+      </c>
       <c r="G87" s="24"/>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" s="20" t="s">
-        <v>64</v>
+    <row r="88" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A88" s="19" t="s">
+        <v>113</v>
       </c>
       <c r="B88" s="24" t="s">
-        <v>134</v>
+        <v>25</v>
       </c>
       <c r="C88" s="24" t="s">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="D88" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="E88" s="26" t="s">
-        <v>98</v>
+        <v>36</v>
+      </c>
+      <c r="E88" s="24" t="s">
+        <v>43</v>
       </c>
       <c r="F88" s="24"/>
       <c r="G88" s="24"/>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" s="20" t="s">
-        <v>64</v>
+    <row r="89" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A89" s="19" t="s">
+        <v>113</v>
       </c>
       <c r="B89" s="24" t="s">
-        <v>143</v>
+        <v>24</v>
       </c>
       <c r="C89" s="24" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D89" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="E89" s="26"/>
-      <c r="F89" s="24"/>
-      <c r="G89" s="24"/>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" s="25"/>
-      <c r="B90" s="25"/>
-      <c r="C90" s="25"/>
-      <c r="D90" s="25"/>
-      <c r="E90" s="25"/>
-      <c r="F90" s="25"/>
-      <c r="G90" s="25"/>
-    </row>
-    <row r="91" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="E89" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" s="7"/>
+      <c r="G89" s="7"/>
+    </row>
+    <row r="90" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A90" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="B90" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C90" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="D90" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="E90" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="F90" s="7"/>
+      <c r="G90" s="7"/>
+    </row>
+    <row r="91" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A91" s="19" t="s">
         <v>113</v>
       </c>
       <c r="B91" s="24" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C91" s="24" t="s">
-        <v>29</v>
+        <v>77</v>
       </c>
       <c r="D91" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="E91" s="24"/>
-      <c r="F91" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="G91" s="24"/>
-    </row>
-    <row r="92" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+      <c r="E91" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F91" s="7"/>
+      <c r="G91" s="7"/>
+    </row>
+    <row r="92" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A92" s="19" t="s">
         <v>113</v>
       </c>
       <c r="B92" s="24" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C92" s="24" t="s">
-        <v>30</v>
+        <v>116</v>
       </c>
       <c r="D92" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="E92" s="24"/>
-      <c r="F92" s="24" t="s">
-        <v>10</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="E92" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F92" s="24"/>
       <c r="G92" s="24"/>
     </row>
-    <row r="93" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" ht="87" x14ac:dyDescent="0.35">
       <c r="A93" s="19" t="s">
         <v>113</v>
       </c>
       <c r="B93" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C93" s="24" t="s">
-        <v>39</v>
+        <v>20</v>
+      </c>
+      <c r="C93" s="23" t="s">
+        <v>117</v>
       </c>
       <c r="D93" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="E93" s="24" t="s">
-        <v>43</v>
+        <v>32</v>
+      </c>
+      <c r="E93" s="26" t="s">
+        <v>118</v>
       </c>
       <c r="F93" s="24"/>
       <c r="G93" s="24"/>
     </row>
-    <row r="94" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A94" s="19" t="s">
         <v>113</v>
       </c>
       <c r="B94" s="24" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C94" s="24" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D94" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="E94" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="F94" s="7"/>
-      <c r="G94" s="7"/>
-    </row>
-    <row r="95" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A95" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="B95" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="C95" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="D95" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="E95" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="F95" s="7"/>
-      <c r="G95" s="7"/>
-    </row>
-    <row r="96" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+      <c r="E94" s="24"/>
+      <c r="F94" s="24"/>
+      <c r="G94" s="24"/>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A95" s="25"/>
+      <c r="B95" s="25"/>
+      <c r="C95" s="25"/>
+      <c r="D95" s="25"/>
+      <c r="E95" s="25"/>
+      <c r="F95" s="25"/>
+      <c r="G95" s="25"/>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A96" s="19" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B96" s="24" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C96" s="24" t="s">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="D96" s="24" t="s">
-        <v>139</v>
-      </c>
-      <c r="E96" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="F96" s="7"/>
-      <c r="G96" s="7"/>
-    </row>
-    <row r="97" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="E96" s="23"/>
+      <c r="F96" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="G96" s="24"/>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A97" s="19" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B97" s="24" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C97" s="24" t="s">
-        <v>116</v>
+        <v>30</v>
       </c>
       <c r="D97" s="24" t="s">
-        <v>212</v>
-      </c>
-      <c r="E97" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="F97" s="24"/>
+        <v>9</v>
+      </c>
+      <c r="E97" s="24"/>
+      <c r="F97" s="24" t="s">
+        <v>10</v>
+      </c>
       <c r="G97" s="24"/>
     </row>
-    <row r="98" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A98" s="19" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B98" s="24" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C98" s="23" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D98" s="24" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E98" s="26" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="F98" s="24"/>
       <c r="G98" s="24"/>
     </row>
-    <row r="99" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A99" s="19" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B99" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="C99" s="24" t="s">
-        <v>34</v>
+        <v>24</v>
+      </c>
+      <c r="C99" s="23" t="s">
+        <v>122</v>
       </c>
       <c r="D99" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="E99" s="24"/>
+        <v>32</v>
+      </c>
+      <c r="E99" s="26" t="s">
+        <v>123</v>
+      </c>
       <c r="F99" s="24"/>
       <c r="G99" s="24"/>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" s="25"/>
-      <c r="B100" s="25"/>
-      <c r="C100" s="25"/>
-      <c r="D100" s="25"/>
-      <c r="E100" s="25"/>
-      <c r="F100" s="25"/>
-      <c r="G100" s="25"/>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101" s="19" t="s">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A100" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="B101" s="24" t="s">
+      <c r="B100" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C100" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="D100" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="E100" s="26"/>
+      <c r="F100" s="24"/>
+      <c r="G100" s="24"/>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A101" s="25"/>
+      <c r="B101" s="25"/>
+      <c r="C101" s="25"/>
+      <c r="D101" s="25"/>
+      <c r="E101" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="F101" s="25"/>
+      <c r="G101" s="25"/>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A102" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="B102" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="C101" s="24" t="s">
+      <c r="C102" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="D101" s="24" t="s">
+      <c r="D102" s="24" t="s">
         <v>28</v>
-      </c>
-      <c r="E101" s="23"/>
-      <c r="F101" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="G101" s="24"/>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A102" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="B102" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C102" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="D102" s="24" t="s">
-        <v>9</v>
       </c>
       <c r="E102" s="24"/>
       <c r="F102" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="G102" s="24"/>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A103" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="B103" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C103" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="D103" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E103" s="24"/>
+      <c r="F103" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="G102" s="24"/>
-    </row>
-    <row r="103" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A103" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="B103" s="24" t="s">
+      <c r="G103" s="24"/>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A104" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="B104" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="C103" s="23" t="s">
-        <v>120</v>
-      </c>
-      <c r="D103" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="E103" s="26" t="s">
-        <v>121</v>
-      </c>
-      <c r="F103" s="24"/>
-      <c r="G103" s="24"/>
-    </row>
-    <row r="104" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A104" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="B104" s="24" t="s">
+      <c r="C104" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="D104" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E104" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="F104" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="G104" s="24"/>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A105" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="B105" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="C104" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="D104" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="E104" s="26" t="s">
-        <v>123</v>
-      </c>
-      <c r="F104" s="24"/>
-      <c r="G104" s="24"/>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="B105" s="24" t="s">
-        <v>23</v>
-      </c>
       <c r="C105" s="24" t="s">
-        <v>34</v>
+        <v>148</v>
       </c>
       <c r="D105" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="E105" s="26"/>
+        <v>147</v>
+      </c>
+      <c r="E105" s="24"/>
       <c r="F105" s="24"/>
       <c r="G105" s="24"/>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A106" s="25"/>
-      <c r="B106" s="25"/>
-      <c r="C106" s="25"/>
-      <c r="D106" s="25"/>
-      <c r="E106" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="F106" s="25"/>
-      <c r="G106" s="25"/>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A106" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="B106" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C106" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="D106" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="E106" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="F106" s="24"/>
+      <c r="G106" s="24"/>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A107" s="23" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B107" s="24" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C107" s="24" t="s">
-        <v>29</v>
+        <v>149</v>
       </c>
       <c r="D107" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="E107" s="24"/>
-      <c r="F107" s="24" t="s">
-        <v>8</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="E107" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="F107" s="24"/>
       <c r="G107" s="24"/>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A108" s="23" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B108" s="24" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C108" s="24" t="s">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="D108" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="E108" s="24"/>
-      <c r="F108" s="24" t="s">
-        <v>10</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="E108" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="F108" s="24"/>
       <c r="G108" s="24"/>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A109" s="23" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B109" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C109" s="24" t="s">
-        <v>145</v>
+        <v>20</v>
+      </c>
+      <c r="C109" s="23" t="s">
+        <v>125</v>
       </c>
       <c r="D109" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="E109" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="F109" s="24" t="s">
-        <v>60</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="E109" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="F109" s="24"/>
       <c r="G109" s="24"/>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A110" s="23" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B110" s="24" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C110" s="24" t="s">
-        <v>135</v>
+        <v>86</v>
       </c>
       <c r="D110" s="24" t="s">
         <v>139</v>
       </c>
-      <c r="E110" s="26" t="s">
-        <v>148</v>
+      <c r="E110" s="24" t="s">
+        <v>128</v>
       </c>
       <c r="F110" s="24"/>
       <c r="G110" s="24"/>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A111" s="23" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B111" s="24" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C111" s="24" t="s">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="D111" s="24" t="s">
-        <v>149</v>
-      </c>
-      <c r="E111" s="24"/>
+        <v>33</v>
+      </c>
+      <c r="E111" s="24" t="s">
+        <v>128</v>
+      </c>
       <c r="F111" s="24"/>
       <c r="G111" s="24"/>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A112" s="23" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B112" s="24" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C112" s="24" t="s">
-        <v>135</v>
+        <v>86</v>
       </c>
       <c r="D112" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="E112" s="26" t="s">
-        <v>152</v>
+        <v>139</v>
+      </c>
+      <c r="E112" s="24" t="s">
+        <v>129</v>
       </c>
       <c r="F112" s="24"/>
       <c r="G112" s="24"/>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A113" s="23" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B113" s="24" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C113" s="24" t="s">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="D113" s="24" t="s">
-        <v>147</v>
+        <v>32</v>
       </c>
       <c r="E113" s="24" t="s">
-        <v>59</v>
+        <v>129</v>
       </c>
       <c r="F113" s="24"/>
       <c r="G113" s="24"/>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A114" s="23" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B114" s="24" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C114" s="24" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="D114" s="24" t="s">
-        <v>139</v>
-      </c>
-      <c r="E114" s="26" t="s">
-        <v>124</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="E114" s="24"/>
       <c r="F114" s="24"/>
       <c r="G114" s="24"/>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A115" s="23" t="s">
-        <v>156</v>
-      </c>
-      <c r="B115" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="C115" s="23" t="s">
-        <v>125</v>
-      </c>
-      <c r="D115" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="E115" s="26" t="s">
-        <v>124</v>
-      </c>
-      <c r="F115" s="24"/>
-      <c r="G115" s="24"/>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A116" s="23" t="s">
-        <v>156</v>
-      </c>
-      <c r="B116" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="C116" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="D116" s="24" t="s">
-        <v>139</v>
-      </c>
-      <c r="E116" s="24" t="s">
-        <v>128</v>
-      </c>
-      <c r="F116" s="24"/>
-      <c r="G116" s="24"/>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A117" s="23" t="s">
-        <v>156</v>
-      </c>
-      <c r="B117" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="C117" s="24" t="s">
-        <v>126</v>
-      </c>
-      <c r="D117" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="E117" s="24" t="s">
-        <v>128</v>
-      </c>
-      <c r="F117" s="24"/>
-      <c r="G117" s="24"/>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A118" s="23" t="s">
-        <v>156</v>
-      </c>
-      <c r="B118" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="C118" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="D118" s="24" t="s">
-        <v>139</v>
-      </c>
-      <c r="E118" s="24" t="s">
-        <v>129</v>
-      </c>
-      <c r="F118" s="24"/>
-      <c r="G118" s="24"/>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A119" s="23" t="s">
-        <v>156</v>
-      </c>
-      <c r="B119" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="C119" s="24" t="s">
-        <v>127</v>
-      </c>
-      <c r="D119" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="E119" s="24" t="s">
-        <v>129</v>
-      </c>
-      <c r="F119" s="24"/>
-      <c r="G119" s="24"/>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A120" s="23" t="s">
-        <v>156</v>
-      </c>
-      <c r="B120" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="C120" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="D120" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="E120" s="24"/>
-      <c r="F120" s="24"/>
-      <c r="G120" s="24"/>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A121" s="29"/>
-      <c r="B121" s="30"/>
-      <c r="C121" s="30"/>
-      <c r="D121" s="30"/>
-      <c r="E121" s="30"/>
-      <c r="F121" s="30"/>
-      <c r="G121" s="31"/>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A122" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="B122" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="C122" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="D122" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="E122" s="24"/>
-      <c r="F122" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="G122" s="24"/>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A123" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="B123" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C123" s="24" t="s">
-        <v>90</v>
-      </c>
-      <c r="D123" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="E123" s="24"/>
-      <c r="F123" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="G123" s="24"/>
-    </row>
-    <row r="124" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A124" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="B124" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C124" s="23" t="s">
-        <v>120</v>
-      </c>
-      <c r="D124" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="E124" s="26" t="s">
-        <v>121</v>
-      </c>
-      <c r="F124" s="24"/>
-      <c r="G124" s="24"/>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A125" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="B125" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="C125" s="24" t="s">
-        <v>171</v>
-      </c>
-      <c r="D125" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="E125" s="26" t="s">
-        <v>180</v>
-      </c>
-      <c r="F125" s="24"/>
-      <c r="G125" s="24"/>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A126" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="B126" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="C126" s="24" t="s">
-        <v>170</v>
-      </c>
-      <c r="D126" s="24" t="s">
-        <v>208</v>
-      </c>
-      <c r="E126" s="24" t="s">
-        <v>181</v>
-      </c>
-      <c r="F126" s="24" t="s">
-        <v>209</v>
-      </c>
-      <c r="G126" s="24"/>
-    </row>
-    <row r="127" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A127" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="B127" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="C127" s="32" t="s">
-        <v>159</v>
-      </c>
-      <c r="D127" s="32" t="s">
-        <v>140</v>
-      </c>
-      <c r="E127" s="32" t="s">
-        <v>183</v>
-      </c>
-      <c r="F127" s="24"/>
-      <c r="G127" s="24"/>
-    </row>
-    <row r="128" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A128" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="B128" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="C128" s="32" t="s">
-        <v>160</v>
-      </c>
-      <c r="D128" s="32" t="s">
-        <v>140</v>
-      </c>
-      <c r="E128" s="32" t="s">
-        <v>184</v>
-      </c>
-      <c r="F128" s="24"/>
-      <c r="G128" s="24"/>
-    </row>
-    <row r="129" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A129" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="B129" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="C129" s="24" t="s">
-        <v>161</v>
-      </c>
-      <c r="D129" s="32" t="s">
-        <v>140</v>
-      </c>
-      <c r="E129" s="24" t="s">
-        <v>185</v>
-      </c>
-      <c r="F129" s="7"/>
-      <c r="G129" s="24"/>
-    </row>
-    <row r="130" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A130" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="B130" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="C130" s="24" t="s">
-        <v>162</v>
-      </c>
-      <c r="D130" s="32" t="s">
-        <v>140</v>
-      </c>
-      <c r="E130" s="24" t="s">
-        <v>186</v>
-      </c>
-      <c r="F130" s="24"/>
-      <c r="G130" s="24"/>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A131" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="B131" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="C131" s="24" t="s">
-        <v>207</v>
-      </c>
-      <c r="D131" s="24" t="s">
-        <v>208</v>
-      </c>
-      <c r="E131" s="26" t="s">
-        <v>187</v>
-      </c>
-      <c r="F131" s="24" t="s">
-        <v>210</v>
-      </c>
-      <c r="G131" s="24"/>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A132" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="B132" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="C132" s="24" t="s">
-        <v>163</v>
-      </c>
-      <c r="D132" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="E132" s="26" t="s">
-        <v>188</v>
-      </c>
-      <c r="F132" s="24" t="s">
-        <v>182</v>
-      </c>
-      <c r="G132" s="24"/>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A133" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="B133" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="C133" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="D133" s="24" t="s">
-        <v>208</v>
-      </c>
-      <c r="E133" s="26" t="s">
-        <v>189</v>
-      </c>
-      <c r="F133" s="24" t="s">
-        <v>211</v>
-      </c>
-      <c r="G133" s="24"/>
-    </row>
-    <row r="134" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A134" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="B134" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="C134" s="32" t="s">
-        <v>164</v>
-      </c>
-      <c r="D134" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="E134" s="32" t="s">
-        <v>190</v>
-      </c>
-      <c r="F134" s="24" t="s">
-        <v>204</v>
-      </c>
-      <c r="G134" s="24"/>
-    </row>
-    <row r="135" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A135" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="B135" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="C135" s="24" t="s">
-        <v>165</v>
-      </c>
-      <c r="D135" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="E135" s="32" t="s">
-        <v>191</v>
-      </c>
-      <c r="F135" s="24" t="s">
-        <v>204</v>
-      </c>
-      <c r="G135" s="24"/>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A136" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="B136" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C136" s="24" t="s">
-        <v>166</v>
-      </c>
-      <c r="D136" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="E136" s="26" t="s">
-        <v>192</v>
-      </c>
-      <c r="F136" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="G136" s="24"/>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A137" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="B137" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="C137" s="24" t="s">
-        <v>205</v>
-      </c>
-      <c r="D137" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="E137" s="26" t="s">
-        <v>141</v>
-      </c>
-      <c r="F137" s="7"/>
-      <c r="G137" s="24"/>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A138" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="B138" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="C138" s="24" t="s">
-        <v>167</v>
-      </c>
-      <c r="D138" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="E138" s="26" t="s">
-        <v>194</v>
-      </c>
-      <c r="F138" s="24" t="s">
-        <v>195</v>
-      </c>
-      <c r="G138" s="24"/>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A139" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="B139" s="24" t="s">
-        <v>95</v>
-      </c>
-      <c r="C139" s="24" t="s">
-        <v>168</v>
-      </c>
-      <c r="D139" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="E139" s="26" t="s">
-        <v>196</v>
-      </c>
-      <c r="F139" s="24"/>
-      <c r="G139" s="24"/>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A140" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="B140" s="24" t="s">
-        <v>134</v>
-      </c>
-      <c r="C140" s="24" t="s">
-        <v>169</v>
-      </c>
-      <c r="D140" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="E140" s="26" t="s">
-        <v>197</v>
-      </c>
-      <c r="F140" s="24"/>
-      <c r="G140" s="24"/>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A141" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="B141" s="24" t="s">
-        <v>143</v>
-      </c>
-      <c r="C141" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="D141" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="E141" s="26"/>
-      <c r="F141" s="24"/>
-      <c r="G141" s="24"/>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A118" s="10"/>
+      <c r="B118" s="10"/>
+      <c r="C118" s="10"/>
+      <c r="D118" s="10"/>
+      <c r="E118" s="10"/>
+      <c r="F118" s="10"/>
+      <c r="G118" s="10"/>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A119" s="10"/>
+      <c r="B119" s="10"/>
+      <c r="C119" s="10"/>
+      <c r="D119" s="10"/>
+      <c r="E119" s="11"/>
+      <c r="F119" s="10"/>
+      <c r="G119" s="10"/>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A120" s="10"/>
+      <c r="B120" s="10"/>
+      <c r="C120" s="10"/>
+      <c r="D120" s="10"/>
+      <c r="E120" s="11"/>
+      <c r="F120" s="10"/>
+      <c r="G120" s="10"/>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A121" s="10"/>
+      <c r="B121" s="10"/>
+      <c r="C121" s="10"/>
+      <c r="D121" s="10"/>
+      <c r="E121" s="11"/>
+      <c r="F121" s="10"/>
+      <c r="G121" s="10"/>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A122" s="10"/>
+      <c r="B122" s="10"/>
+      <c r="C122" s="10"/>
+      <c r="D122" s="10"/>
+      <c r="E122" s="11"/>
+      <c r="F122" s="10"/>
+      <c r="G122" s="10"/>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A123" s="10"/>
+      <c r="B123" s="10"/>
+      <c r="C123" s="10"/>
+      <c r="D123" s="10"/>
+      <c r="E123" s="10"/>
+      <c r="F123" s="10"/>
+      <c r="G123" s="10"/>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A124" s="10"/>
+      <c r="B124" s="10"/>
+      <c r="C124" s="10"/>
+      <c r="D124" s="10"/>
+      <c r="E124" s="10"/>
+      <c r="F124" s="10"/>
+      <c r="G124" s="10"/>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A125" s="10"/>
+      <c r="B125" s="10"/>
+      <c r="C125" s="10"/>
+      <c r="D125" s="10"/>
+      <c r="E125" s="11"/>
+      <c r="F125" s="10"/>
+      <c r="G125" s="10"/>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A126" s="10"/>
+      <c r="B126" s="10"/>
+      <c r="C126" s="10"/>
+      <c r="D126" s="10"/>
+      <c r="E126" s="11"/>
+      <c r="F126" s="10"/>
+      <c r="G126" s="10"/>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A127" s="10"/>
+      <c r="B127" s="10"/>
+      <c r="C127" s="10"/>
+      <c r="D127" s="10"/>
+      <c r="E127" s="11"/>
+      <c r="F127" s="10"/>
+      <c r="G127" s="10"/>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A128" s="10"/>
+      <c r="B128" s="10"/>
+      <c r="C128" s="10"/>
+      <c r="D128" s="10"/>
+      <c r="E128" s="11"/>
+      <c r="F128" s="10"/>
+      <c r="G128" s="10"/>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A129" s="10"/>
+      <c r="B129" s="10"/>
+      <c r="C129" s="10"/>
+      <c r="D129" s="10"/>
+      <c r="E129" s="11"/>
+      <c r="F129" s="10"/>
+      <c r="G129" s="10"/>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A130" s="10"/>
+      <c r="B130" s="10"/>
+      <c r="C130" s="10"/>
+      <c r="D130" s="10"/>
+      <c r="E130" s="11"/>
+      <c r="F130" s="10"/>
+      <c r="G130" s="10"/>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A131" s="10"/>
+      <c r="B131" s="10"/>
+      <c r="C131" s="10"/>
+      <c r="D131" s="10"/>
+      <c r="E131" s="11"/>
+      <c r="F131" s="10"/>
+      <c r="G131" s="10"/>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A132" s="10"/>
+      <c r="B132" s="10"/>
+      <c r="C132" s="10"/>
+      <c r="D132" s="10"/>
+      <c r="E132" s="11"/>
+      <c r="F132" s="10"/>
+      <c r="G132" s="10"/>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A133" s="10"/>
+      <c r="B133" s="10"/>
+      <c r="C133" s="10"/>
+      <c r="D133" s="10"/>
+      <c r="E133" s="11"/>
+      <c r="F133" s="10"/>
+      <c r="G133" s="10"/>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A134" s="10"/>
+      <c r="B134" s="10"/>
+      <c r="C134" s="10"/>
+      <c r="D134" s="10"/>
+      <c r="E134" s="11"/>
+      <c r="F134" s="10"/>
+      <c r="G134" s="10"/>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A135" s="10"/>
+      <c r="B135" s="10"/>
+      <c r="C135" s="10"/>
+      <c r="D135" s="10"/>
+      <c r="E135" s="11"/>
+      <c r="F135" s="10"/>
+      <c r="G135" s="10"/>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A136" s="10"/>
+      <c r="B136" s="10"/>
+      <c r="C136" s="10"/>
+      <c r="D136" s="10"/>
+      <c r="E136" s="11"/>
+      <c r="F136" s="10"/>
+      <c r="G136" s="10"/>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A137" s="10"/>
+      <c r="B137" s="10"/>
+      <c r="C137" s="10"/>
+      <c r="D137" s="10"/>
+      <c r="E137" s="11"/>
+      <c r="F137" s="10"/>
+      <c r="G137" s="10"/>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A138" s="10"/>
+      <c r="B138" s="10"/>
+      <c r="C138" s="10"/>
+      <c r="D138" s="10"/>
+      <c r="E138" s="11"/>
+      <c r="F138" s="10"/>
+      <c r="G138" s="10"/>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A139" s="10"/>
+      <c r="B139" s="10"/>
+      <c r="C139" s="10"/>
+      <c r="D139" s="10"/>
+      <c r="E139" s="11"/>
+      <c r="F139" s="10"/>
+      <c r="G139" s="10"/>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A140" s="10"/>
+      <c r="B140" s="10"/>
+      <c r="C140" s="10"/>
+      <c r="D140" s="10"/>
+      <c r="E140" s="11"/>
+      <c r="F140" s="10"/>
+      <c r="G140" s="10"/>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A141" s="10"/>
+      <c r="B141" s="10"/>
+      <c r="C141" s="12"/>
+      <c r="D141" s="10"/>
+      <c r="E141" s="11"/>
+      <c r="F141" s="10"/>
+      <c r="G141" s="10"/>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A142" s="10"/>
       <c r="B142" s="10"/>
       <c r="C142" s="10"/>
@@ -4138,43 +3610,43 @@
       <c r="F142" s="10"/>
       <c r="G142" s="10"/>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A143" s="10"/>
       <c r="B143" s="10"/>
       <c r="C143" s="10"/>
       <c r="D143" s="10"/>
-      <c r="E143" s="11"/>
+      <c r="E143" s="10"/>
       <c r="F143" s="10"/>
       <c r="G143" s="10"/>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A144" s="10"/>
       <c r="B144" s="10"/>
       <c r="C144" s="10"/>
       <c r="D144" s="10"/>
-      <c r="E144" s="11"/>
+      <c r="E144" s="10"/>
       <c r="F144" s="10"/>
       <c r="G144" s="10"/>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A145" s="10"/>
       <c r="B145" s="10"/>
       <c r="C145" s="10"/>
       <c r="D145" s="10"/>
-      <c r="E145" s="11"/>
+      <c r="E145" s="10"/>
       <c r="F145" s="10"/>
       <c r="G145" s="10"/>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A146" s="10"/>
       <c r="B146" s="10"/>
       <c r="C146" s="10"/>
       <c r="D146" s="10"/>
-      <c r="E146" s="11"/>
+      <c r="E146" s="10"/>
       <c r="F146" s="10"/>
       <c r="G146" s="10"/>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A147" s="10"/>
       <c r="B147" s="10"/>
       <c r="C147" s="10"/>
@@ -4183,7 +3655,7 @@
       <c r="F147" s="10"/>
       <c r="G147" s="10"/>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A148" s="10"/>
       <c r="B148" s="10"/>
       <c r="C148" s="10"/>
@@ -4192,16 +3664,16 @@
       <c r="F148" s="10"/>
       <c r="G148" s="10"/>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A149" s="10"/>
       <c r="B149" s="10"/>
       <c r="C149" s="10"/>
       <c r="D149" s="10"/>
-      <c r="E149" s="11"/>
+      <c r="E149" s="10"/>
       <c r="F149" s="10"/>
       <c r="G149" s="10"/>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A150" s="10"/>
       <c r="B150" s="10"/>
       <c r="C150" s="10"/>
@@ -4210,16 +3682,16 @@
       <c r="F150" s="10"/>
       <c r="G150" s="10"/>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A151" s="10"/>
       <c r="B151" s="10"/>
       <c r="C151" s="10"/>
       <c r="D151" s="10"/>
-      <c r="E151" s="11"/>
+      <c r="E151" s="10"/>
       <c r="F151" s="10"/>
       <c r="G151" s="10"/>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A152" s="10"/>
       <c r="B152" s="10"/>
       <c r="C152" s="10"/>
@@ -4228,16 +3700,16 @@
       <c r="F152" s="10"/>
       <c r="G152" s="10"/>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A153" s="10"/>
       <c r="B153" s="10"/>
       <c r="C153" s="10"/>
       <c r="D153" s="10"/>
-      <c r="E153" s="11"/>
-      <c r="F153" s="10"/>
-      <c r="G153" s="10"/>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E153" s="10"/>
+      <c r="F153" s="28"/>
+      <c r="G153" s="28"/>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A154" s="10"/>
       <c r="B154" s="10"/>
       <c r="C154" s="10"/>
@@ -4246,34 +3718,34 @@
       <c r="F154" s="10"/>
       <c r="G154" s="10"/>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A155" s="10"/>
       <c r="B155" s="10"/>
       <c r="C155" s="10"/>
       <c r="D155" s="10"/>
-      <c r="E155" s="11"/>
+      <c r="E155" s="10"/>
       <c r="F155" s="10"/>
       <c r="G155" s="10"/>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A156" s="10"/>
       <c r="B156" s="10"/>
       <c r="C156" s="10"/>
       <c r="D156" s="10"/>
-      <c r="E156" s="11"/>
+      <c r="E156" s="10"/>
       <c r="F156" s="10"/>
       <c r="G156" s="10"/>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A157" s="10"/>
       <c r="B157" s="10"/>
       <c r="C157" s="10"/>
       <c r="D157" s="10"/>
-      <c r="E157" s="11"/>
+      <c r="E157" s="10"/>
       <c r="F157" s="10"/>
       <c r="G157" s="10"/>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A158" s="10"/>
       <c r="B158" s="10"/>
       <c r="C158" s="10"/>
@@ -4282,7 +3754,7 @@
       <c r="F158" s="10"/>
       <c r="G158" s="10"/>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A159" s="10"/>
       <c r="B159" s="10"/>
       <c r="C159" s="10"/>
@@ -4291,7 +3763,7 @@
       <c r="F159" s="10"/>
       <c r="G159" s="10"/>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A160" s="10"/>
       <c r="B160" s="10"/>
       <c r="C160" s="10"/>
@@ -4300,7 +3772,7 @@
       <c r="F160" s="10"/>
       <c r="G160" s="10"/>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A161" s="10"/>
       <c r="B161" s="10"/>
       <c r="C161" s="10"/>
@@ -4309,7 +3781,7 @@
       <c r="F161" s="10"/>
       <c r="G161" s="10"/>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A162" s="10"/>
       <c r="B162" s="10"/>
       <c r="C162" s="10"/>
@@ -4318,7 +3790,7 @@
       <c r="F162" s="10"/>
       <c r="G162" s="10"/>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A163" s="10"/>
       <c r="B163" s="10"/>
       <c r="C163" s="10"/>
@@ -4327,7 +3799,7 @@
       <c r="F163" s="10"/>
       <c r="G163" s="10"/>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A164" s="10"/>
       <c r="B164" s="10"/>
       <c r="C164" s="10"/>
@@ -4336,25 +3808,25 @@
       <c r="F164" s="10"/>
       <c r="G164" s="10"/>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A165" s="10"/>
       <c r="B165" s="10"/>
-      <c r="C165" s="12"/>
+      <c r="C165" s="10"/>
       <c r="D165" s="10"/>
       <c r="E165" s="11"/>
       <c r="F165" s="10"/>
       <c r="G165" s="10"/>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A166" s="10"/>
       <c r="B166" s="10"/>
       <c r="C166" s="10"/>
       <c r="D166" s="10"/>
-      <c r="E166" s="10"/>
+      <c r="E166" s="11"/>
       <c r="F166" s="10"/>
       <c r="G166" s="10"/>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A167" s="10"/>
       <c r="B167" s="10"/>
       <c r="C167" s="10"/>
@@ -4363,25 +3835,25 @@
       <c r="F167" s="10"/>
       <c r="G167" s="10"/>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A168" s="10"/>
-      <c r="B168" s="10"/>
-      <c r="C168" s="10"/>
-      <c r="D168" s="10"/>
-      <c r="E168" s="10"/>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A168" s="28"/>
+      <c r="B168" s="28"/>
+      <c r="C168" s="28"/>
+      <c r="D168" s="28"/>
+      <c r="E168" s="28"/>
       <c r="F168" s="10"/>
       <c r="G168" s="10"/>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A169" s="10"/>
       <c r="B169" s="10"/>
       <c r="C169" s="10"/>
       <c r="D169" s="10"/>
       <c r="E169" s="10"/>
-      <c r="F169" s="10"/>
-      <c r="G169" s="10"/>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F169" s="28"/>
+      <c r="G169" s="28"/>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A170" s="10"/>
       <c r="B170" s="10"/>
       <c r="C170" s="10"/>
@@ -4390,7 +3862,7 @@
       <c r="F170" s="10"/>
       <c r="G170" s="10"/>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A171" s="10"/>
       <c r="B171" s="10"/>
       <c r="C171" s="10"/>
@@ -4399,7 +3871,7 @@
       <c r="F171" s="10"/>
       <c r="G171" s="10"/>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A172" s="10"/>
       <c r="B172" s="10"/>
       <c r="C172" s="10"/>
@@ -4408,7 +3880,7 @@
       <c r="F172" s="10"/>
       <c r="G172" s="10"/>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A173" s="10"/>
       <c r="B173" s="10"/>
       <c r="C173" s="10"/>
@@ -4417,16 +3889,16 @@
       <c r="F173" s="10"/>
       <c r="G173" s="10"/>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A174" s="10"/>
       <c r="B174" s="10"/>
       <c r="C174" s="10"/>
       <c r="D174" s="10"/>
-      <c r="E174" s="11"/>
+      <c r="E174" s="10"/>
       <c r="F174" s="10"/>
       <c r="G174" s="10"/>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A175" s="10"/>
       <c r="B175" s="10"/>
       <c r="C175" s="10"/>
@@ -4435,25 +3907,25 @@
       <c r="F175" s="10"/>
       <c r="G175" s="10"/>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A176" s="10"/>
       <c r="B176" s="10"/>
       <c r="C176" s="10"/>
       <c r="D176" s="10"/>
-      <c r="E176" s="11"/>
+      <c r="E176" s="10"/>
       <c r="F176" s="10"/>
       <c r="G176" s="10"/>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A177" s="10"/>
       <c r="B177" s="10"/>
       <c r="C177" s="10"/>
       <c r="D177" s="10"/>
       <c r="E177" s="10"/>
-      <c r="F177" s="28"/>
-      <c r="G177" s="28"/>
-    </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F177" s="10"/>
+      <c r="G177" s="10"/>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A178" s="10"/>
       <c r="B178" s="10"/>
       <c r="C178" s="10"/>
@@ -4462,34 +3934,34 @@
       <c r="F178" s="10"/>
       <c r="G178" s="10"/>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A179" s="10"/>
       <c r="B179" s="10"/>
       <c r="C179" s="10"/>
       <c r="D179" s="10"/>
-      <c r="E179" s="10"/>
+      <c r="E179" s="11"/>
       <c r="F179" s="10"/>
       <c r="G179" s="10"/>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A180" s="10"/>
       <c r="B180" s="10"/>
       <c r="C180" s="10"/>
       <c r="D180" s="10"/>
-      <c r="E180" s="10"/>
+      <c r="E180" s="11"/>
       <c r="F180" s="10"/>
       <c r="G180" s="10"/>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A181" s="10"/>
       <c r="B181" s="10"/>
       <c r="C181" s="10"/>
       <c r="D181" s="10"/>
-      <c r="E181" s="10"/>
+      <c r="E181" s="11"/>
       <c r="F181" s="10"/>
       <c r="G181" s="10"/>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A182" s="10"/>
       <c r="B182" s="10"/>
       <c r="C182" s="10"/>
@@ -4498,79 +3970,79 @@
       <c r="F182" s="10"/>
       <c r="G182" s="10"/>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A183" s="10"/>
       <c r="B183" s="10"/>
       <c r="C183" s="10"/>
       <c r="D183" s="10"/>
-      <c r="E183" s="11"/>
+      <c r="E183" s="10"/>
       <c r="F183" s="10"/>
       <c r="G183" s="10"/>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A184" s="10"/>
-      <c r="B184" s="10"/>
-      <c r="C184" s="10"/>
-      <c r="D184" s="10"/>
-      <c r="E184" s="11"/>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A184" s="28"/>
+      <c r="B184" s="28"/>
+      <c r="C184" s="28"/>
+      <c r="D184" s="28"/>
+      <c r="E184" s="28"/>
       <c r="F184" s="10"/>
       <c r="G184" s="10"/>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A185" s="10"/>
       <c r="B185" s="10"/>
       <c r="C185" s="10"/>
       <c r="D185" s="10"/>
-      <c r="E185" s="11"/>
+      <c r="E185" s="10"/>
       <c r="F185" s="10"/>
       <c r="G185" s="10"/>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A186" s="10"/>
       <c r="B186" s="10"/>
       <c r="C186" s="10"/>
       <c r="D186" s="10"/>
-      <c r="E186" s="11"/>
-      <c r="F186" s="10"/>
-      <c r="G186" s="10"/>
-    </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E186" s="10"/>
+      <c r="F186" s="28"/>
+      <c r="G186" s="28"/>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A187" s="10"/>
       <c r="B187" s="10"/>
       <c r="C187" s="10"/>
       <c r="D187" s="10"/>
-      <c r="E187" s="11"/>
+      <c r="E187" s="10"/>
       <c r="F187" s="10"/>
       <c r="G187" s="10"/>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A188" s="10"/>
       <c r="B188" s="10"/>
       <c r="C188" s="10"/>
       <c r="D188" s="10"/>
-      <c r="E188" s="11"/>
+      <c r="E188" s="10"/>
       <c r="F188" s="10"/>
       <c r="G188" s="10"/>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A189" s="10"/>
       <c r="B189" s="10"/>
       <c r="C189" s="10"/>
       <c r="D189" s="10"/>
-      <c r="E189" s="11"/>
+      <c r="E189" s="10"/>
       <c r="F189" s="10"/>
       <c r="G189" s="10"/>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A190" s="10"/>
       <c r="B190" s="10"/>
       <c r="C190" s="10"/>
       <c r="D190" s="10"/>
-      <c r="E190" s="11"/>
+      <c r="E190" s="10"/>
       <c r="F190" s="10"/>
       <c r="G190" s="10"/>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A191" s="10"/>
       <c r="B191" s="10"/>
       <c r="C191" s="10"/>
@@ -4579,25 +4051,25 @@
       <c r="F191" s="10"/>
       <c r="G191" s="10"/>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A192" s="28"/>
-      <c r="B192" s="28"/>
-      <c r="C192" s="28"/>
-      <c r="D192" s="28"/>
-      <c r="E192" s="28"/>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A192" s="10"/>
+      <c r="B192" s="10"/>
+      <c r="C192" s="10"/>
+      <c r="D192" s="10"/>
+      <c r="E192" s="10"/>
       <c r="F192" s="10"/>
       <c r="G192" s="10"/>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A193" s="10"/>
       <c r="B193" s="10"/>
       <c r="C193" s="10"/>
       <c r="D193" s="10"/>
       <c r="E193" s="10"/>
-      <c r="F193" s="28"/>
-      <c r="G193" s="28"/>
-    </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F193" s="10"/>
+      <c r="G193" s="10"/>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A194" s="10"/>
       <c r="B194" s="10"/>
       <c r="C194" s="10"/>
@@ -4606,52 +4078,52 @@
       <c r="F194" s="10"/>
       <c r="G194" s="10"/>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A195" s="10"/>
       <c r="B195" s="10"/>
       <c r="C195" s="10"/>
       <c r="D195" s="10"/>
-      <c r="E195" s="10"/>
+      <c r="E195" s="11"/>
       <c r="F195" s="10"/>
       <c r="G195" s="10"/>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A196" s="10"/>
       <c r="B196" s="10"/>
       <c r="C196" s="10"/>
       <c r="D196" s="10"/>
-      <c r="E196" s="10"/>
+      <c r="E196" s="11"/>
       <c r="F196" s="10"/>
       <c r="G196" s="10"/>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A197" s="10"/>
       <c r="B197" s="10"/>
       <c r="C197" s="10"/>
       <c r="D197" s="10"/>
-      <c r="E197" s="10"/>
+      <c r="E197" s="11"/>
       <c r="F197" s="10"/>
       <c r="G197" s="10"/>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A198" s="10"/>
       <c r="B198" s="10"/>
       <c r="C198" s="10"/>
       <c r="D198" s="10"/>
-      <c r="E198" s="10"/>
+      <c r="E198" s="11"/>
       <c r="F198" s="10"/>
       <c r="G198" s="10"/>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A199" s="10"/>
       <c r="B199" s="10"/>
       <c r="C199" s="10"/>
       <c r="D199" s="10"/>
-      <c r="E199" s="10"/>
+      <c r="E199" s="11"/>
       <c r="F199" s="10"/>
       <c r="G199" s="10"/>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A200" s="10"/>
       <c r="B200" s="10"/>
       <c r="C200" s="10"/>
@@ -4660,79 +4132,79 @@
       <c r="F200" s="10"/>
       <c r="G200" s="10"/>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A201" s="10"/>
-      <c r="B201" s="10"/>
-      <c r="C201" s="10"/>
-      <c r="D201" s="10"/>
-      <c r="E201" s="10"/>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A201" s="28"/>
+      <c r="B201" s="28"/>
+      <c r="C201" s="28"/>
+      <c r="D201" s="28"/>
+      <c r="E201" s="28"/>
       <c r="F201" s="10"/>
       <c r="G201" s="10"/>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A202" s="10"/>
       <c r="B202" s="10"/>
       <c r="C202" s="10"/>
       <c r="D202" s="10"/>
-      <c r="E202" s="11"/>
+      <c r="E202" s="10"/>
       <c r="F202" s="10"/>
       <c r="G202" s="10"/>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A203" s="10"/>
       <c r="B203" s="10"/>
       <c r="C203" s="10"/>
       <c r="D203" s="10"/>
-      <c r="E203" s="11"/>
+      <c r="E203" s="10"/>
       <c r="F203" s="10"/>
       <c r="G203" s="10"/>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A204" s="10"/>
       <c r="B204" s="10"/>
       <c r="C204" s="10"/>
       <c r="D204" s="10"/>
-      <c r="E204" s="11"/>
+      <c r="E204" s="10"/>
       <c r="F204" s="10"/>
       <c r="G204" s="10"/>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A205" s="10"/>
       <c r="B205" s="10"/>
       <c r="C205" s="10"/>
       <c r="D205" s="10"/>
-      <c r="E205" s="11"/>
+      <c r="E205" s="10"/>
       <c r="F205" s="10"/>
       <c r="G205" s="10"/>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A206" s="10"/>
       <c r="B206" s="10"/>
       <c r="C206" s="10"/>
       <c r="D206" s="10"/>
-      <c r="E206" s="11"/>
+      <c r="E206" s="10"/>
       <c r="F206" s="10"/>
       <c r="G206" s="10"/>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A207" s="10"/>
       <c r="B207" s="10"/>
       <c r="C207" s="10"/>
       <c r="D207" s="10"/>
       <c r="E207" s="10"/>
-      <c r="F207" s="10"/>
-      <c r="G207" s="10"/>
-    </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A208" s="28"/>
-      <c r="B208" s="28"/>
-      <c r="C208" s="28"/>
-      <c r="D208" s="28"/>
-      <c r="E208" s="28"/>
+      <c r="F207" s="28"/>
+      <c r="G207" s="28"/>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A208" s="10"/>
+      <c r="B208" s="10"/>
+      <c r="C208" s="10"/>
+      <c r="D208" s="10"/>
+      <c r="E208" s="10"/>
       <c r="F208" s="10"/>
       <c r="G208" s="10"/>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A209" s="10"/>
       <c r="B209" s="10"/>
       <c r="C209" s="10"/>
@@ -4741,16 +4213,16 @@
       <c r="F209" s="10"/>
       <c r="G209" s="10"/>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A210" s="10"/>
       <c r="B210" s="10"/>
       <c r="C210" s="10"/>
       <c r="D210" s="10"/>
       <c r="E210" s="10"/>
-      <c r="F210" s="28"/>
-      <c r="G210" s="28"/>
-    </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F210" s="10"/>
+      <c r="G210" s="10"/>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A211" s="10"/>
       <c r="B211" s="10"/>
       <c r="C211" s="10"/>
@@ -4759,7 +4231,7 @@
       <c r="F211" s="10"/>
       <c r="G211" s="10"/>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A212" s="10"/>
       <c r="B212" s="10"/>
       <c r="C212" s="10"/>
@@ -4768,7 +4240,7 @@
       <c r="F212" s="10"/>
       <c r="G212" s="10"/>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A213" s="10"/>
       <c r="B213" s="10"/>
       <c r="C213" s="10"/>
@@ -4777,7 +4249,7 @@
       <c r="F213" s="10"/>
       <c r="G213" s="10"/>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A214" s="10"/>
       <c r="B214" s="10"/>
       <c r="C214" s="10"/>
@@ -4786,7 +4258,7 @@
       <c r="F214" s="10"/>
       <c r="G214" s="10"/>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A215" s="10"/>
       <c r="B215" s="10"/>
       <c r="C215" s="10"/>
@@ -4795,7 +4267,7 @@
       <c r="F215" s="10"/>
       <c r="G215" s="10"/>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A216" s="10"/>
       <c r="B216" s="10"/>
       <c r="C216" s="10"/>
@@ -4804,7 +4276,7 @@
       <c r="F216" s="10"/>
       <c r="G216" s="10"/>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A217" s="10"/>
       <c r="B217" s="10"/>
       <c r="C217" s="10"/>
@@ -4813,7 +4285,7 @@
       <c r="F217" s="10"/>
       <c r="G217" s="10"/>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A218" s="10"/>
       <c r="B218" s="10"/>
       <c r="C218" s="10"/>
@@ -4822,52 +4294,52 @@
       <c r="F218" s="10"/>
       <c r="G218" s="10"/>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A219" s="10"/>
       <c r="B219" s="10"/>
       <c r="C219" s="10"/>
       <c r="D219" s="10"/>
-      <c r="E219" s="11"/>
+      <c r="E219" s="10"/>
       <c r="F219" s="10"/>
       <c r="G219" s="10"/>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A220" s="10"/>
       <c r="B220" s="10"/>
-      <c r="C220" s="10"/>
+      <c r="C220" s="12"/>
       <c r="D220" s="10"/>
-      <c r="E220" s="11"/>
-      <c r="F220" s="10"/>
-      <c r="G220" s="10"/>
-    </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E220" s="10"/>
+      <c r="F220" s="28"/>
+      <c r="G220" s="28"/>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A221" s="10"/>
       <c r="B221" s="10"/>
       <c r="C221" s="10"/>
       <c r="D221" s="10"/>
-      <c r="E221" s="11"/>
+      <c r="E221" s="10"/>
       <c r="F221" s="10"/>
       <c r="G221" s="10"/>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A222" s="10"/>
-      <c r="B222" s="10"/>
-      <c r="C222" s="10"/>
-      <c r="D222" s="10"/>
-      <c r="E222" s="11"/>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A222" s="28"/>
+      <c r="B222" s="28"/>
+      <c r="C222" s="28"/>
+      <c r="D222" s="28"/>
+      <c r="E222" s="28"/>
       <c r="F222" s="10"/>
       <c r="G222" s="10"/>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A223" s="10"/>
       <c r="B223" s="10"/>
       <c r="C223" s="10"/>
       <c r="D223" s="10"/>
-      <c r="E223" s="11"/>
+      <c r="E223" s="10"/>
       <c r="F223" s="10"/>
       <c r="G223" s="10"/>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A224" s="10"/>
       <c r="B224" s="10"/>
       <c r="C224" s="10"/>
@@ -4876,16 +4348,16 @@
       <c r="F224" s="10"/>
       <c r="G224" s="10"/>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A225" s="28"/>
-      <c r="B225" s="28"/>
-      <c r="C225" s="28"/>
-      <c r="D225" s="28"/>
-      <c r="E225" s="28"/>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A225" s="10"/>
+      <c r="B225" s="10"/>
+      <c r="C225" s="10"/>
+      <c r="D225" s="10"/>
+      <c r="E225" s="10"/>
       <c r="F225" s="10"/>
       <c r="G225" s="10"/>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A226" s="10"/>
       <c r="B226" s="10"/>
       <c r="C226" s="10"/>
@@ -4894,7 +4366,7 @@
       <c r="F226" s="10"/>
       <c r="G226" s="10"/>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A227" s="10"/>
       <c r="B227" s="10"/>
       <c r="C227" s="10"/>
@@ -4903,7 +4375,7 @@
       <c r="F227" s="10"/>
       <c r="G227" s="10"/>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A228" s="10"/>
       <c r="B228" s="10"/>
       <c r="C228" s="10"/>
@@ -4912,7 +4384,7 @@
       <c r="F228" s="10"/>
       <c r="G228" s="10"/>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A229" s="10"/>
       <c r="B229" s="10"/>
       <c r="C229" s="10"/>
@@ -4921,7 +4393,7 @@
       <c r="F229" s="10"/>
       <c r="G229" s="10"/>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A230" s="10"/>
       <c r="B230" s="10"/>
       <c r="C230" s="10"/>
@@ -4930,16 +4402,16 @@
       <c r="F230" s="10"/>
       <c r="G230" s="10"/>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A231" s="10"/>
       <c r="B231" s="10"/>
       <c r="C231" s="10"/>
       <c r="D231" s="10"/>
       <c r="E231" s="10"/>
-      <c r="F231" s="28"/>
-      <c r="G231" s="28"/>
-    </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F231" s="10"/>
+      <c r="G231" s="10"/>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A232" s="10"/>
       <c r="B232" s="10"/>
       <c r="C232" s="10"/>
@@ -4948,7 +4420,7 @@
       <c r="F232" s="10"/>
       <c r="G232" s="10"/>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A233" s="10"/>
       <c r="B233" s="10"/>
       <c r="C233" s="10"/>
@@ -4957,7 +4429,7 @@
       <c r="F233" s="10"/>
       <c r="G233" s="10"/>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A234" s="10"/>
       <c r="B234" s="10"/>
       <c r="C234" s="10"/>
@@ -4966,16 +4438,16 @@
       <c r="F234" s="10"/>
       <c r="G234" s="10"/>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A235" s="10"/>
-      <c r="B235" s="10"/>
-      <c r="C235" s="10"/>
-      <c r="D235" s="10"/>
-      <c r="E235" s="10"/>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A235" s="28"/>
+      <c r="B235" s="28"/>
+      <c r="C235" s="28"/>
+      <c r="D235" s="28"/>
+      <c r="E235" s="28"/>
       <c r="F235" s="10"/>
       <c r="G235" s="10"/>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A236" s="10"/>
       <c r="B236" s="10"/>
       <c r="C236" s="10"/>
@@ -4984,7 +4456,7 @@
       <c r="F236" s="10"/>
       <c r="G236" s="10"/>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A237" s="10"/>
       <c r="B237" s="10"/>
       <c r="C237" s="10"/>
@@ -4993,7 +4465,7 @@
       <c r="F237" s="10"/>
       <c r="G237" s="10"/>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A238" s="10"/>
       <c r="B238" s="10"/>
       <c r="C238" s="10"/>
@@ -5002,7 +4474,7 @@
       <c r="F238" s="10"/>
       <c r="G238" s="10"/>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A239" s="10"/>
       <c r="B239" s="10"/>
       <c r="C239" s="10"/>
@@ -5011,16 +4483,16 @@
       <c r="F239" s="10"/>
       <c r="G239" s="10"/>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A240" s="10"/>
       <c r="B240" s="10"/>
       <c r="C240" s="10"/>
       <c r="D240" s="10"/>
       <c r="E240" s="10"/>
-      <c r="F240" s="10"/>
-      <c r="G240" s="10"/>
-    </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F240" s="28"/>
+      <c r="G240" s="28"/>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A241" s="10"/>
       <c r="B241" s="10"/>
       <c r="C241" s="10"/>
@@ -5029,7 +4501,7 @@
       <c r="F241" s="10"/>
       <c r="G241" s="10"/>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A242" s="10"/>
       <c r="B242" s="10"/>
       <c r="C242" s="10"/>
@@ -5038,7 +4510,7 @@
       <c r="F242" s="10"/>
       <c r="G242" s="10"/>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A243" s="10"/>
       <c r="B243" s="10"/>
       <c r="C243" s="10"/>
@@ -5047,16 +4519,16 @@
       <c r="F243" s="10"/>
       <c r="G243" s="10"/>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A244" s="10"/>
       <c r="B244" s="10"/>
-      <c r="C244" s="12"/>
+      <c r="C244" s="10"/>
       <c r="D244" s="10"/>
       <c r="E244" s="10"/>
-      <c r="F244" s="28"/>
-      <c r="G244" s="28"/>
-    </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F244" s="10"/>
+      <c r="G244" s="10"/>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A245" s="10"/>
       <c r="B245" s="10"/>
       <c r="C245" s="10"/>
@@ -5065,16 +4537,16 @@
       <c r="F245" s="10"/>
       <c r="G245" s="10"/>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A246" s="28"/>
-      <c r="B246" s="28"/>
-      <c r="C246" s="28"/>
-      <c r="D246" s="28"/>
-      <c r="E246" s="28"/>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A246" s="10"/>
+      <c r="B246" s="10"/>
+      <c r="C246" s="10"/>
+      <c r="D246" s="10"/>
+      <c r="E246" s="10"/>
       <c r="F246" s="10"/>
       <c r="G246" s="10"/>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A247" s="10"/>
       <c r="B247" s="10"/>
       <c r="C247" s="10"/>
@@ -5083,7 +4555,7 @@
       <c r="F247" s="10"/>
       <c r="G247" s="10"/>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A248" s="10"/>
       <c r="B248" s="10"/>
       <c r="C248" s="10"/>
@@ -5092,7 +4564,7 @@
       <c r="F248" s="10"/>
       <c r="G248" s="10"/>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A249" s="10"/>
       <c r="B249" s="10"/>
       <c r="C249" s="10"/>
@@ -5101,7 +4573,7 @@
       <c r="F249" s="10"/>
       <c r="G249" s="10"/>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A250" s="10"/>
       <c r="B250" s="10"/>
       <c r="C250" s="10"/>
@@ -5110,7 +4582,7 @@
       <c r="F250" s="10"/>
       <c r="G250" s="10"/>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A251" s="10"/>
       <c r="B251" s="10"/>
       <c r="C251" s="10"/>
@@ -5119,7 +4591,7 @@
       <c r="F251" s="10"/>
       <c r="G251" s="10"/>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A252" s="10"/>
       <c r="B252" s="10"/>
       <c r="C252" s="10"/>
@@ -5128,7 +4600,7 @@
       <c r="F252" s="10"/>
       <c r="G252" s="10"/>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A253" s="10"/>
       <c r="B253" s="10"/>
       <c r="C253" s="10"/>
@@ -5137,7 +4609,7 @@
       <c r="F253" s="10"/>
       <c r="G253" s="10"/>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A254" s="10"/>
       <c r="B254" s="10"/>
       <c r="C254" s="10"/>
@@ -5146,16 +4618,16 @@
       <c r="F254" s="10"/>
       <c r="G254" s="10"/>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A255" s="10"/>
-      <c r="B255" s="10"/>
-      <c r="C255" s="10"/>
-      <c r="D255" s="10"/>
-      <c r="E255" s="10"/>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A255" s="28"/>
+      <c r="B255" s="28"/>
+      <c r="C255" s="28"/>
+      <c r="D255" s="28"/>
+      <c r="E255" s="28"/>
       <c r="F255" s="10"/>
       <c r="G255" s="10"/>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A256" s="10"/>
       <c r="B256" s="10"/>
       <c r="C256" s="10"/>
@@ -5164,7 +4636,7 @@
       <c r="F256" s="10"/>
       <c r="G256" s="10"/>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A257" s="10"/>
       <c r="B257" s="10"/>
       <c r="C257" s="10"/>
@@ -5173,7 +4645,7 @@
       <c r="F257" s="10"/>
       <c r="G257" s="10"/>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A258" s="10"/>
       <c r="B258" s="10"/>
       <c r="C258" s="10"/>
@@ -5182,16 +4654,16 @@
       <c r="F258" s="10"/>
       <c r="G258" s="10"/>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A259" s="28"/>
-      <c r="B259" s="28"/>
-      <c r="C259" s="28"/>
-      <c r="D259" s="28"/>
-      <c r="E259" s="28"/>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A259" s="10"/>
+      <c r="B259" s="10"/>
+      <c r="C259" s="10"/>
+      <c r="D259" s="10"/>
+      <c r="E259" s="10"/>
       <c r="F259" s="10"/>
       <c r="G259" s="10"/>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A260" s="10"/>
       <c r="B260" s="10"/>
       <c r="C260" s="10"/>
@@ -5200,7 +4672,7 @@
       <c r="F260" s="10"/>
       <c r="G260" s="10"/>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A261" s="10"/>
       <c r="B261" s="10"/>
       <c r="C261" s="10"/>
@@ -5209,7 +4681,7 @@
       <c r="F261" s="10"/>
       <c r="G261" s="10"/>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A262" s="10"/>
       <c r="B262" s="10"/>
       <c r="C262" s="10"/>
@@ -5218,7 +4690,7 @@
       <c r="F262" s="10"/>
       <c r="G262" s="10"/>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A263" s="10"/>
       <c r="B263" s="10"/>
       <c r="C263" s="10"/>
@@ -5227,16 +4699,16 @@
       <c r="F263" s="10"/>
       <c r="G263" s="10"/>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A264" s="10"/>
       <c r="B264" s="10"/>
       <c r="C264" s="10"/>
       <c r="D264" s="10"/>
       <c r="E264" s="10"/>
-      <c r="F264" s="28"/>
-      <c r="G264" s="28"/>
-    </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F264" s="10"/>
+      <c r="G264" s="10"/>
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A265" s="10"/>
       <c r="B265" s="10"/>
       <c r="C265" s="10"/>
@@ -5245,7 +4717,7 @@
       <c r="F265" s="10"/>
       <c r="G265" s="10"/>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A266" s="10"/>
       <c r="B266" s="10"/>
       <c r="C266" s="10"/>
@@ -5254,7 +4726,7 @@
       <c r="F266" s="10"/>
       <c r="G266" s="10"/>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A267" s="10"/>
       <c r="B267" s="10"/>
       <c r="C267" s="10"/>
@@ -5263,61 +4735,61 @@
       <c r="F267" s="10"/>
       <c r="G267" s="10"/>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A268" s="10"/>
       <c r="B268" s="10"/>
       <c r="C268" s="10"/>
       <c r="D268" s="10"/>
-      <c r="E268" s="10"/>
+      <c r="E268" s="11"/>
       <c r="F268" s="10"/>
       <c r="G268" s="10"/>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A269" s="10"/>
       <c r="B269" s="10"/>
       <c r="C269" s="10"/>
       <c r="D269" s="10"/>
-      <c r="E269" s="10"/>
+      <c r="E269" s="11"/>
       <c r="F269" s="10"/>
       <c r="G269" s="10"/>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A270" s="10"/>
       <c r="B270" s="10"/>
       <c r="C270" s="10"/>
       <c r="D270" s="10"/>
-      <c r="E270" s="10"/>
+      <c r="E270" s="11"/>
       <c r="F270" s="10"/>
       <c r="G270" s="10"/>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A271" s="10"/>
       <c r="B271" s="10"/>
       <c r="C271" s="10"/>
       <c r="D271" s="10"/>
-      <c r="E271" s="10"/>
+      <c r="E271" s="11"/>
       <c r="F271" s="10"/>
       <c r="G271" s="10"/>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A272" s="10"/>
       <c r="B272" s="10"/>
       <c r="C272" s="10"/>
       <c r="D272" s="10"/>
-      <c r="E272" s="10"/>
+      <c r="E272" s="11"/>
       <c r="F272" s="10"/>
       <c r="G272" s="10"/>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A273" s="10"/>
       <c r="B273" s="10"/>
       <c r="C273" s="10"/>
       <c r="D273" s="10"/>
-      <c r="E273" s="10"/>
+      <c r="E273" s="11"/>
       <c r="F273" s="10"/>
       <c r="G273" s="10"/>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A274" s="10"/>
       <c r="B274" s="10"/>
       <c r="C274" s="10"/>
@@ -5326,16 +4798,16 @@
       <c r="F274" s="10"/>
       <c r="G274" s="10"/>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A275" s="10"/>
       <c r="B275" s="10"/>
       <c r="C275" s="10"/>
       <c r="D275" s="10"/>
       <c r="E275" s="10"/>
-      <c r="F275" s="10"/>
-      <c r="G275" s="10"/>
-    </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F275" s="28"/>
+      <c r="G275" s="28"/>
+    </row>
+    <row r="276" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A276" s="10"/>
       <c r="B276" s="10"/>
       <c r="C276" s="10"/>
@@ -5344,7 +4816,7 @@
       <c r="F276" s="10"/>
       <c r="G276" s="10"/>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A277" s="10"/>
       <c r="B277" s="10"/>
       <c r="C277" s="10"/>
@@ -5353,7 +4825,7 @@
       <c r="F277" s="10"/>
       <c r="G277" s="10"/>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A278" s="10"/>
       <c r="B278" s="10"/>
       <c r="C278" s="10"/>
@@ -5362,16 +4834,16 @@
       <c r="F278" s="10"/>
       <c r="G278" s="10"/>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A279" s="28"/>
-      <c r="B279" s="28"/>
-      <c r="C279" s="28"/>
-      <c r="D279" s="28"/>
-      <c r="E279" s="28"/>
+    <row r="279" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A279" s="10"/>
+      <c r="B279" s="10"/>
+      <c r="C279" s="10"/>
+      <c r="D279" s="10"/>
+      <c r="E279" s="10"/>
       <c r="F279" s="10"/>
       <c r="G279" s="10"/>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A280" s="10"/>
       <c r="B280" s="10"/>
       <c r="C280" s="10"/>
@@ -5380,7 +4852,7 @@
       <c r="F280" s="10"/>
       <c r="G280" s="10"/>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A281" s="10"/>
       <c r="B281" s="10"/>
       <c r="C281" s="10"/>
@@ -5389,7 +4861,7 @@
       <c r="F281" s="10"/>
       <c r="G281" s="10"/>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A282" s="10"/>
       <c r="B282" s="10"/>
       <c r="C282" s="10"/>
@@ -5398,7 +4870,7 @@
       <c r="F282" s="10"/>
       <c r="G282" s="10"/>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A283" s="10"/>
       <c r="B283" s="10"/>
       <c r="C283" s="10"/>
@@ -5407,7 +4879,7 @@
       <c r="F283" s="10"/>
       <c r="G283" s="10"/>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A284" s="10"/>
       <c r="B284" s="10"/>
       <c r="C284" s="10"/>
@@ -5416,7 +4888,7 @@
       <c r="F284" s="10"/>
       <c r="G284" s="10"/>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A285" s="10"/>
       <c r="B285" s="10"/>
       <c r="C285" s="10"/>
@@ -5425,16 +4897,16 @@
       <c r="F285" s="10"/>
       <c r="G285" s="10"/>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A286" s="10"/>
       <c r="B286" s="10"/>
       <c r="C286" s="10"/>
       <c r="D286" s="10"/>
-      <c r="E286" s="10"/>
+      <c r="E286" s="11"/>
       <c r="F286" s="10"/>
       <c r="G286" s="10"/>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A287" s="10"/>
       <c r="B287" s="10"/>
       <c r="C287" s="10"/>
@@ -5443,7 +4915,7 @@
       <c r="F287" s="10"/>
       <c r="G287" s="10"/>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A288" s="10"/>
       <c r="B288" s="10"/>
       <c r="C288" s="10"/>
@@ -5452,7 +4924,7 @@
       <c r="F288" s="10"/>
       <c r="G288" s="10"/>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A289" s="10"/>
       <c r="B289" s="10"/>
       <c r="C289" s="10"/>
@@ -5461,16 +4933,16 @@
       <c r="F289" s="10"/>
       <c r="G289" s="10"/>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A290" s="10"/>
-      <c r="B290" s="10"/>
-      <c r="C290" s="10"/>
-      <c r="D290" s="10"/>
-      <c r="E290" s="10"/>
+    <row r="290" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A290" s="28"/>
+      <c r="B290" s="28"/>
+      <c r="C290" s="28"/>
+      <c r="D290" s="28"/>
+      <c r="E290" s="28"/>
       <c r="F290" s="10"/>
       <c r="G290" s="10"/>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A291" s="10"/>
       <c r="B291" s="10"/>
       <c r="C291" s="10"/>
@@ -5479,61 +4951,61 @@
       <c r="F291" s="10"/>
       <c r="G291" s="10"/>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A292" s="10"/>
       <c r="B292" s="10"/>
       <c r="C292" s="10"/>
       <c r="D292" s="10"/>
-      <c r="E292" s="11"/>
+      <c r="E292" s="10"/>
       <c r="F292" s="10"/>
       <c r="G292" s="10"/>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A293" s="10"/>
       <c r="B293" s="10"/>
       <c r="C293" s="10"/>
       <c r="D293" s="10"/>
-      <c r="E293" s="11"/>
+      <c r="E293" s="10"/>
       <c r="F293" s="10"/>
       <c r="G293" s="10"/>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A294" s="10"/>
       <c r="B294" s="10"/>
       <c r="C294" s="10"/>
       <c r="D294" s="10"/>
-      <c r="E294" s="11"/>
+      <c r="E294" s="10"/>
       <c r="F294" s="10"/>
       <c r="G294" s="10"/>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A295" s="10"/>
       <c r="B295" s="10"/>
       <c r="C295" s="10"/>
       <c r="D295" s="10"/>
-      <c r="E295" s="11"/>
-      <c r="F295" s="10"/>
-      <c r="G295" s="10"/>
-    </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E295" s="10"/>
+      <c r="F295" s="28"/>
+      <c r="G295" s="28"/>
+    </row>
+    <row r="296" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A296" s="10"/>
       <c r="B296" s="10"/>
       <c r="C296" s="10"/>
       <c r="D296" s="10"/>
-      <c r="E296" s="11"/>
+      <c r="E296" s="10"/>
       <c r="F296" s="10"/>
       <c r="G296" s="10"/>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A297" s="10"/>
       <c r="B297" s="10"/>
       <c r="C297" s="10"/>
       <c r="D297" s="10"/>
-      <c r="E297" s="11"/>
+      <c r="E297" s="10"/>
       <c r="F297" s="10"/>
       <c r="G297" s="10"/>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A298" s="10"/>
       <c r="B298" s="10"/>
       <c r="C298" s="10"/>
@@ -5542,16 +5014,16 @@
       <c r="F298" s="10"/>
       <c r="G298" s="10"/>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A299" s="10"/>
       <c r="B299" s="10"/>
       <c r="C299" s="10"/>
       <c r="D299" s="10"/>
       <c r="E299" s="10"/>
-      <c r="F299" s="28"/>
-      <c r="G299" s="28"/>
-    </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F299" s="10"/>
+      <c r="G299" s="10"/>
+    </row>
+    <row r="300" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A300" s="10"/>
       <c r="B300" s="10"/>
       <c r="C300" s="10"/>
@@ -5560,7 +5032,7 @@
       <c r="F300" s="10"/>
       <c r="G300" s="10"/>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A301" s="10"/>
       <c r="B301" s="10"/>
       <c r="C301" s="10"/>
@@ -5569,61 +5041,61 @@
       <c r="F301" s="10"/>
       <c r="G301" s="10"/>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A302" s="10"/>
       <c r="B302" s="10"/>
       <c r="C302" s="10"/>
       <c r="D302" s="10"/>
-      <c r="E302" s="10"/>
+      <c r="E302" s="11"/>
       <c r="F302" s="10"/>
       <c r="G302" s="10"/>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A303" s="10"/>
       <c r="B303" s="10"/>
       <c r="C303" s="10"/>
       <c r="D303" s="10"/>
-      <c r="E303" s="10"/>
+      <c r="E303" s="11"/>
       <c r="F303" s="10"/>
       <c r="G303" s="10"/>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A304" s="10"/>
       <c r="B304" s="10"/>
       <c r="C304" s="10"/>
       <c r="D304" s="10"/>
-      <c r="E304" s="10"/>
+      <c r="E304" s="11"/>
       <c r="F304" s="10"/>
       <c r="G304" s="10"/>
     </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A305" s="10"/>
       <c r="B305" s="10"/>
       <c r="C305" s="10"/>
       <c r="D305" s="10"/>
-      <c r="E305" s="10"/>
+      <c r="E305" s="11"/>
       <c r="F305" s="10"/>
       <c r="G305" s="10"/>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A306" s="10"/>
       <c r="B306" s="10"/>
       <c r="C306" s="10"/>
       <c r="D306" s="10"/>
-      <c r="E306" s="10"/>
+      <c r="E306" s="11"/>
       <c r="F306" s="10"/>
       <c r="G306" s="10"/>
     </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A307" s="10"/>
       <c r="B307" s="10"/>
       <c r="C307" s="10"/>
       <c r="D307" s="10"/>
       <c r="E307" s="10"/>
-      <c r="F307" s="10"/>
-      <c r="G307" s="10"/>
-    </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F307" s="28"/>
+      <c r="G307" s="28"/>
+    </row>
+    <row r="308" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A308" s="10"/>
       <c r="B308" s="10"/>
       <c r="C308" s="10"/>
@@ -5632,7 +5104,7 @@
       <c r="F308" s="10"/>
       <c r="G308" s="10"/>
     </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A309" s="10"/>
       <c r="B309" s="10"/>
       <c r="C309" s="10"/>
@@ -5641,16 +5113,16 @@
       <c r="F309" s="10"/>
       <c r="G309" s="10"/>
     </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A310" s="10"/>
-      <c r="B310" s="10"/>
-      <c r="C310" s="10"/>
-      <c r="D310" s="10"/>
-      <c r="E310" s="11"/>
+    <row r="310" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A310" s="28"/>
+      <c r="B310" s="28"/>
+      <c r="C310" s="28"/>
+      <c r="D310" s="28"/>
+      <c r="E310" s="28"/>
       <c r="F310" s="10"/>
       <c r="G310" s="10"/>
     </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A311" s="10"/>
       <c r="B311" s="10"/>
       <c r="C311" s="10"/>
@@ -5659,7 +5131,7 @@
       <c r="F311" s="10"/>
       <c r="G311" s="10"/>
     </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A312" s="10"/>
       <c r="B312" s="10"/>
       <c r="C312" s="10"/>
@@ -5668,7 +5140,7 @@
       <c r="F312" s="10"/>
       <c r="G312" s="10"/>
     </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A313" s="10"/>
       <c r="B313" s="10"/>
       <c r="C313" s="10"/>
@@ -5677,16 +5149,16 @@
       <c r="F313" s="10"/>
       <c r="G313" s="10"/>
     </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A314" s="28"/>
-      <c r="B314" s="28"/>
-      <c r="C314" s="28"/>
-      <c r="D314" s="28"/>
-      <c r="E314" s="28"/>
+    <row r="314" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A314" s="10"/>
+      <c r="B314" s="10"/>
+      <c r="C314" s="10"/>
+      <c r="D314" s="10"/>
+      <c r="E314" s="10"/>
       <c r="F314" s="10"/>
       <c r="G314" s="10"/>
     </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A315" s="10"/>
       <c r="B315" s="10"/>
       <c r="C315" s="10"/>
@@ -5695,7 +5167,7 @@
       <c r="F315" s="10"/>
       <c r="G315" s="10"/>
     </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A316" s="10"/>
       <c r="B316" s="10"/>
       <c r="C316" s="10"/>
@@ -5704,7 +5176,7 @@
       <c r="F316" s="10"/>
       <c r="G316" s="10"/>
     </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A317" s="10"/>
       <c r="B317" s="10"/>
       <c r="C317" s="10"/>
@@ -5713,7 +5185,7 @@
       <c r="F317" s="10"/>
       <c r="G317" s="10"/>
     </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A318" s="10"/>
       <c r="B318" s="10"/>
       <c r="C318" s="10"/>
@@ -5722,16 +5194,16 @@
       <c r="F318" s="10"/>
       <c r="G318" s="10"/>
     </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A319" s="10"/>
       <c r="B319" s="10"/>
       <c r="C319" s="10"/>
       <c r="D319" s="10"/>
       <c r="E319" s="10"/>
-      <c r="F319" s="28"/>
-      <c r="G319" s="28"/>
-    </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F319" s="10"/>
+      <c r="G319" s="10"/>
+    </row>
+    <row r="320" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A320" s="10"/>
       <c r="B320" s="10"/>
       <c r="C320" s="10"/>
@@ -5740,7 +5212,7 @@
       <c r="F320" s="10"/>
       <c r="G320" s="10"/>
     </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A321" s="10"/>
       <c r="B321" s="10"/>
       <c r="C321" s="10"/>
@@ -5749,16 +5221,16 @@
       <c r="F321" s="10"/>
       <c r="G321" s="10"/>
     </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A322" s="10"/>
-      <c r="B322" s="10"/>
-      <c r="C322" s="10"/>
-      <c r="D322" s="10"/>
-      <c r="E322" s="10"/>
+    <row r="322" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A322" s="28"/>
+      <c r="B322" s="28"/>
+      <c r="C322" s="28"/>
+      <c r="D322" s="28"/>
+      <c r="E322" s="28"/>
       <c r="F322" s="10"/>
       <c r="G322" s="10"/>
     </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A323" s="10"/>
       <c r="B323" s="10"/>
       <c r="C323" s="10"/>
@@ -5767,7 +5239,7 @@
       <c r="F323" s="10"/>
       <c r="G323" s="10"/>
     </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A324" s="10"/>
       <c r="B324" s="10"/>
       <c r="C324" s="10"/>
@@ -5776,7 +5248,7 @@
       <c r="F324" s="10"/>
       <c r="G324" s="10"/>
     </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A325" s="10"/>
       <c r="B325" s="10"/>
       <c r="C325" s="10"/>
@@ -5785,61 +5257,61 @@
       <c r="F325" s="10"/>
       <c r="G325" s="10"/>
     </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A326" s="10"/>
       <c r="B326" s="10"/>
       <c r="C326" s="10"/>
       <c r="D326" s="10"/>
-      <c r="E326" s="11"/>
+      <c r="E326" s="10"/>
       <c r="F326" s="10"/>
       <c r="G326" s="10"/>
     </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A327" s="10"/>
       <c r="B327" s="10"/>
       <c r="C327" s="10"/>
       <c r="D327" s="10"/>
-      <c r="E327" s="11"/>
+      <c r="E327" s="10"/>
       <c r="F327" s="10"/>
       <c r="G327" s="10"/>
     </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A328" s="10"/>
       <c r="B328" s="10"/>
       <c r="C328" s="10"/>
       <c r="D328" s="10"/>
-      <c r="E328" s="11"/>
-      <c r="F328" s="10"/>
-      <c r="G328" s="10"/>
-    </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E328" s="10"/>
+      <c r="F328" s="28"/>
+      <c r="G328" s="28"/>
+    </row>
+    <row r="329" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A329" s="10"/>
       <c r="B329" s="10"/>
       <c r="C329" s="10"/>
       <c r="D329" s="10"/>
-      <c r="E329" s="11"/>
+      <c r="E329" s="10"/>
       <c r="F329" s="10"/>
       <c r="G329" s="10"/>
     </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A330" s="10"/>
       <c r="B330" s="10"/>
       <c r="C330" s="10"/>
       <c r="D330" s="10"/>
-      <c r="E330" s="11"/>
+      <c r="E330" s="10"/>
       <c r="F330" s="10"/>
       <c r="G330" s="10"/>
     </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A331" s="10"/>
       <c r="B331" s="10"/>
       <c r="C331" s="10"/>
       <c r="D331" s="10"/>
       <c r="E331" s="10"/>
-      <c r="F331" s="28"/>
-      <c r="G331" s="28"/>
-    </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F331" s="10"/>
+      <c r="G331" s="10"/>
+    </row>
+    <row r="332" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A332" s="10"/>
       <c r="B332" s="10"/>
       <c r="C332" s="10"/>
@@ -5848,7 +5320,7 @@
       <c r="F332" s="10"/>
       <c r="G332" s="10"/>
     </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A333" s="10"/>
       <c r="B333" s="10"/>
       <c r="C333" s="10"/>
@@ -5857,16 +5329,16 @@
       <c r="F333" s="10"/>
       <c r="G333" s="10"/>
     </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A334" s="28"/>
-      <c r="B334" s="28"/>
-      <c r="C334" s="28"/>
-      <c r="D334" s="28"/>
-      <c r="E334" s="28"/>
+    <row r="334" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A334" s="10"/>
+      <c r="B334" s="10"/>
+      <c r="C334" s="10"/>
+      <c r="D334" s="10"/>
+      <c r="E334" s="10"/>
       <c r="F334" s="10"/>
       <c r="G334" s="10"/>
     </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A335" s="10"/>
       <c r="B335" s="10"/>
       <c r="C335" s="10"/>
@@ -5875,7 +5347,7 @@
       <c r="F335" s="10"/>
       <c r="G335" s="10"/>
     </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A336" s="10"/>
       <c r="B336" s="10"/>
       <c r="C336" s="10"/>
@@ -5884,7 +5356,7 @@
       <c r="F336" s="10"/>
       <c r="G336" s="10"/>
     </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A337" s="10"/>
       <c r="B337" s="10"/>
       <c r="C337" s="10"/>
@@ -5893,7 +5365,7 @@
       <c r="F337" s="10"/>
       <c r="G337" s="10"/>
     </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A338" s="10"/>
       <c r="B338" s="10"/>
       <c r="C338" s="10"/>
@@ -5902,7 +5374,7 @@
       <c r="F338" s="10"/>
       <c r="G338" s="10"/>
     </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A339" s="10"/>
       <c r="B339" s="10"/>
       <c r="C339" s="10"/>
@@ -5911,7 +5383,7 @@
       <c r="F339" s="10"/>
       <c r="G339" s="10"/>
     </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A340" s="10"/>
       <c r="B340" s="10"/>
       <c r="C340" s="10"/>
@@ -5920,7 +5392,7 @@
       <c r="F340" s="10"/>
       <c r="G340" s="10"/>
     </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A341" s="10"/>
       <c r="B341" s="10"/>
       <c r="C341" s="10"/>
@@ -5929,7 +5401,7 @@
       <c r="F341" s="10"/>
       <c r="G341" s="10"/>
     </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A342" s="10"/>
       <c r="B342" s="10"/>
       <c r="C342" s="10"/>
@@ -5938,16 +5410,16 @@
       <c r="F342" s="10"/>
       <c r="G342" s="10"/>
     </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A343" s="10"/>
-      <c r="B343" s="10"/>
-      <c r="C343" s="10"/>
-      <c r="D343" s="10"/>
-      <c r="E343" s="10"/>
+    <row r="343" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A343" s="28"/>
+      <c r="B343" s="28"/>
+      <c r="C343" s="28"/>
+      <c r="D343" s="28"/>
+      <c r="E343" s="28"/>
       <c r="F343" s="10"/>
       <c r="G343" s="10"/>
     </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A344" s="10"/>
       <c r="B344" s="10"/>
       <c r="C344" s="10"/>
@@ -5956,7 +5428,7 @@
       <c r="F344" s="10"/>
       <c r="G344" s="10"/>
     </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A345" s="10"/>
       <c r="B345" s="10"/>
       <c r="C345" s="10"/>
@@ -5965,16 +5437,16 @@
       <c r="F345" s="10"/>
       <c r="G345" s="10"/>
     </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A346" s="28"/>
-      <c r="B346" s="28"/>
-      <c r="C346" s="28"/>
-      <c r="D346" s="28"/>
-      <c r="E346" s="28"/>
+    <row r="346" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A346" s="10"/>
+      <c r="B346" s="10"/>
+      <c r="C346" s="10"/>
+      <c r="D346" s="10"/>
+      <c r="E346" s="10"/>
       <c r="F346" s="10"/>
       <c r="G346" s="10"/>
     </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A347" s="10"/>
       <c r="B347" s="10"/>
       <c r="C347" s="10"/>
@@ -5983,7 +5455,7 @@
       <c r="F347" s="10"/>
       <c r="G347" s="10"/>
     </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A348" s="10"/>
       <c r="B348" s="10"/>
       <c r="C348" s="10"/>
@@ -5992,7 +5464,7 @@
       <c r="F348" s="10"/>
       <c r="G348" s="10"/>
     </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A349" s="10"/>
       <c r="B349" s="10"/>
       <c r="C349" s="10"/>
@@ -6001,7 +5473,7 @@
       <c r="F349" s="10"/>
       <c r="G349" s="10"/>
     </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A350" s="10"/>
       <c r="B350" s="10"/>
       <c r="C350" s="10"/>
@@ -6010,7 +5482,7 @@
       <c r="F350" s="10"/>
       <c r="G350" s="10"/>
     </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A351" s="10"/>
       <c r="B351" s="10"/>
       <c r="C351" s="10"/>
@@ -6019,16 +5491,16 @@
       <c r="F351" s="10"/>
       <c r="G351" s="10"/>
     </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A352" s="10"/>
       <c r="B352" s="10"/>
       <c r="C352" s="10"/>
       <c r="D352" s="10"/>
       <c r="E352" s="10"/>
-      <c r="F352" s="28"/>
-      <c r="G352" s="28"/>
-    </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F352" s="10"/>
+      <c r="G352" s="10"/>
+    </row>
+    <row r="353" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A353" s="10"/>
       <c r="B353" s="10"/>
       <c r="C353" s="10"/>
@@ -6037,7 +5509,7 @@
       <c r="F353" s="10"/>
       <c r="G353" s="10"/>
     </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A354" s="10"/>
       <c r="B354" s="10"/>
       <c r="C354" s="10"/>
@@ -6046,7 +5518,7 @@
       <c r="F354" s="10"/>
       <c r="G354" s="10"/>
     </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A355" s="10"/>
       <c r="B355" s="10"/>
       <c r="C355" s="10"/>
@@ -6055,16 +5527,16 @@
       <c r="F355" s="10"/>
       <c r="G355" s="10"/>
     </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A356" s="10"/>
       <c r="B356" s="10"/>
       <c r="C356" s="10"/>
       <c r="D356" s="10"/>
       <c r="E356" s="10"/>
-      <c r="F356" s="10"/>
-      <c r="G356" s="10"/>
-    </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F356" s="28"/>
+      <c r="G356" s="28"/>
+    </row>
+    <row r="357" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A357" s="10"/>
       <c r="B357" s="10"/>
       <c r="C357" s="10"/>
@@ -6073,7 +5545,7 @@
       <c r="F357" s="10"/>
       <c r="G357" s="10"/>
     </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A358" s="10"/>
       <c r="B358" s="10"/>
       <c r="C358" s="10"/>
@@ -6082,7 +5554,7 @@
       <c r="F358" s="10"/>
       <c r="G358" s="10"/>
     </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A359" s="10"/>
       <c r="B359" s="10"/>
       <c r="C359" s="10"/>
@@ -6091,7 +5563,7 @@
       <c r="F359" s="10"/>
       <c r="G359" s="10"/>
     </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A360" s="10"/>
       <c r="B360" s="10"/>
       <c r="C360" s="10"/>
@@ -6100,7 +5572,7 @@
       <c r="F360" s="10"/>
       <c r="G360" s="10"/>
     </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A361" s="10"/>
       <c r="B361" s="10"/>
       <c r="C361" s="10"/>
@@ -6109,25 +5581,25 @@
       <c r="F361" s="10"/>
       <c r="G361" s="10"/>
     </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A362" s="10"/>
       <c r="B362" s="10"/>
       <c r="C362" s="10"/>
       <c r="D362" s="10"/>
-      <c r="E362" s="10"/>
+      <c r="E362" s="11"/>
       <c r="F362" s="10"/>
       <c r="G362" s="10"/>
     </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A363" s="10"/>
       <c r="B363" s="10"/>
       <c r="C363" s="10"/>
       <c r="D363" s="10"/>
-      <c r="E363" s="10"/>
+      <c r="E363" s="11"/>
       <c r="F363" s="10"/>
       <c r="G363" s="10"/>
     </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A364" s="10"/>
       <c r="B364" s="10"/>
       <c r="C364" s="10"/>
@@ -6136,7 +5608,7 @@
       <c r="F364" s="10"/>
       <c r="G364" s="10"/>
     </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A365" s="10"/>
       <c r="B365" s="10"/>
       <c r="C365" s="10"/>
@@ -6145,7 +5617,7 @@
       <c r="F365" s="10"/>
       <c r="G365" s="10"/>
     </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A366" s="10"/>
       <c r="B366" s="10"/>
       <c r="C366" s="10"/>
@@ -6154,16 +5626,16 @@
       <c r="F366" s="10"/>
       <c r="G366" s="10"/>
     </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A367" s="28"/>
-      <c r="B367" s="28"/>
-      <c r="C367" s="28"/>
-      <c r="D367" s="28"/>
-      <c r="E367" s="28"/>
+    <row r="367" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A367" s="10"/>
+      <c r="B367" s="10"/>
+      <c r="C367" s="10"/>
+      <c r="D367" s="10"/>
+      <c r="E367" s="10"/>
       <c r="F367" s="10"/>
       <c r="G367" s="10"/>
     </row>
-    <row r="368" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A368" s="10"/>
       <c r="B368" s="10"/>
       <c r="C368" s="10"/>
@@ -6172,7 +5644,7 @@
       <c r="F368" s="10"/>
       <c r="G368" s="10"/>
     </row>
-    <row r="369" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A369" s="10"/>
       <c r="B369" s="10"/>
       <c r="C369" s="10"/>
@@ -6181,7 +5653,7 @@
       <c r="F369" s="10"/>
       <c r="G369" s="10"/>
     </row>
-    <row r="370" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A370" s="10"/>
       <c r="B370" s="10"/>
       <c r="C370" s="10"/>
@@ -6190,16 +5662,16 @@
       <c r="F370" s="10"/>
       <c r="G370" s="10"/>
     </row>
-    <row r="371" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A371" s="10"/>
-      <c r="B371" s="10"/>
-      <c r="C371" s="10"/>
-      <c r="D371" s="10"/>
-      <c r="E371" s="10"/>
+    <row r="371" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A371" s="28"/>
+      <c r="B371" s="28"/>
+      <c r="C371" s="28"/>
+      <c r="D371" s="28"/>
+      <c r="E371" s="28"/>
       <c r="F371" s="10"/>
       <c r="G371" s="10"/>
     </row>
-    <row r="372" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A372" s="10"/>
       <c r="B372" s="10"/>
       <c r="C372" s="10"/>
@@ -6208,7 +5680,7 @@
       <c r="F372" s="10"/>
       <c r="G372" s="10"/>
     </row>
-    <row r="373" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A373" s="10"/>
       <c r="B373" s="10"/>
       <c r="C373" s="10"/>
@@ -6217,7 +5689,7 @@
       <c r="F373" s="10"/>
       <c r="G373" s="10"/>
     </row>
-    <row r="374" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A374" s="10"/>
       <c r="B374" s="10"/>
       <c r="C374" s="10"/>
@@ -6226,7 +5698,7 @@
       <c r="F374" s="10"/>
       <c r="G374" s="10"/>
     </row>
-    <row r="375" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A375" s="10"/>
       <c r="B375" s="10"/>
       <c r="C375" s="10"/>
@@ -6235,7 +5707,7 @@
       <c r="F375" s="10"/>
       <c r="G375" s="10"/>
     </row>
-    <row r="376" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A376" s="10"/>
       <c r="B376" s="10"/>
       <c r="C376" s="10"/>
@@ -6244,7 +5716,7 @@
       <c r="F376" s="10"/>
       <c r="G376" s="10"/>
     </row>
-    <row r="377" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A377" s="10"/>
       <c r="B377" s="10"/>
       <c r="C377" s="10"/>
@@ -6253,7 +5725,7 @@
       <c r="F377" s="10"/>
       <c r="G377" s="10"/>
     </row>
-    <row r="378" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A378" s="10"/>
       <c r="B378" s="10"/>
       <c r="C378" s="10"/>
@@ -6262,7 +5734,7 @@
       <c r="F378" s="10"/>
       <c r="G378" s="10"/>
     </row>
-    <row r="379" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A379" s="10"/>
       <c r="B379" s="10"/>
       <c r="C379" s="10"/>
@@ -6271,16 +5743,16 @@
       <c r="F379" s="10"/>
       <c r="G379" s="10"/>
     </row>
-    <row r="380" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A380" s="10"/>
       <c r="B380" s="10"/>
       <c r="C380" s="10"/>
       <c r="D380" s="10"/>
       <c r="E380" s="10"/>
-      <c r="F380" s="28"/>
-      <c r="G380" s="28"/>
-    </row>
-    <row r="381" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F380" s="10"/>
+      <c r="G380" s="10"/>
+    </row>
+    <row r="381" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A381" s="10"/>
       <c r="B381" s="10"/>
       <c r="C381" s="10"/>
@@ -6289,7 +5761,7 @@
       <c r="F381" s="10"/>
       <c r="G381" s="10"/>
     </row>
-    <row r="382" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A382" s="10"/>
       <c r="B382" s="10"/>
       <c r="C382" s="10"/>
@@ -6298,70 +5770,70 @@
       <c r="F382" s="10"/>
       <c r="G382" s="10"/>
     </row>
-    <row r="383" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A383" s="10"/>
       <c r="B383" s="10"/>
       <c r="C383" s="10"/>
       <c r="D383" s="10"/>
       <c r="E383" s="10"/>
-      <c r="F383" s="10"/>
+      <c r="F383" s="11"/>
       <c r="G383" s="10"/>
     </row>
-    <row r="384" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A384" s="10"/>
       <c r="B384" s="10"/>
       <c r="C384" s="10"/>
       <c r="D384" s="10"/>
       <c r="E384" s="10"/>
-      <c r="F384" s="10"/>
+      <c r="F384" s="11"/>
       <c r="G384" s="10"/>
     </row>
-    <row r="385" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A385" s="10"/>
       <c r="B385" s="10"/>
       <c r="C385" s="10"/>
       <c r="D385" s="10"/>
       <c r="E385" s="10"/>
-      <c r="F385" s="10"/>
+      <c r="F385" s="11"/>
       <c r="G385" s="10"/>
     </row>
-    <row r="386" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A386" s="10"/>
       <c r="B386" s="10"/>
       <c r="C386" s="10"/>
       <c r="D386" s="10"/>
-      <c r="E386" s="11"/>
-      <c r="F386" s="10"/>
+      <c r="E386" s="10"/>
+      <c r="F386" s="11"/>
       <c r="G386" s="10"/>
     </row>
-    <row r="387" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A387" s="10"/>
       <c r="B387" s="10"/>
       <c r="C387" s="10"/>
       <c r="D387" s="10"/>
-      <c r="E387" s="11"/>
-      <c r="F387" s="10"/>
+      <c r="E387" s="10"/>
+      <c r="F387" s="11"/>
       <c r="G387" s="10"/>
     </row>
-    <row r="388" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A388" s="10"/>
       <c r="B388" s="10"/>
       <c r="C388" s="10"/>
       <c r="D388" s="10"/>
       <c r="E388" s="10"/>
-      <c r="F388" s="10"/>
+      <c r="F388" s="11"/>
       <c r="G388" s="10"/>
     </row>
-    <row r="389" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A389" s="10"/>
       <c r="B389" s="10"/>
       <c r="C389" s="10"/>
       <c r="D389" s="10"/>
       <c r="E389" s="10"/>
-      <c r="F389" s="10"/>
-      <c r="G389" s="10"/>
-    </row>
-    <row r="390" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F389" s="28"/>
+      <c r="G389" s="28"/>
+    </row>
+    <row r="390" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A390" s="10"/>
       <c r="B390" s="10"/>
       <c r="C390" s="10"/>
@@ -6370,7 +5842,7 @@
       <c r="F390" s="10"/>
       <c r="G390" s="10"/>
     </row>
-    <row r="391" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A391" s="10"/>
       <c r="B391" s="10"/>
       <c r="C391" s="10"/>
@@ -6379,7 +5851,7 @@
       <c r="F391" s="10"/>
       <c r="G391" s="10"/>
     </row>
-    <row r="392" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A392" s="10"/>
       <c r="B392" s="10"/>
       <c r="C392" s="10"/>
@@ -6388,7 +5860,7 @@
       <c r="F392" s="10"/>
       <c r="G392" s="10"/>
     </row>
-    <row r="393" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A393" s="10"/>
       <c r="B393" s="10"/>
       <c r="C393" s="10"/>
@@ -6397,7 +5869,7 @@
       <c r="F393" s="10"/>
       <c r="G393" s="10"/>
     </row>
-    <row r="394" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A394" s="10"/>
       <c r="B394" s="10"/>
       <c r="C394" s="10"/>
@@ -6406,16 +5878,16 @@
       <c r="F394" s="10"/>
       <c r="G394" s="10"/>
     </row>
-    <row r="395" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A395" s="28"/>
-      <c r="B395" s="28"/>
-      <c r="C395" s="28"/>
-      <c r="D395" s="28"/>
-      <c r="E395" s="28"/>
+    <row r="395" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A395" s="10"/>
+      <c r="B395" s="10"/>
+      <c r="C395" s="10"/>
+      <c r="D395" s="10"/>
+      <c r="E395" s="10"/>
       <c r="F395" s="10"/>
       <c r="G395" s="10"/>
     </row>
-    <row r="396" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A396" s="10"/>
       <c r="B396" s="10"/>
       <c r="C396" s="10"/>
@@ -6424,7 +5896,7 @@
       <c r="F396" s="10"/>
       <c r="G396" s="10"/>
     </row>
-    <row r="397" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A397" s="10"/>
       <c r="B397" s="10"/>
       <c r="C397" s="10"/>
@@ -6433,7 +5905,7 @@
       <c r="F397" s="10"/>
       <c r="G397" s="10"/>
     </row>
-    <row r="398" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A398" s="10"/>
       <c r="B398" s="10"/>
       <c r="C398" s="10"/>
@@ -6442,7 +5914,7 @@
       <c r="F398" s="10"/>
       <c r="G398" s="10"/>
     </row>
-    <row r="399" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A399" s="10"/>
       <c r="B399" s="10"/>
       <c r="C399" s="10"/>
@@ -6451,7 +5923,7 @@
       <c r="F399" s="10"/>
       <c r="G399" s="10"/>
     </row>
-    <row r="400" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A400" s="10"/>
       <c r="B400" s="10"/>
       <c r="C400" s="10"/>
@@ -6460,7 +5932,7 @@
       <c r="F400" s="10"/>
       <c r="G400" s="10"/>
     </row>
-    <row r="401" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A401" s="10"/>
       <c r="B401" s="10"/>
       <c r="C401" s="10"/>
@@ -6469,7 +5941,7 @@
       <c r="F401" s="10"/>
       <c r="G401" s="10"/>
     </row>
-    <row r="402" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A402" s="10"/>
       <c r="B402" s="10"/>
       <c r="C402" s="10"/>
@@ -6478,7 +5950,7 @@
       <c r="F402" s="10"/>
       <c r="G402" s="10"/>
     </row>
-    <row r="403" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A403" s="10"/>
       <c r="B403" s="10"/>
       <c r="C403" s="10"/>
@@ -6487,16 +5959,16 @@
       <c r="F403" s="10"/>
       <c r="G403" s="10"/>
     </row>
-    <row r="404" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A404" s="10"/>
-      <c r="B404" s="10"/>
-      <c r="C404" s="10"/>
-      <c r="D404" s="10"/>
-      <c r="E404" s="10"/>
+    <row r="404" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A404" s="28"/>
+      <c r="B404" s="28"/>
+      <c r="C404" s="28"/>
+      <c r="D404" s="28"/>
+      <c r="E404" s="28"/>
       <c r="F404" s="10"/>
       <c r="G404" s="10"/>
     </row>
-    <row r="405" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A405" s="10"/>
       <c r="B405" s="10"/>
       <c r="C405" s="10"/>
@@ -6505,7 +5977,7 @@
       <c r="F405" s="10"/>
       <c r="G405" s="10"/>
     </row>
-    <row r="406" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A406" s="10"/>
       <c r="B406" s="10"/>
       <c r="C406" s="10"/>
@@ -6514,70 +5986,70 @@
       <c r="F406" s="10"/>
       <c r="G406" s="10"/>
     </row>
-    <row r="407" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A407" s="10"/>
       <c r="B407" s="10"/>
       <c r="C407" s="10"/>
       <c r="D407" s="10"/>
       <c r="E407" s="10"/>
-      <c r="F407" s="11"/>
+      <c r="F407" s="10"/>
       <c r="G407" s="10"/>
     </row>
-    <row r="408" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A408" s="10"/>
       <c r="B408" s="10"/>
       <c r="C408" s="10"/>
       <c r="D408" s="10"/>
       <c r="E408" s="10"/>
-      <c r="F408" s="11"/>
+      <c r="F408" s="10"/>
       <c r="G408" s="10"/>
     </row>
-    <row r="409" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A409" s="10"/>
       <c r="B409" s="10"/>
       <c r="C409" s="10"/>
       <c r="D409" s="10"/>
       <c r="E409" s="10"/>
-      <c r="F409" s="11"/>
+      <c r="F409" s="10"/>
       <c r="G409" s="10"/>
     </row>
-    <row r="410" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A410" s="10"/>
       <c r="B410" s="10"/>
       <c r="C410" s="10"/>
       <c r="D410" s="10"/>
       <c r="E410" s="10"/>
-      <c r="F410" s="11"/>
+      <c r="F410" s="10"/>
       <c r="G410" s="10"/>
     </row>
-    <row r="411" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A411" s="10"/>
       <c r="B411" s="10"/>
       <c r="C411" s="10"/>
       <c r="D411" s="10"/>
       <c r="E411" s="10"/>
-      <c r="F411" s="11"/>
+      <c r="F411" s="10"/>
       <c r="G411" s="10"/>
     </row>
-    <row r="412" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A412" s="10"/>
       <c r="B412" s="10"/>
       <c r="C412" s="10"/>
       <c r="D412" s="10"/>
       <c r="E412" s="10"/>
-      <c r="F412" s="11"/>
+      <c r="F412" s="10"/>
       <c r="G412" s="10"/>
     </row>
-    <row r="413" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A413" s="10"/>
       <c r="B413" s="10"/>
       <c r="C413" s="10"/>
       <c r="D413" s="10"/>
       <c r="E413" s="10"/>
-      <c r="F413" s="28"/>
-      <c r="G413" s="28"/>
-    </row>
-    <row r="414" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F413" s="10"/>
+      <c r="G413" s="10"/>
+    </row>
+    <row r="414" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A414" s="10"/>
       <c r="B414" s="10"/>
       <c r="C414" s="10"/>
@@ -6586,7 +6058,7 @@
       <c r="F414" s="10"/>
       <c r="G414" s="10"/>
     </row>
-    <row r="415" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A415" s="10"/>
       <c r="B415" s="10"/>
       <c r="C415" s="10"/>
@@ -6595,7 +6067,7 @@
       <c r="F415" s="10"/>
       <c r="G415" s="10"/>
     </row>
-    <row r="416" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A416" s="10"/>
       <c r="B416" s="10"/>
       <c r="C416" s="10"/>
@@ -6604,7 +6076,7 @@
       <c r="F416" s="10"/>
       <c r="G416" s="10"/>
     </row>
-    <row r="417" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A417" s="10"/>
       <c r="B417" s="10"/>
       <c r="C417" s="10"/>
@@ -6613,7 +6085,7 @@
       <c r="F417" s="10"/>
       <c r="G417" s="10"/>
     </row>
-    <row r="418" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A418" s="10"/>
       <c r="B418" s="10"/>
       <c r="C418" s="10"/>
@@ -6622,7 +6094,7 @@
       <c r="F418" s="10"/>
       <c r="G418" s="10"/>
     </row>
-    <row r="419" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A419" s="10"/>
       <c r="B419" s="10"/>
       <c r="C419" s="10"/>
@@ -6631,7 +6103,7 @@
       <c r="F419" s="10"/>
       <c r="G419" s="10"/>
     </row>
-    <row r="420" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A420" s="10"/>
       <c r="B420" s="10"/>
       <c r="C420" s="10"/>
@@ -6640,7 +6112,7 @@
       <c r="F420" s="10"/>
       <c r="G420" s="10"/>
     </row>
-    <row r="421" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A421" s="10"/>
       <c r="B421" s="10"/>
       <c r="C421" s="10"/>
@@ -6649,7 +6121,7 @@
       <c r="F421" s="10"/>
       <c r="G421" s="10"/>
     </row>
-    <row r="422" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A422" s="10"/>
       <c r="B422" s="10"/>
       <c r="C422" s="10"/>
@@ -6658,7 +6130,7 @@
       <c r="F422" s="10"/>
       <c r="G422" s="10"/>
     </row>
-    <row r="423" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A423" s="10"/>
       <c r="B423" s="10"/>
       <c r="C423" s="10"/>
@@ -6667,7 +6139,7 @@
       <c r="F423" s="10"/>
       <c r="G423" s="10"/>
     </row>
-    <row r="424" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A424" s="10"/>
       <c r="B424" s="10"/>
       <c r="C424" s="10"/>
@@ -6676,7 +6148,7 @@
       <c r="F424" s="10"/>
       <c r="G424" s="10"/>
     </row>
-    <row r="425" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A425" s="10"/>
       <c r="B425" s="10"/>
       <c r="C425" s="10"/>
@@ -6685,7 +6157,7 @@
       <c r="F425" s="10"/>
       <c r="G425" s="10"/>
     </row>
-    <row r="426" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A426" s="10"/>
       <c r="B426" s="10"/>
       <c r="C426" s="10"/>
@@ -6694,25 +6166,25 @@
       <c r="F426" s="10"/>
       <c r="G426" s="10"/>
     </row>
-    <row r="427" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A427" s="10"/>
       <c r="B427" s="10"/>
       <c r="C427" s="10"/>
       <c r="D427" s="10"/>
       <c r="E427" s="10"/>
-      <c r="F427" s="10"/>
-      <c r="G427" s="10"/>
-    </row>
-    <row r="428" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A428" s="28"/>
-      <c r="B428" s="28"/>
-      <c r="C428" s="28"/>
-      <c r="D428" s="28"/>
-      <c r="E428" s="28"/>
+      <c r="F427" s="28"/>
+      <c r="G427" s="28"/>
+    </row>
+    <row r="428" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A428" s="10"/>
+      <c r="B428" s="10"/>
+      <c r="C428" s="10"/>
+      <c r="D428" s="10"/>
+      <c r="E428" s="10"/>
       <c r="F428" s="10"/>
       <c r="G428" s="10"/>
     </row>
-    <row r="429" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A429" s="10"/>
       <c r="B429" s="10"/>
       <c r="C429" s="10"/>
@@ -6721,7 +6193,7 @@
       <c r="F429" s="10"/>
       <c r="G429" s="10"/>
     </row>
-    <row r="430" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A430" s="10"/>
       <c r="B430" s="10"/>
       <c r="C430" s="10"/>
@@ -6730,7 +6202,7 @@
       <c r="F430" s="10"/>
       <c r="G430" s="10"/>
     </row>
-    <row r="431" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A431" s="10"/>
       <c r="B431" s="10"/>
       <c r="C431" s="10"/>
@@ -6739,7 +6211,7 @@
       <c r="F431" s="10"/>
       <c r="G431" s="10"/>
     </row>
-    <row r="432" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A432" s="10"/>
       <c r="B432" s="10"/>
       <c r="C432" s="10"/>
@@ -6748,7 +6220,7 @@
       <c r="F432" s="10"/>
       <c r="G432" s="10"/>
     </row>
-    <row r="433" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A433" s="10"/>
       <c r="B433" s="10"/>
       <c r="C433" s="10"/>
@@ -6757,7 +6229,7 @@
       <c r="F433" s="10"/>
       <c r="G433" s="10"/>
     </row>
-    <row r="434" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A434" s="10"/>
       <c r="B434" s="10"/>
       <c r="C434" s="10"/>
@@ -6766,7 +6238,7 @@
       <c r="F434" s="10"/>
       <c r="G434" s="10"/>
     </row>
-    <row r="435" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A435" s="10"/>
       <c r="B435" s="10"/>
       <c r="C435" s="10"/>
@@ -6775,7 +6247,7 @@
       <c r="F435" s="10"/>
       <c r="G435" s="10"/>
     </row>
-    <row r="436" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A436" s="10"/>
       <c r="B436" s="10"/>
       <c r="C436" s="10"/>
@@ -6784,7 +6256,7 @@
       <c r="F436" s="10"/>
       <c r="G436" s="10"/>
     </row>
-    <row r="437" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A437" s="10"/>
       <c r="B437" s="10"/>
       <c r="C437" s="10"/>
@@ -6793,7 +6265,7 @@
       <c r="F437" s="10"/>
       <c r="G437" s="10"/>
     </row>
-    <row r="438" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A438" s="10"/>
       <c r="B438" s="10"/>
       <c r="C438" s="10"/>
@@ -6802,7 +6274,7 @@
       <c r="F438" s="10"/>
       <c r="G438" s="10"/>
     </row>
-    <row r="439" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A439" s="10"/>
       <c r="B439" s="10"/>
       <c r="C439" s="10"/>
@@ -6811,7 +6283,7 @@
       <c r="F439" s="10"/>
       <c r="G439" s="10"/>
     </row>
-    <row r="440" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A440" s="10"/>
       <c r="B440" s="10"/>
       <c r="C440" s="10"/>
@@ -6820,7 +6292,7 @@
       <c r="F440" s="10"/>
       <c r="G440" s="10"/>
     </row>
-    <row r="441" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A441" s="10"/>
       <c r="B441" s="10"/>
       <c r="C441" s="10"/>
@@ -6829,16 +6301,16 @@
       <c r="F441" s="10"/>
       <c r="G441" s="10"/>
     </row>
-    <row r="442" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A442" s="10"/>
-      <c r="B442" s="10"/>
-      <c r="C442" s="10"/>
-      <c r="D442" s="10"/>
-      <c r="E442" s="10"/>
+    <row r="442" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A442" s="28"/>
+      <c r="B442" s="28"/>
+      <c r="C442" s="28"/>
+      <c r="D442" s="28"/>
+      <c r="E442" s="28"/>
       <c r="F442" s="10"/>
       <c r="G442" s="10"/>
     </row>
-    <row r="443" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A443" s="10"/>
       <c r="B443" s="10"/>
       <c r="C443" s="10"/>
@@ -6847,7 +6319,7 @@
       <c r="F443" s="10"/>
       <c r="G443" s="10"/>
     </row>
-    <row r="444" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A444" s="10"/>
       <c r="B444" s="10"/>
       <c r="C444" s="10"/>
@@ -6856,7 +6328,7 @@
       <c r="F444" s="10"/>
       <c r="G444" s="10"/>
     </row>
-    <row r="445" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A445" s="10"/>
       <c r="B445" s="10"/>
       <c r="C445" s="10"/>
@@ -6865,7 +6337,7 @@
       <c r="F445" s="10"/>
       <c r="G445" s="10"/>
     </row>
-    <row r="446" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A446" s="10"/>
       <c r="B446" s="10"/>
       <c r="C446" s="10"/>
@@ -6874,7 +6346,7 @@
       <c r="F446" s="10"/>
       <c r="G446" s="10"/>
     </row>
-    <row r="447" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A447" s="10"/>
       <c r="B447" s="10"/>
       <c r="C447" s="10"/>
@@ -6883,7 +6355,7 @@
       <c r="F447" s="10"/>
       <c r="G447" s="10"/>
     </row>
-    <row r="448" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A448" s="10"/>
       <c r="B448" s="10"/>
       <c r="C448" s="10"/>
@@ -6892,7 +6364,7 @@
       <c r="F448" s="10"/>
       <c r="G448" s="10"/>
     </row>
-    <row r="449" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A449" s="10"/>
       <c r="B449" s="10"/>
       <c r="C449" s="10"/>
@@ -6901,7 +6373,7 @@
       <c r="F449" s="10"/>
       <c r="G449" s="10"/>
     </row>
-    <row r="450" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A450" s="10"/>
       <c r="B450" s="10"/>
       <c r="C450" s="10"/>
@@ -6910,16 +6382,16 @@
       <c r="F450" s="10"/>
       <c r="G450" s="10"/>
     </row>
-    <row r="451" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A451" s="10"/>
       <c r="B451" s="10"/>
       <c r="C451" s="10"/>
       <c r="D451" s="10"/>
       <c r="E451" s="10"/>
-      <c r="F451" s="28"/>
-      <c r="G451" s="28"/>
-    </row>
-    <row r="452" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F451" s="10"/>
+      <c r="G451" s="10"/>
+    </row>
+    <row r="452" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A452" s="10"/>
       <c r="B452" s="10"/>
       <c r="C452" s="10"/>
@@ -6928,7 +6400,7 @@
       <c r="F452" s="10"/>
       <c r="G452" s="10"/>
     </row>
-    <row r="453" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A453" s="10"/>
       <c r="B453" s="10"/>
       <c r="C453" s="10"/>
@@ -6937,7 +6409,7 @@
       <c r="F453" s="10"/>
       <c r="G453" s="10"/>
     </row>
-    <row r="454" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A454" s="10"/>
       <c r="B454" s="10"/>
       <c r="C454" s="10"/>
@@ -6946,7 +6418,7 @@
       <c r="F454" s="10"/>
       <c r="G454" s="10"/>
     </row>
-    <row r="455" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A455" s="10"/>
       <c r="B455" s="10"/>
       <c r="C455" s="10"/>
@@ -6955,7 +6427,7 @@
       <c r="F455" s="10"/>
       <c r="G455" s="10"/>
     </row>
-    <row r="456" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A456" s="10"/>
       <c r="B456" s="10"/>
       <c r="C456" s="10"/>
@@ -6964,7 +6436,7 @@
       <c r="F456" s="10"/>
       <c r="G456" s="10"/>
     </row>
-    <row r="457" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A457" s="10"/>
       <c r="B457" s="10"/>
       <c r="C457" s="10"/>
@@ -6973,7 +6445,7 @@
       <c r="F457" s="10"/>
       <c r="G457" s="10"/>
     </row>
-    <row r="458" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A458" s="10"/>
       <c r="B458" s="10"/>
       <c r="C458" s="10"/>
@@ -6982,7 +6454,7 @@
       <c r="F458" s="10"/>
       <c r="G458" s="10"/>
     </row>
-    <row r="459" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A459" s="10"/>
       <c r="B459" s="10"/>
       <c r="C459" s="10"/>
@@ -6991,7 +6463,7 @@
       <c r="F459" s="10"/>
       <c r="G459" s="10"/>
     </row>
-    <row r="460" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A460" s="10"/>
       <c r="B460" s="10"/>
       <c r="C460" s="10"/>
@@ -7000,7 +6472,7 @@
       <c r="F460" s="10"/>
       <c r="G460" s="10"/>
     </row>
-    <row r="461" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A461" s="10"/>
       <c r="B461" s="10"/>
       <c r="C461" s="10"/>
@@ -7009,7 +6481,7 @@
       <c r="F461" s="10"/>
       <c r="G461" s="10"/>
     </row>
-    <row r="462" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A462" s="10"/>
       <c r="B462" s="10"/>
       <c r="C462" s="10"/>
@@ -7018,16 +6490,16 @@
       <c r="F462" s="10"/>
       <c r="G462" s="10"/>
     </row>
-    <row r="463" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A463" s="10"/>
       <c r="B463" s="10"/>
       <c r="C463" s="10"/>
       <c r="D463" s="10"/>
       <c r="E463" s="10"/>
-      <c r="F463" s="10"/>
-      <c r="G463" s="10"/>
-    </row>
-    <row r="464" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F463" s="28"/>
+      <c r="G463" s="28"/>
+    </row>
+    <row r="464" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A464" s="10"/>
       <c r="B464" s="10"/>
       <c r="C464" s="10"/>
@@ -7036,7 +6508,7 @@
       <c r="F464" s="10"/>
       <c r="G464" s="10"/>
     </row>
-    <row r="465" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A465" s="10"/>
       <c r="B465" s="10"/>
       <c r="C465" s="10"/>
@@ -7045,16 +6517,16 @@
       <c r="F465" s="10"/>
       <c r="G465" s="10"/>
     </row>
-    <row r="466" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A466" s="28"/>
-      <c r="B466" s="28"/>
-      <c r="C466" s="28"/>
-      <c r="D466" s="28"/>
-      <c r="E466" s="28"/>
+    <row r="466" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A466" s="10"/>
+      <c r="B466" s="10"/>
+      <c r="C466" s="10"/>
+      <c r="D466" s="10"/>
+      <c r="E466" s="10"/>
       <c r="F466" s="10"/>
       <c r="G466" s="10"/>
     </row>
-    <row r="467" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A467" s="10"/>
       <c r="B467" s="10"/>
       <c r="C467" s="10"/>
@@ -7063,7 +6535,7 @@
       <c r="F467" s="10"/>
       <c r="G467" s="10"/>
     </row>
-    <row r="468" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A468" s="10"/>
       <c r="B468" s="10"/>
       <c r="C468" s="10"/>
@@ -7072,7 +6544,7 @@
       <c r="F468" s="10"/>
       <c r="G468" s="10"/>
     </row>
-    <row r="469" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A469" s="10"/>
       <c r="B469" s="10"/>
       <c r="C469" s="10"/>
@@ -7081,7 +6553,7 @@
       <c r="F469" s="10"/>
       <c r="G469" s="10"/>
     </row>
-    <row r="470" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A470" s="10"/>
       <c r="B470" s="10"/>
       <c r="C470" s="10"/>
@@ -7090,7 +6562,7 @@
       <c r="F470" s="10"/>
       <c r="G470" s="10"/>
     </row>
-    <row r="471" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A471" s="10"/>
       <c r="B471" s="10"/>
       <c r="C471" s="10"/>
@@ -7099,7 +6571,7 @@
       <c r="F471" s="10"/>
       <c r="G471" s="10"/>
     </row>
-    <row r="472" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A472" s="10"/>
       <c r="B472" s="10"/>
       <c r="C472" s="10"/>
@@ -7108,7 +6580,7 @@
       <c r="F472" s="10"/>
       <c r="G472" s="10"/>
     </row>
-    <row r="473" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A473" s="10"/>
       <c r="B473" s="10"/>
       <c r="C473" s="10"/>
@@ -7117,7 +6589,7 @@
       <c r="F473" s="10"/>
       <c r="G473" s="10"/>
     </row>
-    <row r="474" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A474" s="10"/>
       <c r="B474" s="10"/>
       <c r="C474" s="10"/>
@@ -7126,7 +6598,7 @@
       <c r="F474" s="10"/>
       <c r="G474" s="10"/>
     </row>
-    <row r="475" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A475" s="10"/>
       <c r="B475" s="10"/>
       <c r="C475" s="10"/>
@@ -7135,7 +6607,7 @@
       <c r="F475" s="10"/>
       <c r="G475" s="10"/>
     </row>
-    <row r="476" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A476" s="10"/>
       <c r="B476" s="10"/>
       <c r="C476" s="10"/>
@@ -7144,7 +6616,7 @@
       <c r="F476" s="10"/>
       <c r="G476" s="10"/>
     </row>
-    <row r="477" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A477" s="10"/>
       <c r="B477" s="10"/>
       <c r="C477" s="10"/>
@@ -7153,16 +6625,16 @@
       <c r="F477" s="10"/>
       <c r="G477" s="10"/>
     </row>
-    <row r="478" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A478" s="10"/>
-      <c r="B478" s="10"/>
-      <c r="C478" s="10"/>
-      <c r="D478" s="10"/>
-      <c r="E478" s="10"/>
+    <row r="478" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A478" s="28"/>
+      <c r="B478" s="28"/>
+      <c r="C478" s="28"/>
+      <c r="D478" s="28"/>
+      <c r="E478" s="28"/>
       <c r="F478" s="10"/>
       <c r="G478" s="10"/>
     </row>
-    <row r="479" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A479" s="10"/>
       <c r="B479" s="10"/>
       <c r="C479" s="10"/>
@@ -7171,7 +6643,7 @@
       <c r="F479" s="10"/>
       <c r="G479" s="10"/>
     </row>
-    <row r="480" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A480" s="10"/>
       <c r="B480" s="10"/>
       <c r="C480" s="10"/>
@@ -7180,7 +6652,7 @@
       <c r="F480" s="10"/>
       <c r="G480" s="10"/>
     </row>
-    <row r="481" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A481" s="10"/>
       <c r="B481" s="10"/>
       <c r="C481" s="10"/>
@@ -7189,7 +6661,7 @@
       <c r="F481" s="10"/>
       <c r="G481" s="10"/>
     </row>
-    <row r="482" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A482" s="10"/>
       <c r="B482" s="10"/>
       <c r="C482" s="10"/>
@@ -7198,7 +6670,7 @@
       <c r="F482" s="10"/>
       <c r="G482" s="10"/>
     </row>
-    <row r="483" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A483" s="10"/>
       <c r="B483" s="10"/>
       <c r="C483" s="10"/>
@@ -7207,7 +6679,7 @@
       <c r="F483" s="10"/>
       <c r="G483" s="10"/>
     </row>
-    <row r="484" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A484" s="10"/>
       <c r="B484" s="10"/>
       <c r="C484" s="10"/>
@@ -7216,7 +6688,7 @@
       <c r="F484" s="10"/>
       <c r="G484" s="10"/>
     </row>
-    <row r="485" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A485" s="10"/>
       <c r="B485" s="10"/>
       <c r="C485" s="10"/>
@@ -7225,7 +6697,7 @@
       <c r="F485" s="10"/>
       <c r="G485" s="10"/>
     </row>
-    <row r="486" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A486" s="10"/>
       <c r="B486" s="10"/>
       <c r="C486" s="10"/>
@@ -7234,16 +6706,16 @@
       <c r="F486" s="10"/>
       <c r="G486" s="10"/>
     </row>
-    <row r="487" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A487" s="10"/>
       <c r="B487" s="10"/>
       <c r="C487" s="10"/>
       <c r="D487" s="10"/>
       <c r="E487" s="10"/>
-      <c r="F487" s="28"/>
-      <c r="G487" s="28"/>
-    </row>
-    <row r="488" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F487" s="10"/>
+      <c r="G487" s="10"/>
+    </row>
+    <row r="488" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A488" s="10"/>
       <c r="B488" s="10"/>
       <c r="C488" s="10"/>
@@ -7252,7 +6724,7 @@
       <c r="F488" s="10"/>
       <c r="G488" s="10"/>
     </row>
-    <row r="489" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A489" s="10"/>
       <c r="B489" s="10"/>
       <c r="C489" s="10"/>
@@ -7261,7 +6733,7 @@
       <c r="F489" s="10"/>
       <c r="G489" s="10"/>
     </row>
-    <row r="490" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A490" s="10"/>
       <c r="B490" s="10"/>
       <c r="C490" s="10"/>
@@ -7270,7 +6742,7 @@
       <c r="F490" s="10"/>
       <c r="G490" s="10"/>
     </row>
-    <row r="491" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A491" s="10"/>
       <c r="B491" s="10"/>
       <c r="C491" s="10"/>
@@ -7279,16 +6751,16 @@
       <c r="F491" s="10"/>
       <c r="G491" s="10"/>
     </row>
-    <row r="492" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A492" s="10"/>
       <c r="B492" s="10"/>
       <c r="C492" s="10"/>
       <c r="D492" s="10"/>
       <c r="E492" s="10"/>
-      <c r="F492" s="10"/>
-      <c r="G492" s="10"/>
-    </row>
-    <row r="493" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F492" s="28"/>
+      <c r="G492" s="28"/>
+    </row>
+    <row r="493" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A493" s="10"/>
       <c r="B493" s="10"/>
       <c r="C493" s="10"/>
@@ -7297,7 +6769,7 @@
       <c r="F493" s="10"/>
       <c r="G493" s="10"/>
     </row>
-    <row r="494" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A494" s="10"/>
       <c r="B494" s="10"/>
       <c r="C494" s="10"/>
@@ -7306,7 +6778,7 @@
       <c r="F494" s="10"/>
       <c r="G494" s="10"/>
     </row>
-    <row r="495" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A495" s="10"/>
       <c r="B495" s="10"/>
       <c r="C495" s="10"/>
@@ -7315,7 +6787,7 @@
       <c r="F495" s="10"/>
       <c r="G495" s="10"/>
     </row>
-    <row r="496" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A496" s="10"/>
       <c r="B496" s="10"/>
       <c r="C496" s="10"/>
@@ -7324,7 +6796,7 @@
       <c r="F496" s="10"/>
       <c r="G496" s="10"/>
     </row>
-    <row r="497" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A497" s="10"/>
       <c r="B497" s="10"/>
       <c r="C497" s="10"/>
@@ -7333,7 +6805,7 @@
       <c r="F497" s="10"/>
       <c r="G497" s="10"/>
     </row>
-    <row r="498" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A498" s="10"/>
       <c r="B498" s="10"/>
       <c r="C498" s="10"/>
@@ -7342,7 +6814,7 @@
       <c r="F498" s="10"/>
       <c r="G498" s="10"/>
     </row>
-    <row r="499" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A499" s="10"/>
       <c r="B499" s="10"/>
       <c r="C499" s="10"/>
@@ -7351,7 +6823,7 @@
       <c r="F499" s="10"/>
       <c r="G499" s="10"/>
     </row>
-    <row r="500" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A500" s="10"/>
       <c r="B500" s="10"/>
       <c r="C500" s="10"/>
@@ -7360,7 +6832,7 @@
       <c r="F500" s="10"/>
       <c r="G500" s="10"/>
     </row>
-    <row r="501" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A501" s="10"/>
       <c r="B501" s="10"/>
       <c r="C501" s="10"/>
@@ -7369,16 +6841,16 @@
       <c r="F501" s="10"/>
       <c r="G501" s="10"/>
     </row>
-    <row r="502" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A502" s="28"/>
-      <c r="B502" s="28"/>
-      <c r="C502" s="28"/>
-      <c r="D502" s="28"/>
-      <c r="E502" s="28"/>
+    <row r="502" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A502" s="10"/>
+      <c r="B502" s="10"/>
+      <c r="C502" s="10"/>
+      <c r="D502" s="10"/>
+      <c r="E502" s="10"/>
       <c r="F502" s="10"/>
       <c r="G502" s="10"/>
     </row>
-    <row r="503" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A503" s="10"/>
       <c r="B503" s="10"/>
       <c r="C503" s="10"/>
@@ -7387,7 +6859,7 @@
       <c r="F503" s="10"/>
       <c r="G503" s="10"/>
     </row>
-    <row r="504" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A504" s="10"/>
       <c r="B504" s="10"/>
       <c r="C504" s="10"/>
@@ -7396,7 +6868,7 @@
       <c r="F504" s="10"/>
       <c r="G504" s="10"/>
     </row>
-    <row r="505" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A505" s="10"/>
       <c r="B505" s="10"/>
       <c r="C505" s="10"/>
@@ -7405,7 +6877,7 @@
       <c r="F505" s="10"/>
       <c r="G505" s="10"/>
     </row>
-    <row r="506" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A506" s="10"/>
       <c r="B506" s="10"/>
       <c r="C506" s="10"/>
@@ -7414,16 +6886,16 @@
       <c r="F506" s="10"/>
       <c r="G506" s="10"/>
     </row>
-    <row r="507" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A507" s="10"/>
-      <c r="B507" s="10"/>
-      <c r="C507" s="10"/>
-      <c r="D507" s="10"/>
-      <c r="E507" s="10"/>
+    <row r="507" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A507" s="28"/>
+      <c r="B507" s="28"/>
+      <c r="C507" s="28"/>
+      <c r="D507" s="28"/>
+      <c r="E507" s="28"/>
       <c r="F507" s="10"/>
       <c r="G507" s="10"/>
     </row>
-    <row r="508" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A508" s="10"/>
       <c r="B508" s="10"/>
       <c r="C508" s="10"/>
@@ -7432,7 +6904,7 @@
       <c r="F508" s="10"/>
       <c r="G508" s="10"/>
     </row>
-    <row r="509" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A509" s="10"/>
       <c r="B509" s="10"/>
       <c r="C509" s="10"/>
@@ -7441,7 +6913,7 @@
       <c r="F509" s="10"/>
       <c r="G509" s="10"/>
     </row>
-    <row r="510" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A510" s="10"/>
       <c r="B510" s="10"/>
       <c r="C510" s="10"/>
@@ -7450,7 +6922,7 @@
       <c r="F510" s="10"/>
       <c r="G510" s="10"/>
     </row>
-    <row r="511" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A511" s="10"/>
       <c r="B511" s="10"/>
       <c r="C511" s="10"/>
@@ -7459,16 +6931,16 @@
       <c r="F511" s="10"/>
       <c r="G511" s="10"/>
     </row>
-    <row r="512" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A512" s="10"/>
       <c r="B512" s="10"/>
       <c r="C512" s="10"/>
       <c r="D512" s="10"/>
       <c r="E512" s="10"/>
-      <c r="F512" s="10"/>
-      <c r="G512" s="10"/>
-    </row>
-    <row r="513" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F512" s="28"/>
+      <c r="G512" s="28"/>
+    </row>
+    <row r="513" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A513" s="10"/>
       <c r="B513" s="10"/>
       <c r="C513" s="10"/>
@@ -7477,7 +6949,7 @@
       <c r="F513" s="10"/>
       <c r="G513" s="10"/>
     </row>
-    <row r="514" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A514" s="10"/>
       <c r="B514" s="10"/>
       <c r="C514" s="10"/>
@@ -7486,7 +6958,7 @@
       <c r="F514" s="10"/>
       <c r="G514" s="10"/>
     </row>
-    <row r="515" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A515" s="10"/>
       <c r="B515" s="10"/>
       <c r="C515" s="10"/>
@@ -7495,16 +6967,16 @@
       <c r="F515" s="10"/>
       <c r="G515" s="10"/>
     </row>
-    <row r="516" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A516" s="10"/>
       <c r="B516" s="10"/>
       <c r="C516" s="10"/>
       <c r="D516" s="10"/>
       <c r="E516" s="10"/>
-      <c r="F516" s="28"/>
-      <c r="G516" s="28"/>
-    </row>
-    <row r="517" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F516" s="10"/>
+      <c r="G516" s="10"/>
+    </row>
+    <row r="517" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A517" s="10"/>
       <c r="B517" s="10"/>
       <c r="C517" s="10"/>
@@ -7513,43 +6985,43 @@
       <c r="F517" s="10"/>
       <c r="G517" s="10"/>
     </row>
-    <row r="518" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A518" s="10"/>
       <c r="B518" s="10"/>
       <c r="C518" s="10"/>
       <c r="D518" s="10"/>
-      <c r="E518" s="10"/>
+      <c r="E518" s="11"/>
       <c r="F518" s="10"/>
       <c r="G518" s="10"/>
     </row>
-    <row r="519" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A519" s="10"/>
       <c r="B519" s="10"/>
       <c r="C519" s="10"/>
       <c r="D519" s="10"/>
-      <c r="E519" s="10"/>
+      <c r="E519" s="11"/>
       <c r="F519" s="10"/>
       <c r="G519" s="10"/>
     </row>
-    <row r="520" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A520" s="10"/>
       <c r="B520" s="10"/>
       <c r="C520" s="10"/>
       <c r="D520" s="10"/>
-      <c r="E520" s="10"/>
+      <c r="E520" s="11"/>
       <c r="F520" s="10"/>
       <c r="G520" s="10"/>
     </row>
-    <row r="521" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A521" s="10"/>
       <c r="B521" s="10"/>
       <c r="C521" s="10"/>
       <c r="D521" s="10"/>
-      <c r="E521" s="10"/>
+      <c r="E521" s="11"/>
       <c r="F521" s="10"/>
       <c r="G521" s="10"/>
     </row>
-    <row r="522" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A522" s="10"/>
       <c r="B522" s="10"/>
       <c r="C522" s="10"/>
@@ -7558,7 +7030,7 @@
       <c r="F522" s="10"/>
       <c r="G522" s="10"/>
     </row>
-    <row r="523" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A523" s="10"/>
       <c r="B523" s="10"/>
       <c r="C523" s="10"/>
@@ -7567,7 +7039,7 @@
       <c r="F523" s="10"/>
       <c r="G523" s="10"/>
     </row>
-    <row r="524" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A524" s="10"/>
       <c r="B524" s="10"/>
       <c r="C524" s="10"/>
@@ -7576,7 +7048,7 @@
       <c r="F524" s="10"/>
       <c r="G524" s="10"/>
     </row>
-    <row r="525" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A525" s="10"/>
       <c r="B525" s="10"/>
       <c r="C525" s="10"/>
@@ -7585,7 +7057,7 @@
       <c r="F525" s="10"/>
       <c r="G525" s="10"/>
     </row>
-    <row r="526" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A526" s="10"/>
       <c r="B526" s="10"/>
       <c r="C526" s="10"/>
@@ -7594,16 +7066,16 @@
       <c r="F526" s="10"/>
       <c r="G526" s="10"/>
     </row>
-    <row r="527" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A527" s="10"/>
-      <c r="B527" s="10"/>
-      <c r="C527" s="10"/>
-      <c r="D527" s="10"/>
-      <c r="E527" s="10"/>
+    <row r="527" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A527" s="28"/>
+      <c r="B527" s="28"/>
+      <c r="C527" s="28"/>
+      <c r="D527" s="28"/>
+      <c r="E527" s="28"/>
       <c r="F527" s="10"/>
       <c r="G527" s="10"/>
     </row>
-    <row r="528" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A528" s="10"/>
       <c r="B528" s="10"/>
       <c r="C528" s="10"/>
@@ -7612,7 +7084,7 @@
       <c r="F528" s="10"/>
       <c r="G528" s="10"/>
     </row>
-    <row r="529" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A529" s="10"/>
       <c r="B529" s="10"/>
       <c r="C529" s="10"/>
@@ -7621,7 +7093,7 @@
       <c r="F529" s="10"/>
       <c r="G529" s="10"/>
     </row>
-    <row r="530" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A530" s="10"/>
       <c r="B530" s="10"/>
       <c r="C530" s="10"/>
@@ -7630,16 +7102,16 @@
       <c r="F530" s="10"/>
       <c r="G530" s="10"/>
     </row>
-    <row r="531" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A531" s="28"/>
-      <c r="B531" s="28"/>
-      <c r="C531" s="28"/>
-      <c r="D531" s="28"/>
-      <c r="E531" s="28"/>
+    <row r="531" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A531" s="10"/>
+      <c r="B531" s="10"/>
+      <c r="C531" s="10"/>
+      <c r="D531" s="10"/>
+      <c r="E531" s="10"/>
       <c r="F531" s="10"/>
       <c r="G531" s="10"/>
     </row>
-    <row r="532" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A532" s="10"/>
       <c r="B532" s="10"/>
       <c r="C532" s="10"/>
@@ -7648,7 +7120,7 @@
       <c r="F532" s="10"/>
       <c r="G532" s="10"/>
     </row>
-    <row r="533" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A533" s="10"/>
       <c r="B533" s="10"/>
       <c r="C533" s="10"/>
@@ -7657,7 +7129,7 @@
       <c r="F533" s="10"/>
       <c r="G533" s="10"/>
     </row>
-    <row r="534" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A534" s="10"/>
       <c r="B534" s="10"/>
       <c r="C534" s="10"/>
@@ -7666,16 +7138,16 @@
       <c r="F534" s="10"/>
       <c r="G534" s="10"/>
     </row>
-    <row r="535" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A535" s="10"/>
       <c r="B535" s="10"/>
       <c r="C535" s="10"/>
       <c r="D535" s="10"/>
       <c r="E535" s="10"/>
-      <c r="F535" s="10"/>
-      <c r="G535" s="10"/>
-    </row>
-    <row r="536" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F535" s="28"/>
+      <c r="G535" s="28"/>
+    </row>
+    <row r="536" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A536" s="10"/>
       <c r="B536" s="10"/>
       <c r="C536" s="10"/>
@@ -7684,7 +7156,7 @@
       <c r="F536" s="28"/>
       <c r="G536" s="28"/>
     </row>
-    <row r="537" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A537" s="10"/>
       <c r="B537" s="10"/>
       <c r="C537" s="10"/>
@@ -7693,7 +7165,7 @@
       <c r="F537" s="10"/>
       <c r="G537" s="10"/>
     </row>
-    <row r="538" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A538" s="10"/>
       <c r="B538" s="10"/>
       <c r="C538" s="10"/>
@@ -7702,7 +7174,7 @@
       <c r="F538" s="10"/>
       <c r="G538" s="10"/>
     </row>
-    <row r="539" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A539" s="10"/>
       <c r="B539" s="10"/>
       <c r="C539" s="10"/>
@@ -7711,7 +7183,7 @@
       <c r="F539" s="10"/>
       <c r="G539" s="10"/>
     </row>
-    <row r="540" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A540" s="10"/>
       <c r="B540" s="10"/>
       <c r="C540" s="10"/>
@@ -7720,7 +7192,7 @@
       <c r="F540" s="10"/>
       <c r="G540" s="10"/>
     </row>
-    <row r="541" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A541" s="10"/>
       <c r="B541" s="10"/>
       <c r="C541" s="10"/>
@@ -7729,43 +7201,43 @@
       <c r="F541" s="10"/>
       <c r="G541" s="10"/>
     </row>
-    <row r="542" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A542" s="10"/>
       <c r="B542" s="10"/>
       <c r="C542" s="10"/>
       <c r="D542" s="10"/>
-      <c r="E542" s="11"/>
+      <c r="E542" s="10"/>
       <c r="F542" s="10"/>
       <c r="G542" s="10"/>
     </row>
-    <row r="543" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A543" s="10"/>
       <c r="B543" s="10"/>
       <c r="C543" s="10"/>
       <c r="D543" s="10"/>
-      <c r="E543" s="11"/>
+      <c r="E543" s="10"/>
       <c r="F543" s="10"/>
       <c r="G543" s="10"/>
     </row>
-    <row r="544" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A544" s="10"/>
       <c r="B544" s="10"/>
       <c r="C544" s="10"/>
       <c r="D544" s="10"/>
-      <c r="E544" s="11"/>
+      <c r="E544" s="10"/>
       <c r="F544" s="10"/>
       <c r="G544" s="10"/>
     </row>
-    <row r="545" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A545" s="10"/>
       <c r="B545" s="10"/>
       <c r="C545" s="10"/>
       <c r="D545" s="10"/>
-      <c r="E545" s="11"/>
-      <c r="F545" s="10"/>
-      <c r="G545" s="10"/>
-    </row>
-    <row r="546" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E545" s="10"/>
+      <c r="F545" s="28"/>
+      <c r="G545" s="28"/>
+    </row>
+    <row r="546" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A546" s="10"/>
       <c r="B546" s="10"/>
       <c r="C546" s="10"/>
@@ -7774,7 +7246,7 @@
       <c r="F546" s="10"/>
       <c r="G546" s="10"/>
     </row>
-    <row r="547" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A547" s="10"/>
       <c r="B547" s="10"/>
       <c r="C547" s="10"/>
@@ -7783,7 +7255,7 @@
       <c r="F547" s="10"/>
       <c r="G547" s="10"/>
     </row>
-    <row r="548" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A548" s="10"/>
       <c r="B548" s="10"/>
       <c r="C548" s="10"/>
@@ -7792,7 +7264,7 @@
       <c r="F548" s="10"/>
       <c r="G548" s="10"/>
     </row>
-    <row r="549" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A549" s="10"/>
       <c r="B549" s="10"/>
       <c r="C549" s="10"/>
@@ -7801,16 +7273,16 @@
       <c r="F549" s="10"/>
       <c r="G549" s="10"/>
     </row>
-    <row r="550" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A550" s="10"/>
-      <c r="B550" s="10"/>
-      <c r="C550" s="10"/>
-      <c r="D550" s="10"/>
-      <c r="E550" s="10"/>
+    <row r="550" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A550" s="28"/>
+      <c r="B550" s="28"/>
+      <c r="C550" s="28"/>
+      <c r="D550" s="28"/>
+      <c r="E550" s="28"/>
       <c r="F550" s="10"/>
       <c r="G550" s="10"/>
     </row>
-    <row r="551" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A551" s="28"/>
       <c r="B551" s="28"/>
       <c r="C551" s="28"/>
@@ -7819,7 +7291,7 @@
       <c r="F551" s="10"/>
       <c r="G551" s="10"/>
     </row>
-    <row r="552" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A552" s="10"/>
       <c r="B552" s="10"/>
       <c r="C552" s="10"/>
@@ -7828,7 +7300,7 @@
       <c r="F552" s="10"/>
       <c r="G552" s="10"/>
     </row>
-    <row r="553" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A553" s="10"/>
       <c r="B553" s="10"/>
       <c r="C553" s="10"/>
@@ -7837,16 +7309,16 @@
       <c r="F553" s="10"/>
       <c r="G553" s="10"/>
     </row>
-    <row r="554" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A554" s="10"/>
       <c r="B554" s="10"/>
       <c r="C554" s="10"/>
       <c r="D554" s="10"/>
       <c r="E554" s="10"/>
-      <c r="F554" s="10"/>
-      <c r="G554" s="10"/>
-    </row>
-    <row r="555" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F554" s="28"/>
+      <c r="G554" s="28"/>
+    </row>
+    <row r="555" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A555" s="10"/>
       <c r="B555" s="10"/>
       <c r="C555" s="10"/>
@@ -7855,7 +7327,7 @@
       <c r="F555" s="10"/>
       <c r="G555" s="10"/>
     </row>
-    <row r="556" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A556" s="10"/>
       <c r="B556" s="10"/>
       <c r="C556" s="10"/>
@@ -7864,7 +7336,7 @@
       <c r="F556" s="10"/>
       <c r="G556" s="10"/>
     </row>
-    <row r="557" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A557" s="10"/>
       <c r="B557" s="10"/>
       <c r="C557" s="10"/>
@@ -7873,7 +7345,7 @@
       <c r="F557" s="10"/>
       <c r="G557" s="10"/>
     </row>
-    <row r="558" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A558" s="10"/>
       <c r="B558" s="10"/>
       <c r="C558" s="10"/>
@@ -7882,25 +7354,25 @@
       <c r="F558" s="10"/>
       <c r="G558" s="10"/>
     </row>
-    <row r="559" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A559" s="10"/>
       <c r="B559" s="10"/>
       <c r="C559" s="10"/>
       <c r="D559" s="10"/>
       <c r="E559" s="10"/>
-      <c r="F559" s="28"/>
-      <c r="G559" s="28"/>
-    </row>
-    <row r="560" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A560" s="10"/>
-      <c r="B560" s="10"/>
-      <c r="C560" s="10"/>
-      <c r="D560" s="10"/>
-      <c r="E560" s="10"/>
-      <c r="F560" s="28"/>
-      <c r="G560" s="28"/>
-    </row>
-    <row r="561" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F559" s="10"/>
+      <c r="G559" s="10"/>
+    </row>
+    <row r="560" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A560" s="28"/>
+      <c r="B560" s="28"/>
+      <c r="C560" s="28"/>
+      <c r="D560" s="28"/>
+      <c r="E560" s="28"/>
+      <c r="F560" s="10"/>
+      <c r="G560" s="10"/>
+    </row>
+    <row r="561" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A561" s="10"/>
       <c r="B561" s="10"/>
       <c r="C561" s="10"/>
@@ -7909,7 +7381,7 @@
       <c r="F561" s="10"/>
       <c r="G561" s="10"/>
     </row>
-    <row r="562" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A562" s="10"/>
       <c r="B562" s="10"/>
       <c r="C562" s="10"/>
@@ -7918,7 +7390,7 @@
       <c r="F562" s="10"/>
       <c r="G562" s="10"/>
     </row>
-    <row r="563" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A563" s="10"/>
       <c r="B563" s="10"/>
       <c r="C563" s="10"/>
@@ -7927,7 +7399,7 @@
       <c r="F563" s="10"/>
       <c r="G563" s="10"/>
     </row>
-    <row r="564" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A564" s="10"/>
       <c r="B564" s="10"/>
       <c r="C564" s="10"/>
@@ -7936,7 +7408,7 @@
       <c r="F564" s="10"/>
       <c r="G564" s="10"/>
     </row>
-    <row r="565" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A565" s="10"/>
       <c r="B565" s="10"/>
       <c r="C565" s="10"/>
@@ -7945,7 +7417,7 @@
       <c r="F565" s="10"/>
       <c r="G565" s="10"/>
     </row>
-    <row r="566" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A566" s="10"/>
       <c r="B566" s="10"/>
       <c r="C566" s="10"/>
@@ -7954,7 +7426,7 @@
       <c r="F566" s="10"/>
       <c r="G566" s="10"/>
     </row>
-    <row r="567" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A567" s="10"/>
       <c r="B567" s="10"/>
       <c r="C567" s="10"/>
@@ -7963,7 +7435,7 @@
       <c r="F567" s="10"/>
       <c r="G567" s="10"/>
     </row>
-    <row r="568" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A568" s="10"/>
       <c r="B568" s="10"/>
       <c r="C568" s="10"/>
@@ -7972,16 +7444,16 @@
       <c r="F568" s="10"/>
       <c r="G568" s="10"/>
     </row>
-    <row r="569" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A569" s="10"/>
-      <c r="B569" s="10"/>
-      <c r="C569" s="10"/>
-      <c r="D569" s="10"/>
-      <c r="E569" s="10"/>
-      <c r="F569" s="28"/>
-      <c r="G569" s="28"/>
-    </row>
-    <row r="570" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A569" s="28"/>
+      <c r="B569" s="28"/>
+      <c r="C569" s="28"/>
+      <c r="D569" s="28"/>
+      <c r="E569" s="28"/>
+      <c r="F569" s="10"/>
+      <c r="G569" s="10"/>
+    </row>
+    <row r="570" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A570" s="10"/>
       <c r="B570" s="10"/>
       <c r="C570" s="10"/>
@@ -7990,7 +7462,7 @@
       <c r="F570" s="10"/>
       <c r="G570" s="10"/>
     </row>
-    <row r="571" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A571" s="10"/>
       <c r="B571" s="10"/>
       <c r="C571" s="10"/>
@@ -7999,7 +7471,7 @@
       <c r="F571" s="10"/>
       <c r="G571" s="10"/>
     </row>
-    <row r="572" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A572" s="10"/>
       <c r="B572" s="10"/>
       <c r="C572" s="10"/>
@@ -8008,7 +7480,7 @@
       <c r="F572" s="10"/>
       <c r="G572" s="10"/>
     </row>
-    <row r="573" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A573" s="10"/>
       <c r="B573" s="10"/>
       <c r="C573" s="10"/>
@@ -8017,25 +7489,25 @@
       <c r="F573" s="10"/>
       <c r="G573" s="10"/>
     </row>
-    <row r="574" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A574" s="28"/>
-      <c r="B574" s="28"/>
-      <c r="C574" s="28"/>
-      <c r="D574" s="28"/>
-      <c r="E574" s="28"/>
-      <c r="F574" s="10"/>
-      <c r="G574" s="10"/>
-    </row>
-    <row r="575" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A575" s="28"/>
-      <c r="B575" s="28"/>
-      <c r="C575" s="28"/>
-      <c r="D575" s="28"/>
-      <c r="E575" s="28"/>
+    <row r="574" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A574" s="10"/>
+      <c r="B574" s="10"/>
+      <c r="C574" s="10"/>
+      <c r="D574" s="10"/>
+      <c r="E574" s="10"/>
+      <c r="F574" s="28"/>
+      <c r="G574" s="28"/>
+    </row>
+    <row r="575" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A575" s="10"/>
+      <c r="B575" s="10"/>
+      <c r="C575" s="10"/>
+      <c r="D575" s="10"/>
+      <c r="E575" s="10"/>
       <c r="F575" s="10"/>
       <c r="G575" s="10"/>
     </row>
-    <row r="576" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A576" s="10"/>
       <c r="B576" s="10"/>
       <c r="C576" s="10"/>
@@ -8044,7 +7516,7 @@
       <c r="F576" s="10"/>
       <c r="G576" s="10"/>
     </row>
-    <row r="577" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A577" s="10"/>
       <c r="B577" s="10"/>
       <c r="C577" s="10"/>
@@ -8053,16 +7525,16 @@
       <c r="F577" s="10"/>
       <c r="G577" s="10"/>
     </row>
-    <row r="578" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A578" s="10"/>
       <c r="B578" s="10"/>
       <c r="C578" s="10"/>
       <c r="D578" s="10"/>
       <c r="E578" s="10"/>
-      <c r="F578" s="28"/>
-      <c r="G578" s="28"/>
-    </row>
-    <row r="579" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F578" s="10"/>
+      <c r="G578" s="10"/>
+    </row>
+    <row r="579" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A579" s="10"/>
       <c r="B579" s="10"/>
       <c r="C579" s="10"/>
@@ -8071,7 +7543,7 @@
       <c r="F579" s="10"/>
       <c r="G579" s="10"/>
     </row>
-    <row r="580" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A580" s="10"/>
       <c r="B580" s="10"/>
       <c r="C580" s="10"/>
@@ -8080,7 +7552,7 @@
       <c r="F580" s="10"/>
       <c r="G580" s="10"/>
     </row>
-    <row r="581" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A581" s="10"/>
       <c r="B581" s="10"/>
       <c r="C581" s="10"/>
@@ -8089,7 +7561,7 @@
       <c r="F581" s="10"/>
       <c r="G581" s="10"/>
     </row>
-    <row r="582" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A582" s="10"/>
       <c r="B582" s="10"/>
       <c r="C582" s="10"/>
@@ -8098,7 +7570,7 @@
       <c r="F582" s="10"/>
       <c r="G582" s="10"/>
     </row>
-    <row r="583" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A583" s="10"/>
       <c r="B583" s="10"/>
       <c r="C583" s="10"/>
@@ -8107,16 +7579,16 @@
       <c r="F583" s="10"/>
       <c r="G583" s="10"/>
     </row>
-    <row r="584" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A584" s="28"/>
-      <c r="B584" s="28"/>
-      <c r="C584" s="28"/>
-      <c r="D584" s="28"/>
-      <c r="E584" s="28"/>
+    <row r="584" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A584" s="10"/>
+      <c r="B584" s="10"/>
+      <c r="C584" s="10"/>
+      <c r="D584" s="10"/>
+      <c r="E584" s="10"/>
       <c r="F584" s="10"/>
       <c r="G584" s="10"/>
     </row>
-    <row r="585" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A585" s="10"/>
       <c r="B585" s="10"/>
       <c r="C585" s="10"/>
@@ -8125,7 +7597,7 @@
       <c r="F585" s="10"/>
       <c r="G585" s="10"/>
     </row>
-    <row r="586" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A586" s="10"/>
       <c r="B586" s="10"/>
       <c r="C586" s="10"/>
@@ -8134,7 +7606,7 @@
       <c r="F586" s="10"/>
       <c r="G586" s="10"/>
     </row>
-    <row r="587" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A587" s="10"/>
       <c r="B587" s="10"/>
       <c r="C587" s="10"/>
@@ -8143,7 +7615,7 @@
       <c r="F587" s="10"/>
       <c r="G587" s="10"/>
     </row>
-    <row r="588" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A588" s="10"/>
       <c r="B588" s="10"/>
       <c r="C588" s="10"/>
@@ -8152,16 +7624,16 @@
       <c r="F588" s="10"/>
       <c r="G588" s="10"/>
     </row>
-    <row r="589" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A589" s="10"/>
-      <c r="B589" s="10"/>
-      <c r="C589" s="10"/>
-      <c r="D589" s="10"/>
-      <c r="E589" s="10"/>
+    <row r="589" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A589" s="28"/>
+      <c r="B589" s="28"/>
+      <c r="C589" s="28"/>
+      <c r="D589" s="28"/>
+      <c r="E589" s="28"/>
       <c r="F589" s="10"/>
       <c r="G589" s="10"/>
     </row>
-    <row r="590" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A590" s="10"/>
       <c r="B590" s="10"/>
       <c r="C590" s="10"/>
@@ -8170,7 +7642,7 @@
       <c r="F590" s="10"/>
       <c r="G590" s="10"/>
     </row>
-    <row r="591" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A591" s="10"/>
       <c r="B591" s="10"/>
       <c r="C591" s="10"/>
@@ -8179,7 +7651,7 @@
       <c r="F591" s="10"/>
       <c r="G591" s="10"/>
     </row>
-    <row r="592" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A592" s="10"/>
       <c r="B592" s="10"/>
       <c r="C592" s="10"/>
@@ -8188,16 +7660,16 @@
       <c r="F592" s="10"/>
       <c r="G592" s="10"/>
     </row>
-    <row r="593" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A593" s="28"/>
-      <c r="B593" s="28"/>
-      <c r="C593" s="28"/>
-      <c r="D593" s="28"/>
-      <c r="E593" s="28"/>
+    <row r="593" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A593" s="10"/>
+      <c r="B593" s="10"/>
+      <c r="C593" s="10"/>
+      <c r="D593" s="10"/>
+      <c r="E593" s="10"/>
       <c r="F593" s="10"/>
       <c r="G593" s="10"/>
     </row>
-    <row r="594" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A594" s="10"/>
       <c r="B594" s="10"/>
       <c r="C594" s="10"/>
@@ -8206,7 +7678,7 @@
       <c r="F594" s="10"/>
       <c r="G594" s="10"/>
     </row>
-    <row r="595" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A595" s="10"/>
       <c r="B595" s="10"/>
       <c r="C595" s="10"/>
@@ -8215,7 +7687,7 @@
       <c r="F595" s="10"/>
       <c r="G595" s="10"/>
     </row>
-    <row r="596" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A596" s="10"/>
       <c r="B596" s="10"/>
       <c r="C596" s="10"/>
@@ -8224,7 +7696,7 @@
       <c r="F596" s="10"/>
       <c r="G596" s="10"/>
     </row>
-    <row r="597" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A597" s="10"/>
       <c r="B597" s="10"/>
       <c r="C597" s="10"/>
@@ -8233,16 +7705,16 @@
       <c r="F597" s="10"/>
       <c r="G597" s="10"/>
     </row>
-    <row r="598" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A598" s="10"/>
       <c r="B598" s="10"/>
       <c r="C598" s="10"/>
       <c r="D598" s="10"/>
       <c r="E598" s="10"/>
-      <c r="F598" s="28"/>
-      <c r="G598" s="28"/>
-    </row>
-    <row r="599" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F598" s="10"/>
+      <c r="G598" s="10"/>
+    </row>
+    <row r="599" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A599" s="10"/>
       <c r="B599" s="10"/>
       <c r="C599" s="10"/>
@@ -8251,7 +7723,7 @@
       <c r="F599" s="10"/>
       <c r="G599" s="10"/>
     </row>
-    <row r="600" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A600" s="10"/>
       <c r="B600" s="10"/>
       <c r="C600" s="10"/>
@@ -8260,326 +7732,110 @@
       <c r="F600" s="10"/>
       <c r="G600" s="10"/>
     </row>
-    <row r="601" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A601" s="10"/>
       <c r="B601" s="10"/>
       <c r="C601" s="10"/>
       <c r="D601" s="10"/>
       <c r="E601" s="10"/>
-      <c r="F601" s="10"/>
-      <c r="G601" s="10"/>
-    </row>
-    <row r="602" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="602" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A602" s="10"/>
       <c r="B602" s="10"/>
       <c r="C602" s="10"/>
       <c r="D602" s="10"/>
       <c r="E602" s="10"/>
-      <c r="F602" s="10"/>
-      <c r="G602" s="10"/>
-    </row>
-    <row r="603" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="603" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A603" s="10"/>
       <c r="B603" s="10"/>
       <c r="C603" s="10"/>
       <c r="D603" s="10"/>
       <c r="E603" s="10"/>
-      <c r="F603" s="10"/>
-      <c r="G603" s="10"/>
-    </row>
-    <row r="604" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="604" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A604" s="10"/>
       <c r="B604" s="10"/>
       <c r="C604" s="10"/>
       <c r="D604" s="10"/>
       <c r="E604" s="10"/>
-      <c r="F604" s="10"/>
-      <c r="G604" s="10"/>
-    </row>
-    <row r="605" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="605" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A605" s="10"/>
       <c r="B605" s="10"/>
       <c r="C605" s="10"/>
       <c r="D605" s="10"/>
       <c r="E605" s="10"/>
-      <c r="F605" s="10"/>
-      <c r="G605" s="10"/>
-    </row>
-    <row r="606" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="606" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A606" s="10"/>
       <c r="B606" s="10"/>
       <c r="C606" s="10"/>
       <c r="D606" s="10"/>
       <c r="E606" s="10"/>
-      <c r="F606" s="10"/>
-      <c r="G606" s="10"/>
-    </row>
-    <row r="607" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="607" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A607" s="10"/>
       <c r="B607" s="10"/>
       <c r="C607" s="10"/>
       <c r="D607" s="10"/>
       <c r="E607" s="10"/>
-      <c r="F607" s="10"/>
-      <c r="G607" s="10"/>
-    </row>
-    <row r="608" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="608" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A608" s="10"/>
       <c r="B608" s="10"/>
       <c r="C608" s="10"/>
       <c r="D608" s="10"/>
       <c r="E608" s="10"/>
-      <c r="F608" s="10"/>
-      <c r="G608" s="10"/>
-    </row>
-    <row r="609" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="609" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A609" s="10"/>
       <c r="B609" s="10"/>
       <c r="C609" s="10"/>
       <c r="D609" s="10"/>
       <c r="E609" s="10"/>
-      <c r="F609" s="10"/>
-      <c r="G609" s="10"/>
-    </row>
-    <row r="610" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="610" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A610" s="10"/>
       <c r="B610" s="10"/>
       <c r="C610" s="10"/>
       <c r="D610" s="10"/>
       <c r="E610" s="10"/>
-      <c r="F610" s="10"/>
-      <c r="G610" s="10"/>
-    </row>
-    <row r="611" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="611" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A611" s="10"/>
       <c r="B611" s="10"/>
       <c r="C611" s="10"/>
       <c r="D611" s="10"/>
       <c r="E611" s="10"/>
-      <c r="F611" s="10"/>
-      <c r="G611" s="10"/>
-    </row>
-    <row r="612" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="612" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A612" s="10"/>
       <c r="B612" s="10"/>
       <c r="C612" s="10"/>
       <c r="D612" s="10"/>
       <c r="E612" s="10"/>
-      <c r="F612" s="10"/>
-      <c r="G612" s="10"/>
-    </row>
-    <row r="613" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A613" s="28"/>
-      <c r="B613" s="28"/>
-      <c r="C613" s="28"/>
-      <c r="D613" s="28"/>
-      <c r="E613" s="28"/>
-      <c r="F613" s="10"/>
-      <c r="G613" s="10"/>
-    </row>
-    <row r="614" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="613" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A613" s="10"/>
+      <c r="B613" s="10"/>
+      <c r="C613" s="10"/>
+      <c r="D613" s="10"/>
+      <c r="E613" s="10"/>
+    </row>
+    <row r="614" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A614" s="10"/>
       <c r="B614" s="10"/>
       <c r="C614" s="10"/>
       <c r="D614" s="10"/>
       <c r="E614" s="10"/>
-      <c r="F614" s="10"/>
-      <c r="G614" s="10"/>
-    </row>
-    <row r="615" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="615" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A615" s="10"/>
       <c r="B615" s="10"/>
       <c r="C615" s="10"/>
       <c r="D615" s="10"/>
       <c r="E615" s="10"/>
-      <c r="F615" s="10"/>
-      <c r="G615" s="10"/>
-    </row>
-    <row r="616" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A616" s="10"/>
-      <c r="B616" s="10"/>
-      <c r="C616" s="10"/>
-      <c r="D616" s="10"/>
-      <c r="E616" s="10"/>
-      <c r="F616" s="10"/>
-      <c r="G616" s="10"/>
-    </row>
-    <row r="617" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A617" s="10"/>
-      <c r="B617" s="10"/>
-      <c r="C617" s="10"/>
-      <c r="D617" s="10"/>
-      <c r="E617" s="10"/>
-      <c r="F617" s="10"/>
-      <c r="G617" s="10"/>
-    </row>
-    <row r="618" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A618" s="10"/>
-      <c r="B618" s="10"/>
-      <c r="C618" s="10"/>
-      <c r="D618" s="10"/>
-      <c r="E618" s="10"/>
-      <c r="F618" s="10"/>
-      <c r="G618" s="10"/>
-    </row>
-    <row r="619" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A619" s="10"/>
-      <c r="B619" s="10"/>
-      <c r="C619" s="10"/>
-      <c r="D619" s="10"/>
-      <c r="E619" s="10"/>
-      <c r="F619" s="10"/>
-      <c r="G619" s="10"/>
-    </row>
-    <row r="620" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A620" s="10"/>
-      <c r="B620" s="10"/>
-      <c r="C620" s="10"/>
-      <c r="D620" s="10"/>
-      <c r="E620" s="10"/>
-      <c r="F620" s="10"/>
-      <c r="G620" s="10"/>
-    </row>
-    <row r="621" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A621" s="10"/>
-      <c r="B621" s="10"/>
-      <c r="C621" s="10"/>
-      <c r="D621" s="10"/>
-      <c r="E621" s="10"/>
-      <c r="F621" s="10"/>
-      <c r="G621" s="10"/>
-    </row>
-    <row r="622" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A622" s="10"/>
-      <c r="B622" s="10"/>
-      <c r="C622" s="10"/>
-      <c r="D622" s="10"/>
-      <c r="E622" s="10"/>
-      <c r="F622" s="10"/>
-      <c r="G622" s="10"/>
-    </row>
-    <row r="623" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A623" s="10"/>
-      <c r="B623" s="10"/>
-      <c r="C623" s="10"/>
-      <c r="D623" s="10"/>
-      <c r="E623" s="10"/>
-      <c r="F623" s="10"/>
-      <c r="G623" s="10"/>
-    </row>
-    <row r="624" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A624" s="10"/>
-      <c r="B624" s="10"/>
-      <c r="C624" s="10"/>
-      <c r="D624" s="10"/>
-      <c r="E624" s="10"/>
-      <c r="F624" s="10"/>
-      <c r="G624" s="10"/>
-    </row>
-    <row r="625" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A625" s="10"/>
-      <c r="B625" s="10"/>
-      <c r="C625" s="10"/>
-      <c r="D625" s="10"/>
-      <c r="E625" s="10"/>
-    </row>
-    <row r="626" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A626" s="10"/>
-      <c r="B626" s="10"/>
-      <c r="C626" s="10"/>
-      <c r="D626" s="10"/>
-      <c r="E626" s="10"/>
-    </row>
-    <row r="627" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A627" s="10"/>
-      <c r="B627" s="10"/>
-      <c r="C627" s="10"/>
-      <c r="D627" s="10"/>
-      <c r="E627" s="10"/>
-    </row>
-    <row r="628" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A628" s="10"/>
-      <c r="B628" s="10"/>
-      <c r="C628" s="10"/>
-      <c r="D628" s="10"/>
-      <c r="E628" s="10"/>
-    </row>
-    <row r="629" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A629" s="10"/>
-      <c r="B629" s="10"/>
-      <c r="C629" s="10"/>
-      <c r="D629" s="10"/>
-      <c r="E629" s="10"/>
-    </row>
-    <row r="630" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A630" s="10"/>
-      <c r="B630" s="10"/>
-      <c r="C630" s="10"/>
-      <c r="D630" s="10"/>
-      <c r="E630" s="10"/>
-    </row>
-    <row r="631" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A631" s="10"/>
-      <c r="B631" s="10"/>
-      <c r="C631" s="10"/>
-      <c r="D631" s="10"/>
-      <c r="E631" s="10"/>
-    </row>
-    <row r="632" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A632" s="10"/>
-      <c r="B632" s="10"/>
-      <c r="C632" s="10"/>
-      <c r="D632" s="10"/>
-      <c r="E632" s="10"/>
-    </row>
-    <row r="633" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A633" s="10"/>
-      <c r="B633" s="10"/>
-      <c r="C633" s="10"/>
-      <c r="D633" s="10"/>
-      <c r="E633" s="10"/>
-    </row>
-    <row r="634" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A634" s="10"/>
-      <c r="B634" s="10"/>
-      <c r="C634" s="10"/>
-      <c r="D634" s="10"/>
-      <c r="E634" s="10"/>
-    </row>
-    <row r="635" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A635" s="10"/>
-      <c r="B635" s="10"/>
-      <c r="C635" s="10"/>
-      <c r="D635" s="10"/>
-      <c r="E635" s="10"/>
-    </row>
-    <row r="636" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A636" s="10"/>
-      <c r="B636" s="10"/>
-      <c r="C636" s="10"/>
-      <c r="D636" s="10"/>
-      <c r="E636" s="10"/>
-    </row>
-    <row r="637" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A637" s="10"/>
-      <c r="B637" s="10"/>
-      <c r="C637" s="10"/>
-      <c r="D637" s="10"/>
-      <c r="E637" s="10"/>
-    </row>
-    <row r="638" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A638" s="10"/>
-      <c r="B638" s="10"/>
-      <c r="C638" s="10"/>
-      <c r="D638" s="10"/>
-      <c r="E638" s="10"/>
-    </row>
-    <row r="639" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A639" s="10"/>
-      <c r="B639" s="10"/>
-      <c r="C639" s="10"/>
-      <c r="D639" s="10"/>
-      <c r="E639" s="10"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:G1"/>
@@ -8596,12 +7852,12 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="14.1796875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="14" t="s">
         <v>61</v>
       </c>
@@ -8609,7 +7865,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="16" t="s">
         <v>83</v>
       </c>
@@ -8624,119 +7880,85 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="16.140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="7" width="14.140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="2" width="15" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="36.1796875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
-        <v>172</v>
-      </c>
-      <c r="B1" s="34" t="s">
-        <v>173</v>
-      </c>
-      <c r="C1" s="34" t="s">
-        <v>174</v>
-      </c>
-      <c r="D1" s="34" t="s">
-        <v>175</v>
-      </c>
-      <c r="E1" s="34" t="s">
-        <v>198</v>
-      </c>
-      <c r="F1" s="34" t="s">
-        <v>199</v>
-      </c>
-      <c r="G1" s="34" t="s">
-        <v>202</v>
-      </c>
-      <c r="H1" s="34" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1" s="14" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="80.150000000000006" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="B2" s="33" t="s">
-        <v>177</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="D2" s="36" t="s">
-        <v>179</v>
-      </c>
-      <c r="E2" s="36" t="s">
-        <v>201</v>
-      </c>
-      <c r="F2" s="35" t="s">
-        <v>200</v>
-      </c>
-      <c r="G2" s="37" t="s">
-        <v>203</v>
-      </c>
-      <c r="H2" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>62</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B1" sqref="B1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="15" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="36.140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="16.1796875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.1796875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="D1" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" s="17" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="B2" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="D2" s="7" t="s">
+      <c r="B2" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" s="13" t="s">
         <v>62</v>
       </c>
     </row>
@@ -8748,43 +7970,35 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C1048576"/>
+      <selection sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14.140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="14.1796875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="14" t="s">
         <v>61</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="C1" s="17" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="B2" s="16" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="B2" s="13" t="s">
         <v>62</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8793,49 +8007,15 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.140625" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>62</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="13.453125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="14" t="s">
         <v>61</v>
       </c>
@@ -8843,7 +8023,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
         <v>82</v>
       </c>

--- a/src/test/java/com/born/xls/ProductDetailsPage.xlsx
+++ b/src/test/java/com/born/xls/ProductDetailsPage.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="6590" windowHeight="2660" tabRatio="937"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="6590" windowHeight="2660" tabRatio="937" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="2" r:id="rId1"/>
@@ -1155,7 +1155,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="105" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="105" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -1287,10 +1287,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:J615"/>
+  <dimension ref="A1:K615"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1302,9 +1302,9 @@
     <col min="5" max="5" width="34.1796875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="29.7265625" style="1" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="17" style="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="9.1796875" style="1" collapsed="1"/>
-    <col min="9" max="10" width="9.1796875" style="1"/>
-    <col min="11" max="16384" width="9.1796875" style="1" collapsed="1"/>
+    <col min="8" max="9" width="9.1796875" style="1" collapsed="1"/>
+    <col min="10" max="11" width="9.1796875" style="1"/>
+    <col min="12" max="16384" width="9.1796875" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">

--- a/src/test/java/com/born/xls/ProductDetailsPage.xlsx
+++ b/src/test/java/com/born/xls/ProductDetailsPage.xlsx
@@ -4,16 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="6590" windowHeight="2660" tabRatio="937" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6720" tabRatio="937"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="2" r:id="rId1"/>
     <sheet name="Test Steps" sheetId="3" r:id="rId2"/>
-    <sheet name="Favorite products" sheetId="62" r:id="rId3"/>
-    <sheet name="PDP-Write a Review" sheetId="57" r:id="rId4"/>
-    <sheet name="Comparing the Products" sheetId="58" r:id="rId5"/>
-    <sheet name="Verification of View My Items" sheetId="61" r:id="rId6"/>
-    <sheet name="WhereToBuy" sheetId="59" r:id="rId7"/>
+    <sheet name="Remove FavProd" sheetId="63" r:id="rId3"/>
+    <sheet name="Favorite products" sheetId="62" r:id="rId4"/>
+    <sheet name="PDP-Write a Review" sheetId="57" r:id="rId5"/>
+    <sheet name="Comparing the Products" sheetId="58" r:id="rId6"/>
+    <sheet name="Verification of View My Items" sheetId="61" r:id="rId7"/>
+    <sheet name="WhereToBuy" sheetId="59" r:id="rId8"/>
+    <sheet name="International" sheetId="64" r:id="rId9"/>
+    <sheet name="FindLocal dealers" sheetId="65" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Test Cases'!$A$1:$C$8</definedName>
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="933" uniqueCount="205">
   <si>
     <t>TCID</t>
   </si>
@@ -603,12 +606,156 @@
   <si>
     <t>Favorite products</t>
   </si>
+  <si>
+    <t>Remove FavProd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To verify whether user can Remove the added favourite products in pdp page </t>
+  </si>
+  <si>
+    <t>Select added fav product</t>
+  </si>
+  <si>
+    <t>Click on Remove Favourite prodcut button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify Product has removed or not </t>
+  </si>
+  <si>
+    <t>FavProd_Checkbox</t>
+  </si>
+  <si>
+    <t>RemoveFavProd_Button</t>
+  </si>
+  <si>
+    <t>notExist</t>
+  </si>
+  <si>
+    <t>ProductDetails_Button</t>
+  </si>
+  <si>
+    <t>FindLocal dealers</t>
+  </si>
+  <si>
+    <t>Online Shopping</t>
+  </si>
+  <si>
+    <t>Verify that user can serch the local dealers to buy the product</t>
+  </si>
+  <si>
+    <t>This feature is to verify in which online shopping websites user can buy the products</t>
+  </si>
+  <si>
+    <t>To check whether Internation Customers can buy the products based on theire locations</t>
+  </si>
+  <si>
+    <t>Click on Find Local Dealers button</t>
+  </si>
+  <si>
+    <t>Switch to frame</t>
+  </si>
+  <si>
+    <t>Close the alert window</t>
+  </si>
+  <si>
+    <t>Enter Zip code of the city</t>
+  </si>
+  <si>
+    <t>Click on Search button</t>
+  </si>
+  <si>
+    <t>Verify whether particular locations has displyed or not</t>
+  </si>
+  <si>
+    <t>Click on Online Shopping button</t>
+  </si>
+  <si>
+    <t>Verify whether particular online sellers has displyed or not</t>
+  </si>
+  <si>
+    <t>Click on Inernational Customer button</t>
+  </si>
+  <si>
+    <t>Enter name of the city</t>
+  </si>
+  <si>
+    <t>Select Radius in the drop down</t>
+  </si>
+  <si>
+    <t>International</t>
+  </si>
+  <si>
+    <t>FindLocalDealers</t>
+  </si>
+  <si>
+    <t>InternationalCustomers</t>
+  </si>
+  <si>
+    <t>LocationName</t>
+  </si>
+  <si>
+    <t>indore</t>
+  </si>
+  <si>
+    <t>col|LocationName</t>
+  </si>
+  <si>
+    <t>Internation_Adress</t>
+  </si>
+  <si>
+    <t>countryselect</t>
+  </si>
+  <si>
+    <t>SelectRadius</t>
+  </si>
+  <si>
+    <t>Radius</t>
+  </si>
+  <si>
+    <t>col|Radius</t>
+  </si>
+  <si>
+    <t>SearchLocation</t>
+  </si>
+  <si>
+    <t>StoreInfo</t>
+  </si>
+  <si>
+    <t>OnlineRetailers</t>
+  </si>
+  <si>
+    <t>OnlineShopping</t>
+  </si>
+  <si>
+    <t>switchToFrameByXpath</t>
+  </si>
+  <si>
+    <t>Frame</t>
+  </si>
+  <si>
+    <t>CloseButton</t>
+  </si>
+  <si>
+    <t>560100</t>
+  </si>
+  <si>
+    <t>ZipCode_Field</t>
+  </si>
+  <si>
+    <t>SearchButton</t>
+  </si>
+  <si>
+    <t>ResultList</t>
+  </si>
+  <si>
+    <t>10 miles</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -667,6 +814,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -706,7 +860,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -766,11 +920,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -787,9 +952,6 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -842,6 +1004,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1153,10 +1321,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView zoomScale="105" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" zoomScale="105" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1168,13 +1336,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="20" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1245,10 +1413,10 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="21" t="s">
         <v>115</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -1256,10 +1424,10 @@
       </c>
     </row>
     <row r="9" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="21" t="s">
         <v>130</v>
       </c>
       <c r="C9" s="4" t="s">
@@ -1274,6 +1442,50 @@
         <v>131</v>
       </c>
       <c r="C10" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A12" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A13" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A14" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1284,13 +1496,45 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="13.453125" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:K615"/>
+  <dimension ref="A1:J511"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1302,9 +1546,9 @@
     <col min="5" max="5" width="34.1796875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="29.7265625" style="1" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="17" style="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="9" width="9.1796875" style="1" collapsed="1"/>
-    <col min="10" max="11" width="9.1796875" style="1"/>
-    <col min="12" max="16384" width="9.1796875" style="1" collapsed="1"/>
+    <col min="8" max="8" width="9.1796875" style="1" collapsed="1"/>
+    <col min="9" max="10" width="9.1796875" style="1"/>
+    <col min="11" max="16384" width="9.1796875" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
@@ -1334,2641 +1578,3318 @@
       <c r="A2" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24" t="s">
+      <c r="E2" s="23"/>
+      <c r="F2" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="24"/>
+      <c r="G2" s="23"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24" t="s">
+      <c r="E3" s="23"/>
+      <c r="F3" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="24"/>
+      <c r="G3" s="23"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="24" t="s">
+      <c r="E4" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="24" t="s">
+      <c r="D5" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="24" t="s">
+      <c r="E5" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="D6" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="24" t="s">
+      <c r="E6" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="D7" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
+      <c r="C7" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="E7" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
+      <c r="C8" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
+      <c r="C9" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="E9" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="25"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
+      <c r="A10" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B11" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="G11" s="24"/>
+        <v>38</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B12" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="24" t="s">
-        <v>9</v>
-      </c>
+      <c r="A12" s="24"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
       <c r="E12" s="24"/>
-      <c r="F12" s="24" t="s">
-        <v>10</v>
-      </c>
+      <c r="F12" s="24"/>
       <c r="G12" s="24"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="24" t="s">
-        <v>155</v>
-      </c>
-      <c r="D13" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="F13" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="G13" s="24"/>
+      <c r="B13" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="G13" s="23"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B14" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="24" t="s">
-        <v>148</v>
-      </c>
-      <c r="D14" s="24" t="s">
-        <v>147</v>
-      </c>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
+      <c r="B14" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="23"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B15" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="D15" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="E15" s="26" t="s">
-        <v>150</v>
-      </c>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
+      <c r="B15" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="F15" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="G15" s="23"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B16" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="D16" s="24" t="s">
-        <v>146</v>
-      </c>
-      <c r="E16" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
+      <c r="B16" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B17" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="24" t="s">
+      <c r="B17" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="D17" s="24" t="s">
+      <c r="D17" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="E17" s="26" t="s">
-        <v>151</v>
-      </c>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
+      <c r="E17" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B18" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="D18" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="E18" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
+      <c r="B18" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="E18" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B19" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="D19" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="E19" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
+      <c r="B19" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="D19" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="E19" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B20" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="D20" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="E20" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
+      <c r="B20" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="D20" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="E20" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B21" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="D21" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="24"/>
+      <c r="B21" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A22" s="25"/>
-      <c r="B22" s="25"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
+      <c r="A22" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B23" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="C23" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="D23" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="G23" s="24"/>
+        <v>49</v>
+      </c>
+      <c r="B23" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A24" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B24" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" s="24" t="s">
-        <v>90</v>
-      </c>
-      <c r="D24" s="24" t="s">
-        <v>9</v>
-      </c>
+      <c r="A24" s="24"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
       <c r="E24" s="24"/>
-      <c r="F24" s="24" t="s">
-        <v>10</v>
-      </c>
+      <c r="F24" s="24"/>
       <c r="G24" s="24"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B25" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="D25" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="E25" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="F25" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="G25" s="24"/>
+      <c r="B25" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="G25" s="23"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B26" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="C26" s="24" t="s">
-        <v>148</v>
-      </c>
-      <c r="D26" s="24" t="s">
-        <v>147</v>
-      </c>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="24"/>
+      <c r="B26" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="D26" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="G26" s="23"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B27" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="C27" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="D27" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="E27" s="26" t="s">
-        <v>150</v>
-      </c>
-      <c r="F27" s="24"/>
-      <c r="G27" s="24"/>
+      <c r="B27" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="D27" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="F27" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="G27" s="23"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B28" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="C28" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="D28" s="24" t="s">
-        <v>146</v>
-      </c>
-      <c r="E28" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="F28" s="24"/>
-      <c r="G28" s="24"/>
+      <c r="B28" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="D28" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B29" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="C29" s="24" t="s">
+      <c r="B29" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="D29" s="24" t="s">
+      <c r="D29" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="E29" s="26" t="s">
-        <v>151</v>
-      </c>
-      <c r="F29" s="24"/>
-      <c r="G29" s="24"/>
+      <c r="E29" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B30" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="C30" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="D30" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="E30" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="F30" s="24"/>
-      <c r="G30" s="24"/>
+      <c r="B30" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="D30" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="E30" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B31" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="C31" s="24" t="s">
+      <c r="B31" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C31" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="D31" s="24" t="s">
-        <v>139</v>
-      </c>
-      <c r="E31" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="F31" s="8"/>
-      <c r="G31" s="24"/>
+      <c r="D31" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="E31" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B32" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="C32" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="D32" s="24" t="s">
+      <c r="B32" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="C32" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="D32" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="E32" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="F32" s="24"/>
-      <c r="G32" s="24"/>
+      <c r="E32" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B33" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="C33" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="D33" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="E33" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="F33" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="G33" s="24"/>
+      <c r="B33" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C33" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="D33" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="E33" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="F33" s="8"/>
+      <c r="G33" s="23"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B34" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="C34" s="24" t="s">
-        <v>148</v>
-      </c>
-      <c r="D34" s="24" t="s">
-        <v>147</v>
-      </c>
-      <c r="E34" s="24"/>
-      <c r="F34" s="24"/>
-      <c r="G34" s="24"/>
+      <c r="B34" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="D34" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="E34" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="F34" s="23"/>
+      <c r="G34" s="23"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B35" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="C35" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="D35" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="E35" s="26" t="s">
-        <v>150</v>
-      </c>
-      <c r="F35" s="24"/>
-      <c r="G35" s="24"/>
+      <c r="B35" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="D35" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="F35" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="G35" s="23"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B36" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="C36" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="D36" s="24" t="s">
-        <v>146</v>
-      </c>
-      <c r="E36" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="F36" s="24"/>
-      <c r="G36" s="24"/>
+      <c r="B36" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="D36" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="E36" s="23"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="23"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B37" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C37" s="24" t="s">
+      <c r="B37" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="D37" s="24" t="s">
+      <c r="D37" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="E37" s="26" t="s">
-        <v>151</v>
-      </c>
-      <c r="F37" s="24"/>
-      <c r="G37" s="24"/>
+      <c r="E37" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="F37" s="23"/>
+      <c r="G37" s="23"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B38" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="C38" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="D38" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="E38" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="F38" s="24"/>
-      <c r="G38" s="24"/>
+      <c r="B38" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C38" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="D38" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="E38" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="F38" s="23"/>
+      <c r="G38" s="23"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B39" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="C39" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="D39" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="E39" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="F39" s="24"/>
-      <c r="G39" s="24"/>
+      <c r="B39" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C39" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="D39" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="E39" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="F39" s="23"/>
+      <c r="G39" s="23"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B40" s="24" t="s">
-        <v>95</v>
-      </c>
-      <c r="C40" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="D40" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="E40" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="F40" s="24"/>
-      <c r="G40" s="24"/>
+      <c r="B40" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C40" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="D40" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="E40" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="F40" s="23"/>
+      <c r="G40" s="23"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B41" s="24" t="s">
+      <c r="B41" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="C41" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="D41" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="E41" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="F41" s="23"/>
+      <c r="G41" s="23"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A42" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B42" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="C42" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="D42" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E42" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="F42" s="23"/>
+      <c r="G42" s="23"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A43" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B43" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="C41" s="24" t="s">
+      <c r="C43" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="24" t="s">
+      <c r="D43" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="E41" s="24"/>
-      <c r="F41" s="24"/>
-      <c r="G41" s="24"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A42" s="25"/>
-      <c r="B42" s="25"/>
-      <c r="C42" s="25"/>
-      <c r="D42" s="25"/>
-      <c r="E42" s="25"/>
-      <c r="F42" s="25"/>
-      <c r="G42" s="25"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A43" s="20" t="s">
+      <c r="E43" s="23"/>
+      <c r="F43" s="23"/>
+      <c r="G43" s="23"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A44" s="24"/>
+      <c r="B44" s="24"/>
+      <c r="C44" s="24"/>
+      <c r="D44" s="24"/>
+      <c r="E44" s="24"/>
+      <c r="F44" s="24"/>
+      <c r="G44" s="24"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A45" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="B43" s="24" t="s">
+      <c r="B45" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="C43" s="24" t="s">
+      <c r="C45" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="D43" s="24" t="s">
+      <c r="D45" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="E43" s="24"/>
-      <c r="F43" s="24" t="s">
+      <c r="E45" s="23"/>
+      <c r="F45" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="G43" s="24"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A44" s="20" t="s">
+      <c r="G45" s="23"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A46" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="B44" s="24" t="s">
+      <c r="B46" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C44" s="24" t="s">
+      <c r="C46" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="D44" s="24" t="s">
+      <c r="D46" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="E44" s="24"/>
-      <c r="F44" s="24" t="s">
+      <c r="E46" s="23"/>
+      <c r="F46" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="G44" s="24"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A45" s="20" t="s">
+      <c r="G46" s="23"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A47" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="B45" s="24" t="s">
+      <c r="B47" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="C45" s="24" t="s">
+      <c r="C47" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="D45" s="24" t="s">
+      <c r="D47" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="E45" s="24" t="s">
+      <c r="E47" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="F45" s="24"/>
-      <c r="G45" s="24"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A46" s="20" t="s">
+      <c r="F47" s="23"/>
+      <c r="G47" s="23"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A48" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="B46" s="24" t="s">
+      <c r="B48" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="C46" s="24" t="s">
+      <c r="C48" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="D46" s="24" t="s">
+      <c r="D48" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="E46" s="24" t="s">
+      <c r="E48" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="F46" s="24"/>
-      <c r="G46" s="24"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A47" s="20" t="s">
+      <c r="F48" s="23"/>
+      <c r="G48" s="23"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A49" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="B47" s="24" t="s">
+      <c r="B49" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="C47" s="24" t="s">
+      <c r="C49" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="D47" s="24" t="s">
+      <c r="D49" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="E47" s="24" t="s">
+      <c r="E49" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="F47" s="24"/>
-      <c r="G47" s="24"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A48" s="20" t="s">
+      <c r="F49" s="23"/>
+      <c r="G49" s="23"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A50" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="B48" s="24" t="s">
+      <c r="B50" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="C48" s="24" t="s">
+      <c r="C50" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="D48" s="24" t="s">
+      <c r="D50" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="E48" s="26" t="s">
+      <c r="E50" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="F48" s="24"/>
-      <c r="G48" s="24"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A49" s="20" t="s">
+      <c r="F50" s="23"/>
+      <c r="G50" s="23"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A51" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="B49" s="24" t="s">
+      <c r="B51" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="C49" s="24" t="s">
+      <c r="C51" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="D49" s="24" t="s">
+      <c r="D51" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="E49" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="F49" s="24"/>
-      <c r="G49" s="24"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A50" s="20" t="s">
+      <c r="E51" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="F51" s="23"/>
+      <c r="G51" s="23"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A52" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="B50" s="24" t="s">
+      <c r="B52" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="C50" s="24" t="s">
+      <c r="C52" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="D50" s="24" t="s">
+      <c r="D52" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="E50" s="26" t="s">
+      <c r="E52" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="F50" s="24"/>
-      <c r="G50" s="24"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A51" s="20" t="s">
+      <c r="F52" s="23"/>
+      <c r="G52" s="23"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A53" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="B51" s="24" t="s">
+      <c r="B53" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="C51" s="24" t="s">
+      <c r="C53" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="D51" s="24" t="s">
+      <c r="D53" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="E51" s="24" t="s">
+      <c r="E53" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="F51" s="24"/>
-      <c r="G51" s="24"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A52" s="20" t="s">
+      <c r="F53" s="23"/>
+      <c r="G53" s="23"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A54" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="B52" s="24" t="s">
+      <c r="B54" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C52" s="24" t="s">
+      <c r="C54" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="D52" s="24" t="s">
+      <c r="D54" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="E52" s="24"/>
-      <c r="F52" s="24"/>
-      <c r="G52" s="24"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A53" s="25"/>
-      <c r="B53" s="25"/>
-      <c r="C53" s="25"/>
-      <c r="D53" s="25"/>
-      <c r="E53" s="25"/>
-      <c r="F53" s="25"/>
-      <c r="G53" s="25"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A54" s="20" t="s">
+      <c r="E54" s="23"/>
+      <c r="F54" s="23"/>
+      <c r="G54" s="23"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A55" s="24"/>
+      <c r="B55" s="24"/>
+      <c r="C55" s="24"/>
+      <c r="D55" s="24"/>
+      <c r="E55" s="24"/>
+      <c r="F55" s="24"/>
+      <c r="G55" s="24"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A56" s="19" t="s">
         <v>156</v>
       </c>
-      <c r="B54" s="24" t="s">
+      <c r="B56" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="C54" s="24" t="s">
+      <c r="C56" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="D54" s="24" t="s">
+      <c r="D56" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="E54" s="24"/>
-      <c r="F54" s="24" t="s">
+      <c r="E56" s="23"/>
+      <c r="F56" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="G54" s="24"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A55" s="20" t="s">
+      <c r="G56" s="23"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A57" s="19" t="s">
         <v>156</v>
       </c>
-      <c r="B55" s="24" t="s">
+      <c r="B57" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C55" s="24" t="s">
+      <c r="C57" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="D55" s="24" t="s">
+      <c r="D57" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="E55" s="24"/>
-      <c r="F55" s="24" t="s">
+      <c r="E57" s="23"/>
+      <c r="F57" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="G55" s="24"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A56" s="20" t="s">
+      <c r="G57" s="23"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A58" s="19" t="s">
         <v>156</v>
       </c>
-      <c r="B56" s="24" t="s">
+      <c r="B58" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="C56" s="24" t="s">
+      <c r="C58" s="23" t="s">
         <v>155</v>
       </c>
-      <c r="D56" s="24" t="s">
+      <c r="D58" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="E56" s="24" t="s">
+      <c r="E58" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="F56" s="24" t="s">
+      <c r="F58" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="G56" s="24"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A57" s="20" t="s">
+      <c r="G58" s="23"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A59" s="19" t="s">
         <v>156</v>
       </c>
-      <c r="B57" s="24" t="s">
+      <c r="B59" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="C57" s="24" t="s">
+      <c r="C59" s="23" t="s">
         <v>148</v>
       </c>
-      <c r="D57" s="24" t="s">
+      <c r="D59" s="23" t="s">
         <v>147</v>
       </c>
-      <c r="E57" s="24"/>
-      <c r="F57" s="24"/>
-      <c r="G57" s="24"/>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A58" s="20" t="s">
+      <c r="E59" s="23"/>
+      <c r="F59" s="23"/>
+      <c r="G59" s="23"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A60" s="19" t="s">
         <v>156</v>
       </c>
-      <c r="B58" s="24" t="s">
+      <c r="B60" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="C58" s="24" t="s">
+      <c r="C60" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="D58" s="24" t="s">
+      <c r="D60" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="E58" s="26" t="s">
+      <c r="E60" s="25" t="s">
         <v>150</v>
       </c>
-      <c r="F58" s="24"/>
-      <c r="G58" s="24"/>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A59" s="20" t="s">
+      <c r="F60" s="23"/>
+      <c r="G60" s="23"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A61" s="19" t="s">
         <v>156</v>
       </c>
-      <c r="B59" s="24" t="s">
+      <c r="B61" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="C59" s="24" t="s">
+      <c r="C61" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="D59" s="24" t="s">
+      <c r="D61" s="23" t="s">
         <v>146</v>
       </c>
-      <c r="E59" s="24" t="s">
+      <c r="E61" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="F59" s="24"/>
-      <c r="G59" s="24"/>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A60" s="20" t="s">
+      <c r="F61" s="23"/>
+      <c r="G61" s="23"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A62" s="19" t="s">
         <v>156</v>
       </c>
-      <c r="B60" s="24" t="s">
+      <c r="B62" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="C60" s="24" t="s">
+      <c r="C62" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="D60" s="24" t="s">
+      <c r="D62" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="E60" s="26" t="s">
+      <c r="E62" s="25" t="s">
         <v>151</v>
       </c>
-      <c r="F60" s="24"/>
-      <c r="G60" s="24"/>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A61" s="20" t="s">
+      <c r="F62" s="23"/>
+      <c r="G62" s="23"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A63" s="19" t="s">
         <v>156</v>
       </c>
-      <c r="B61" s="24" t="s">
+      <c r="B63" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="C61" s="24" t="s">
+      <c r="C63" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="D61" s="24" t="s">
+      <c r="D63" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="E61" s="24" t="s">
+      <c r="E63" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F61" s="7"/>
-      <c r="G61" s="24"/>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A62" s="20" t="s">
+      <c r="F63" s="7"/>
+      <c r="G63" s="23"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A64" s="19" t="s">
         <v>156</v>
       </c>
-      <c r="B62" s="24" t="s">
+      <c r="B64" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="C62" s="24" t="s">
+      <c r="C64" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="D62" s="24" t="s">
+      <c r="D64" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="E62" s="24" t="s">
+      <c r="E64" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="F62" s="7"/>
-      <c r="G62" s="24"/>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A63" s="20" t="s">
+      <c r="F64" s="7"/>
+      <c r="G64" s="23"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A65" s="19" t="s">
         <v>156</v>
       </c>
-      <c r="B63" s="24" t="s">
+      <c r="B65" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C63" s="24" t="s">
+      <c r="C65" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="D63" s="24" t="s">
+      <c r="D65" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="E63" s="24" t="s">
+      <c r="E65" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="F63" s="24"/>
-      <c r="G63" s="24"/>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A64" s="20" t="s">
+      <c r="F65" s="23"/>
+      <c r="G65" s="23"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A66" s="19" t="s">
         <v>156</v>
       </c>
-      <c r="B64" s="24" t="s">
+      <c r="B66" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C64" s="24" t="s">
+      <c r="C66" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="D64" s="24" t="s">
+      <c r="D66" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="E64" s="24"/>
-      <c r="F64" s="24"/>
-      <c r="G64" s="24"/>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A65" s="29"/>
-      <c r="B65" s="30"/>
-      <c r="C65" s="30"/>
-      <c r="D65" s="30"/>
-      <c r="E65" s="30"/>
-      <c r="F65" s="30"/>
-      <c r="G65" s="31"/>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A66" s="20" t="s">
+      <c r="E66" s="23"/>
+      <c r="F66" s="23"/>
+      <c r="G66" s="23"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A67" s="28"/>
+      <c r="B67" s="29"/>
+      <c r="C67" s="29"/>
+      <c r="D67" s="29"/>
+      <c r="E67" s="29"/>
+      <c r="F67" s="29"/>
+      <c r="G67" s="30"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A68" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="B66" s="24" t="s">
+      <c r="B68" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="C66" s="24" t="s">
+      <c r="C68" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="D66" s="24" t="s">
+      <c r="D68" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="E66" s="24"/>
-      <c r="F66" s="24" t="s">
+      <c r="E68" s="23"/>
+      <c r="F68" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="G66" s="24"/>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A67" s="20" t="s">
+      <c r="G68" s="23"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A69" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="B67" s="24" t="s">
+      <c r="B69" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C67" s="24" t="s">
+      <c r="C69" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="D67" s="24" t="s">
+      <c r="D69" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="E67" s="24"/>
-      <c r="F67" s="24" t="s">
+      <c r="E69" s="23"/>
+      <c r="F69" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="G67" s="24"/>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A68" s="20" t="s">
+      <c r="G69" s="23"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A70" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="B68" s="24" t="s">
+      <c r="B70" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="C68" s="24" t="s">
+      <c r="C70" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="D68" s="24" t="s">
+      <c r="D70" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="E68" s="24" t="s">
+      <c r="E70" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="F68" s="24" t="s">
+      <c r="F70" s="23" t="s">
         <v>145</v>
       </c>
-      <c r="G68" s="24"/>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A69" s="20" t="s">
+      <c r="G70" s="23"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A71" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="B69" s="24" t="s">
+      <c r="B71" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="C69" s="24" t="s">
+      <c r="C71" s="23" t="s">
         <v>148</v>
       </c>
-      <c r="D69" s="24" t="s">
+      <c r="D71" s="23" t="s">
         <v>147</v>
       </c>
-      <c r="E69" s="24"/>
-      <c r="F69" s="24"/>
-      <c r="G69" s="24"/>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A70" s="20" t="s">
+      <c r="E71" s="23"/>
+      <c r="F71" s="23"/>
+      <c r="G71" s="23"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A72" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="B70" s="24" t="s">
+      <c r="B72" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="C70" s="24" t="s">
+      <c r="C72" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="D70" s="24" t="s">
+      <c r="D72" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="E70" s="26" t="s">
+      <c r="E72" s="25" t="s">
         <v>150</v>
       </c>
-      <c r="F70" s="24"/>
-      <c r="G70" s="24"/>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A71" s="20" t="s">
+      <c r="F72" s="23"/>
+      <c r="G72" s="23"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A73" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="B71" s="24" t="s">
+      <c r="B73" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="C71" s="24" t="s">
+      <c r="C73" s="23" t="s">
         <v>149</v>
       </c>
-      <c r="D71" s="24" t="s">
+      <c r="D73" s="23" t="s">
         <v>146</v>
       </c>
-      <c r="E71" s="24" t="s">
+      <c r="E73" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="F71" s="24"/>
-      <c r="G71" s="24"/>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A72" s="20" t="s">
+      <c r="F73" s="23"/>
+      <c r="G73" s="23"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A74" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="B72" s="24" t="s">
+      <c r="B74" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="C72" s="24" t="s">
+      <c r="C74" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="D72" s="24" t="s">
+      <c r="D74" s="23" t="s">
         <v>139</v>
       </c>
-      <c r="E72" s="24" t="s">
+      <c r="E74" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="F72" s="7"/>
-      <c r="G72" s="24"/>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A73" s="20" t="s">
+      <c r="F74" s="7"/>
+      <c r="G74" s="23"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A75" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="B73" s="24" t="s">
+      <c r="B75" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="C73" s="24" t="s">
+      <c r="C75" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="D73" s="24" t="s">
+      <c r="D75" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="E73" s="24" t="s">
+      <c r="E75" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="F73" s="24"/>
-      <c r="G73" s="24"/>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A74" s="20" t="s">
+      <c r="F75" s="23"/>
+      <c r="G75" s="23"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A76" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="B74" s="24" t="s">
+      <c r="B76" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="C74" s="24" t="s">
+      <c r="C76" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="D74" s="24" t="s">
+      <c r="D76" s="23" t="s">
         <v>139</v>
       </c>
-      <c r="E74" s="26" t="s">
+      <c r="E76" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="F74" s="24"/>
-      <c r="G74" s="24"/>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A75" s="20" t="s">
+      <c r="F76" s="23"/>
+      <c r="G76" s="23"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A77" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="B75" s="24" t="s">
+      <c r="B77" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C75" s="24" t="s">
+      <c r="C77" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="D75" s="24" t="s">
+      <c r="D77" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="E75" s="26" t="s">
+      <c r="E77" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="F75" s="24"/>
-      <c r="G75" s="24"/>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A76" s="20" t="s">
+      <c r="F77" s="23"/>
+      <c r="G77" s="23"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A78" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="B76" s="24" t="s">
+      <c r="B78" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C76" s="24" t="s">
+      <c r="C78" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="24" t="s">
+      <c r="D78" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="E76" s="26" t="s">
+      <c r="E78" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="F76" s="24"/>
-      <c r="G76" s="24"/>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A77" s="20" t="s">
+      <c r="F78" s="23"/>
+      <c r="G78" s="23"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A79" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="B77" s="24" t="s">
+      <c r="B79" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C77" s="24" t="s">
+      <c r="C79" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="D77" s="24" t="s">
+      <c r="D79" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="E77" s="26" t="s">
+      <c r="E79" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="F77" s="24" t="s">
+      <c r="F79" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="G77" s="24"/>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A78" s="20" t="s">
+      <c r="G79" s="23"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A80" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="B78" s="24" t="s">
+      <c r="B80" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="C78" s="24" t="s">
+      <c r="C80" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="D78" s="24" t="s">
+      <c r="D80" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="E78" s="26" t="s">
+      <c r="E80" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="F78" s="24" t="s">
+      <c r="F80" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="G78" s="24"/>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A79" s="20" t="s">
+      <c r="G80" s="23"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A81" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="B79" s="24" t="s">
+      <c r="B81" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="C79" s="24" t="s">
+      <c r="C81" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="D79" s="24" t="s">
+      <c r="D81" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="E79" s="26" t="s">
+      <c r="E81" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="F79" s="24"/>
-      <c r="G79" s="24"/>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A80" s="20" t="s">
+      <c r="F81" s="23"/>
+      <c r="G81" s="23"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A82" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="B80" s="24" t="s">
+      <c r="B82" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="C80" s="24" t="s">
+      <c r="C82" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="D80" s="24" t="s">
+      <c r="D82" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="E80" s="26" t="s">
+      <c r="E82" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="F80" s="7"/>
-      <c r="G80" s="24"/>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A81" s="20" t="s">
+      <c r="F82" s="7"/>
+      <c r="G82" s="23"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A83" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="B81" s="24" t="s">
+      <c r="B83" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="C81" s="24" t="s">
+      <c r="C83" s="23" t="s">
         <v>138</v>
       </c>
-      <c r="D81" s="24" t="s">
+      <c r="D83" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="E81" s="26" t="s">
+      <c r="E83" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="F81" s="7"/>
-      <c r="G81" s="24"/>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A82" s="20" t="s">
+      <c r="F83" s="7"/>
+      <c r="G83" s="23"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A84" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="B82" s="24" t="s">
+      <c r="B84" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="C82" s="24" t="s">
+      <c r="C84" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="D82" s="24" t="s">
+      <c r="D84" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="E82" s="26" t="s">
+      <c r="E84" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="F82" s="24"/>
-      <c r="G82" s="24"/>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A83" s="20" t="s">
+      <c r="F84" s="23"/>
+      <c r="G84" s="23"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A85" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="B83" s="24" t="s">
+      <c r="B85" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="C83" s="24" t="s">
+      <c r="C85" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="D83" s="24" t="s">
+      <c r="D85" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="E83" s="26" t="s">
+      <c r="E85" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="F83" s="24"/>
-      <c r="G83" s="24"/>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A84" s="20" t="s">
+      <c r="F85" s="23"/>
+      <c r="G85" s="23"/>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A86" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="B84" s="24" t="s">
+      <c r="B86" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="C84" s="24" t="s">
+      <c r="C86" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="D84" s="24" t="s">
+      <c r="D86" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="E84" s="26"/>
-      <c r="F84" s="24"/>
-      <c r="G84" s="24"/>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A85" s="25"/>
-      <c r="B85" s="25"/>
-      <c r="C85" s="25"/>
-      <c r="D85" s="25"/>
-      <c r="E85" s="25"/>
-      <c r="F85" s="25"/>
-      <c r="G85" s="25"/>
-    </row>
-    <row r="86" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A86" s="19" t="s">
+      <c r="E86" s="25"/>
+      <c r="F86" s="23"/>
+      <c r="G86" s="23"/>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A87" s="24"/>
+      <c r="B87" s="24"/>
+      <c r="C87" s="24"/>
+      <c r="D87" s="24"/>
+      <c r="E87" s="24"/>
+      <c r="F87" s="24"/>
+      <c r="G87" s="24"/>
+    </row>
+    <row r="88" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A88" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="B86" s="24" t="s">
+      <c r="B88" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="C86" s="24" t="s">
+      <c r="C88" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="D86" s="24" t="s">
+      <c r="D88" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="E86" s="24"/>
-      <c r="F86" s="24" t="s">
+      <c r="E88" s="23"/>
+      <c r="F88" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="G86" s="24"/>
-    </row>
-    <row r="87" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A87" s="19" t="s">
+      <c r="G88" s="23"/>
+    </row>
+    <row r="89" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A89" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="B87" s="24" t="s">
+      <c r="B89" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C87" s="24" t="s">
+      <c r="C89" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="D87" s="24" t="s">
+      <c r="D89" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="E87" s="24"/>
-      <c r="F87" s="24" t="s">
+      <c r="E89" s="23"/>
+      <c r="F89" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="G87" s="24"/>
-    </row>
-    <row r="88" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A88" s="19" t="s">
+      <c r="G89" s="23"/>
+    </row>
+    <row r="90" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A90" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="B88" s="24" t="s">
+      <c r="B90" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="C88" s="24" t="s">
+      <c r="C90" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="D88" s="24" t="s">
+      <c r="D90" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="E88" s="24" t="s">
+      <c r="E90" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="F88" s="24"/>
-      <c r="G88" s="24"/>
-    </row>
-    <row r="89" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A89" s="19" t="s">
+      <c r="F90" s="23"/>
+      <c r="G90" s="23"/>
+    </row>
+    <row r="91" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A91" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="B89" s="24" t="s">
+      <c r="B91" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="C89" s="24" t="s">
+      <c r="C91" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="D89" s="24" t="s">
+      <c r="D91" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="E89" s="24" t="s">
+      <c r="E91" s="23" t="s">
         <v>44</v>
-      </c>
-      <c r="F89" s="7"/>
-      <c r="G89" s="7"/>
-    </row>
-    <row r="90" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A90" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="B90" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="C90" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="D90" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="E90" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="F90" s="7"/>
-      <c r="G90" s="7"/>
-    </row>
-    <row r="91" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A91" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="B91" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="C91" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="D91" s="24" t="s">
-        <v>139</v>
-      </c>
-      <c r="E91" s="24" t="s">
-        <v>46</v>
       </c>
       <c r="F91" s="7"/>
       <c r="G91" s="7"/>
     </row>
     <row r="92" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A92" s="19" t="s">
+      <c r="A92" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="B92" s="24" t="s">
+      <c r="B92" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C92" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="D92" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E92" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="F92" s="7"/>
+      <c r="G92" s="7"/>
+    </row>
+    <row r="93" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A93" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="B93" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C93" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="D93" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="E93" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="F93" s="7"/>
+      <c r="G93" s="7"/>
+    </row>
+    <row r="94" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A94" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="B94" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="C92" s="24" t="s">
+      <c r="C94" s="23" t="s">
         <v>116</v>
       </c>
-      <c r="D92" s="24" t="s">
+      <c r="D94" s="23" t="s">
         <v>154</v>
       </c>
-      <c r="E92" s="24" t="s">
+      <c r="E94" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="F92" s="24"/>
-      <c r="G92" s="24"/>
-    </row>
-    <row r="93" spans="1:7" ht="87" x14ac:dyDescent="0.35">
-      <c r="A93" s="19" t="s">
+      <c r="F94" s="23"/>
+      <c r="G94" s="23"/>
+    </row>
+    <row r="95" spans="1:7" ht="87" x14ac:dyDescent="0.35">
+      <c r="A95" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="B93" s="24" t="s">
+      <c r="B95" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="C93" s="23" t="s">
+      <c r="C95" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="D93" s="24" t="s">
+      <c r="D95" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="E93" s="26" t="s">
+      <c r="E95" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="F93" s="24"/>
-      <c r="G93" s="24"/>
-    </row>
-    <row r="94" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A94" s="19" t="s">
+      <c r="F95" s="23"/>
+      <c r="G95" s="23"/>
+    </row>
+    <row r="96" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A96" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="B94" s="24" t="s">
+      <c r="B96" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="C94" s="24" t="s">
+      <c r="C96" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="D94" s="24" t="s">
+      <c r="D96" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="E94" s="24"/>
-      <c r="F94" s="24"/>
-      <c r="G94" s="24"/>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A95" s="25"/>
-      <c r="B95" s="25"/>
-      <c r="C95" s="25"/>
-      <c r="D95" s="25"/>
-      <c r="E95" s="25"/>
-      <c r="F95" s="25"/>
-      <c r="G95" s="25"/>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A96" s="19" t="s">
+      <c r="E96" s="23"/>
+      <c r="F96" s="23"/>
+      <c r="G96" s="23"/>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A97" s="24"/>
+      <c r="B97" s="24"/>
+      <c r="C97" s="24"/>
+      <c r="D97" s="24"/>
+      <c r="E97" s="24"/>
+      <c r="F97" s="24"/>
+      <c r="G97" s="24"/>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A98" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="B96" s="24" t="s">
+      <c r="B98" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="C96" s="24" t="s">
+      <c r="C98" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="D96" s="24" t="s">
+      <c r="D98" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="E96" s="23"/>
-      <c r="F96" s="24" t="s">
+      <c r="E98" s="22"/>
+      <c r="F98" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="G96" s="24"/>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A97" s="19" t="s">
+      <c r="G98" s="23"/>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A99" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="B97" s="24" t="s">
+      <c r="B99" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C97" s="24" t="s">
+      <c r="C99" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="D97" s="24" t="s">
+      <c r="D99" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="E97" s="24"/>
-      <c r="F97" s="24" t="s">
+      <c r="E99" s="23"/>
+      <c r="F99" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="G97" s="24"/>
-    </row>
-    <row r="98" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A98" s="19" t="s">
+      <c r="G99" s="23"/>
+    </row>
+    <row r="100" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A100" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="B98" s="24" t="s">
+      <c r="B100" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="C98" s="23" t="s">
+      <c r="C100" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="D98" s="24" t="s">
+      <c r="D100" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="E98" s="26" t="s">
+      <c r="E100" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="F98" s="24"/>
-      <c r="G98" s="24"/>
-    </row>
-    <row r="99" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A99" s="19" t="s">
+      <c r="F100" s="23"/>
+      <c r="G100" s="23"/>
+    </row>
+    <row r="101" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A101" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="B99" s="24" t="s">
+      <c r="B101" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="C99" s="23" t="s">
+      <c r="C101" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="D99" s="24" t="s">
+      <c r="D101" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="E99" s="26" t="s">
+      <c r="E101" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="F99" s="24"/>
-      <c r="G99" s="24"/>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A100" s="19" t="s">
+      <c r="F101" s="23"/>
+      <c r="G101" s="23"/>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A102" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="B100" s="24" t="s">
+      <c r="B102" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="C100" s="24" t="s">
+      <c r="C102" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="D100" s="24" t="s">
+      <c r="D102" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="E100" s="26"/>
-      <c r="F100" s="24"/>
-      <c r="G100" s="24"/>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A101" s="25"/>
-      <c r="B101" s="25"/>
-      <c r="C101" s="25"/>
-      <c r="D101" s="25"/>
-      <c r="E101" s="27" t="s">
+      <c r="E102" s="25"/>
+      <c r="F102" s="23"/>
+      <c r="G102" s="23"/>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A103" s="24"/>
+      <c r="B103" s="24"/>
+      <c r="C103" s="24"/>
+      <c r="D103" s="24"/>
+      <c r="E103" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="F101" s="25"/>
-      <c r="G101" s="25"/>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A102" s="23" t="s">
+      <c r="F103" s="24"/>
+      <c r="G103" s="24"/>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A104" s="22" t="s">
         <v>153</v>
       </c>
-      <c r="B102" s="24" t="s">
+      <c r="B104" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="C102" s="24" t="s">
+      <c r="C104" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="D102" s="24" t="s">
+      <c r="D104" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="E102" s="24"/>
-      <c r="F102" s="24" t="s">
+      <c r="E104" s="23"/>
+      <c r="F104" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="G102" s="24"/>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A103" s="23" t="s">
+      <c r="G104" s="23"/>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A105" s="22" t="s">
         <v>153</v>
       </c>
-      <c r="B103" s="24" t="s">
+      <c r="B105" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C103" s="24" t="s">
+      <c r="C105" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="D103" s="24" t="s">
+      <c r="D105" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="E103" s="24"/>
-      <c r="F103" s="24" t="s">
+      <c r="E105" s="23"/>
+      <c r="F105" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="G103" s="24"/>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A104" s="23" t="s">
+      <c r="G105" s="23"/>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A106" s="22" t="s">
         <v>153</v>
       </c>
-      <c r="B104" s="24" t="s">
+      <c r="B106" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="C104" s="24" t="s">
+      <c r="C106" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="D104" s="24" t="s">
+      <c r="D106" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="E104" s="24" t="s">
+      <c r="E106" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="F104" s="24" t="s">
+      <c r="F106" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="G104" s="24"/>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A105" s="23" t="s">
+      <c r="G106" s="23"/>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A107" s="22" t="s">
         <v>153</v>
       </c>
-      <c r="B105" s="24" t="s">
+      <c r="B107" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="C105" s="24" t="s">
+      <c r="C107" s="23" t="s">
         <v>148</v>
       </c>
-      <c r="D105" s="24" t="s">
+      <c r="D107" s="23" t="s">
         <v>147</v>
       </c>
-      <c r="E105" s="24"/>
-      <c r="F105" s="24"/>
-      <c r="G105" s="24"/>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A106" s="23" t="s">
+      <c r="E107" s="23"/>
+      <c r="F107" s="23"/>
+      <c r="G107" s="23"/>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A108" s="22" t="s">
         <v>153</v>
       </c>
-      <c r="B106" s="24" t="s">
+      <c r="B108" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="C106" s="24" t="s">
+      <c r="C108" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="D106" s="24" t="s">
+      <c r="D108" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="E106" s="26" t="s">
+      <c r="E108" s="25" t="s">
         <v>150</v>
       </c>
-      <c r="F106" s="24"/>
-      <c r="G106" s="24"/>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A107" s="23" t="s">
+      <c r="F108" s="23"/>
+      <c r="G108" s="23"/>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A109" s="22" t="s">
         <v>153</v>
       </c>
-      <c r="B107" s="24" t="s">
+      <c r="B109" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="C107" s="24" t="s">
+      <c r="C109" s="23" t="s">
         <v>149</v>
       </c>
-      <c r="D107" s="24" t="s">
+      <c r="D109" s="23" t="s">
         <v>146</v>
       </c>
-      <c r="E107" s="24" t="s">
+      <c r="E109" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="F107" s="24"/>
-      <c r="G107" s="24"/>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A108" s="23" t="s">
+      <c r="F109" s="23"/>
+      <c r="G109" s="23"/>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A110" s="22" t="s">
         <v>153</v>
       </c>
-      <c r="B108" s="24" t="s">
+      <c r="B110" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="C108" s="24" t="s">
+      <c r="C110" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="D108" s="24" t="s">
+      <c r="D110" s="23" t="s">
         <v>139</v>
       </c>
-      <c r="E108" s="26" t="s">
+      <c r="E110" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="F108" s="24"/>
-      <c r="G108" s="24"/>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A109" s="23" t="s">
+      <c r="F110" s="23"/>
+      <c r="G110" s="23"/>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A111" s="22" t="s">
         <v>153</v>
       </c>
-      <c r="B109" s="24" t="s">
+      <c r="B111" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="C109" s="23" t="s">
+      <c r="C111" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="D109" s="24" t="s">
+      <c r="D111" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="E109" s="26" t="s">
+      <c r="E111" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="F109" s="24"/>
-      <c r="G109" s="24"/>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A110" s="23" t="s">
+      <c r="F111" s="23"/>
+      <c r="G111" s="23"/>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A112" s="22" t="s">
         <v>153</v>
       </c>
-      <c r="B110" s="24" t="s">
+      <c r="B112" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="C110" s="24" t="s">
+      <c r="C112" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="D110" s="24" t="s">
+      <c r="D112" s="23" t="s">
         <v>139</v>
       </c>
-      <c r="E110" s="24" t="s">
+      <c r="E112" s="23" t="s">
         <v>128</v>
       </c>
-      <c r="F110" s="24"/>
-      <c r="G110" s="24"/>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A111" s="23" t="s">
+      <c r="F112" s="23"/>
+      <c r="G112" s="23"/>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A113" s="22" t="s">
         <v>153</v>
       </c>
-      <c r="B111" s="24" t="s">
+      <c r="B113" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C111" s="24" t="s">
+      <c r="C113" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="D111" s="24" t="s">
+      <c r="D113" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="E111" s="24" t="s">
+      <c r="E113" s="23" t="s">
         <v>128</v>
       </c>
-      <c r="F111" s="24"/>
-      <c r="G111" s="24"/>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A112" s="23" t="s">
+      <c r="F113" s="23"/>
+      <c r="G113" s="23"/>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A114" s="22" t="s">
         <v>153</v>
       </c>
-      <c r="B112" s="24" t="s">
+      <c r="B114" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C112" s="24" t="s">
+      <c r="C114" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="D112" s="24" t="s">
+      <c r="D114" s="23" t="s">
         <v>139</v>
       </c>
-      <c r="E112" s="24" t="s">
+      <c r="E114" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="F112" s="24"/>
-      <c r="G112" s="24"/>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A113" s="23" t="s">
+      <c r="F114" s="23"/>
+      <c r="G114" s="23"/>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A115" s="22" t="s">
         <v>153</v>
       </c>
-      <c r="B113" s="24" t="s">
+      <c r="B115" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C113" s="24" t="s">
+      <c r="C115" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="D113" s="24" t="s">
+      <c r="D115" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="E113" s="24" t="s">
+      <c r="E115" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="F113" s="24"/>
-      <c r="G113" s="24"/>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A114" s="23" t="s">
+      <c r="F115" s="23"/>
+      <c r="G115" s="23"/>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A116" s="22" t="s">
         <v>153</v>
       </c>
-      <c r="B114" s="24" t="s">
+      <c r="B116" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="C114" s="24" t="s">
+      <c r="C116" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="D114" s="24" t="s">
+      <c r="D116" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="E114" s="24"/>
-      <c r="F114" s="24"/>
-      <c r="G114" s="24"/>
+      <c r="E116" s="23"/>
+      <c r="F116" s="23"/>
+      <c r="G116" s="23"/>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A117" s="24"/>
+      <c r="B117" s="24"/>
+      <c r="C117" s="24"/>
+      <c r="D117" s="24"/>
+      <c r="E117" s="24"/>
+      <c r="F117" s="24"/>
+      <c r="G117" s="24"/>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A118" s="10"/>
-      <c r="B118" s="10"/>
-      <c r="C118" s="10"/>
-      <c r="D118" s="10"/>
-      <c r="E118" s="10"/>
-      <c r="F118" s="10"/>
-      <c r="G118" s="10"/>
+      <c r="A118" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B118" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C118" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="D118" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="E118" s="23"/>
+      <c r="F118" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="G118" s="23"/>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A119" s="10"/>
-      <c r="B119" s="10"/>
-      <c r="C119" s="10"/>
-      <c r="D119" s="10"/>
-      <c r="E119" s="11"/>
-      <c r="F119" s="10"/>
-      <c r="G119" s="10"/>
+      <c r="A119" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B119" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C119" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="D119" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E119" s="23"/>
+      <c r="F119" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="G119" s="23"/>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A120" s="10"/>
-      <c r="B120" s="10"/>
-      <c r="C120" s="10"/>
-      <c r="D120" s="10"/>
-      <c r="E120" s="11"/>
-      <c r="F120" s="10"/>
-      <c r="G120" s="10"/>
+      <c r="A120" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B120" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C120" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="D120" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E120" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="F120" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="G120" s="23"/>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A121" s="10"/>
-      <c r="B121" s="10"/>
-      <c r="C121" s="10"/>
-      <c r="D121" s="10"/>
-      <c r="E121" s="11"/>
-      <c r="F121" s="10"/>
-      <c r="G121" s="10"/>
+      <c r="A121" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B121" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C121" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="D121" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="E121" s="23"/>
+      <c r="F121" s="23"/>
+      <c r="G121" s="23"/>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A122" s="10"/>
-      <c r="B122" s="10"/>
-      <c r="C122" s="10"/>
-      <c r="D122" s="10"/>
-      <c r="E122" s="11"/>
-      <c r="F122" s="10"/>
-      <c r="G122" s="10"/>
+      <c r="A122" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B122" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C122" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="D122" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="E122" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="F122" s="23"/>
+      <c r="G122" s="23"/>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A123" s="10"/>
-      <c r="B123" s="10"/>
-      <c r="C123" s="10"/>
-      <c r="D123" s="10"/>
-      <c r="E123" s="10"/>
-      <c r="F123" s="10"/>
-      <c r="G123" s="10"/>
+      <c r="A123" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B123" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C123" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="D123" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="E123" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="F123" s="23"/>
+      <c r="G123" s="23"/>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A124" s="10"/>
-      <c r="B124" s="10"/>
-      <c r="C124" s="10"/>
-      <c r="D124" s="10"/>
-      <c r="E124" s="10"/>
-      <c r="F124" s="10"/>
-      <c r="G124" s="10"/>
+      <c r="A124" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B124" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C124" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="D124" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="E124" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="F124" s="23"/>
+      <c r="G124" s="23"/>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A125" s="10"/>
-      <c r="B125" s="10"/>
-      <c r="C125" s="10"/>
-      <c r="D125" s="10"/>
-      <c r="E125" s="11"/>
-      <c r="F125" s="10"/>
-      <c r="G125" s="10"/>
+      <c r="A125" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B125" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="C125" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="D125" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="E125" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="F125" s="7"/>
+      <c r="G125" s="23"/>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A126" s="10"/>
-      <c r="B126" s="10"/>
-      <c r="C126" s="10"/>
-      <c r="D126" s="10"/>
-      <c r="E126" s="11"/>
-      <c r="F126" s="10"/>
-      <c r="G126" s="10"/>
+      <c r="A126" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B126" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C126" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="D126" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="E126" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="F126" s="7"/>
+      <c r="G126" s="23"/>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A127" s="10"/>
-      <c r="B127" s="10"/>
-      <c r="C127" s="10"/>
-      <c r="D127" s="10"/>
-      <c r="E127" s="11"/>
-      <c r="F127" s="10"/>
-      <c r="G127" s="10"/>
+      <c r="A127" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B127" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C127" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="D127" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E127" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="F127" s="23"/>
+      <c r="G127" s="23"/>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A128" s="10"/>
-      <c r="B128" s="10"/>
-      <c r="C128" s="10"/>
-      <c r="D128" s="10"/>
-      <c r="E128" s="11"/>
-      <c r="F128" s="10"/>
-      <c r="G128" s="10"/>
+      <c r="A128" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B128" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C128" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="D128" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="E128" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="F128" s="23"/>
+      <c r="G128" s="23"/>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A129" s="10"/>
-      <c r="B129" s="10"/>
-      <c r="C129" s="10"/>
-      <c r="D129" s="10"/>
-      <c r="E129" s="11"/>
-      <c r="F129" s="10"/>
-      <c r="G129" s="10"/>
+      <c r="A129" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B129" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C129" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="D129" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="E129" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="F129" s="23"/>
+      <c r="G129" s="23"/>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A130" s="10"/>
-      <c r="B130" s="10"/>
-      <c r="C130" s="10"/>
-      <c r="D130" s="10"/>
-      <c r="E130" s="11"/>
-      <c r="F130" s="10"/>
-      <c r="G130" s="10"/>
+      <c r="A130" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B130" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C130" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="D130" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="E130" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="F130" s="23"/>
+      <c r="G130" s="23"/>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A131" s="10"/>
-      <c r="B131" s="10"/>
-      <c r="C131" s="10"/>
-      <c r="D131" s="10"/>
-      <c r="E131" s="11"/>
-      <c r="F131" s="10"/>
-      <c r="G131" s="10"/>
+      <c r="A131" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B131" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C131" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="D131" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="E131" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="F131" s="23"/>
+      <c r="G131" s="23"/>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A132" s="10"/>
-      <c r="B132" s="10"/>
-      <c r="C132" s="10"/>
-      <c r="D132" s="10"/>
-      <c r="E132" s="11"/>
-      <c r="F132" s="10"/>
-      <c r="G132" s="10"/>
+      <c r="A132" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B132" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C132" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="D132" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="E132" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="F132" s="23"/>
+      <c r="G132" s="23"/>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A133" s="10"/>
-      <c r="B133" s="10"/>
-      <c r="C133" s="10"/>
-      <c r="D133" s="10"/>
-      <c r="E133" s="11"/>
-      <c r="F133" s="10"/>
-      <c r="G133" s="10"/>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A134" s="10"/>
-      <c r="B134" s="10"/>
-      <c r="C134" s="10"/>
-      <c r="D134" s="10"/>
-      <c r="E134" s="11"/>
-      <c r="F134" s="10"/>
-      <c r="G134" s="10"/>
+      <c r="A133" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B133" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C133" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="D133" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="E133" s="23"/>
+      <c r="F133" s="23"/>
+      <c r="G133" s="23"/>
+    </row>
+    <row r="134" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A134" s="24"/>
+      <c r="B134" s="24"/>
+      <c r="C134" s="24"/>
+      <c r="D134" s="24"/>
+      <c r="E134" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="F134" s="24"/>
+      <c r="G134" s="26" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A135" s="10"/>
-      <c r="B135" s="10"/>
-      <c r="C135" s="10"/>
-      <c r="D135" s="10"/>
-      <c r="E135" s="11"/>
-      <c r="F135" s="10"/>
-      <c r="G135" s="10"/>
+      <c r="A135" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B135" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C135" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="D135" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="E135" s="23"/>
+      <c r="F135" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="G135" s="7"/>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A136" s="10"/>
-      <c r="B136" s="10"/>
-      <c r="C136" s="10"/>
-      <c r="D136" s="10"/>
-      <c r="E136" s="11"/>
-      <c r="F136" s="10"/>
-      <c r="G136" s="10"/>
+      <c r="A136" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B136" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C136" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="D136" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E136" s="23"/>
+      <c r="F136" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="G136" s="7"/>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A137" s="10"/>
-      <c r="B137" s="10"/>
-      <c r="C137" s="10"/>
-      <c r="D137" s="10"/>
-      <c r="E137" s="11"/>
-      <c r="F137" s="10"/>
-      <c r="G137" s="10"/>
+      <c r="A137" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B137" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C137" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="D137" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="E137" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F137" s="7"/>
+      <c r="G137" s="7"/>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A138" s="10"/>
-      <c r="B138" s="10"/>
-      <c r="C138" s="10"/>
-      <c r="D138" s="10"/>
-      <c r="E138" s="11"/>
-      <c r="F138" s="10"/>
-      <c r="G138" s="10"/>
+      <c r="A138" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B138" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C138" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="D138" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="E138" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F138" s="7"/>
+      <c r="G138" s="7"/>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A139" s="10"/>
-      <c r="B139" s="10"/>
-      <c r="C139" s="10"/>
-      <c r="D139" s="10"/>
-      <c r="E139" s="11"/>
-      <c r="F139" s="10"/>
-      <c r="G139" s="10"/>
+      <c r="A139" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B139" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C139" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="D139" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E139" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="F139" s="7"/>
+      <c r="G139" s="7"/>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A140" s="10"/>
-      <c r="B140" s="10"/>
-      <c r="C140" s="10"/>
-      <c r="D140" s="10"/>
-      <c r="E140" s="11"/>
-      <c r="F140" s="10"/>
-      <c r="G140" s="10"/>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A141" s="10"/>
-      <c r="B141" s="10"/>
-      <c r="C141" s="12"/>
-      <c r="D141" s="10"/>
-      <c r="E141" s="11"/>
-      <c r="F141" s="10"/>
-      <c r="G141" s="10"/>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A142" s="10"/>
-      <c r="B142" s="10"/>
-      <c r="C142" s="10"/>
-      <c r="D142" s="10"/>
-      <c r="E142" s="10"/>
-      <c r="F142" s="10"/>
-      <c r="G142" s="10"/>
+      <c r="A140" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B140" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C140" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="D140" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="E140" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="F140" s="7"/>
+      <c r="G140" s="7"/>
+    </row>
+    <row r="141" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A141" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B141" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C141" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D141" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="E141" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="F141" s="7"/>
+      <c r="G141" s="7"/>
+    </row>
+    <row r="142" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A142" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B142" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C142" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="D142" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="E142" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="F142" s="7"/>
+      <c r="G142" s="7"/>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A143" s="10"/>
-      <c r="B143" s="10"/>
-      <c r="C143" s="10"/>
-      <c r="D143" s="10"/>
-      <c r="E143" s="10"/>
-      <c r="F143" s="10"/>
-      <c r="G143" s="10"/>
+      <c r="A143" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B143" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C143" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="D143" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="E143" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="F143" s="7"/>
+      <c r="G143" s="7"/>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A144" s="10"/>
-      <c r="B144" s="10"/>
-      <c r="C144" s="10"/>
-      <c r="D144" s="10"/>
-      <c r="E144" s="10"/>
-      <c r="F144" s="10"/>
-      <c r="G144" s="10"/>
+      <c r="A144" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B144" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C144" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="D144" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="E144" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="F144" s="7"/>
+      <c r="G144" s="7"/>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A145" s="10"/>
-      <c r="B145" s="10"/>
-      <c r="C145" s="10"/>
-      <c r="D145" s="10"/>
-      <c r="E145" s="10"/>
-      <c r="F145" s="10"/>
-      <c r="G145" s="10"/>
+      <c r="A145" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B145" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C145" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="D145" s="23" t="s">
+        <v>197</v>
+      </c>
+      <c r="E145" s="25" t="s">
+        <v>198</v>
+      </c>
+      <c r="F145" s="7"/>
+      <c r="G145" s="7"/>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A146" s="10"/>
-      <c r="B146" s="10"/>
-      <c r="C146" s="10"/>
-      <c r="D146" s="10"/>
-      <c r="E146" s="10"/>
-      <c r="F146" s="10"/>
-      <c r="G146" s="10"/>
+      <c r="A146" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B146" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C146" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="D146" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="E146" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="F146" s="7"/>
+      <c r="G146" s="7"/>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A147" s="10"/>
-      <c r="B147" s="10"/>
-      <c r="C147" s="10"/>
-      <c r="D147" s="10"/>
-      <c r="E147" s="10"/>
-      <c r="F147" s="10"/>
-      <c r="G147" s="10"/>
+      <c r="A147" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B147" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C147" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="D147" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E147" s="25" t="s">
+        <v>201</v>
+      </c>
+      <c r="F147" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="G147" s="7"/>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A148" s="10"/>
-      <c r="B148" s="10"/>
-      <c r="C148" s="10"/>
-      <c r="D148" s="10"/>
-      <c r="E148" s="10"/>
-      <c r="F148" s="10"/>
-      <c r="G148" s="10"/>
+      <c r="A148" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B148" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C148" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="D148" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="E148" s="25" t="s">
+        <v>202</v>
+      </c>
+      <c r="F148" s="7"/>
+      <c r="G148" s="7"/>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A149" s="10"/>
-      <c r="B149" s="10"/>
-      <c r="C149" s="10"/>
-      <c r="D149" s="10"/>
-      <c r="E149" s="10"/>
-      <c r="F149" s="10"/>
-      <c r="G149" s="10"/>
+      <c r="A149" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B149" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C149" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="D149" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E149" s="25" t="s">
+        <v>203</v>
+      </c>
+      <c r="F149" s="7"/>
+      <c r="G149" s="7"/>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A150" s="10"/>
-      <c r="B150" s="10"/>
-      <c r="C150" s="10"/>
-      <c r="D150" s="10"/>
-      <c r="E150" s="11"/>
-      <c r="F150" s="10"/>
-      <c r="G150" s="10"/>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A151" s="10"/>
-      <c r="B151" s="10"/>
-      <c r="C151" s="10"/>
-      <c r="D151" s="10"/>
-      <c r="E151" s="10"/>
-      <c r="F151" s="10"/>
-      <c r="G151" s="10"/>
+      <c r="A150" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B150" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C150" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="D150" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="E150" s="25"/>
+      <c r="F150" s="7"/>
+      <c r="G150" s="7"/>
+    </row>
+    <row r="151" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A151" s="24"/>
+      <c r="B151" s="24"/>
+      <c r="C151" s="24"/>
+      <c r="D151" s="24"/>
+      <c r="E151" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="F151" s="24"/>
+      <c r="G151" s="26" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A152" s="10"/>
-      <c r="B152" s="10"/>
-      <c r="C152" s="10"/>
-      <c r="D152" s="10"/>
-      <c r="E152" s="11"/>
-      <c r="F152" s="10"/>
-      <c r="G152" s="10"/>
+      <c r="A152" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B152" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C152" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="D152" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="E152" s="23"/>
+      <c r="F152" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="G152" s="7"/>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A153" s="10"/>
-      <c r="B153" s="10"/>
-      <c r="C153" s="10"/>
-      <c r="D153" s="10"/>
-      <c r="E153" s="10"/>
-      <c r="F153" s="28"/>
-      <c r="G153" s="28"/>
+      <c r="A153" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B153" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C153" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="D153" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E153" s="23"/>
+      <c r="F153" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="G153" s="7"/>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A154" s="10"/>
-      <c r="B154" s="10"/>
-      <c r="C154" s="10"/>
-      <c r="D154" s="10"/>
-      <c r="E154" s="11"/>
-      <c r="F154" s="10"/>
-      <c r="G154" s="10"/>
+      <c r="A154" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B154" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C154" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="D154" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="E154" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F154" s="7"/>
+      <c r="G154" s="7"/>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A155" s="10"/>
-      <c r="B155" s="10"/>
-      <c r="C155" s="10"/>
-      <c r="D155" s="10"/>
-      <c r="E155" s="10"/>
-      <c r="F155" s="10"/>
-      <c r="G155" s="10"/>
+      <c r="A155" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B155" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C155" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="D155" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="E155" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F155" s="7"/>
+      <c r="G155" s="7"/>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A156" s="10"/>
-      <c r="B156" s="10"/>
-      <c r="C156" s="10"/>
-      <c r="D156" s="10"/>
-      <c r="E156" s="10"/>
-      <c r="F156" s="10"/>
-      <c r="G156" s="10"/>
+      <c r="A156" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B156" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C156" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="D156" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E156" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="F156" s="7"/>
+      <c r="G156" s="7"/>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A157" s="10"/>
-      <c r="B157" s="10"/>
-      <c r="C157" s="10"/>
-      <c r="D157" s="10"/>
-      <c r="E157" s="10"/>
-      <c r="F157" s="10"/>
-      <c r="G157" s="10"/>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A158" s="10"/>
-      <c r="B158" s="10"/>
-      <c r="C158" s="10"/>
-      <c r="D158" s="10"/>
-      <c r="E158" s="11"/>
-      <c r="F158" s="10"/>
-      <c r="G158" s="10"/>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A159" s="10"/>
-      <c r="B159" s="10"/>
-      <c r="C159" s="10"/>
-      <c r="D159" s="10"/>
-      <c r="E159" s="11"/>
-      <c r="F159" s="10"/>
-      <c r="G159" s="10"/>
+      <c r="A157" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B157" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C157" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="D157" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="E157" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="F157" s="7"/>
+      <c r="G157" s="7"/>
+    </row>
+    <row r="158" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A158" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B158" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C158" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D158" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="E158" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="F158" s="7"/>
+      <c r="G158" s="7"/>
+    </row>
+    <row r="159" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A159" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B159" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C159" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="D159" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="E159" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="F159" s="7"/>
+      <c r="G159" s="7"/>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A160" s="10"/>
-      <c r="B160" s="10"/>
-      <c r="C160" s="10"/>
-      <c r="D160" s="10"/>
-      <c r="E160" s="11"/>
-      <c r="F160" s="10"/>
-      <c r="G160" s="10"/>
+      <c r="A160" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B160" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C160" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="D160" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="E160" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="F160" s="7"/>
+      <c r="G160" s="7"/>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A161" s="10"/>
-      <c r="B161" s="10"/>
-      <c r="C161" s="10"/>
-      <c r="D161" s="10"/>
-      <c r="E161" s="11"/>
-      <c r="F161" s="10"/>
-      <c r="G161" s="10"/>
+      <c r="A161" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B161" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C161" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="D161" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="E161" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="F161" s="7"/>
+      <c r="G161" s="7"/>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A162" s="10"/>
-      <c r="B162" s="10"/>
-      <c r="C162" s="10"/>
-      <c r="D162" s="10"/>
-      <c r="E162" s="11"/>
-      <c r="F162" s="10"/>
-      <c r="G162" s="10"/>
+      <c r="A162" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B162" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C162" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="D162" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="E162" s="25" t="s">
+        <v>196</v>
+      </c>
+      <c r="F162" s="7"/>
+      <c r="G162" s="7"/>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A163" s="10"/>
-      <c r="B163" s="10"/>
-      <c r="C163" s="10"/>
-      <c r="D163" s="10"/>
-      <c r="E163" s="11"/>
-      <c r="F163" s="10"/>
-      <c r="G163" s="10"/>
+      <c r="A163" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B163" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C163" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="D163" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E163" s="25" t="s">
+        <v>195</v>
+      </c>
+      <c r="F163" s="7"/>
+      <c r="G163" s="7"/>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A164" s="10"/>
-      <c r="B164" s="10"/>
-      <c r="C164" s="10"/>
-      <c r="D164" s="10"/>
-      <c r="E164" s="11"/>
-      <c r="F164" s="10"/>
-      <c r="G164" s="10"/>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A165" s="10"/>
-      <c r="B165" s="10"/>
-      <c r="C165" s="10"/>
-      <c r="D165" s="10"/>
-      <c r="E165" s="11"/>
-      <c r="F165" s="10"/>
-      <c r="G165" s="10"/>
+      <c r="A164" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B164" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C164" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="D164" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="E164" s="25"/>
+      <c r="F164" s="7"/>
+      <c r="G164" s="7"/>
+    </row>
+    <row r="165" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A165" s="24"/>
+      <c r="B165" s="24"/>
+      <c r="C165" s="24"/>
+      <c r="D165" s="24"/>
+      <c r="E165" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="F165" s="24"/>
+      <c r="G165" s="26" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A166" s="10"/>
-      <c r="B166" s="10"/>
-      <c r="C166" s="10"/>
-      <c r="D166" s="10"/>
-      <c r="E166" s="11"/>
-      <c r="F166" s="10"/>
-      <c r="G166" s="10"/>
+      <c r="A166" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B166" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C166" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="D166" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="E166" s="23"/>
+      <c r="F166" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="G166" s="7"/>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A167" s="10"/>
-      <c r="B167" s="10"/>
-      <c r="C167" s="10"/>
-      <c r="D167" s="10"/>
-      <c r="E167" s="10"/>
-      <c r="F167" s="10"/>
-      <c r="G167" s="10"/>
+      <c r="A167" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B167" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C167" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="D167" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E167" s="23"/>
+      <c r="F167" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="G167" s="7"/>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A168" s="28"/>
-      <c r="B168" s="28"/>
-      <c r="C168" s="28"/>
-      <c r="D168" s="28"/>
-      <c r="E168" s="28"/>
-      <c r="F168" s="10"/>
-      <c r="G168" s="10"/>
+      <c r="A168" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B168" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C168" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="D168" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="E168" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F168" s="7"/>
+      <c r="G168" s="7"/>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A169" s="10"/>
-      <c r="B169" s="10"/>
-      <c r="C169" s="10"/>
-      <c r="D169" s="10"/>
-      <c r="E169" s="10"/>
-      <c r="F169" s="28"/>
-      <c r="G169" s="28"/>
+      <c r="A169" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B169" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C169" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="D169" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="E169" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F169" s="7"/>
+      <c r="G169" s="7"/>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A170" s="10"/>
-      <c r="B170" s="10"/>
-      <c r="C170" s="10"/>
-      <c r="D170" s="10"/>
-      <c r="E170" s="10"/>
-      <c r="F170" s="10"/>
-      <c r="G170" s="10"/>
+      <c r="A170" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B170" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C170" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="D170" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E170" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="F170" s="7"/>
+      <c r="G170" s="7"/>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A171" s="10"/>
-      <c r="B171" s="10"/>
-      <c r="C171" s="10"/>
-      <c r="D171" s="10"/>
-      <c r="E171" s="10"/>
-      <c r="F171" s="10"/>
-      <c r="G171" s="10"/>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A172" s="10"/>
-      <c r="B172" s="10"/>
-      <c r="C172" s="10"/>
-      <c r="D172" s="10"/>
-      <c r="E172" s="10"/>
-      <c r="F172" s="10"/>
-      <c r="G172" s="10"/>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A173" s="10"/>
-      <c r="B173" s="10"/>
-      <c r="C173" s="10"/>
-      <c r="D173" s="10"/>
-      <c r="E173" s="10"/>
-      <c r="F173" s="10"/>
-      <c r="G173" s="10"/>
+      <c r="A171" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B171" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C171" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="D171" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="E171" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="F171" s="7"/>
+      <c r="G171" s="7"/>
+    </row>
+    <row r="172" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A172" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B172" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C172" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D172" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="E172" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="F172" s="7"/>
+      <c r="G172" s="7"/>
+    </row>
+    <row r="173" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A173" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B173" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C173" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="D173" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="E173" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="F173" s="7"/>
+      <c r="G173" s="7"/>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A174" s="10"/>
-      <c r="B174" s="10"/>
-      <c r="C174" s="10"/>
-      <c r="D174" s="10"/>
-      <c r="E174" s="10"/>
-      <c r="F174" s="10"/>
-      <c r="G174" s="10"/>
+      <c r="A174" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B174" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C174" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="D174" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="E174" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="F174" s="7"/>
+      <c r="G174" s="7"/>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A175" s="10"/>
-      <c r="B175" s="10"/>
-      <c r="C175" s="10"/>
-      <c r="D175" s="10"/>
-      <c r="E175" s="10"/>
-      <c r="F175" s="10"/>
-      <c r="G175" s="10"/>
+      <c r="A175" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B175" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C175" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="D175" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="E175" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="F175" s="7"/>
+      <c r="G175" s="7"/>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A176" s="10"/>
-      <c r="B176" s="10"/>
-      <c r="C176" s="10"/>
-      <c r="D176" s="10"/>
-      <c r="E176" s="10"/>
-      <c r="F176" s="10"/>
-      <c r="G176" s="10"/>
+      <c r="A176" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B176" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C176" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="D176" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="E176" s="25" t="s">
+        <v>184</v>
+      </c>
+      <c r="F176" s="7"/>
+      <c r="G176" s="7"/>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A177" s="10"/>
-      <c r="B177" s="10"/>
-      <c r="C177" s="10"/>
-      <c r="D177" s="10"/>
-      <c r="E177" s="10"/>
-      <c r="F177" s="10"/>
-      <c r="G177" s="10"/>
+      <c r="A177" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B177" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C177" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="D177" s="23" t="s">
+        <v>197</v>
+      </c>
+      <c r="E177" s="25" t="s">
+        <v>198</v>
+      </c>
+      <c r="F177" s="7"/>
+      <c r="G177" s="7"/>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A178" s="10"/>
-      <c r="B178" s="10"/>
-      <c r="C178" s="10"/>
-      <c r="D178" s="10"/>
-      <c r="E178" s="11"/>
-      <c r="F178" s="10"/>
-      <c r="G178" s="10"/>
+      <c r="A178" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B178" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C178" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="D178" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E178" s="25" t="s">
+        <v>188</v>
+      </c>
+      <c r="F178" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="G178" s="7"/>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A179" s="10"/>
-      <c r="B179" s="10"/>
-      <c r="C179" s="10"/>
-      <c r="D179" s="10"/>
-      <c r="E179" s="11"/>
-      <c r="F179" s="10"/>
-      <c r="G179" s="10"/>
+      <c r="A179" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B179" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C179" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="D179" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="E179" s="25" t="s">
+        <v>190</v>
+      </c>
+      <c r="F179" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="G179" s="7"/>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A180" s="10"/>
-      <c r="B180" s="10"/>
-      <c r="C180" s="10"/>
-      <c r="D180" s="10"/>
-      <c r="E180" s="11"/>
-      <c r="F180" s="10"/>
-      <c r="G180" s="10"/>
+      <c r="A180" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B180" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C180" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="D180" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="E180" s="25" t="s">
+        <v>193</v>
+      </c>
+      <c r="F180" s="7"/>
+      <c r="G180" s="7"/>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A181" s="10"/>
-      <c r="B181" s="10"/>
-      <c r="C181" s="10"/>
-      <c r="D181" s="10"/>
-      <c r="E181" s="11"/>
-      <c r="F181" s="10"/>
-      <c r="G181" s="10"/>
+      <c r="A181" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B181" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C181" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="D181" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E181" s="25" t="s">
+        <v>194</v>
+      </c>
+      <c r="F181" s="7"/>
+      <c r="G181" s="7"/>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A182" s="10"/>
-      <c r="B182" s="10"/>
-      <c r="C182" s="10"/>
-      <c r="D182" s="10"/>
-      <c r="E182" s="11"/>
-      <c r="F182" s="10"/>
-      <c r="G182" s="10"/>
+      <c r="A182" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B182" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C182" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="D182" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="E182" s="25"/>
+      <c r="F182" s="7"/>
+      <c r="G182" s="7"/>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A183" s="10"/>
@@ -3980,11 +4901,11 @@
       <c r="G183" s="10"/>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A184" s="28"/>
-      <c r="B184" s="28"/>
-      <c r="C184" s="28"/>
-      <c r="D184" s="28"/>
-      <c r="E184" s="28"/>
+      <c r="A184" s="10"/>
+      <c r="B184" s="10"/>
+      <c r="C184" s="10"/>
+      <c r="D184" s="10"/>
+      <c r="E184" s="10"/>
       <c r="F184" s="10"/>
       <c r="G184" s="10"/>
     </row>
@@ -3998,13 +4919,13 @@
       <c r="G185" s="10"/>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A186" s="10"/>
-      <c r="B186" s="10"/>
-      <c r="C186" s="10"/>
-      <c r="D186" s="10"/>
-      <c r="E186" s="10"/>
-      <c r="F186" s="28"/>
-      <c r="G186" s="28"/>
+      <c r="A186" s="27"/>
+      <c r="B186" s="27"/>
+      <c r="C186" s="27"/>
+      <c r="D186" s="27"/>
+      <c r="E186" s="27"/>
+      <c r="F186" s="10"/>
+      <c r="G186" s="10"/>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A187" s="10"/>
@@ -4048,8 +4969,8 @@
       <c r="C191" s="10"/>
       <c r="D191" s="10"/>
       <c r="E191" s="10"/>
-      <c r="F191" s="10"/>
-      <c r="G191" s="10"/>
+      <c r="F191" s="27"/>
+      <c r="G191" s="27"/>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A192" s="10"/>
@@ -4083,7 +5004,7 @@
       <c r="B195" s="10"/>
       <c r="C195" s="10"/>
       <c r="D195" s="10"/>
-      <c r="E195" s="11"/>
+      <c r="E195" s="10"/>
       <c r="F195" s="10"/>
       <c r="G195" s="10"/>
     </row>
@@ -4092,7 +5013,7 @@
       <c r="B196" s="10"/>
       <c r="C196" s="10"/>
       <c r="D196" s="10"/>
-      <c r="E196" s="11"/>
+      <c r="E196" s="10"/>
       <c r="F196" s="10"/>
       <c r="G196" s="10"/>
     </row>
@@ -4101,7 +5022,7 @@
       <c r="B197" s="10"/>
       <c r="C197" s="10"/>
       <c r="D197" s="10"/>
-      <c r="E197" s="11"/>
+      <c r="E197" s="10"/>
       <c r="F197" s="10"/>
       <c r="G197" s="10"/>
     </row>
@@ -4128,16 +5049,16 @@
       <c r="B200" s="10"/>
       <c r="C200" s="10"/>
       <c r="D200" s="10"/>
-      <c r="E200" s="10"/>
+      <c r="E200" s="11"/>
       <c r="F200" s="10"/>
       <c r="G200" s="10"/>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A201" s="28"/>
-      <c r="B201" s="28"/>
-      <c r="C201" s="28"/>
-      <c r="D201" s="28"/>
-      <c r="E201" s="28"/>
+      <c r="A201" s="10"/>
+      <c r="B201" s="10"/>
+      <c r="C201" s="10"/>
+      <c r="D201" s="10"/>
+      <c r="E201" s="11"/>
       <c r="F201" s="10"/>
       <c r="G201" s="10"/>
     </row>
@@ -4146,7 +5067,7 @@
       <c r="B202" s="10"/>
       <c r="C202" s="10"/>
       <c r="D202" s="10"/>
-      <c r="E202" s="10"/>
+      <c r="E202" s="11"/>
       <c r="F202" s="10"/>
       <c r="G202" s="10"/>
     </row>
@@ -4156,8 +5077,8 @@
       <c r="C203" s="10"/>
       <c r="D203" s="10"/>
       <c r="E203" s="10"/>
-      <c r="F203" s="10"/>
-      <c r="G203" s="10"/>
+      <c r="F203" s="27"/>
+      <c r="G203" s="27"/>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A204" s="10"/>
@@ -4178,11 +5099,11 @@
       <c r="G205" s="10"/>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A206" s="10"/>
-      <c r="B206" s="10"/>
-      <c r="C206" s="10"/>
-      <c r="D206" s="10"/>
-      <c r="E206" s="10"/>
+      <c r="A206" s="27"/>
+      <c r="B206" s="27"/>
+      <c r="C206" s="27"/>
+      <c r="D206" s="27"/>
+      <c r="E206" s="27"/>
       <c r="F206" s="10"/>
       <c r="G206" s="10"/>
     </row>
@@ -4192,8 +5113,8 @@
       <c r="C207" s="10"/>
       <c r="D207" s="10"/>
       <c r="E207" s="10"/>
-      <c r="F207" s="28"/>
-      <c r="G207" s="28"/>
+      <c r="F207" s="10"/>
+      <c r="G207" s="10"/>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A208" s="10"/>
@@ -4286,11 +5207,11 @@
       <c r="G217" s="10"/>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A218" s="10"/>
-      <c r="B218" s="10"/>
-      <c r="C218" s="10"/>
-      <c r="D218" s="10"/>
-      <c r="E218" s="10"/>
+      <c r="A218" s="27"/>
+      <c r="B218" s="27"/>
+      <c r="C218" s="27"/>
+      <c r="D218" s="27"/>
+      <c r="E218" s="27"/>
       <c r="F218" s="10"/>
       <c r="G218" s="10"/>
     </row>
@@ -4306,11 +5227,11 @@
     <row r="220" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A220" s="10"/>
       <c r="B220" s="10"/>
-      <c r="C220" s="12"/>
+      <c r="C220" s="10"/>
       <c r="D220" s="10"/>
       <c r="E220" s="10"/>
-      <c r="F220" s="28"/>
-      <c r="G220" s="28"/>
+      <c r="F220" s="10"/>
+      <c r="G220" s="10"/>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A221" s="10"/>
@@ -4322,11 +5243,11 @@
       <c r="G221" s="10"/>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A222" s="28"/>
-      <c r="B222" s="28"/>
-      <c r="C222" s="28"/>
-      <c r="D222" s="28"/>
-      <c r="E222" s="28"/>
+      <c r="A222" s="10"/>
+      <c r="B222" s="10"/>
+      <c r="C222" s="10"/>
+      <c r="D222" s="10"/>
+      <c r="E222" s="10"/>
       <c r="F222" s="10"/>
       <c r="G222" s="10"/>
     </row>
@@ -4345,8 +5266,8 @@
       <c r="C224" s="10"/>
       <c r="D224" s="10"/>
       <c r="E224" s="10"/>
-      <c r="F224" s="10"/>
-      <c r="G224" s="10"/>
+      <c r="F224" s="27"/>
+      <c r="G224" s="27"/>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A225" s="10"/>
@@ -4439,11 +5360,11 @@
       <c r="G234" s="10"/>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A235" s="28"/>
-      <c r="B235" s="28"/>
-      <c r="C235" s="28"/>
-      <c r="D235" s="28"/>
-      <c r="E235" s="28"/>
+      <c r="A235" s="10"/>
+      <c r="B235" s="10"/>
+      <c r="C235" s="10"/>
+      <c r="D235" s="10"/>
+      <c r="E235" s="10"/>
       <c r="F235" s="10"/>
       <c r="G235" s="10"/>
     </row>
@@ -4475,11 +5396,11 @@
       <c r="G238" s="10"/>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A239" s="10"/>
-      <c r="B239" s="10"/>
-      <c r="C239" s="10"/>
-      <c r="D239" s="10"/>
-      <c r="E239" s="10"/>
+      <c r="A239" s="27"/>
+      <c r="B239" s="27"/>
+      <c r="C239" s="27"/>
+      <c r="D239" s="27"/>
+      <c r="E239" s="27"/>
       <c r="F239" s="10"/>
       <c r="G239" s="10"/>
     </row>
@@ -4489,8 +5410,8 @@
       <c r="C240" s="10"/>
       <c r="D240" s="10"/>
       <c r="E240" s="10"/>
-      <c r="F240" s="28"/>
-      <c r="G240" s="28"/>
+      <c r="F240" s="10"/>
+      <c r="G240" s="10"/>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A241" s="10"/>
@@ -4597,8 +5518,8 @@
       <c r="C252" s="10"/>
       <c r="D252" s="10"/>
       <c r="E252" s="10"/>
-      <c r="F252" s="10"/>
-      <c r="G252" s="10"/>
+      <c r="F252" s="27"/>
+      <c r="G252" s="27"/>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A253" s="10"/>
@@ -4619,11 +5540,11 @@
       <c r="G254" s="10"/>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A255" s="28"/>
-      <c r="B255" s="28"/>
-      <c r="C255" s="28"/>
-      <c r="D255" s="28"/>
-      <c r="E255" s="28"/>
+      <c r="A255" s="10"/>
+      <c r="B255" s="10"/>
+      <c r="C255" s="10"/>
+      <c r="D255" s="10"/>
+      <c r="E255" s="10"/>
       <c r="F255" s="10"/>
       <c r="G255" s="10"/>
     </row>
@@ -4650,7 +5571,7 @@
       <c r="B258" s="10"/>
       <c r="C258" s="10"/>
       <c r="D258" s="10"/>
-      <c r="E258" s="10"/>
+      <c r="E258" s="11"/>
       <c r="F258" s="10"/>
       <c r="G258" s="10"/>
     </row>
@@ -4659,7 +5580,7 @@
       <c r="B259" s="10"/>
       <c r="C259" s="10"/>
       <c r="D259" s="10"/>
-      <c r="E259" s="10"/>
+      <c r="E259" s="11"/>
       <c r="F259" s="10"/>
       <c r="G259" s="10"/>
     </row>
@@ -4727,11 +5648,11 @@
       <c r="G266" s="10"/>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A267" s="10"/>
-      <c r="B267" s="10"/>
-      <c r="C267" s="10"/>
-      <c r="D267" s="10"/>
-      <c r="E267" s="10"/>
+      <c r="A267" s="27"/>
+      <c r="B267" s="27"/>
+      <c r="C267" s="27"/>
+      <c r="D267" s="27"/>
+      <c r="E267" s="27"/>
       <c r="F267" s="10"/>
       <c r="G267" s="10"/>
     </row>
@@ -4740,7 +5661,7 @@
       <c r="B268" s="10"/>
       <c r="C268" s="10"/>
       <c r="D268" s="10"/>
-      <c r="E268" s="11"/>
+      <c r="E268" s="10"/>
       <c r="F268" s="10"/>
       <c r="G268" s="10"/>
     </row>
@@ -4749,7 +5670,7 @@
       <c r="B269" s="10"/>
       <c r="C269" s="10"/>
       <c r="D269" s="10"/>
-      <c r="E269" s="11"/>
+      <c r="E269" s="10"/>
       <c r="F269" s="10"/>
       <c r="G269" s="10"/>
     </row>
@@ -4758,7 +5679,7 @@
       <c r="B270" s="10"/>
       <c r="C270" s="10"/>
       <c r="D270" s="10"/>
-      <c r="E270" s="11"/>
+      <c r="E270" s="10"/>
       <c r="F270" s="10"/>
       <c r="G270" s="10"/>
     </row>
@@ -4767,7 +5688,7 @@
       <c r="B271" s="10"/>
       <c r="C271" s="10"/>
       <c r="D271" s="10"/>
-      <c r="E271" s="11"/>
+      <c r="E271" s="10"/>
       <c r="F271" s="10"/>
       <c r="G271" s="10"/>
     </row>
@@ -4776,7 +5697,7 @@
       <c r="B272" s="10"/>
       <c r="C272" s="10"/>
       <c r="D272" s="10"/>
-      <c r="E272" s="11"/>
+      <c r="E272" s="10"/>
       <c r="F272" s="10"/>
       <c r="G272" s="10"/>
     </row>
@@ -4785,7 +5706,7 @@
       <c r="B273" s="10"/>
       <c r="C273" s="10"/>
       <c r="D273" s="10"/>
-      <c r="E273" s="11"/>
+      <c r="E273" s="10"/>
       <c r="F273" s="10"/>
       <c r="G273" s="10"/>
     </row>
@@ -4804,8 +5725,8 @@
       <c r="C275" s="10"/>
       <c r="D275" s="10"/>
       <c r="E275" s="10"/>
-      <c r="F275" s="28"/>
-      <c r="G275" s="28"/>
+      <c r="F275" s="10"/>
+      <c r="G275" s="10"/>
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A276" s="10"/>
@@ -4840,7 +5761,7 @@
       <c r="C279" s="10"/>
       <c r="D279" s="10"/>
       <c r="E279" s="10"/>
-      <c r="F279" s="10"/>
+      <c r="F279" s="11"/>
       <c r="G279" s="10"/>
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.35">
@@ -4849,7 +5770,7 @@
       <c r="C280" s="10"/>
       <c r="D280" s="10"/>
       <c r="E280" s="10"/>
-      <c r="F280" s="10"/>
+      <c r="F280" s="11"/>
       <c r="G280" s="10"/>
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.35">
@@ -4858,7 +5779,7 @@
       <c r="C281" s="10"/>
       <c r="D281" s="10"/>
       <c r="E281" s="10"/>
-      <c r="F281" s="10"/>
+      <c r="F281" s="11"/>
       <c r="G281" s="10"/>
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.35">
@@ -4867,7 +5788,7 @@
       <c r="C282" s="10"/>
       <c r="D282" s="10"/>
       <c r="E282" s="10"/>
-      <c r="F282" s="10"/>
+      <c r="F282" s="11"/>
       <c r="G282" s="10"/>
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.35">
@@ -4876,7 +5797,7 @@
       <c r="C283" s="10"/>
       <c r="D283" s="10"/>
       <c r="E283" s="10"/>
-      <c r="F283" s="10"/>
+      <c r="F283" s="11"/>
       <c r="G283" s="10"/>
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.35">
@@ -4885,7 +5806,7 @@
       <c r="C284" s="10"/>
       <c r="D284" s="10"/>
       <c r="E284" s="10"/>
-      <c r="F284" s="10"/>
+      <c r="F284" s="11"/>
       <c r="G284" s="10"/>
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.35">
@@ -4894,15 +5815,15 @@
       <c r="C285" s="10"/>
       <c r="D285" s="10"/>
       <c r="E285" s="10"/>
-      <c r="F285" s="10"/>
-      <c r="G285" s="10"/>
+      <c r="F285" s="27"/>
+      <c r="G285" s="27"/>
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A286" s="10"/>
       <c r="B286" s="10"/>
       <c r="C286" s="10"/>
       <c r="D286" s="10"/>
-      <c r="E286" s="11"/>
+      <c r="E286" s="10"/>
       <c r="F286" s="10"/>
       <c r="G286" s="10"/>
     </row>
@@ -4934,11 +5855,11 @@
       <c r="G289" s="10"/>
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A290" s="28"/>
-      <c r="B290" s="28"/>
-      <c r="C290" s="28"/>
-      <c r="D290" s="28"/>
-      <c r="E290" s="28"/>
+      <c r="A290" s="10"/>
+      <c r="B290" s="10"/>
+      <c r="C290" s="10"/>
+      <c r="D290" s="10"/>
+      <c r="E290" s="10"/>
       <c r="F290" s="10"/>
       <c r="G290" s="10"/>
     </row>
@@ -4984,8 +5905,8 @@
       <c r="C295" s="10"/>
       <c r="D295" s="10"/>
       <c r="E295" s="10"/>
-      <c r="F295" s="28"/>
-      <c r="G295" s="28"/>
+      <c r="F295" s="10"/>
+      <c r="G295" s="10"/>
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A296" s="10"/>
@@ -5024,11 +5945,11 @@
       <c r="G299" s="10"/>
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A300" s="10"/>
-      <c r="B300" s="10"/>
-      <c r="C300" s="10"/>
-      <c r="D300" s="10"/>
-      <c r="E300" s="10"/>
+      <c r="A300" s="27"/>
+      <c r="B300" s="27"/>
+      <c r="C300" s="27"/>
+      <c r="D300" s="27"/>
+      <c r="E300" s="27"/>
       <c r="F300" s="10"/>
       <c r="G300" s="10"/>
     </row>
@@ -5046,7 +5967,7 @@
       <c r="B302" s="10"/>
       <c r="C302" s="10"/>
       <c r="D302" s="10"/>
-      <c r="E302" s="11"/>
+      <c r="E302" s="10"/>
       <c r="F302" s="10"/>
       <c r="G302" s="10"/>
     </row>
@@ -5055,7 +5976,7 @@
       <c r="B303" s="10"/>
       <c r="C303" s="10"/>
       <c r="D303" s="10"/>
-      <c r="E303" s="11"/>
+      <c r="E303" s="10"/>
       <c r="F303" s="10"/>
       <c r="G303" s="10"/>
     </row>
@@ -5064,7 +5985,7 @@
       <c r="B304" s="10"/>
       <c r="C304" s="10"/>
       <c r="D304" s="10"/>
-      <c r="E304" s="11"/>
+      <c r="E304" s="10"/>
       <c r="F304" s="10"/>
       <c r="G304" s="10"/>
     </row>
@@ -5073,7 +5994,7 @@
       <c r="B305" s="10"/>
       <c r="C305" s="10"/>
       <c r="D305" s="10"/>
-      <c r="E305" s="11"/>
+      <c r="E305" s="10"/>
       <c r="F305" s="10"/>
       <c r="G305" s="10"/>
     </row>
@@ -5082,7 +6003,7 @@
       <c r="B306" s="10"/>
       <c r="C306" s="10"/>
       <c r="D306" s="10"/>
-      <c r="E306" s="11"/>
+      <c r="E306" s="10"/>
       <c r="F306" s="10"/>
       <c r="G306" s="10"/>
     </row>
@@ -5092,8 +6013,8 @@
       <c r="C307" s="10"/>
       <c r="D307" s="10"/>
       <c r="E307" s="10"/>
-      <c r="F307" s="28"/>
-      <c r="G307" s="28"/>
+      <c r="F307" s="10"/>
+      <c r="G307" s="10"/>
     </row>
     <row r="308" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A308" s="10"/>
@@ -5114,11 +6035,11 @@
       <c r="G309" s="10"/>
     </row>
     <row r="310" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A310" s="28"/>
-      <c r="B310" s="28"/>
-      <c r="C310" s="28"/>
-      <c r="D310" s="28"/>
-      <c r="E310" s="28"/>
+      <c r="A310" s="10"/>
+      <c r="B310" s="10"/>
+      <c r="C310" s="10"/>
+      <c r="D310" s="10"/>
+      <c r="E310" s="10"/>
       <c r="F310" s="10"/>
       <c r="G310" s="10"/>
     </row>
@@ -5222,11 +6143,11 @@
       <c r="G321" s="10"/>
     </row>
     <row r="322" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A322" s="28"/>
-      <c r="B322" s="28"/>
-      <c r="C322" s="28"/>
-      <c r="D322" s="28"/>
-      <c r="E322" s="28"/>
+      <c r="A322" s="10"/>
+      <c r="B322" s="10"/>
+      <c r="C322" s="10"/>
+      <c r="D322" s="10"/>
+      <c r="E322" s="10"/>
       <c r="F322" s="10"/>
       <c r="G322" s="10"/>
     </row>
@@ -5236,8 +6157,8 @@
       <c r="C323" s="10"/>
       <c r="D323" s="10"/>
       <c r="E323" s="10"/>
-      <c r="F323" s="10"/>
-      <c r="G323" s="10"/>
+      <c r="F323" s="27"/>
+      <c r="G323" s="27"/>
     </row>
     <row r="324" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A324" s="10"/>
@@ -5281,8 +6202,8 @@
       <c r="C328" s="10"/>
       <c r="D328" s="10"/>
       <c r="E328" s="10"/>
-      <c r="F328" s="28"/>
-      <c r="G328" s="28"/>
+      <c r="F328" s="10"/>
+      <c r="G328" s="10"/>
     </row>
     <row r="329" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A329" s="10"/>
@@ -5366,11 +6287,11 @@
       <c r="G337" s="10"/>
     </row>
     <row r="338" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A338" s="10"/>
-      <c r="B338" s="10"/>
-      <c r="C338" s="10"/>
-      <c r="D338" s="10"/>
-      <c r="E338" s="10"/>
+      <c r="A338" s="27"/>
+      <c r="B338" s="27"/>
+      <c r="C338" s="27"/>
+      <c r="D338" s="27"/>
+      <c r="E338" s="27"/>
       <c r="F338" s="10"/>
       <c r="G338" s="10"/>
     </row>
@@ -5411,11 +6332,11 @@
       <c r="G342" s="10"/>
     </row>
     <row r="343" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A343" s="28"/>
-      <c r="B343" s="28"/>
-      <c r="C343" s="28"/>
-      <c r="D343" s="28"/>
-      <c r="E343" s="28"/>
+      <c r="A343" s="10"/>
+      <c r="B343" s="10"/>
+      <c r="C343" s="10"/>
+      <c r="D343" s="10"/>
+      <c r="E343" s="10"/>
       <c r="F343" s="10"/>
       <c r="G343" s="10"/>
     </row>
@@ -5533,8 +6454,8 @@
       <c r="C356" s="10"/>
       <c r="D356" s="10"/>
       <c r="E356" s="10"/>
-      <c r="F356" s="28"/>
-      <c r="G356" s="28"/>
+      <c r="F356" s="10"/>
+      <c r="G356" s="10"/>
     </row>
     <row r="357" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A357" s="10"/>
@@ -5560,8 +6481,8 @@
       <c r="C359" s="10"/>
       <c r="D359" s="10"/>
       <c r="E359" s="10"/>
-      <c r="F359" s="10"/>
-      <c r="G359" s="10"/>
+      <c r="F359" s="27"/>
+      <c r="G359" s="27"/>
     </row>
     <row r="360" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A360" s="10"/>
@@ -5586,7 +6507,7 @@
       <c r="B362" s="10"/>
       <c r="C362" s="10"/>
       <c r="D362" s="10"/>
-      <c r="E362" s="11"/>
+      <c r="E362" s="10"/>
       <c r="F362" s="10"/>
       <c r="G362" s="10"/>
     </row>
@@ -5595,7 +6516,7 @@
       <c r="B363" s="10"/>
       <c r="C363" s="10"/>
       <c r="D363" s="10"/>
-      <c r="E363" s="11"/>
+      <c r="E363" s="10"/>
       <c r="F363" s="10"/>
       <c r="G363" s="10"/>
     </row>
@@ -5663,11 +6584,11 @@
       <c r="G370" s="10"/>
     </row>
     <row r="371" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A371" s="28"/>
-      <c r="B371" s="28"/>
-      <c r="C371" s="28"/>
-      <c r="D371" s="28"/>
-      <c r="E371" s="28"/>
+      <c r="A371" s="10"/>
+      <c r="B371" s="10"/>
+      <c r="C371" s="10"/>
+      <c r="D371" s="10"/>
+      <c r="E371" s="10"/>
       <c r="F371" s="10"/>
       <c r="G371" s="10"/>
     </row>
@@ -5690,11 +6611,11 @@
       <c r="G373" s="10"/>
     </row>
     <row r="374" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A374" s="10"/>
-      <c r="B374" s="10"/>
-      <c r="C374" s="10"/>
-      <c r="D374" s="10"/>
-      <c r="E374" s="10"/>
+      <c r="A374" s="27"/>
+      <c r="B374" s="27"/>
+      <c r="C374" s="27"/>
+      <c r="D374" s="27"/>
+      <c r="E374" s="27"/>
       <c r="F374" s="10"/>
       <c r="G374" s="10"/>
     </row>
@@ -5776,7 +6697,7 @@
       <c r="C383" s="10"/>
       <c r="D383" s="10"/>
       <c r="E383" s="10"/>
-      <c r="F383" s="11"/>
+      <c r="F383" s="10"/>
       <c r="G383" s="10"/>
     </row>
     <row r="384" spans="1:7" x14ac:dyDescent="0.35">
@@ -5785,7 +6706,7 @@
       <c r="C384" s="10"/>
       <c r="D384" s="10"/>
       <c r="E384" s="10"/>
-      <c r="F384" s="11"/>
+      <c r="F384" s="10"/>
       <c r="G384" s="10"/>
     </row>
     <row r="385" spans="1:7" x14ac:dyDescent="0.35">
@@ -5794,7 +6715,7 @@
       <c r="C385" s="10"/>
       <c r="D385" s="10"/>
       <c r="E385" s="10"/>
-      <c r="F385" s="11"/>
+      <c r="F385" s="10"/>
       <c r="G385" s="10"/>
     </row>
     <row r="386" spans="1:7" x14ac:dyDescent="0.35">
@@ -5803,7 +6724,7 @@
       <c r="C386" s="10"/>
       <c r="D386" s="10"/>
       <c r="E386" s="10"/>
-      <c r="F386" s="11"/>
+      <c r="F386" s="10"/>
       <c r="G386" s="10"/>
     </row>
     <row r="387" spans="1:7" x14ac:dyDescent="0.35">
@@ -5812,7 +6733,7 @@
       <c r="C387" s="10"/>
       <c r="D387" s="10"/>
       <c r="E387" s="10"/>
-      <c r="F387" s="11"/>
+      <c r="F387" s="10"/>
       <c r="G387" s="10"/>
     </row>
     <row r="388" spans="1:7" x14ac:dyDescent="0.35">
@@ -5821,8 +6742,8 @@
       <c r="C388" s="10"/>
       <c r="D388" s="10"/>
       <c r="E388" s="10"/>
-      <c r="F388" s="11"/>
-      <c r="G388" s="10"/>
+      <c r="F388" s="27"/>
+      <c r="G388" s="27"/>
     </row>
     <row r="389" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A389" s="10"/>
@@ -5830,8 +6751,8 @@
       <c r="C389" s="10"/>
       <c r="D389" s="10"/>
       <c r="E389" s="10"/>
-      <c r="F389" s="28"/>
-      <c r="G389" s="28"/>
+      <c r="F389" s="10"/>
+      <c r="G389" s="10"/>
     </row>
     <row r="390" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A390" s="10"/>
@@ -5951,20 +6872,20 @@
       <c r="G402" s="10"/>
     </row>
     <row r="403" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A403" s="10"/>
-      <c r="B403" s="10"/>
-      <c r="C403" s="10"/>
-      <c r="D403" s="10"/>
-      <c r="E403" s="10"/>
+      <c r="A403" s="27"/>
+      <c r="B403" s="27"/>
+      <c r="C403" s="27"/>
+      <c r="D403" s="27"/>
+      <c r="E403" s="27"/>
       <c r="F403" s="10"/>
       <c r="G403" s="10"/>
     </row>
     <row r="404" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A404" s="28"/>
-      <c r="B404" s="28"/>
-      <c r="C404" s="28"/>
-      <c r="D404" s="28"/>
-      <c r="E404" s="28"/>
+      <c r="A404" s="10"/>
+      <c r="B404" s="10"/>
+      <c r="C404" s="10"/>
+      <c r="D404" s="10"/>
+      <c r="E404" s="10"/>
       <c r="F404" s="10"/>
       <c r="G404" s="10"/>
     </row>
@@ -6001,8 +6922,8 @@
       <c r="C408" s="10"/>
       <c r="D408" s="10"/>
       <c r="E408" s="10"/>
-      <c r="F408" s="10"/>
-      <c r="G408" s="10"/>
+      <c r="F408" s="27"/>
+      <c r="G408" s="27"/>
     </row>
     <row r="409" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A409" s="10"/>
@@ -6054,7 +6975,7 @@
       <c r="B414" s="10"/>
       <c r="C414" s="10"/>
       <c r="D414" s="10"/>
-      <c r="E414" s="10"/>
+      <c r="E414" s="11"/>
       <c r="F414" s="10"/>
       <c r="G414" s="10"/>
     </row>
@@ -6063,7 +6984,7 @@
       <c r="B415" s="10"/>
       <c r="C415" s="10"/>
       <c r="D415" s="10"/>
-      <c r="E415" s="10"/>
+      <c r="E415" s="11"/>
       <c r="F415" s="10"/>
       <c r="G415" s="10"/>
     </row>
@@ -6072,7 +6993,7 @@
       <c r="B416" s="10"/>
       <c r="C416" s="10"/>
       <c r="D416" s="10"/>
-      <c r="E416" s="10"/>
+      <c r="E416" s="11"/>
       <c r="F416" s="10"/>
       <c r="G416" s="10"/>
     </row>
@@ -6081,7 +7002,7 @@
       <c r="B417" s="10"/>
       <c r="C417" s="10"/>
       <c r="D417" s="10"/>
-      <c r="E417" s="10"/>
+      <c r="E417" s="11"/>
       <c r="F417" s="10"/>
       <c r="G417" s="10"/>
     </row>
@@ -6131,11 +7052,11 @@
       <c r="G422" s="10"/>
     </row>
     <row r="423" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A423" s="10"/>
-      <c r="B423" s="10"/>
-      <c r="C423" s="10"/>
-      <c r="D423" s="10"/>
-      <c r="E423" s="10"/>
+      <c r="A423" s="27"/>
+      <c r="B423" s="27"/>
+      <c r="C423" s="27"/>
+      <c r="D423" s="27"/>
+      <c r="E423" s="27"/>
       <c r="F423" s="10"/>
       <c r="G423" s="10"/>
     </row>
@@ -6172,8 +7093,8 @@
       <c r="C427" s="10"/>
       <c r="D427" s="10"/>
       <c r="E427" s="10"/>
-      <c r="F427" s="28"/>
-      <c r="G427" s="28"/>
+      <c r="F427" s="10"/>
+      <c r="G427" s="10"/>
     </row>
     <row r="428" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A428" s="10"/>
@@ -6208,8 +7129,8 @@
       <c r="C431" s="10"/>
       <c r="D431" s="10"/>
       <c r="E431" s="10"/>
-      <c r="F431" s="10"/>
-      <c r="G431" s="10"/>
+      <c r="F431" s="27"/>
+      <c r="G431" s="27"/>
     </row>
     <row r="432" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A432" s="10"/>
@@ -6217,8 +7138,8 @@
       <c r="C432" s="10"/>
       <c r="D432" s="10"/>
       <c r="E432" s="10"/>
-      <c r="F432" s="10"/>
-      <c r="G432" s="10"/>
+      <c r="F432" s="27"/>
+      <c r="G432" s="27"/>
     </row>
     <row r="433" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A433" s="10"/>
@@ -6283,7 +7204,7 @@
       <c r="F439" s="10"/>
       <c r="G439" s="10"/>
     </row>
-    <row r="440" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A440" s="10"/>
       <c r="B440" s="10"/>
       <c r="C440" s="10"/>
@@ -6298,15 +7219,15 @@
       <c r="C441" s="10"/>
       <c r="D441" s="10"/>
       <c r="E441" s="10"/>
-      <c r="F441" s="10"/>
-      <c r="G441" s="10"/>
+      <c r="F441" s="27"/>
+      <c r="G441" s="27"/>
     </row>
     <row r="442" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A442" s="28"/>
-      <c r="B442" s="28"/>
-      <c r="C442" s="28"/>
-      <c r="D442" s="28"/>
-      <c r="E442" s="28"/>
+      <c r="A442" s="10"/>
+      <c r="B442" s="10"/>
+      <c r="C442" s="10"/>
+      <c r="D442" s="10"/>
+      <c r="E442" s="10"/>
       <c r="F442" s="10"/>
       <c r="G442" s="10"/>
     </row>
@@ -6338,20 +7259,20 @@
       <c r="G445" s="10"/>
     </row>
     <row r="446" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A446" s="10"/>
-      <c r="B446" s="10"/>
-      <c r="C446" s="10"/>
-      <c r="D446" s="10"/>
-      <c r="E446" s="10"/>
+      <c r="A446" s="27"/>
+      <c r="B446" s="27"/>
+      <c r="C446" s="27"/>
+      <c r="D446" s="27"/>
+      <c r="E446" s="27"/>
       <c r="F446" s="10"/>
       <c r="G446" s="10"/>
     </row>
     <row r="447" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A447" s="10"/>
-      <c r="B447" s="10"/>
-      <c r="C447" s="10"/>
-      <c r="D447" s="10"/>
-      <c r="E447" s="10"/>
+      <c r="A447" s="27"/>
+      <c r="B447" s="27"/>
+      <c r="C447" s="27"/>
+      <c r="D447" s="27"/>
+      <c r="E447" s="27"/>
       <c r="F447" s="10"/>
       <c r="G447" s="10"/>
     </row>
@@ -6379,8 +7300,8 @@
       <c r="C450" s="10"/>
       <c r="D450" s="10"/>
       <c r="E450" s="10"/>
-      <c r="F450" s="10"/>
-      <c r="G450" s="10"/>
+      <c r="F450" s="27"/>
+      <c r="G450" s="27"/>
     </row>
     <row r="451" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A451" s="10"/>
@@ -6428,11 +7349,11 @@
       <c r="G455" s="10"/>
     </row>
     <row r="456" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A456" s="10"/>
-      <c r="B456" s="10"/>
-      <c r="C456" s="10"/>
-      <c r="D456" s="10"/>
-      <c r="E456" s="10"/>
+      <c r="A456" s="27"/>
+      <c r="B456" s="27"/>
+      <c r="C456" s="27"/>
+      <c r="D456" s="27"/>
+      <c r="E456" s="27"/>
       <c r="F456" s="10"/>
       <c r="G456" s="10"/>
     </row>
@@ -6496,8 +7417,8 @@
       <c r="C463" s="10"/>
       <c r="D463" s="10"/>
       <c r="E463" s="10"/>
-      <c r="F463" s="28"/>
-      <c r="G463" s="28"/>
+      <c r="F463" s="10"/>
+      <c r="G463" s="10"/>
     </row>
     <row r="464" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A464" s="10"/>
@@ -6509,11 +7430,11 @@
       <c r="G464" s="10"/>
     </row>
     <row r="465" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A465" s="10"/>
-      <c r="B465" s="10"/>
-      <c r="C465" s="10"/>
-      <c r="D465" s="10"/>
-      <c r="E465" s="10"/>
+      <c r="A465" s="27"/>
+      <c r="B465" s="27"/>
+      <c r="C465" s="27"/>
+      <c r="D465" s="27"/>
+      <c r="E465" s="27"/>
       <c r="F465" s="10"/>
       <c r="G465" s="10"/>
     </row>
@@ -6559,8 +7480,8 @@
       <c r="C470" s="10"/>
       <c r="D470" s="10"/>
       <c r="E470" s="10"/>
-      <c r="F470" s="10"/>
-      <c r="G470" s="10"/>
+      <c r="F470" s="27"/>
+      <c r="G470" s="27"/>
     </row>
     <row r="471" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A471" s="10"/>
@@ -6626,11 +7547,11 @@
       <c r="G477" s="10"/>
     </row>
     <row r="478" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A478" s="28"/>
-      <c r="B478" s="28"/>
-      <c r="C478" s="28"/>
-      <c r="D478" s="28"/>
-      <c r="E478" s="28"/>
+      <c r="A478" s="10"/>
+      <c r="B478" s="10"/>
+      <c r="C478" s="10"/>
+      <c r="D478" s="10"/>
+      <c r="E478" s="10"/>
       <c r="F478" s="10"/>
       <c r="G478" s="10"/>
     </row>
@@ -6689,11 +7610,11 @@
       <c r="G484" s="10"/>
     </row>
     <row r="485" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A485" s="10"/>
-      <c r="B485" s="10"/>
-      <c r="C485" s="10"/>
-      <c r="D485" s="10"/>
-      <c r="E485" s="10"/>
+      <c r="A485" s="27"/>
+      <c r="B485" s="27"/>
+      <c r="C485" s="27"/>
+      <c r="D485" s="27"/>
+      <c r="E485" s="27"/>
       <c r="F485" s="10"/>
       <c r="G485" s="10"/>
     </row>
@@ -6757,8 +7678,8 @@
       <c r="C492" s="10"/>
       <c r="D492" s="10"/>
       <c r="E492" s="10"/>
-      <c r="F492" s="28"/>
-      <c r="G492" s="28"/>
+      <c r="F492" s="10"/>
+      <c r="G492" s="10"/>
     </row>
     <row r="493" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A493" s="10"/>
@@ -6796,1046 +7717,110 @@
       <c r="F496" s="10"/>
       <c r="G496" s="10"/>
     </row>
-    <row r="497" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="497" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A497" s="10"/>
       <c r="B497" s="10"/>
       <c r="C497" s="10"/>
       <c r="D497" s="10"/>
       <c r="E497" s="10"/>
-      <c r="F497" s="10"/>
-      <c r="G497" s="10"/>
-    </row>
-    <row r="498" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="498" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A498" s="10"/>
       <c r="B498" s="10"/>
       <c r="C498" s="10"/>
       <c r="D498" s="10"/>
       <c r="E498" s="10"/>
-      <c r="F498" s="10"/>
-      <c r="G498" s="10"/>
-    </row>
-    <row r="499" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="499" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A499" s="10"/>
       <c r="B499" s="10"/>
       <c r="C499" s="10"/>
       <c r="D499" s="10"/>
       <c r="E499" s="10"/>
-      <c r="F499" s="10"/>
-      <c r="G499" s="10"/>
-    </row>
-    <row r="500" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="500" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A500" s="10"/>
       <c r="B500" s="10"/>
       <c r="C500" s="10"/>
       <c r="D500" s="10"/>
       <c r="E500" s="10"/>
-      <c r="F500" s="10"/>
-      <c r="G500" s="10"/>
-    </row>
-    <row r="501" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="501" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A501" s="10"/>
       <c r="B501" s="10"/>
       <c r="C501" s="10"/>
       <c r="D501" s="10"/>
       <c r="E501" s="10"/>
-      <c r="F501" s="10"/>
-      <c r="G501" s="10"/>
-    </row>
-    <row r="502" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="502" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A502" s="10"/>
       <c r="B502" s="10"/>
       <c r="C502" s="10"/>
       <c r="D502" s="10"/>
       <c r="E502" s="10"/>
-      <c r="F502" s="10"/>
-      <c r="G502" s="10"/>
-    </row>
-    <row r="503" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="503" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A503" s="10"/>
       <c r="B503" s="10"/>
       <c r="C503" s="10"/>
       <c r="D503" s="10"/>
       <c r="E503" s="10"/>
-      <c r="F503" s="10"/>
-      <c r="G503" s="10"/>
-    </row>
-    <row r="504" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="504" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A504" s="10"/>
       <c r="B504" s="10"/>
       <c r="C504" s="10"/>
       <c r="D504" s="10"/>
       <c r="E504" s="10"/>
-      <c r="F504" s="10"/>
-      <c r="G504" s="10"/>
-    </row>
-    <row r="505" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="505" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A505" s="10"/>
       <c r="B505" s="10"/>
       <c r="C505" s="10"/>
       <c r="D505" s="10"/>
       <c r="E505" s="10"/>
-      <c r="F505" s="10"/>
-      <c r="G505" s="10"/>
-    </row>
-    <row r="506" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="506" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A506" s="10"/>
       <c r="B506" s="10"/>
       <c r="C506" s="10"/>
       <c r="D506" s="10"/>
       <c r="E506" s="10"/>
-      <c r="F506" s="10"/>
-      <c r="G506" s="10"/>
-    </row>
-    <row r="507" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A507" s="28"/>
-      <c r="B507" s="28"/>
-      <c r="C507" s="28"/>
-      <c r="D507" s="28"/>
-      <c r="E507" s="28"/>
-      <c r="F507" s="10"/>
-      <c r="G507" s="10"/>
-    </row>
-    <row r="508" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="507" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A507" s="10"/>
+      <c r="B507" s="10"/>
+      <c r="C507" s="10"/>
+      <c r="D507" s="10"/>
+      <c r="E507" s="10"/>
+    </row>
+    <row r="508" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A508" s="10"/>
       <c r="B508" s="10"/>
       <c r="C508" s="10"/>
       <c r="D508" s="10"/>
       <c r="E508" s="10"/>
-      <c r="F508" s="10"/>
-      <c r="G508" s="10"/>
-    </row>
-    <row r="509" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="509" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A509" s="10"/>
       <c r="B509" s="10"/>
       <c r="C509" s="10"/>
       <c r="D509" s="10"/>
       <c r="E509" s="10"/>
-      <c r="F509" s="10"/>
-      <c r="G509" s="10"/>
-    </row>
-    <row r="510" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="510" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A510" s="10"/>
       <c r="B510" s="10"/>
       <c r="C510" s="10"/>
       <c r="D510" s="10"/>
       <c r="E510" s="10"/>
-      <c r="F510" s="10"/>
-      <c r="G510" s="10"/>
-    </row>
-    <row r="511" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="511" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A511" s="10"/>
       <c r="B511" s="10"/>
       <c r="C511" s="10"/>
       <c r="D511" s="10"/>
       <c r="E511" s="10"/>
-      <c r="F511" s="10"/>
-      <c r="G511" s="10"/>
-    </row>
-    <row r="512" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A512" s="10"/>
-      <c r="B512" s="10"/>
-      <c r="C512" s="10"/>
-      <c r="D512" s="10"/>
-      <c r="E512" s="10"/>
-      <c r="F512" s="28"/>
-      <c r="G512" s="28"/>
-    </row>
-    <row r="513" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A513" s="10"/>
-      <c r="B513" s="10"/>
-      <c r="C513" s="10"/>
-      <c r="D513" s="10"/>
-      <c r="E513" s="10"/>
-      <c r="F513" s="10"/>
-      <c r="G513" s="10"/>
-    </row>
-    <row r="514" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A514" s="10"/>
-      <c r="B514" s="10"/>
-      <c r="C514" s="10"/>
-      <c r="D514" s="10"/>
-      <c r="E514" s="10"/>
-      <c r="F514" s="10"/>
-      <c r="G514" s="10"/>
-    </row>
-    <row r="515" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A515" s="10"/>
-      <c r="B515" s="10"/>
-      <c r="C515" s="10"/>
-      <c r="D515" s="10"/>
-      <c r="E515" s="10"/>
-      <c r="F515" s="10"/>
-      <c r="G515" s="10"/>
-    </row>
-    <row r="516" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A516" s="10"/>
-      <c r="B516" s="10"/>
-      <c r="C516" s="10"/>
-      <c r="D516" s="10"/>
-      <c r="E516" s="10"/>
-      <c r="F516" s="10"/>
-      <c r="G516" s="10"/>
-    </row>
-    <row r="517" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A517" s="10"/>
-      <c r="B517" s="10"/>
-      <c r="C517" s="10"/>
-      <c r="D517" s="10"/>
-      <c r="E517" s="10"/>
-      <c r="F517" s="10"/>
-      <c r="G517" s="10"/>
-    </row>
-    <row r="518" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A518" s="10"/>
-      <c r="B518" s="10"/>
-      <c r="C518" s="10"/>
-      <c r="D518" s="10"/>
-      <c r="E518" s="11"/>
-      <c r="F518" s="10"/>
-      <c r="G518" s="10"/>
-    </row>
-    <row r="519" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A519" s="10"/>
-      <c r="B519" s="10"/>
-      <c r="C519" s="10"/>
-      <c r="D519" s="10"/>
-      <c r="E519" s="11"/>
-      <c r="F519" s="10"/>
-      <c r="G519" s="10"/>
-    </row>
-    <row r="520" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A520" s="10"/>
-      <c r="B520" s="10"/>
-      <c r="C520" s="10"/>
-      <c r="D520" s="10"/>
-      <c r="E520" s="11"/>
-      <c r="F520" s="10"/>
-      <c r="G520" s="10"/>
-    </row>
-    <row r="521" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A521" s="10"/>
-      <c r="B521" s="10"/>
-      <c r="C521" s="10"/>
-      <c r="D521" s="10"/>
-      <c r="E521" s="11"/>
-      <c r="F521" s="10"/>
-      <c r="G521" s="10"/>
-    </row>
-    <row r="522" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A522" s="10"/>
-      <c r="B522" s="10"/>
-      <c r="C522" s="10"/>
-      <c r="D522" s="10"/>
-      <c r="E522" s="10"/>
-      <c r="F522" s="10"/>
-      <c r="G522" s="10"/>
-    </row>
-    <row r="523" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A523" s="10"/>
-      <c r="B523" s="10"/>
-      <c r="C523" s="10"/>
-      <c r="D523" s="10"/>
-      <c r="E523" s="10"/>
-      <c r="F523" s="10"/>
-      <c r="G523" s="10"/>
-    </row>
-    <row r="524" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A524" s="10"/>
-      <c r="B524" s="10"/>
-      <c r="C524" s="10"/>
-      <c r="D524" s="10"/>
-      <c r="E524" s="10"/>
-      <c r="F524" s="10"/>
-      <c r="G524" s="10"/>
-    </row>
-    <row r="525" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A525" s="10"/>
-      <c r="B525" s="10"/>
-      <c r="C525" s="10"/>
-      <c r="D525" s="10"/>
-      <c r="E525" s="10"/>
-      <c r="F525" s="10"/>
-      <c r="G525" s="10"/>
-    </row>
-    <row r="526" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A526" s="10"/>
-      <c r="B526" s="10"/>
-      <c r="C526" s="10"/>
-      <c r="D526" s="10"/>
-      <c r="E526" s="10"/>
-      <c r="F526" s="10"/>
-      <c r="G526" s="10"/>
-    </row>
-    <row r="527" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A527" s="28"/>
-      <c r="B527" s="28"/>
-      <c r="C527" s="28"/>
-      <c r="D527" s="28"/>
-      <c r="E527" s="28"/>
-      <c r="F527" s="10"/>
-      <c r="G527" s="10"/>
-    </row>
-    <row r="528" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A528" s="10"/>
-      <c r="B528" s="10"/>
-      <c r="C528" s="10"/>
-      <c r="D528" s="10"/>
-      <c r="E528" s="10"/>
-      <c r="F528" s="10"/>
-      <c r="G528" s="10"/>
-    </row>
-    <row r="529" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A529" s="10"/>
-      <c r="B529" s="10"/>
-      <c r="C529" s="10"/>
-      <c r="D529" s="10"/>
-      <c r="E529" s="10"/>
-      <c r="F529" s="10"/>
-      <c r="G529" s="10"/>
-    </row>
-    <row r="530" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A530" s="10"/>
-      <c r="B530" s="10"/>
-      <c r="C530" s="10"/>
-      <c r="D530" s="10"/>
-      <c r="E530" s="10"/>
-      <c r="F530" s="10"/>
-      <c r="G530" s="10"/>
-    </row>
-    <row r="531" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A531" s="10"/>
-      <c r="B531" s="10"/>
-      <c r="C531" s="10"/>
-      <c r="D531" s="10"/>
-      <c r="E531" s="10"/>
-      <c r="F531" s="10"/>
-      <c r="G531" s="10"/>
-    </row>
-    <row r="532" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A532" s="10"/>
-      <c r="B532" s="10"/>
-      <c r="C532" s="10"/>
-      <c r="D532" s="10"/>
-      <c r="E532" s="10"/>
-      <c r="F532" s="10"/>
-      <c r="G532" s="10"/>
-    </row>
-    <row r="533" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A533" s="10"/>
-      <c r="B533" s="10"/>
-      <c r="C533" s="10"/>
-      <c r="D533" s="10"/>
-      <c r="E533" s="10"/>
-      <c r="F533" s="10"/>
-      <c r="G533" s="10"/>
-    </row>
-    <row r="534" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A534" s="10"/>
-      <c r="B534" s="10"/>
-      <c r="C534" s="10"/>
-      <c r="D534" s="10"/>
-      <c r="E534" s="10"/>
-      <c r="F534" s="10"/>
-      <c r="G534" s="10"/>
-    </row>
-    <row r="535" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A535" s="10"/>
-      <c r="B535" s="10"/>
-      <c r="C535" s="10"/>
-      <c r="D535" s="10"/>
-      <c r="E535" s="10"/>
-      <c r="F535" s="28"/>
-      <c r="G535" s="28"/>
-    </row>
-    <row r="536" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A536" s="10"/>
-      <c r="B536" s="10"/>
-      <c r="C536" s="10"/>
-      <c r="D536" s="10"/>
-      <c r="E536" s="10"/>
-      <c r="F536" s="28"/>
-      <c r="G536" s="28"/>
-    </row>
-    <row r="537" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A537" s="10"/>
-      <c r="B537" s="10"/>
-      <c r="C537" s="10"/>
-      <c r="D537" s="10"/>
-      <c r="E537" s="10"/>
-      <c r="F537" s="10"/>
-      <c r="G537" s="10"/>
-    </row>
-    <row r="538" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A538" s="10"/>
-      <c r="B538" s="10"/>
-      <c r="C538" s="10"/>
-      <c r="D538" s="10"/>
-      <c r="E538" s="10"/>
-      <c r="F538" s="10"/>
-      <c r="G538" s="10"/>
-    </row>
-    <row r="539" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A539" s="10"/>
-      <c r="B539" s="10"/>
-      <c r="C539" s="10"/>
-      <c r="D539" s="10"/>
-      <c r="E539" s="10"/>
-      <c r="F539" s="10"/>
-      <c r="G539" s="10"/>
-    </row>
-    <row r="540" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A540" s="10"/>
-      <c r="B540" s="10"/>
-      <c r="C540" s="10"/>
-      <c r="D540" s="10"/>
-      <c r="E540" s="10"/>
-      <c r="F540" s="10"/>
-      <c r="G540" s="10"/>
-    </row>
-    <row r="541" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A541" s="10"/>
-      <c r="B541" s="10"/>
-      <c r="C541" s="10"/>
-      <c r="D541" s="10"/>
-      <c r="E541" s="10"/>
-      <c r="F541" s="10"/>
-      <c r="G541" s="10"/>
-    </row>
-    <row r="542" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A542" s="10"/>
-      <c r="B542" s="10"/>
-      <c r="C542" s="10"/>
-      <c r="D542" s="10"/>
-      <c r="E542" s="10"/>
-      <c r="F542" s="10"/>
-      <c r="G542" s="10"/>
-    </row>
-    <row r="543" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A543" s="10"/>
-      <c r="B543" s="10"/>
-      <c r="C543" s="10"/>
-      <c r="D543" s="10"/>
-      <c r="E543" s="10"/>
-      <c r="F543" s="10"/>
-      <c r="G543" s="10"/>
-    </row>
-    <row r="544" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A544" s="10"/>
-      <c r="B544" s="10"/>
-      <c r="C544" s="10"/>
-      <c r="D544" s="10"/>
-      <c r="E544" s="10"/>
-      <c r="F544" s="10"/>
-      <c r="G544" s="10"/>
-    </row>
-    <row r="545" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A545" s="10"/>
-      <c r="B545" s="10"/>
-      <c r="C545" s="10"/>
-      <c r="D545" s="10"/>
-      <c r="E545" s="10"/>
-      <c r="F545" s="28"/>
-      <c r="G545" s="28"/>
-    </row>
-    <row r="546" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A546" s="10"/>
-      <c r="B546" s="10"/>
-      <c r="C546" s="10"/>
-      <c r="D546" s="10"/>
-      <c r="E546" s="10"/>
-      <c r="F546" s="10"/>
-      <c r="G546" s="10"/>
-    </row>
-    <row r="547" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A547" s="10"/>
-      <c r="B547" s="10"/>
-      <c r="C547" s="10"/>
-      <c r="D547" s="10"/>
-      <c r="E547" s="10"/>
-      <c r="F547" s="10"/>
-      <c r="G547" s="10"/>
-    </row>
-    <row r="548" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A548" s="10"/>
-      <c r="B548" s="10"/>
-      <c r="C548" s="10"/>
-      <c r="D548" s="10"/>
-      <c r="E548" s="10"/>
-      <c r="F548" s="10"/>
-      <c r="G548" s="10"/>
-    </row>
-    <row r="549" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A549" s="10"/>
-      <c r="B549" s="10"/>
-      <c r="C549" s="10"/>
-      <c r="D549" s="10"/>
-      <c r="E549" s="10"/>
-      <c r="F549" s="10"/>
-      <c r="G549" s="10"/>
-    </row>
-    <row r="550" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A550" s="28"/>
-      <c r="B550" s="28"/>
-      <c r="C550" s="28"/>
-      <c r="D550" s="28"/>
-      <c r="E550" s="28"/>
-      <c r="F550" s="10"/>
-      <c r="G550" s="10"/>
-    </row>
-    <row r="551" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A551" s="28"/>
-      <c r="B551" s="28"/>
-      <c r="C551" s="28"/>
-      <c r="D551" s="28"/>
-      <c r="E551" s="28"/>
-      <c r="F551" s="10"/>
-      <c r="G551" s="10"/>
-    </row>
-    <row r="552" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A552" s="10"/>
-      <c r="B552" s="10"/>
-      <c r="C552" s="10"/>
-      <c r="D552" s="10"/>
-      <c r="E552" s="10"/>
-      <c r="F552" s="10"/>
-      <c r="G552" s="10"/>
-    </row>
-    <row r="553" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A553" s="10"/>
-      <c r="B553" s="10"/>
-      <c r="C553" s="10"/>
-      <c r="D553" s="10"/>
-      <c r="E553" s="10"/>
-      <c r="F553" s="10"/>
-      <c r="G553" s="10"/>
-    </row>
-    <row r="554" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A554" s="10"/>
-      <c r="B554" s="10"/>
-      <c r="C554" s="10"/>
-      <c r="D554" s="10"/>
-      <c r="E554" s="10"/>
-      <c r="F554" s="28"/>
-      <c r="G554" s="28"/>
-    </row>
-    <row r="555" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A555" s="10"/>
-      <c r="B555" s="10"/>
-      <c r="C555" s="10"/>
-      <c r="D555" s="10"/>
-      <c r="E555" s="10"/>
-      <c r="F555" s="10"/>
-      <c r="G555" s="10"/>
-    </row>
-    <row r="556" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A556" s="10"/>
-      <c r="B556" s="10"/>
-      <c r="C556" s="10"/>
-      <c r="D556" s="10"/>
-      <c r="E556" s="10"/>
-      <c r="F556" s="10"/>
-      <c r="G556" s="10"/>
-    </row>
-    <row r="557" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A557" s="10"/>
-      <c r="B557" s="10"/>
-      <c r="C557" s="10"/>
-      <c r="D557" s="10"/>
-      <c r="E557" s="10"/>
-      <c r="F557" s="10"/>
-      <c r="G557" s="10"/>
-    </row>
-    <row r="558" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A558" s="10"/>
-      <c r="B558" s="10"/>
-      <c r="C558" s="10"/>
-      <c r="D558" s="10"/>
-      <c r="E558" s="10"/>
-      <c r="F558" s="10"/>
-      <c r="G558" s="10"/>
-    </row>
-    <row r="559" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A559" s="10"/>
-      <c r="B559" s="10"/>
-      <c r="C559" s="10"/>
-      <c r="D559" s="10"/>
-      <c r="E559" s="10"/>
-      <c r="F559" s="10"/>
-      <c r="G559" s="10"/>
-    </row>
-    <row r="560" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A560" s="28"/>
-      <c r="B560" s="28"/>
-      <c r="C560" s="28"/>
-      <c r="D560" s="28"/>
-      <c r="E560" s="28"/>
-      <c r="F560" s="10"/>
-      <c r="G560" s="10"/>
-    </row>
-    <row r="561" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A561" s="10"/>
-      <c r="B561" s="10"/>
-      <c r="C561" s="10"/>
-      <c r="D561" s="10"/>
-      <c r="E561" s="10"/>
-      <c r="F561" s="10"/>
-      <c r="G561" s="10"/>
-    </row>
-    <row r="562" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A562" s="10"/>
-      <c r="B562" s="10"/>
-      <c r="C562" s="10"/>
-      <c r="D562" s="10"/>
-      <c r="E562" s="10"/>
-      <c r="F562" s="10"/>
-      <c r="G562" s="10"/>
-    </row>
-    <row r="563" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A563" s="10"/>
-      <c r="B563" s="10"/>
-      <c r="C563" s="10"/>
-      <c r="D563" s="10"/>
-      <c r="E563" s="10"/>
-      <c r="F563" s="10"/>
-      <c r="G563" s="10"/>
-    </row>
-    <row r="564" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A564" s="10"/>
-      <c r="B564" s="10"/>
-      <c r="C564" s="10"/>
-      <c r="D564" s="10"/>
-      <c r="E564" s="10"/>
-      <c r="F564" s="10"/>
-      <c r="G564" s="10"/>
-    </row>
-    <row r="565" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A565" s="10"/>
-      <c r="B565" s="10"/>
-      <c r="C565" s="10"/>
-      <c r="D565" s="10"/>
-      <c r="E565" s="10"/>
-      <c r="F565" s="10"/>
-      <c r="G565" s="10"/>
-    </row>
-    <row r="566" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A566" s="10"/>
-      <c r="B566" s="10"/>
-      <c r="C566" s="10"/>
-      <c r="D566" s="10"/>
-      <c r="E566" s="10"/>
-      <c r="F566" s="10"/>
-      <c r="G566" s="10"/>
-    </row>
-    <row r="567" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A567" s="10"/>
-      <c r="B567" s="10"/>
-      <c r="C567" s="10"/>
-      <c r="D567" s="10"/>
-      <c r="E567" s="10"/>
-      <c r="F567" s="10"/>
-      <c r="G567" s="10"/>
-    </row>
-    <row r="568" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A568" s="10"/>
-      <c r="B568" s="10"/>
-      <c r="C568" s="10"/>
-      <c r="D568" s="10"/>
-      <c r="E568" s="10"/>
-      <c r="F568" s="10"/>
-      <c r="G568" s="10"/>
-    </row>
-    <row r="569" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A569" s="28"/>
-      <c r="B569" s="28"/>
-      <c r="C569" s="28"/>
-      <c r="D569" s="28"/>
-      <c r="E569" s="28"/>
-      <c r="F569" s="10"/>
-      <c r="G569" s="10"/>
-    </row>
-    <row r="570" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A570" s="10"/>
-      <c r="B570" s="10"/>
-      <c r="C570" s="10"/>
-      <c r="D570" s="10"/>
-      <c r="E570" s="10"/>
-      <c r="F570" s="10"/>
-      <c r="G570" s="10"/>
-    </row>
-    <row r="571" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A571" s="10"/>
-      <c r="B571" s="10"/>
-      <c r="C571" s="10"/>
-      <c r="D571" s="10"/>
-      <c r="E571" s="10"/>
-      <c r="F571" s="10"/>
-      <c r="G571" s="10"/>
-    </row>
-    <row r="572" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A572" s="10"/>
-      <c r="B572" s="10"/>
-      <c r="C572" s="10"/>
-      <c r="D572" s="10"/>
-      <c r="E572" s="10"/>
-      <c r="F572" s="10"/>
-      <c r="G572" s="10"/>
-    </row>
-    <row r="573" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A573" s="10"/>
-      <c r="B573" s="10"/>
-      <c r="C573" s="10"/>
-      <c r="D573" s="10"/>
-      <c r="E573" s="10"/>
-      <c r="F573" s="10"/>
-      <c r="G573" s="10"/>
-    </row>
-    <row r="574" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A574" s="10"/>
-      <c r="B574" s="10"/>
-      <c r="C574" s="10"/>
-      <c r="D574" s="10"/>
-      <c r="E574" s="10"/>
-      <c r="F574" s="28"/>
-      <c r="G574" s="28"/>
-    </row>
-    <row r="575" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A575" s="10"/>
-      <c r="B575" s="10"/>
-      <c r="C575" s="10"/>
-      <c r="D575" s="10"/>
-      <c r="E575" s="10"/>
-      <c r="F575" s="10"/>
-      <c r="G575" s="10"/>
-    </row>
-    <row r="576" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A576" s="10"/>
-      <c r="B576" s="10"/>
-      <c r="C576" s="10"/>
-      <c r="D576" s="10"/>
-      <c r="E576" s="10"/>
-      <c r="F576" s="10"/>
-      <c r="G576" s="10"/>
-    </row>
-    <row r="577" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A577" s="10"/>
-      <c r="B577" s="10"/>
-      <c r="C577" s="10"/>
-      <c r="D577" s="10"/>
-      <c r="E577" s="10"/>
-      <c r="F577" s="10"/>
-      <c r="G577" s="10"/>
-    </row>
-    <row r="578" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A578" s="10"/>
-      <c r="B578" s="10"/>
-      <c r="C578" s="10"/>
-      <c r="D578" s="10"/>
-      <c r="E578" s="10"/>
-      <c r="F578" s="10"/>
-      <c r="G578" s="10"/>
-    </row>
-    <row r="579" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A579" s="10"/>
-      <c r="B579" s="10"/>
-      <c r="C579" s="10"/>
-      <c r="D579" s="10"/>
-      <c r="E579" s="10"/>
-      <c r="F579" s="10"/>
-      <c r="G579" s="10"/>
-    </row>
-    <row r="580" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A580" s="10"/>
-      <c r="B580" s="10"/>
-      <c r="C580" s="10"/>
-      <c r="D580" s="10"/>
-      <c r="E580" s="10"/>
-      <c r="F580" s="10"/>
-      <c r="G580" s="10"/>
-    </row>
-    <row r="581" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A581" s="10"/>
-      <c r="B581" s="10"/>
-      <c r="C581" s="10"/>
-      <c r="D581" s="10"/>
-      <c r="E581" s="10"/>
-      <c r="F581" s="10"/>
-      <c r="G581" s="10"/>
-    </row>
-    <row r="582" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A582" s="10"/>
-      <c r="B582" s="10"/>
-      <c r="C582" s="10"/>
-      <c r="D582" s="10"/>
-      <c r="E582" s="10"/>
-      <c r="F582" s="10"/>
-      <c r="G582" s="10"/>
-    </row>
-    <row r="583" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A583" s="10"/>
-      <c r="B583" s="10"/>
-      <c r="C583" s="10"/>
-      <c r="D583" s="10"/>
-      <c r="E583" s="10"/>
-      <c r="F583" s="10"/>
-      <c r="G583" s="10"/>
-    </row>
-    <row r="584" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A584" s="10"/>
-      <c r="B584" s="10"/>
-      <c r="C584" s="10"/>
-      <c r="D584" s="10"/>
-      <c r="E584" s="10"/>
-      <c r="F584" s="10"/>
-      <c r="G584" s="10"/>
-    </row>
-    <row r="585" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A585" s="10"/>
-      <c r="B585" s="10"/>
-      <c r="C585" s="10"/>
-      <c r="D585" s="10"/>
-      <c r="E585" s="10"/>
-      <c r="F585" s="10"/>
-      <c r="G585" s="10"/>
-    </row>
-    <row r="586" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A586" s="10"/>
-      <c r="B586" s="10"/>
-      <c r="C586" s="10"/>
-      <c r="D586" s="10"/>
-      <c r="E586" s="10"/>
-      <c r="F586" s="10"/>
-      <c r="G586" s="10"/>
-    </row>
-    <row r="587" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A587" s="10"/>
-      <c r="B587" s="10"/>
-      <c r="C587" s="10"/>
-      <c r="D587" s="10"/>
-      <c r="E587" s="10"/>
-      <c r="F587" s="10"/>
-      <c r="G587" s="10"/>
-    </row>
-    <row r="588" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A588" s="10"/>
-      <c r="B588" s="10"/>
-      <c r="C588" s="10"/>
-      <c r="D588" s="10"/>
-      <c r="E588" s="10"/>
-      <c r="F588" s="10"/>
-      <c r="G588" s="10"/>
-    </row>
-    <row r="589" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A589" s="28"/>
-      <c r="B589" s="28"/>
-      <c r="C589" s="28"/>
-      <c r="D589" s="28"/>
-      <c r="E589" s="28"/>
-      <c r="F589" s="10"/>
-      <c r="G589" s="10"/>
-    </row>
-    <row r="590" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A590" s="10"/>
-      <c r="B590" s="10"/>
-      <c r="C590" s="10"/>
-      <c r="D590" s="10"/>
-      <c r="E590" s="10"/>
-      <c r="F590" s="10"/>
-      <c r="G590" s="10"/>
-    </row>
-    <row r="591" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A591" s="10"/>
-      <c r="B591" s="10"/>
-      <c r="C591" s="10"/>
-      <c r="D591" s="10"/>
-      <c r="E591" s="10"/>
-      <c r="F591" s="10"/>
-      <c r="G591" s="10"/>
-    </row>
-    <row r="592" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A592" s="10"/>
-      <c r="B592" s="10"/>
-      <c r="C592" s="10"/>
-      <c r="D592" s="10"/>
-      <c r="E592" s="10"/>
-      <c r="F592" s="10"/>
-      <c r="G592" s="10"/>
-    </row>
-    <row r="593" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A593" s="10"/>
-      <c r="B593" s="10"/>
-      <c r="C593" s="10"/>
-      <c r="D593" s="10"/>
-      <c r="E593" s="10"/>
-      <c r="F593" s="10"/>
-      <c r="G593" s="10"/>
-    </row>
-    <row r="594" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A594" s="10"/>
-      <c r="B594" s="10"/>
-      <c r="C594" s="10"/>
-      <c r="D594" s="10"/>
-      <c r="E594" s="10"/>
-      <c r="F594" s="10"/>
-      <c r="G594" s="10"/>
-    </row>
-    <row r="595" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A595" s="10"/>
-      <c r="B595" s="10"/>
-      <c r="C595" s="10"/>
-      <c r="D595" s="10"/>
-      <c r="E595" s="10"/>
-      <c r="F595" s="10"/>
-      <c r="G595" s="10"/>
-    </row>
-    <row r="596" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A596" s="10"/>
-      <c r="B596" s="10"/>
-      <c r="C596" s="10"/>
-      <c r="D596" s="10"/>
-      <c r="E596" s="10"/>
-      <c r="F596" s="10"/>
-      <c r="G596" s="10"/>
-    </row>
-    <row r="597" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A597" s="10"/>
-      <c r="B597" s="10"/>
-      <c r="C597" s="10"/>
-      <c r="D597" s="10"/>
-      <c r="E597" s="10"/>
-      <c r="F597" s="10"/>
-      <c r="G597" s="10"/>
-    </row>
-    <row r="598" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A598" s="10"/>
-      <c r="B598" s="10"/>
-      <c r="C598" s="10"/>
-      <c r="D598" s="10"/>
-      <c r="E598" s="10"/>
-      <c r="F598" s="10"/>
-      <c r="G598" s="10"/>
-    </row>
-    <row r="599" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A599" s="10"/>
-      <c r="B599" s="10"/>
-      <c r="C599" s="10"/>
-      <c r="D599" s="10"/>
-      <c r="E599" s="10"/>
-      <c r="F599" s="10"/>
-      <c r="G599" s="10"/>
-    </row>
-    <row r="600" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A600" s="10"/>
-      <c r="B600" s="10"/>
-      <c r="C600" s="10"/>
-      <c r="D600" s="10"/>
-      <c r="E600" s="10"/>
-      <c r="F600" s="10"/>
-      <c r="G600" s="10"/>
-    </row>
-    <row r="601" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A601" s="10"/>
-      <c r="B601" s="10"/>
-      <c r="C601" s="10"/>
-      <c r="D601" s="10"/>
-      <c r="E601" s="10"/>
-    </row>
-    <row r="602" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A602" s="10"/>
-      <c r="B602" s="10"/>
-      <c r="C602" s="10"/>
-      <c r="D602" s="10"/>
-      <c r="E602" s="10"/>
-    </row>
-    <row r="603" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A603" s="10"/>
-      <c r="B603" s="10"/>
-      <c r="C603" s="10"/>
-      <c r="D603" s="10"/>
-      <c r="E603" s="10"/>
-    </row>
-    <row r="604" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A604" s="10"/>
-      <c r="B604" s="10"/>
-      <c r="C604" s="10"/>
-      <c r="D604" s="10"/>
-      <c r="E604" s="10"/>
-    </row>
-    <row r="605" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A605" s="10"/>
-      <c r="B605" s="10"/>
-      <c r="C605" s="10"/>
-      <c r="D605" s="10"/>
-      <c r="E605" s="10"/>
-    </row>
-    <row r="606" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A606" s="10"/>
-      <c r="B606" s="10"/>
-      <c r="C606" s="10"/>
-      <c r="D606" s="10"/>
-      <c r="E606" s="10"/>
-    </row>
-    <row r="607" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A607" s="10"/>
-      <c r="B607" s="10"/>
-      <c r="C607" s="10"/>
-      <c r="D607" s="10"/>
-      <c r="E607" s="10"/>
-    </row>
-    <row r="608" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A608" s="10"/>
-      <c r="B608" s="10"/>
-      <c r="C608" s="10"/>
-      <c r="D608" s="10"/>
-      <c r="E608" s="10"/>
-    </row>
-    <row r="609" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A609" s="10"/>
-      <c r="B609" s="10"/>
-      <c r="C609" s="10"/>
-      <c r="D609" s="10"/>
-      <c r="E609" s="10"/>
-    </row>
-    <row r="610" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A610" s="10"/>
-      <c r="B610" s="10"/>
-      <c r="C610" s="10"/>
-      <c r="D610" s="10"/>
-      <c r="E610" s="10"/>
-    </row>
-    <row r="611" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A611" s="10"/>
-      <c r="B611" s="10"/>
-      <c r="C611" s="10"/>
-      <c r="D611" s="10"/>
-      <c r="E611" s="10"/>
-    </row>
-    <row r="612" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A612" s="10"/>
-      <c r="B612" s="10"/>
-      <c r="C612" s="10"/>
-      <c r="D612" s="10"/>
-      <c r="E612" s="10"/>
-    </row>
-    <row r="613" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A613" s="10"/>
-      <c r="B613" s="10"/>
-      <c r="C613" s="10"/>
-      <c r="D613" s="10"/>
-      <c r="E613" s="10"/>
-    </row>
-    <row r="614" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A614" s="10"/>
-      <c r="B614" s="10"/>
-      <c r="C614" s="10"/>
-      <c r="D614" s="10"/>
-      <c r="E614" s="10"/>
-    </row>
-    <row r="615" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A615" s="10"/>
-      <c r="B615" s="10"/>
-      <c r="C615" s="10"/>
-      <c r="D615" s="10"/>
-      <c r="E615" s="10"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:G1"/>
@@ -7849,7 +7834,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7858,18 +7843,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="16" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="12" t="s">
         <v>62</v>
       </c>
     </row>
@@ -7879,6 +7864,40 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="14.1796875" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -7893,27 +7912,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="13" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="80.150000000000006" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="17" t="s">
         <v>109</v>
       </c>
       <c r="D2" s="7" t="s">
@@ -7926,7 +7945,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -7941,24 +7960,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="16" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="12" t="s">
         <v>62</v>
       </c>
     </row>
@@ -7968,7 +7987,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -7982,18 +8001,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="16" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="12" t="s">
         <v>62</v>
       </c>
     </row>
@@ -8002,12 +8021,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8016,22 +8035,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="16" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="12" t="s">
         <v>62</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="2" width="13.453125" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="31" t="s">
+        <v>185</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>204</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/src/test/java/com/born/xls/ProductDetailsPage.xlsx
+++ b/src/test/java/com/born/xls/ProductDetailsPage.xlsx
@@ -1324,7 +1324,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="105" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1531,10 +1531,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:J511"/>
+  <dimension ref="A1:H511"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1546,9 +1546,8 @@
     <col min="5" max="5" width="34.1796875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="29.7265625" style="1" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="17" style="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="9.1796875" style="1" collapsed="1"/>
-    <col min="9" max="10" width="9.1796875" style="1"/>
-    <col min="11" max="16384" width="9.1796875" style="1" collapsed="1"/>
+    <col min="8" max="8" width="9.1796875" style="1"/>
+    <col min="9" max="16384" width="9.1796875" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
@@ -2521,7 +2520,7 @@
         <v>32</v>
       </c>
       <c r="E53" s="23" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="F53" s="23"/>
       <c r="G53" s="23"/>

--- a/src/test/java/com/born/xls/ProductDetailsPage.xlsx
+++ b/src/test/java/com/born/xls/ProductDetailsPage.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6720" tabRatio="937"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6720" tabRatio="937" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="933" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992" uniqueCount="216">
   <si>
     <t>TCID</t>
   </si>
@@ -749,6 +749,39 @@
   </si>
   <si>
     <t>10 miles</t>
+  </si>
+  <si>
+    <t>To Check whether user can see the product ownership toolkit page or not</t>
+  </si>
+  <si>
+    <t>Toolkit</t>
+  </si>
+  <si>
+    <t>KitchenProducts_Link</t>
+  </si>
+  <si>
+    <t>KitchenProductsCategeory_Link</t>
+  </si>
+  <si>
+    <t>Hover on Kitchen faucet link</t>
+  </si>
+  <si>
+    <t>Select Kitchen faucets type in categeory list</t>
+  </si>
+  <si>
+    <t>Click on Toolkit link</t>
+  </si>
+  <si>
+    <t>Toolkit_Link</t>
+  </si>
+  <si>
+    <t>Verify whether product information has exist or not</t>
+  </si>
+  <si>
+    <t>LeaveReview</t>
+  </si>
+  <si>
+    <t>7</t>
   </si>
 </sst>
 </file>
@@ -1321,10 +1354,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="105" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView topLeftCell="A3" zoomScale="105" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1486,6 +1519,17 @@
         <v>158</v>
       </c>
       <c r="C14" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1531,10 +1575,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:H511"/>
+  <dimension ref="A1:J511"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1546,8 +1590,8 @@
     <col min="5" max="5" width="34.1796875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="29.7265625" style="1" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="17" style="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="9.1796875" style="1"/>
-    <col min="9" max="16384" width="9.1796875" style="1" collapsed="1"/>
+    <col min="8" max="10" width="9.1796875" style="1"/>
+    <col min="11" max="16384" width="9.1796875" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
@@ -1682,7 +1726,7 @@
         <v>142</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>141</v>
+        <v>215</v>
       </c>
       <c r="F7" s="23"/>
       <c r="G7" s="23"/>
@@ -1701,7 +1745,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="25" t="s">
-        <v>165</v>
+        <v>46</v>
       </c>
       <c r="F8" s="23"/>
       <c r="G8" s="23"/>
@@ -1720,7 +1764,7 @@
         <v>142</v>
       </c>
       <c r="E9" s="25" t="s">
-        <v>141</v>
+        <v>215</v>
       </c>
       <c r="F9" s="23"/>
       <c r="G9" s="23"/>
@@ -2482,7 +2526,7 @@
         <v>31</v>
       </c>
       <c r="E51" s="25" t="s">
-        <v>165</v>
+        <v>46</v>
       </c>
       <c r="F51" s="23"/>
       <c r="G51" s="23"/>
@@ -4693,7 +4737,7 @@
         <v>31</v>
       </c>
       <c r="E172" s="25" t="s">
-        <v>165</v>
+        <v>46</v>
       </c>
       <c r="F172" s="7"/>
       <c r="G172" s="7"/>
@@ -4890,113 +4934,225 @@
       <c r="F182" s="7"/>
       <c r="G182" s="7"/>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A183" s="10"/>
-      <c r="B183" s="10"/>
-      <c r="C183" s="10"/>
-      <c r="D183" s="10"/>
-      <c r="E183" s="10"/>
-      <c r="F183" s="10"/>
-      <c r="G183" s="10"/>
+    <row r="183" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A183" s="24"/>
+      <c r="B183" s="24"/>
+      <c r="C183" s="24"/>
+      <c r="D183" s="24"/>
+      <c r="E183" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="F183" s="24"/>
+      <c r="G183" s="26" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A184" s="10"/>
-      <c r="B184" s="10"/>
-      <c r="C184" s="10"/>
-      <c r="D184" s="10"/>
-      <c r="E184" s="10"/>
-      <c r="F184" s="10"/>
-      <c r="G184" s="10"/>
+      <c r="A184" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="B184" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C184" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="D184" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="E184" s="23"/>
+      <c r="F184" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="G184" s="7"/>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A185" s="10"/>
-      <c r="B185" s="10"/>
-      <c r="C185" s="10"/>
-      <c r="D185" s="10"/>
-      <c r="E185" s="10"/>
-      <c r="F185" s="10"/>
-      <c r="G185" s="10"/>
+      <c r="A185" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="B185" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C185" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="D185" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E185" s="23"/>
+      <c r="F185" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="G185" s="7"/>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A186" s="27"/>
-      <c r="B186" s="27"/>
-      <c r="C186" s="27"/>
-      <c r="D186" s="27"/>
-      <c r="E186" s="27"/>
-      <c r="F186" s="10"/>
-      <c r="G186" s="10"/>
+      <c r="A186" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="B186" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C186" s="23" t="s">
+        <v>209</v>
+      </c>
+      <c r="D186" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="E186" s="23" t="s">
+        <v>207</v>
+      </c>
+      <c r="F186" s="7"/>
+      <c r="G186" s="7"/>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A187" s="10"/>
-      <c r="B187" s="10"/>
-      <c r="C187" s="10"/>
-      <c r="D187" s="10"/>
-      <c r="E187" s="10"/>
-      <c r="F187" s="10"/>
-      <c r="G187" s="10"/>
+      <c r="A187" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="B187" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C187" s="23" t="s">
+        <v>210</v>
+      </c>
+      <c r="D187" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="E187" s="23" t="s">
+        <v>208</v>
+      </c>
+      <c r="F187" s="7"/>
+      <c r="G187" s="7"/>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A188" s="10"/>
-      <c r="B188" s="10"/>
-      <c r="C188" s="10"/>
-      <c r="D188" s="10"/>
-      <c r="E188" s="10"/>
-      <c r="F188" s="10"/>
-      <c r="G188" s="10"/>
+      <c r="A188" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="B188" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C188" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="D188" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E188" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="F188" s="7"/>
+      <c r="G188" s="7"/>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A189" s="10"/>
-      <c r="B189" s="10"/>
-      <c r="C189" s="10"/>
-      <c r="D189" s="10"/>
-      <c r="E189" s="10"/>
-      <c r="F189" s="10"/>
-      <c r="G189" s="10"/>
-    </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A190" s="10"/>
-      <c r="B190" s="10"/>
-      <c r="C190" s="10"/>
-      <c r="D190" s="10"/>
-      <c r="E190" s="10"/>
-      <c r="F190" s="10"/>
-      <c r="G190" s="10"/>
-    </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A191" s="10"/>
-      <c r="B191" s="10"/>
-      <c r="C191" s="10"/>
-      <c r="D191" s="10"/>
-      <c r="E191" s="10"/>
-      <c r="F191" s="27"/>
-      <c r="G191" s="27"/>
-    </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A192" s="10"/>
-      <c r="B192" s="10"/>
-      <c r="C192" s="10"/>
-      <c r="D192" s="10"/>
-      <c r="E192" s="10"/>
-      <c r="F192" s="10"/>
-      <c r="G192" s="10"/>
-    </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A193" s="10"/>
-      <c r="B193" s="10"/>
-      <c r="C193" s="10"/>
-      <c r="D193" s="10"/>
-      <c r="E193" s="10"/>
-      <c r="F193" s="10"/>
-      <c r="G193" s="10"/>
-    </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A194" s="10"/>
-      <c r="B194" s="10"/>
-      <c r="C194" s="10"/>
-      <c r="D194" s="10"/>
-      <c r="E194" s="10"/>
-      <c r="F194" s="10"/>
-      <c r="G194" s="10"/>
+      <c r="A189" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="B189" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C189" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="D189" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="E189" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="F189" s="7"/>
+      <c r="G189" s="7"/>
+    </row>
+    <row r="190" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A190" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="B190" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C190" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D190" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="E190" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="F190" s="7"/>
+      <c r="G190" s="7"/>
+    </row>
+    <row r="191" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A191" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="B191" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C191" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="D191" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="E191" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="F191" s="7"/>
+      <c r="G191" s="7"/>
+    </row>
+    <row r="192" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A192" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="B192" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C192" s="22" t="s">
+        <v>211</v>
+      </c>
+      <c r="D192" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="E192" s="25" t="s">
+        <v>212</v>
+      </c>
+      <c r="F192" s="7"/>
+      <c r="G192" s="7"/>
+    </row>
+    <row r="193" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A193" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="B193" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C193" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="D193" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E193" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="F193" s="7"/>
+      <c r="G193" s="7"/>
+    </row>
+    <row r="194" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A194" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="B194" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C194" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D194" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E194" s="7"/>
+      <c r="F194" s="7"/>
+      <c r="G194" s="7"/>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A195" s="10"/>
@@ -7901,7 +8057,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/src/test/java/com/born/xls/ProductDetailsPage.xlsx
+++ b/src/test/java/com/born/xls/ProductDetailsPage.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6720" tabRatio="937" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6720" tabRatio="937"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1044" uniqueCount="223">
   <si>
     <t>TCID</t>
   </si>
@@ -782,6 +782,27 @@
   </si>
   <si>
     <t>7</t>
+  </si>
+  <si>
+    <t>Search RelatedProd</t>
+  </si>
+  <si>
+    <t>This feature is to verify whether user can check the related collection products based on Search result</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter product name </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check whether given products has displayed or not </t>
+  </si>
+  <si>
+    <t>Click on the View full collections link to check related products</t>
+  </si>
+  <si>
+    <t>ViewCollection</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
@@ -1354,10 +1375,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="105" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="105" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1531,6 +1552,17 @@
       </c>
       <c r="C15" s="4" t="s">
         <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A16" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -1575,10 +1607,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:J511"/>
+  <dimension ref="A1:J512"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1590,7 +1622,8 @@
     <col min="5" max="5" width="34.1796875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="29.7265625" style="1" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="17" style="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="10" width="9.1796875" style="1"/>
+    <col min="8" max="8" width="9.1796875" style="1" collapsed="1"/>
+    <col min="9" max="10" width="9.1796875" style="1"/>
     <col min="11" max="16384" width="9.1796875" style="1" collapsed="1"/>
   </cols>
   <sheetData>
@@ -5155,119 +5188,217 @@
       <c r="G194" s="7"/>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A195" s="10"/>
-      <c r="B195" s="10"/>
-      <c r="C195" s="10"/>
-      <c r="D195" s="10"/>
-      <c r="E195" s="10"/>
-      <c r="F195" s="10"/>
-      <c r="G195" s="10"/>
+      <c r="A195" s="24"/>
+      <c r="B195" s="24"/>
+      <c r="C195" s="24"/>
+      <c r="D195" s="24"/>
+      <c r="E195" s="24"/>
+      <c r="F195" s="24"/>
+      <c r="G195" s="24"/>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A196" s="10"/>
-      <c r="B196" s="10"/>
-      <c r="C196" s="10"/>
-      <c r="D196" s="10"/>
-      <c r="E196" s="10"/>
-      <c r="F196" s="10"/>
-      <c r="G196" s="10"/>
+      <c r="A196" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="B196" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C196" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="D196" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="E196" s="23"/>
+      <c r="F196" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="G196" s="23"/>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A197" s="10"/>
-      <c r="B197" s="10"/>
-      <c r="C197" s="10"/>
-      <c r="D197" s="10"/>
-      <c r="E197" s="10"/>
-      <c r="F197" s="10"/>
-      <c r="G197" s="10"/>
+      <c r="A197" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="B197" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C197" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="D197" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E197" s="23"/>
+      <c r="F197" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="G197" s="23"/>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A198" s="10"/>
-      <c r="B198" s="10"/>
-      <c r="C198" s="10"/>
-      <c r="D198" s="10"/>
-      <c r="E198" s="11"/>
-      <c r="F198" s="10"/>
-      <c r="G198" s="10"/>
+      <c r="A198" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="B198" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C198" s="23" t="s">
+        <v>218</v>
+      </c>
+      <c r="D198" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E198" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="F198" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="G198" s="23"/>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A199" s="10"/>
-      <c r="B199" s="10"/>
-      <c r="C199" s="10"/>
-      <c r="D199" s="10"/>
-      <c r="E199" s="11"/>
-      <c r="F199" s="10"/>
-      <c r="G199" s="10"/>
+      <c r="A199" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="B199" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C199" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="D199" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="E199" s="23"/>
+      <c r="F199" s="23"/>
+      <c r="G199" s="23"/>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A200" s="10"/>
-      <c r="B200" s="10"/>
-      <c r="C200" s="10"/>
-      <c r="D200" s="10"/>
-      <c r="E200" s="11"/>
-      <c r="F200" s="10"/>
-      <c r="G200" s="10"/>
+      <c r="A200" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="B200" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C200" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="D200" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="E200" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="F200" s="23"/>
+      <c r="G200" s="23"/>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A201" s="10"/>
-      <c r="B201" s="10"/>
-      <c r="C201" s="10"/>
-      <c r="D201" s="10"/>
-      <c r="E201" s="11"/>
-      <c r="F201" s="10"/>
-      <c r="G201" s="10"/>
+      <c r="A201" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="B201" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C201" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="D201" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="E201" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="F201" s="7"/>
+      <c r="G201" s="23"/>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A202" s="10"/>
-      <c r="B202" s="10"/>
-      <c r="C202" s="10"/>
-      <c r="D202" s="10"/>
-      <c r="E202" s="11"/>
-      <c r="F202" s="10"/>
-      <c r="G202" s="10"/>
+      <c r="A202" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="B202" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C202" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="D202" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="E202" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="F202" s="7"/>
+      <c r="G202" s="23"/>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A203" s="10"/>
-      <c r="B203" s="10"/>
-      <c r="C203" s="10"/>
-      <c r="D203" s="10"/>
-      <c r="E203" s="10"/>
-      <c r="F203" s="27"/>
-      <c r="G203" s="27"/>
+      <c r="A203" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="B203" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="C203" s="23" t="s">
+        <v>219</v>
+      </c>
+      <c r="D203" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E203" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="F203" s="23"/>
+      <c r="G203" s="23"/>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A204" s="10"/>
-      <c r="B204" s="10"/>
-      <c r="C204" s="10"/>
-      <c r="D204" s="10"/>
-      <c r="E204" s="10"/>
-      <c r="F204" s="10"/>
-      <c r="G204" s="10"/>
+      <c r="A204" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="B204" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C204" s="23" t="s">
+        <v>220</v>
+      </c>
+      <c r="D204" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="E204" s="23" t="s">
+        <v>221</v>
+      </c>
+      <c r="F204" s="23"/>
+      <c r="G204" s="23"/>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A205" s="10"/>
-      <c r="B205" s="10"/>
-      <c r="C205" s="10"/>
-      <c r="D205" s="10"/>
-      <c r="E205" s="10"/>
-      <c r="F205" s="10"/>
-      <c r="G205" s="10"/>
+      <c r="A205" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="B205" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C205" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="D205" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="E205" s="23"/>
+      <c r="F205" s="23"/>
+      <c r="G205" s="23"/>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A206" s="27"/>
-      <c r="B206" s="27"/>
-      <c r="C206" s="27"/>
-      <c r="D206" s="27"/>
-      <c r="E206" s="27"/>
+      <c r="A206" s="10"/>
+      <c r="B206" s="10"/>
+      <c r="C206" s="10"/>
+      <c r="D206" s="10"/>
+      <c r="E206" s="10"/>
       <c r="F206" s="10"/>
       <c r="G206" s="10"/>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A207" s="10"/>
-      <c r="B207" s="10"/>
-      <c r="C207" s="10"/>
-      <c r="D207" s="10"/>
-      <c r="E207" s="10"/>
+      <c r="A207" s="27"/>
+      <c r="B207" s="27"/>
+      <c r="C207" s="27"/>
+      <c r="D207" s="27"/>
+      <c r="E207" s="27"/>
       <c r="F207" s="10"/>
       <c r="G207" s="10"/>
     </row>
@@ -5362,20 +5493,20 @@
       <c r="G217" s="10"/>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A218" s="27"/>
-      <c r="B218" s="27"/>
-      <c r="C218" s="27"/>
-      <c r="D218" s="27"/>
-      <c r="E218" s="27"/>
+      <c r="A218" s="10"/>
+      <c r="B218" s="10"/>
+      <c r="C218" s="10"/>
+      <c r="D218" s="10"/>
+      <c r="E218" s="10"/>
       <c r="F218" s="10"/>
       <c r="G218" s="10"/>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A219" s="10"/>
-      <c r="B219" s="10"/>
-      <c r="C219" s="10"/>
-      <c r="D219" s="10"/>
-      <c r="E219" s="10"/>
+      <c r="A219" s="27"/>
+      <c r="B219" s="27"/>
+      <c r="C219" s="27"/>
+      <c r="D219" s="27"/>
+      <c r="E219" s="27"/>
       <c r="F219" s="10"/>
       <c r="G219" s="10"/>
     </row>
@@ -5421,8 +5552,8 @@
       <c r="C224" s="10"/>
       <c r="D224" s="10"/>
       <c r="E224" s="10"/>
-      <c r="F224" s="27"/>
-      <c r="G224" s="27"/>
+      <c r="F224" s="10"/>
+      <c r="G224" s="10"/>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A225" s="10"/>
@@ -5430,8 +5561,8 @@
       <c r="C225" s="10"/>
       <c r="D225" s="10"/>
       <c r="E225" s="10"/>
-      <c r="F225" s="10"/>
-      <c r="G225" s="10"/>
+      <c r="F225" s="27"/>
+      <c r="G225" s="27"/>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A226" s="10"/>
@@ -5551,20 +5682,20 @@
       <c r="G238" s="10"/>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A239" s="27"/>
-      <c r="B239" s="27"/>
-      <c r="C239" s="27"/>
-      <c r="D239" s="27"/>
-      <c r="E239" s="27"/>
+      <c r="A239" s="10"/>
+      <c r="B239" s="10"/>
+      <c r="C239" s="10"/>
+      <c r="D239" s="10"/>
+      <c r="E239" s="10"/>
       <c r="F239" s="10"/>
       <c r="G239" s="10"/>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A240" s="10"/>
-      <c r="B240" s="10"/>
-      <c r="C240" s="10"/>
-      <c r="D240" s="10"/>
-      <c r="E240" s="10"/>
+      <c r="A240" s="27"/>
+      <c r="B240" s="27"/>
+      <c r="C240" s="27"/>
+      <c r="D240" s="27"/>
+      <c r="E240" s="27"/>
       <c r="F240" s="10"/>
       <c r="G240" s="10"/>
     </row>
@@ -5673,8 +5804,8 @@
       <c r="C252" s="10"/>
       <c r="D252" s="10"/>
       <c r="E252" s="10"/>
-      <c r="F252" s="27"/>
-      <c r="G252" s="27"/>
+      <c r="F252" s="10"/>
+      <c r="G252" s="10"/>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A253" s="10"/>
@@ -5682,8 +5813,8 @@
       <c r="C253" s="10"/>
       <c r="D253" s="10"/>
       <c r="E253" s="10"/>
-      <c r="F253" s="10"/>
-      <c r="G253" s="10"/>
+      <c r="F253" s="27"/>
+      <c r="G253" s="27"/>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A254" s="10"/>
@@ -5726,7 +5857,7 @@
       <c r="B258" s="10"/>
       <c r="C258" s="10"/>
       <c r="D258" s="10"/>
-      <c r="E258" s="11"/>
+      <c r="E258" s="10"/>
       <c r="F258" s="10"/>
       <c r="G258" s="10"/>
     </row>
@@ -5744,7 +5875,7 @@
       <c r="B260" s="10"/>
       <c r="C260" s="10"/>
       <c r="D260" s="10"/>
-      <c r="E260" s="10"/>
+      <c r="E260" s="11"/>
       <c r="F260" s="10"/>
       <c r="G260" s="10"/>
     </row>
@@ -5803,20 +5934,20 @@
       <c r="G266" s="10"/>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A267" s="27"/>
-      <c r="B267" s="27"/>
-      <c r="C267" s="27"/>
-      <c r="D267" s="27"/>
-      <c r="E267" s="27"/>
+      <c r="A267" s="10"/>
+      <c r="B267" s="10"/>
+      <c r="C267" s="10"/>
+      <c r="D267" s="10"/>
+      <c r="E267" s="10"/>
       <c r="F267" s="10"/>
       <c r="G267" s="10"/>
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A268" s="10"/>
-      <c r="B268" s="10"/>
-      <c r="C268" s="10"/>
-      <c r="D268" s="10"/>
-      <c r="E268" s="10"/>
+      <c r="A268" s="27"/>
+      <c r="B268" s="27"/>
+      <c r="C268" s="27"/>
+      <c r="D268" s="27"/>
+      <c r="E268" s="27"/>
       <c r="F268" s="10"/>
       <c r="G268" s="10"/>
     </row>
@@ -5916,7 +6047,7 @@
       <c r="C279" s="10"/>
       <c r="D279" s="10"/>
       <c r="E279" s="10"/>
-      <c r="F279" s="11"/>
+      <c r="F279" s="10"/>
       <c r="G279" s="10"/>
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.35">
@@ -5970,8 +6101,8 @@
       <c r="C285" s="10"/>
       <c r="D285" s="10"/>
       <c r="E285" s="10"/>
-      <c r="F285" s="27"/>
-      <c r="G285" s="27"/>
+      <c r="F285" s="11"/>
+      <c r="G285" s="10"/>
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A286" s="10"/>
@@ -5979,8 +6110,8 @@
       <c r="C286" s="10"/>
       <c r="D286" s="10"/>
       <c r="E286" s="10"/>
-      <c r="F286" s="10"/>
-      <c r="G286" s="10"/>
+      <c r="F286" s="27"/>
+      <c r="G286" s="27"/>
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A287" s="10"/>
@@ -6100,20 +6231,20 @@
       <c r="G299" s="10"/>
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A300" s="27"/>
-      <c r="B300" s="27"/>
-      <c r="C300" s="27"/>
-      <c r="D300" s="27"/>
-      <c r="E300" s="27"/>
+      <c r="A300" s="10"/>
+      <c r="B300" s="10"/>
+      <c r="C300" s="10"/>
+      <c r="D300" s="10"/>
+      <c r="E300" s="10"/>
       <c r="F300" s="10"/>
       <c r="G300" s="10"/>
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A301" s="10"/>
-      <c r="B301" s="10"/>
-      <c r="C301" s="10"/>
-      <c r="D301" s="10"/>
-      <c r="E301" s="10"/>
+      <c r="A301" s="27"/>
+      <c r="B301" s="27"/>
+      <c r="C301" s="27"/>
+      <c r="D301" s="27"/>
+      <c r="E301" s="27"/>
       <c r="F301" s="10"/>
       <c r="G301" s="10"/>
     </row>
@@ -6312,8 +6443,8 @@
       <c r="C323" s="10"/>
       <c r="D323" s="10"/>
       <c r="E323" s="10"/>
-      <c r="F323" s="27"/>
-      <c r="G323" s="27"/>
+      <c r="F323" s="10"/>
+      <c r="G323" s="10"/>
     </row>
     <row r="324" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A324" s="10"/>
@@ -6321,8 +6452,8 @@
       <c r="C324" s="10"/>
       <c r="D324" s="10"/>
       <c r="E324" s="10"/>
-      <c r="F324" s="10"/>
-      <c r="G324" s="10"/>
+      <c r="F324" s="27"/>
+      <c r="G324" s="27"/>
     </row>
     <row r="325" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A325" s="10"/>
@@ -6442,20 +6573,20 @@
       <c r="G337" s="10"/>
     </row>
     <row r="338" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A338" s="27"/>
-      <c r="B338" s="27"/>
-      <c r="C338" s="27"/>
-      <c r="D338" s="27"/>
-      <c r="E338" s="27"/>
+      <c r="A338" s="10"/>
+      <c r="B338" s="10"/>
+      <c r="C338" s="10"/>
+      <c r="D338" s="10"/>
+      <c r="E338" s="10"/>
       <c r="F338" s="10"/>
       <c r="G338" s="10"/>
     </row>
     <row r="339" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A339" s="10"/>
-      <c r="B339" s="10"/>
-      <c r="C339" s="10"/>
-      <c r="D339" s="10"/>
-      <c r="E339" s="10"/>
+      <c r="A339" s="27"/>
+      <c r="B339" s="27"/>
+      <c r="C339" s="27"/>
+      <c r="D339" s="27"/>
+      <c r="E339" s="27"/>
       <c r="F339" s="10"/>
       <c r="G339" s="10"/>
     </row>
@@ -6636,8 +6767,8 @@
       <c r="C359" s="10"/>
       <c r="D359" s="10"/>
       <c r="E359" s="10"/>
-      <c r="F359" s="27"/>
-      <c r="G359" s="27"/>
+      <c r="F359" s="10"/>
+      <c r="G359" s="10"/>
     </row>
     <row r="360" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A360" s="10"/>
@@ -6645,8 +6776,8 @@
       <c r="C360" s="10"/>
       <c r="D360" s="10"/>
       <c r="E360" s="10"/>
-      <c r="F360" s="10"/>
-      <c r="G360" s="10"/>
+      <c r="F360" s="27"/>
+      <c r="G360" s="27"/>
     </row>
     <row r="361" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A361" s="10"/>
@@ -6766,20 +6897,20 @@
       <c r="G373" s="10"/>
     </row>
     <row r="374" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A374" s="27"/>
-      <c r="B374" s="27"/>
-      <c r="C374" s="27"/>
-      <c r="D374" s="27"/>
-      <c r="E374" s="27"/>
+      <c r="A374" s="10"/>
+      <c r="B374" s="10"/>
+      <c r="C374" s="10"/>
+      <c r="D374" s="10"/>
+      <c r="E374" s="10"/>
       <c r="F374" s="10"/>
       <c r="G374" s="10"/>
     </row>
     <row r="375" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A375" s="10"/>
-      <c r="B375" s="10"/>
-      <c r="C375" s="10"/>
-      <c r="D375" s="10"/>
-      <c r="E375" s="10"/>
+      <c r="A375" s="27"/>
+      <c r="B375" s="27"/>
+      <c r="C375" s="27"/>
+      <c r="D375" s="27"/>
+      <c r="E375" s="27"/>
       <c r="F375" s="10"/>
       <c r="G375" s="10"/>
     </row>
@@ -6897,8 +7028,8 @@
       <c r="C388" s="10"/>
       <c r="D388" s="10"/>
       <c r="E388" s="10"/>
-      <c r="F388" s="27"/>
-      <c r="G388" s="27"/>
+      <c r="F388" s="10"/>
+      <c r="G388" s="10"/>
     </row>
     <row r="389" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A389" s="10"/>
@@ -6906,8 +7037,8 @@
       <c r="C389" s="10"/>
       <c r="D389" s="10"/>
       <c r="E389" s="10"/>
-      <c r="F389" s="10"/>
-      <c r="G389" s="10"/>
+      <c r="F389" s="27"/>
+      <c r="G389" s="27"/>
     </row>
     <row r="390" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A390" s="10"/>
@@ -7027,20 +7158,20 @@
       <c r="G402" s="10"/>
     </row>
     <row r="403" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A403" s="27"/>
-      <c r="B403" s="27"/>
-      <c r="C403" s="27"/>
-      <c r="D403" s="27"/>
-      <c r="E403" s="27"/>
+      <c r="A403" s="10"/>
+      <c r="B403" s="10"/>
+      <c r="C403" s="10"/>
+      <c r="D403" s="10"/>
+      <c r="E403" s="10"/>
       <c r="F403" s="10"/>
       <c r="G403" s="10"/>
     </row>
     <row r="404" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A404" s="10"/>
-      <c r="B404" s="10"/>
-      <c r="C404" s="10"/>
-      <c r="D404" s="10"/>
-      <c r="E404" s="10"/>
+      <c r="A404" s="27"/>
+      <c r="B404" s="27"/>
+      <c r="C404" s="27"/>
+      <c r="D404" s="27"/>
+      <c r="E404" s="27"/>
       <c r="F404" s="10"/>
       <c r="G404" s="10"/>
     </row>
@@ -7077,8 +7208,8 @@
       <c r="C408" s="10"/>
       <c r="D408" s="10"/>
       <c r="E408" s="10"/>
-      <c r="F408" s="27"/>
-      <c r="G408" s="27"/>
+      <c r="F408" s="10"/>
+      <c r="G408" s="10"/>
     </row>
     <row r="409" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A409" s="10"/>
@@ -7086,8 +7217,8 @@
       <c r="C409" s="10"/>
       <c r="D409" s="10"/>
       <c r="E409" s="10"/>
-      <c r="F409" s="10"/>
-      <c r="G409" s="10"/>
+      <c r="F409" s="27"/>
+      <c r="G409" s="27"/>
     </row>
     <row r="410" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A410" s="10"/>
@@ -7130,7 +7261,7 @@
       <c r="B414" s="10"/>
       <c r="C414" s="10"/>
       <c r="D414" s="10"/>
-      <c r="E414" s="11"/>
+      <c r="E414" s="10"/>
       <c r="F414" s="10"/>
       <c r="G414" s="10"/>
     </row>
@@ -7166,7 +7297,7 @@
       <c r="B418" s="10"/>
       <c r="C418" s="10"/>
       <c r="D418" s="10"/>
-      <c r="E418" s="10"/>
+      <c r="E418" s="11"/>
       <c r="F418" s="10"/>
       <c r="G418" s="10"/>
     </row>
@@ -7207,20 +7338,20 @@
       <c r="G422" s="10"/>
     </row>
     <row r="423" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A423" s="27"/>
-      <c r="B423" s="27"/>
-      <c r="C423" s="27"/>
-      <c r="D423" s="27"/>
-      <c r="E423" s="27"/>
+      <c r="A423" s="10"/>
+      <c r="B423" s="10"/>
+      <c r="C423" s="10"/>
+      <c r="D423" s="10"/>
+      <c r="E423" s="10"/>
       <c r="F423" s="10"/>
       <c r="G423" s="10"/>
     </row>
     <row r="424" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A424" s="10"/>
-      <c r="B424" s="10"/>
-      <c r="C424" s="10"/>
-      <c r="D424" s="10"/>
-      <c r="E424" s="10"/>
+      <c r="A424" s="27"/>
+      <c r="B424" s="27"/>
+      <c r="C424" s="27"/>
+      <c r="D424" s="27"/>
+      <c r="E424" s="27"/>
       <c r="F424" s="10"/>
       <c r="G424" s="10"/>
     </row>
@@ -7284,8 +7415,8 @@
       <c r="C431" s="10"/>
       <c r="D431" s="10"/>
       <c r="E431" s="10"/>
-      <c r="F431" s="27"/>
-      <c r="G431" s="27"/>
+      <c r="F431" s="10"/>
+      <c r="G431" s="10"/>
     </row>
     <row r="432" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A432" s="10"/>
@@ -7302,8 +7433,8 @@
       <c r="C433" s="10"/>
       <c r="D433" s="10"/>
       <c r="E433" s="10"/>
-      <c r="F433" s="10"/>
-      <c r="G433" s="10"/>
+      <c r="F433" s="27"/>
+      <c r="G433" s="27"/>
     </row>
     <row r="434" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A434" s="10"/>
@@ -7359,7 +7490,7 @@
       <c r="F439" s="10"/>
       <c r="G439" s="10"/>
     </row>
-    <row r="440" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A440" s="10"/>
       <c r="B440" s="10"/>
       <c r="C440" s="10"/>
@@ -7368,14 +7499,14 @@
       <c r="F440" s="10"/>
       <c r="G440" s="10"/>
     </row>
-    <row r="441" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A441" s="10"/>
       <c r="B441" s="10"/>
       <c r="C441" s="10"/>
       <c r="D441" s="10"/>
       <c r="E441" s="10"/>
-      <c r="F441" s="27"/>
-      <c r="G441" s="27"/>
+      <c r="F441" s="10"/>
+      <c r="G441" s="10"/>
     </row>
     <row r="442" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A442" s="10"/>
@@ -7383,8 +7514,8 @@
       <c r="C442" s="10"/>
       <c r="D442" s="10"/>
       <c r="E442" s="10"/>
-      <c r="F442" s="10"/>
-      <c r="G442" s="10"/>
+      <c r="F442" s="27"/>
+      <c r="G442" s="27"/>
     </row>
     <row r="443" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A443" s="10"/>
@@ -7414,11 +7545,11 @@
       <c r="G445" s="10"/>
     </row>
     <row r="446" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A446" s="27"/>
-      <c r="B446" s="27"/>
-      <c r="C446" s="27"/>
-      <c r="D446" s="27"/>
-      <c r="E446" s="27"/>
+      <c r="A446" s="10"/>
+      <c r="B446" s="10"/>
+      <c r="C446" s="10"/>
+      <c r="D446" s="10"/>
+      <c r="E446" s="10"/>
       <c r="F446" s="10"/>
       <c r="G446" s="10"/>
     </row>
@@ -7432,11 +7563,11 @@
       <c r="G447" s="10"/>
     </row>
     <row r="448" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A448" s="10"/>
-      <c r="B448" s="10"/>
-      <c r="C448" s="10"/>
-      <c r="D448" s="10"/>
-      <c r="E448" s="10"/>
+      <c r="A448" s="27"/>
+      <c r="B448" s="27"/>
+      <c r="C448" s="27"/>
+      <c r="D448" s="27"/>
+      <c r="E448" s="27"/>
       <c r="F448" s="10"/>
       <c r="G448" s="10"/>
     </row>
@@ -7455,8 +7586,8 @@
       <c r="C450" s="10"/>
       <c r="D450" s="10"/>
       <c r="E450" s="10"/>
-      <c r="F450" s="27"/>
-      <c r="G450" s="27"/>
+      <c r="F450" s="10"/>
+      <c r="G450" s="10"/>
     </row>
     <row r="451" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A451" s="10"/>
@@ -7464,8 +7595,8 @@
       <c r="C451" s="10"/>
       <c r="D451" s="10"/>
       <c r="E451" s="10"/>
-      <c r="F451" s="10"/>
-      <c r="G451" s="10"/>
+      <c r="F451" s="27"/>
+      <c r="G451" s="27"/>
     </row>
     <row r="452" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A452" s="10"/>
@@ -7504,20 +7635,20 @@
       <c r="G455" s="10"/>
     </row>
     <row r="456" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A456" s="27"/>
-      <c r="B456" s="27"/>
-      <c r="C456" s="27"/>
-      <c r="D456" s="27"/>
-      <c r="E456" s="27"/>
+      <c r="A456" s="10"/>
+      <c r="B456" s="10"/>
+      <c r="C456" s="10"/>
+      <c r="D456" s="10"/>
+      <c r="E456" s="10"/>
       <c r="F456" s="10"/>
       <c r="G456" s="10"/>
     </row>
     <row r="457" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A457" s="10"/>
-      <c r="B457" s="10"/>
-      <c r="C457" s="10"/>
-      <c r="D457" s="10"/>
-      <c r="E457" s="10"/>
+      <c r="A457" s="27"/>
+      <c r="B457" s="27"/>
+      <c r="C457" s="27"/>
+      <c r="D457" s="27"/>
+      <c r="E457" s="27"/>
       <c r="F457" s="10"/>
       <c r="G457" s="10"/>
     </row>
@@ -7585,20 +7716,20 @@
       <c r="G464" s="10"/>
     </row>
     <row r="465" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A465" s="27"/>
-      <c r="B465" s="27"/>
-      <c r="C465" s="27"/>
-      <c r="D465" s="27"/>
-      <c r="E465" s="27"/>
+      <c r="A465" s="10"/>
+      <c r="B465" s="10"/>
+      <c r="C465" s="10"/>
+      <c r="D465" s="10"/>
+      <c r="E465" s="10"/>
       <c r="F465" s="10"/>
       <c r="G465" s="10"/>
     </row>
     <row r="466" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A466" s="10"/>
-      <c r="B466" s="10"/>
-      <c r="C466" s="10"/>
-      <c r="D466" s="10"/>
-      <c r="E466" s="10"/>
+      <c r="A466" s="27"/>
+      <c r="B466" s="27"/>
+      <c r="C466" s="27"/>
+      <c r="D466" s="27"/>
+      <c r="E466" s="27"/>
       <c r="F466" s="10"/>
       <c r="G466" s="10"/>
     </row>
@@ -7635,8 +7766,8 @@
       <c r="C470" s="10"/>
       <c r="D470" s="10"/>
       <c r="E470" s="10"/>
-      <c r="F470" s="27"/>
-      <c r="G470" s="27"/>
+      <c r="F470" s="10"/>
+      <c r="G470" s="10"/>
     </row>
     <row r="471" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A471" s="10"/>
@@ -7644,8 +7775,8 @@
       <c r="C471" s="10"/>
       <c r="D471" s="10"/>
       <c r="E471" s="10"/>
-      <c r="F471" s="10"/>
-      <c r="G471" s="10"/>
+      <c r="F471" s="27"/>
+      <c r="G471" s="27"/>
     </row>
     <row r="472" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A472" s="10"/>
@@ -7765,20 +7896,20 @@
       <c r="G484" s="10"/>
     </row>
     <row r="485" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A485" s="27"/>
-      <c r="B485" s="27"/>
-      <c r="C485" s="27"/>
-      <c r="D485" s="27"/>
-      <c r="E485" s="27"/>
+      <c r="A485" s="10"/>
+      <c r="B485" s="10"/>
+      <c r="C485" s="10"/>
+      <c r="D485" s="10"/>
+      <c r="E485" s="10"/>
       <c r="F485" s="10"/>
       <c r="G485" s="10"/>
     </row>
     <row r="486" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A486" s="10"/>
-      <c r="B486" s="10"/>
-      <c r="C486" s="10"/>
-      <c r="D486" s="10"/>
-      <c r="E486" s="10"/>
+      <c r="A486" s="27"/>
+      <c r="B486" s="27"/>
+      <c r="C486" s="27"/>
+      <c r="D486" s="27"/>
+      <c r="E486" s="27"/>
       <c r="F486" s="10"/>
       <c r="G486" s="10"/>
     </row>
@@ -7872,110 +8003,119 @@
       <c r="F496" s="10"/>
       <c r="G496" s="10"/>
     </row>
-    <row r="497" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="497" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A497" s="10"/>
       <c r="B497" s="10"/>
       <c r="C497" s="10"/>
       <c r="D497" s="10"/>
       <c r="E497" s="10"/>
-    </row>
-    <row r="498" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F497" s="10"/>
+      <c r="G497" s="10"/>
+    </row>
+    <row r="498" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A498" s="10"/>
       <c r="B498" s="10"/>
       <c r="C498" s="10"/>
       <c r="D498" s="10"/>
       <c r="E498" s="10"/>
     </row>
-    <row r="499" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="499" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A499" s="10"/>
       <c r="B499" s="10"/>
       <c r="C499" s="10"/>
       <c r="D499" s="10"/>
       <c r="E499" s="10"/>
     </row>
-    <row r="500" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="500" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A500" s="10"/>
       <c r="B500" s="10"/>
       <c r="C500" s="10"/>
       <c r="D500" s="10"/>
       <c r="E500" s="10"/>
     </row>
-    <row r="501" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="501" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A501" s="10"/>
       <c r="B501" s="10"/>
       <c r="C501" s="10"/>
       <c r="D501" s="10"/>
       <c r="E501" s="10"/>
     </row>
-    <row r="502" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="502" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A502" s="10"/>
       <c r="B502" s="10"/>
       <c r="C502" s="10"/>
       <c r="D502" s="10"/>
       <c r="E502" s="10"/>
     </row>
-    <row r="503" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="503" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A503" s="10"/>
       <c r="B503" s="10"/>
       <c r="C503" s="10"/>
       <c r="D503" s="10"/>
       <c r="E503" s="10"/>
     </row>
-    <row r="504" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="504" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A504" s="10"/>
       <c r="B504" s="10"/>
       <c r="C504" s="10"/>
       <c r="D504" s="10"/>
       <c r="E504" s="10"/>
     </row>
-    <row r="505" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="505" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A505" s="10"/>
       <c r="B505" s="10"/>
       <c r="C505" s="10"/>
       <c r="D505" s="10"/>
       <c r="E505" s="10"/>
     </row>
-    <row r="506" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="506" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A506" s="10"/>
       <c r="B506" s="10"/>
       <c r="C506" s="10"/>
       <c r="D506" s="10"/>
       <c r="E506" s="10"/>
     </row>
-    <row r="507" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="507" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A507" s="10"/>
       <c r="B507" s="10"/>
       <c r="C507" s="10"/>
       <c r="D507" s="10"/>
       <c r="E507" s="10"/>
     </row>
-    <row r="508" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="508" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A508" s="10"/>
       <c r="B508" s="10"/>
       <c r="C508" s="10"/>
       <c r="D508" s="10"/>
       <c r="E508" s="10"/>
     </row>
-    <row r="509" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="509" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A509" s="10"/>
       <c r="B509" s="10"/>
       <c r="C509" s="10"/>
       <c r="D509" s="10"/>
       <c r="E509" s="10"/>
     </row>
-    <row r="510" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="510" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A510" s="10"/>
       <c r="B510" s="10"/>
       <c r="C510" s="10"/>
       <c r="D510" s="10"/>
       <c r="E510" s="10"/>
     </row>
-    <row r="511" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="511" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A511" s="10"/>
       <c r="B511" s="10"/>
       <c r="C511" s="10"/>
       <c r="D511" s="10"/>
       <c r="E511" s="10"/>
+    </row>
+    <row r="512" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A512" s="10"/>
+      <c r="B512" s="10"/>
+      <c r="C512" s="10"/>
+      <c r="D512" s="10"/>
+      <c r="E512" s="10"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:G1"/>
